--- a/Entradas y Salidas.xlsx
+++ b/Entradas y Salidas.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Entradas-salidas Exhibicion" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,12 @@
   <definedNames>
     <definedName name="REF">'Listado articulos'!$A:$A</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2569" uniqueCount="1249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2844" uniqueCount="1311">
   <si>
     <t>Entradas</t>
   </si>
@@ -3771,16 +3771,213 @@
   </si>
   <si>
     <t xml:space="preserve">PISCINA INFLABLE </t>
+  </si>
+  <si>
+    <t>971-US70</t>
+  </si>
+  <si>
+    <t>5442</t>
+  </si>
+  <si>
+    <t>851-90136448</t>
+  </si>
+  <si>
+    <t>31249</t>
+  </si>
+  <si>
+    <t>D1-81906</t>
+  </si>
+  <si>
+    <t>RCURIO</t>
+  </si>
+  <si>
+    <t>D00-450</t>
+  </si>
+  <si>
+    <t>1101</t>
+  </si>
+  <si>
+    <t>1101C</t>
+  </si>
+  <si>
+    <t>851-5546B</t>
+  </si>
+  <si>
+    <t>20"CHILDREN</t>
+  </si>
+  <si>
+    <t>857-SLS18770</t>
+  </si>
+  <si>
+    <t>15607</t>
+  </si>
+  <si>
+    <t>852-DR91705</t>
+  </si>
+  <si>
+    <t>B-15</t>
+  </si>
+  <si>
+    <t>2155HE-N</t>
+  </si>
+  <si>
+    <t>2067HE-N</t>
+  </si>
+  <si>
+    <t>856-470</t>
+  </si>
+  <si>
+    <t>853-3009M</t>
+  </si>
+  <si>
+    <t>856-GB702CCHC</t>
+  </si>
+  <si>
+    <t>602-07278FA</t>
+  </si>
+  <si>
+    <t>GL-7021</t>
+  </si>
+  <si>
+    <t>801-58867V</t>
+  </si>
+  <si>
+    <t>SKK-802AB</t>
+  </si>
+  <si>
+    <t>856-SKK-807BW</t>
+  </si>
+  <si>
+    <t>856-SKK-807CW</t>
+  </si>
+  <si>
+    <t>852-MA-150340CH-1</t>
+  </si>
+  <si>
+    <t>861-HL312691</t>
+  </si>
+  <si>
+    <t>861-188AC4</t>
+  </si>
+  <si>
+    <t>856-M34K504549</t>
+  </si>
+  <si>
+    <t>851-SMJ0326A2</t>
+  </si>
+  <si>
+    <t>856-HW3004CH</t>
+  </si>
+  <si>
+    <t>DS-7556-5202</t>
+  </si>
+  <si>
+    <r>
+      <t>DC-8032</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>#</t>
+    </r>
+  </si>
+  <si>
+    <t>ZY-1780</t>
+  </si>
+  <si>
+    <t>YS-WB09</t>
+  </si>
+  <si>
+    <t>B032</t>
+  </si>
+  <si>
+    <t>82CM</t>
+  </si>
+  <si>
+    <t>C02-75410</t>
+  </si>
+  <si>
+    <t>RK-SS</t>
+  </si>
+  <si>
+    <t>B02</t>
+  </si>
+  <si>
+    <t>856-90133159</t>
+  </si>
+  <si>
+    <t>6743F-WH</t>
+  </si>
+  <si>
+    <t>33353</t>
+  </si>
+  <si>
+    <t>33357</t>
+  </si>
+  <si>
+    <t>B3302A</t>
+  </si>
+  <si>
+    <t>26463</t>
+  </si>
+  <si>
+    <t>31344</t>
+  </si>
+  <si>
+    <t>KTCV-007</t>
+  </si>
+  <si>
+    <t>OF-402PS-4</t>
+  </si>
+  <si>
+    <t>856-HW3004CHO</t>
+  </si>
+  <si>
+    <t>4174-1W</t>
+  </si>
+  <si>
+    <t>MBSX-1528</t>
+  </si>
+  <si>
+    <t>853-8085</t>
+  </si>
+  <si>
+    <t>850-DR991038</t>
+  </si>
+  <si>
+    <t>7210-W</t>
+  </si>
+  <si>
+    <t>850-072850</t>
+  </si>
+  <si>
+    <t>853-2155HE-CH</t>
+  </si>
+  <si>
+    <t>GI-2926</t>
+  </si>
+  <si>
+    <t>GI-2929-42</t>
+  </si>
+  <si>
+    <t>RYD-8720</t>
+  </si>
+  <si>
+    <t>853-90122120</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3841,8 +4038,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3882,6 +4085,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3954,7 +4163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4099,11 +4308,28 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="23">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4131,13 +4357,6 @@
         <patternFill patternType="solid">
           <fgColor auto="1"/>
           <bgColor theme="6" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4251,18 +4470,6 @@
     </dxf>
     <dxf>
       <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <color theme="0"/>
@@ -4298,21 +4505,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -4330,9 +4522,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:C718" totalsRowShown="0">
   <autoFilter ref="A1:C718"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="CÓDIGO" dataDxfId="24"/>
-    <tableColumn id="2" name="DESCRIPCION" dataDxfId="23"/>
-    <tableColumn id="3" name="PRECIO" dataDxfId="22"/>
+    <tableColumn id="1" name="CÓDIGO" dataDxfId="2"/>
+    <tableColumn id="2" name="DESCRIPCION" dataDxfId="1"/>
+    <tableColumn id="3" name="PRECIO" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4627,7 +4819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I853"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A833" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B835" sqref="B835"/>
     </sheetView>
@@ -22617,15 +22809,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:G65244">
-    <cfRule type="cellIs" dxfId="21" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="32" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="32" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="containsText" dxfId="19" priority="29" operator="containsText" text="S">
+    <cfRule type="containsText" dxfId="20" priority="29" operator="containsText" text="S">
       <formula>NOT(ISERROR(SEARCH("S",G1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22641,18 +22833,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H328"/>
+  <dimension ref="A1:J646"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A310" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L318" sqref="L318"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A317" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I336" sqref="I336"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" style="50" customWidth="1"/>
-    <col min="3" max="3" width="32" style="9" customWidth="1"/>
+    <col min="3" max="3" width="52.85546875" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" style="2" customWidth="1"/>
     <col min="5" max="5" width="7.85546875" style="20" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.5703125" style="21" bestFit="1" customWidth="1"/>
@@ -29447,7 +29639,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="321" spans="2:7">
+    <row r="321" spans="2:10">
       <c r="B321" s="48" t="s">
         <v>1225</v>
       </c>
@@ -29468,7 +29660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="322" spans="2:7">
+    <row r="322" spans="2:10">
       <c r="B322" s="41" t="s">
         <v>1226</v>
       </c>
@@ -29489,7 +29681,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="323" spans="2:7">
+    <row r="323" spans="2:10">
       <c r="B323" s="41" t="s">
         <v>540</v>
       </c>
@@ -29510,7 +29702,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="324" spans="2:7">
+    <row r="324" spans="2:10">
       <c r="B324" s="48" t="s">
         <v>1227</v>
       </c>
@@ -29531,7 +29723,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="325" spans="2:7">
+    <row r="325" spans="2:10">
       <c r="B325" s="48" t="s">
         <v>1228</v>
       </c>
@@ -29552,7 +29744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="326" spans="2:7">
+    <row r="326" spans="2:10">
       <c r="B326" s="41" t="s">
         <v>615</v>
       </c>
@@ -29573,62 +29765,6590 @@
         <v>9</v>
       </c>
     </row>
-    <row r="327" spans="2:7">
-      <c r="B327" s="23"/>
+    <row r="327" spans="2:10">
+      <c r="B327" s="41" t="s">
+        <v>396</v>
+      </c>
       <c r="C327" s="8" t="str">
         <f>IF(ISBLANK(B327)," ",VLOOKUP(B327,'Listado articulos'!A:B,2,FALSE))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D327" s="4" t="str">
+        <v>SILLA PARA OFICINA</v>
+      </c>
+      <c r="D327" s="4">
         <f>IF(ISBLANK(B327)," ",VLOOKUP(B327,'Listado articulos'!A:C,3,FALSE))</f>
-        <v xml:space="preserve"> </v>
+        <v>180</v>
       </c>
       <c r="E327" s="26"/>
-      <c r="F327" s="18"/>
-      <c r="G327" s="3" t="str">
+      <c r="F327" s="18">
+        <v>1</v>
+      </c>
+      <c r="G327" s="3">
         <f>IF(ISBLANK(B327)," ",SUMIF($B$2:B327,B327,$E$2:E327)-SUMIF($B$2:B327,B327,$F$2:F327))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="328" spans="2:7">
-      <c r="B328" s="23"/>
+        <v>0</v>
+      </c>
+      <c r="H327" s="56"/>
+      <c r="I327" s="56"/>
+      <c r="J327" s="56"/>
+    </row>
+    <row r="328" spans="2:10">
+      <c r="B328" s="41" t="s">
+        <v>727</v>
+      </c>
       <c r="C328" s="8" t="str">
         <f>IF(ISBLANK(B328)," ",VLOOKUP(B328,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>SILLA PARA ESPERA</v>
+      </c>
+      <c r="D328" s="4">
+        <f>IF(ISBLANK(B328)," ",VLOOKUP(B328,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>35</v>
+      </c>
+      <c r="E328" s="26"/>
+      <c r="F328" s="18">
+        <v>1</v>
+      </c>
+      <c r="G328" s="3">
+        <f>IF(ISBLANK(B328)," ",SUMIF($B$2:B328,B328,$E$2:E328)-SUMIF($B$2:B328,B328,$F$2:F328))</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="329" spans="2:10">
+      <c r="B329" s="41" t="s">
+        <v>617</v>
+      </c>
+      <c r="C329" s="8" t="str">
+        <f>IF(ISBLANK(B329)," ",VLOOKUP(B329,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>LAMPARA PARA TECHO</v>
+      </c>
+      <c r="D329" s="4">
+        <f>IF(ISBLANK(B329)," ",VLOOKUP(B329,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>35</v>
+      </c>
+      <c r="E329" s="26"/>
+      <c r="F329" s="18">
+        <v>2</v>
+      </c>
+      <c r="G329" s="3">
+        <f>IF(ISBLANK(B329)," ",SUMIF($B$2:B329,B329,$E$2:E329)-SUMIF($B$2:B329,B329,$F$2:F329))</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="330" spans="2:10">
+      <c r="B330" s="41" t="s">
+        <v>514</v>
+      </c>
+      <c r="C330" s="8" t="str">
+        <f>IF(ISBLANK(B330)," ",VLOOKUP(B330,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve">PLANTA ARTIFICIAL CON MACETA </v>
+      </c>
+      <c r="D330" s="4">
+        <f>IF(ISBLANK(B330)," ",VLOOKUP(B330,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>8.5</v>
+      </c>
+      <c r="E330" s="26"/>
+      <c r="F330" s="18">
+        <v>2</v>
+      </c>
+      <c r="G330" s="3">
+        <f>IF(ISBLANK(B330)," ",SUMIF($B$2:B330,B330,$E$2:E330)-SUMIF($B$2:B330,B330,$F$2:F330))</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="331" spans="2:10">
+      <c r="B331" s="41" t="s">
+        <v>644</v>
+      </c>
+      <c r="C331" s="8" t="str">
+        <f>IF(ISBLANK(B331)," ",VLOOKUP(B331,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>SILLA DE ESPERA PLASTICA</v>
+      </c>
+      <c r="D331" s="4">
+        <f>IF(ISBLANK(B331)," ",VLOOKUP(B331,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>35</v>
+      </c>
+      <c r="E331" s="26">
+        <v>5</v>
+      </c>
+      <c r="F331" s="18"/>
+      <c r="G331" s="3">
+        <f>IF(ISBLANK(B331)," ",SUMIF($B$2:B331,B331,$E$2:E331)-SUMIF($B$2:B331,B331,$F$2:F331))</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="332" spans="2:10">
+      <c r="B332" s="41" t="s">
+        <v>488</v>
+      </c>
+      <c r="C332" s="8" t="str">
+        <f>IF(ISBLANK(B332)," ",VLOOKUP(B332,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>SILLA PARA OFICINA SIN BRAZOS</v>
+      </c>
+      <c r="D332" s="4">
+        <f>IF(ISBLANK(B332)," ",VLOOKUP(B332,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>95</v>
+      </c>
+      <c r="E332" s="26">
+        <v>3</v>
+      </c>
+      <c r="F332" s="18"/>
+      <c r="G332" s="3">
+        <f>IF(ISBLANK(B332)," ",SUMIF($B$2:B332,B332,$E$2:E332)-SUMIF($B$2:B332,B332,$F$2:F332))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="333" spans="2:10">
+      <c r="B333" s="48" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C333" s="8" t="e">
+        <f>IF(ISBLANK(B333)," ",VLOOKUP(B333,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D333" s="4" t="e">
+        <f>IF(ISBLANK(B333)," ",VLOOKUP(B333,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E333" s="26"/>
+      <c r="F333" s="18">
+        <v>1</v>
+      </c>
+      <c r="G333" s="3">
+        <f>IF(ISBLANK(B333)," ",SUMIF($B$2:B333,B333,$E$2:E333)-SUMIF($B$2:B333,B333,$F$2:F333))</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="334" spans="2:10">
+      <c r="B334" s="41" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C334" s="8" t="str">
+        <f>IF(ISBLANK(B334)," ",VLOOKUP(B334,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>FLORERO VIDRIO</v>
+      </c>
+      <c r="D334" s="4">
+        <f>IF(ISBLANK(B334)," ",VLOOKUP(B334,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>25</v>
+      </c>
+      <c r="E334" s="26"/>
+      <c r="F334" s="18">
+        <v>1</v>
+      </c>
+      <c r="G334" s="3">
+        <f>IF(ISBLANK(B334)," ",SUMIF($B$2:B334,B334,$E$2:E334)-SUMIF($B$2:B334,B334,$F$2:F334))</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="335" spans="2:10">
+      <c r="B335" s="41" t="s">
+        <v>658</v>
+      </c>
+      <c r="C335" s="8" t="str">
+        <f>IF(ISBLANK(B335)," ",VLOOKUP(B335,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>LAMPARA PARA TECHO 5 BOMBILLOS</v>
+      </c>
+      <c r="D335" s="4">
+        <f>IF(ISBLANK(B335)," ",VLOOKUP(B335,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>68</v>
+      </c>
+      <c r="E335" s="26">
+        <v>1</v>
+      </c>
+      <c r="F335" s="18"/>
+      <c r="G335" s="3">
+        <f>IF(ISBLANK(B335)," ",SUMIF($B$2:B335,B335,$E$2:E335)-SUMIF($B$2:B335,B335,$F$2:F335))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="336" spans="2:10">
+      <c r="B336" s="48" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C336" s="8" t="e">
+        <f>IF(ISBLANK(B336)," ",VLOOKUP(B336,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D336" s="4" t="e">
+        <f>IF(ISBLANK(B336)," ",VLOOKUP(B336,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E336" s="26">
+        <v>1</v>
+      </c>
+      <c r="F336" s="18"/>
+      <c r="G336" s="3">
+        <f>IF(ISBLANK(B336)," ",SUMIF($B$2:B336,B336,$E$2:E336)-SUMIF($B$2:B336,B336,$F$2:F336))</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="337" spans="2:7">
+      <c r="B337" s="41" t="s">
+        <v>728</v>
+      </c>
+      <c r="C337" s="8" t="str">
+        <f>IF(ISBLANK(B337)," ",VLOOKUP(B337,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve">SILLA PARA BAR </v>
+      </c>
+      <c r="D337" s="4">
+        <f>IF(ISBLANK(B337)," ",VLOOKUP(B337,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>48</v>
+      </c>
+      <c r="E337" s="26"/>
+      <c r="F337" s="18">
+        <v>1</v>
+      </c>
+      <c r="G337" s="3">
+        <f>IF(ISBLANK(B337)," ",SUMIF($B$2:B337,B337,$E$2:E337)-SUMIF($B$2:B337,B337,$F$2:F337))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="2:7">
+      <c r="B338" s="41" t="s">
+        <v>422</v>
+      </c>
+      <c r="C338" s="8" t="str">
+        <f>IF(ISBLANK(B338)," ",VLOOKUP(B338,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve">MESA DE NOCHE </v>
+      </c>
+      <c r="D338" s="4">
+        <f>IF(ISBLANK(B338)," ",VLOOKUP(B338,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>65</v>
+      </c>
+      <c r="E338" s="26"/>
+      <c r="F338" s="18">
+        <v>2</v>
+      </c>
+      <c r="G338" s="3">
+        <f>IF(ISBLANK(B338)," ",SUMIF($B$2:B338,B338,$E$2:E338)-SUMIF($B$2:B338,B338,$F$2:F338))</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="339" spans="2:7">
+      <c r="B339" s="41" t="s">
+        <v>545</v>
+      </c>
+      <c r="C339" s="8" t="str">
+        <f>IF(ISBLANK(B339)," ",VLOOKUP(B339,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve">ABANICO  DE TORRE SANKEY </v>
+      </c>
+      <c r="D339" s="4">
+        <f>IF(ISBLANK(B339)," ",VLOOKUP(B339,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E339" s="26"/>
+      <c r="F339" s="18">
+        <v>1</v>
+      </c>
+      <c r="G339" s="3">
+        <f>IF(ISBLANK(B339)," ",SUMIF($B$2:B339,B339,$E$2:E339)-SUMIF($B$2:B339,B339,$F$2:F339))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="340" spans="2:7">
+      <c r="B340" s="41" t="s">
+        <v>634</v>
+      </c>
+      <c r="C340" s="8" t="str">
+        <f>IF(ISBLANK(B340)," ",VLOOKUP(B340,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>SILLA PARA BAR</v>
+      </c>
+      <c r="D340" s="4">
+        <f>IF(ISBLANK(B340)," ",VLOOKUP(B340,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E340" s="26"/>
+      <c r="F340" s="18">
+        <v>2</v>
+      </c>
+      <c r="G340" s="3">
+        <f>IF(ISBLANK(B340)," ",SUMIF($B$2:B340,B340,$E$2:E340)-SUMIF($B$2:B340,B340,$F$2:F340))</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="341" spans="2:7">
+      <c r="B341" s="48" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C341" s="8" t="e">
+        <f>IF(ISBLANK(B341)," ",VLOOKUP(B341,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D341" s="4" t="e">
+        <f>IF(ISBLANK(B341)," ",VLOOKUP(B341,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E341" s="26"/>
+      <c r="F341" s="18">
+        <v>1</v>
+      </c>
+      <c r="G341" s="3">
+        <f>IF(ISBLANK(B341)," ",SUMIF($B$2:B341,B341,$E$2:E341)-SUMIF($B$2:B341,B341,$F$2:F341))</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="342" spans="2:7">
+      <c r="B342" s="41" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C342" s="8" t="str">
+        <f>IF(ISBLANK(B342)," ",VLOOKUP(B342,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>YV SANKEY</v>
+      </c>
+      <c r="D342" s="4">
+        <f>IF(ISBLANK(B342)," ",VLOOKUP(B342,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E342" s="26"/>
+      <c r="F342" s="18">
+        <v>1</v>
+      </c>
+      <c r="G342" s="3">
+        <f>IF(ISBLANK(B342)," ",SUMIF($B$2:B342,B342,$E$2:E342)-SUMIF($B$2:B342,B342,$F$2:F342))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="2:7">
+      <c r="B343" s="41" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C343" s="8" t="str">
+        <f>IF(ISBLANK(B343)," ",VLOOKUP(B343,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve">ABANICO ASTAR </v>
+      </c>
+      <c r="D343" s="4">
+        <f>IF(ISBLANK(B343)," ",VLOOKUP(B343,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E343" s="26"/>
+      <c r="F343" s="18">
+        <v>4</v>
+      </c>
+      <c r="G343" s="3">
+        <f>IF(ISBLANK(B343)," ",SUMIF($B$2:B343,B343,$E$2:E343)-SUMIF($B$2:B343,B343,$F$2:F343))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="2:7">
+      <c r="B344" s="48" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C344" s="8" t="e">
+        <f>IF(ISBLANK(B344)," ",VLOOKUP(B344,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D344" s="4" t="e">
+        <f>IF(ISBLANK(B344)," ",VLOOKUP(B344,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E344" s="26"/>
+      <c r="F344" s="18">
+        <v>5</v>
+      </c>
+      <c r="G344" s="3">
+        <f>IF(ISBLANK(B344)," ",SUMIF($B$2:B344,B344,$E$2:E344)-SUMIF($B$2:B344,B344,$F$2:F344))</f>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="345" spans="2:7">
+      <c r="B345" s="41" t="s">
+        <v>885</v>
+      </c>
+      <c r="C345" s="8" t="str">
+        <f>IF(ISBLANK(B345)," ",VLOOKUP(B345,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>BANDEJA PARA BUFFET</v>
+      </c>
+      <c r="D345" s="4">
+        <f>IF(ISBLANK(B345)," ",VLOOKUP(B345,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>128</v>
+      </c>
+      <c r="E345" s="26">
+        <v>1</v>
+      </c>
+      <c r="F345" s="18"/>
+      <c r="G345" s="3">
+        <f>IF(ISBLANK(B345)," ",SUMIF($B$2:B345,B345,$E$2:E345)-SUMIF($B$2:B345,B345,$F$2:F345))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="2:7">
+      <c r="B346" s="41" t="s">
+        <v>516</v>
+      </c>
+      <c r="C346" s="8" t="str">
+        <f>IF(ISBLANK(B346)," ",VLOOKUP(B346,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve">PLANTA ARTIFICIAL CON MACETA </v>
+      </c>
+      <c r="D346" s="4">
+        <f>IF(ISBLANK(B346)," ",VLOOKUP(B346,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>12</v>
+      </c>
+      <c r="E346" s="26"/>
+      <c r="F346" s="18">
+        <v>1</v>
+      </c>
+      <c r="G346" s="3">
+        <f>IF(ISBLANK(B346)," ",SUMIF($B$2:B346,B346,$E$2:E346)-SUMIF($B$2:B346,B346,$F$2:F346))</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="347" spans="2:7">
+      <c r="B347" s="41" t="s">
+        <v>940</v>
+      </c>
+      <c r="C347" s="8" t="str">
+        <f>IF(ISBLANK(B347)," ",VLOOKUP(B347,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>MESA CENTRO DE MADERA/VIDRIO</v>
+      </c>
+      <c r="D347" s="4">
+        <f>IF(ISBLANK(B347)," ",VLOOKUP(B347,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E347" s="26">
+        <v>1</v>
+      </c>
+      <c r="F347" s="18"/>
+      <c r="G347" s="3">
+        <f>IF(ISBLANK(B347)," ",SUMIF($B$2:B347,B347,$E$2:E347)-SUMIF($B$2:B347,B347,$F$2:F347))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="348" spans="2:7">
+      <c r="B348" s="41" t="s">
+        <v>514</v>
+      </c>
+      <c r="C348" s="8" t="str">
+        <f>IF(ISBLANK(B348)," ",VLOOKUP(B348,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve">PLANTA ARTIFICIAL CON MACETA </v>
+      </c>
+      <c r="D348" s="4">
+        <f>IF(ISBLANK(B348)," ",VLOOKUP(B348,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>8.5</v>
+      </c>
+      <c r="E348" s="26"/>
+      <c r="F348" s="18">
+        <v>1</v>
+      </c>
+      <c r="G348" s="3">
+        <f>IF(ISBLANK(B348)," ",SUMIF($B$2:B348,B348,$E$2:E348)-SUMIF($B$2:B348,B348,$F$2:F348))</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="349" spans="2:7">
+      <c r="B349" s="48" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C349" s="8" t="e">
+        <f>IF(ISBLANK(B349)," ",VLOOKUP(B349,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D349" s="4" t="e">
+        <f>IF(ISBLANK(B349)," ",VLOOKUP(B349,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E349" s="26"/>
+      <c r="F349" s="18"/>
+      <c r="G349" s="3">
+        <f>IF(ISBLANK(B349)," ",SUMIF($B$2:B349,B349,$E$2:E349)-SUMIF($B$2:B349,B349,$F$2:F349))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="2:7">
+      <c r="B350" s="41" t="s">
+        <v>400</v>
+      </c>
+      <c r="C350" s="8" t="str">
+        <f>IF(ISBLANK(B350)," ",VLOOKUP(B350,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve">ESCRITORIO PARA OFICINA </v>
+      </c>
+      <c r="D350" s="4">
+        <f>IF(ISBLANK(B350)," ",VLOOKUP(B350,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>225</v>
+      </c>
+      <c r="E350" s="26">
+        <v>1</v>
+      </c>
+      <c r="F350" s="18"/>
+      <c r="G350" s="3">
+        <f>IF(ISBLANK(B350)," ",SUMIF($B$2:B350,B350,$E$2:E350)-SUMIF($B$2:B350,B350,$F$2:F350))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="2:7">
+      <c r="B351" s="41" t="s">
+        <v>952</v>
+      </c>
+      <c r="C351" s="8" t="str">
+        <f>IF(ISBLANK(B351)," ",VLOOKUP(B351,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve">ESCRITORIO DE VIDRIO </v>
+      </c>
+      <c r="D351" s="4">
+        <f>IF(ISBLANK(B351)," ",VLOOKUP(B351,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E351" s="26">
+        <v>1</v>
+      </c>
+      <c r="F351" s="18"/>
+      <c r="G351" s="3">
+        <f>IF(ISBLANK(B351)," ",SUMIF($B$2:B351,B351,$E$2:E351)-SUMIF($B$2:B351,B351,$F$2:F351))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="2:7">
+      <c r="B352" s="41" t="s">
+        <v>952</v>
+      </c>
+      <c r="C352" s="8" t="str">
+        <f>IF(ISBLANK(B352)," ",VLOOKUP(B352,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve">ESCRITORIO DE VIDRIO </v>
+      </c>
+      <c r="D352" s="4">
+        <f>IF(ISBLANK(B352)," ",VLOOKUP(B352,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E352" s="26">
+        <v>1</v>
+      </c>
+      <c r="F352" s="18"/>
+      <c r="G352" s="3">
+        <f>IF(ISBLANK(B352)," ",SUMIF($B$2:B352,B352,$E$2:E352)-SUMIF($B$2:B352,B352,$F$2:F352))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="353" spans="2:7">
+      <c r="B353" s="48" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C353" s="8" t="e">
+        <f>IF(ISBLANK(B353)," ",VLOOKUP(B353,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D353" s="4" t="e">
+        <f>IF(ISBLANK(B353)," ",VLOOKUP(B353,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E353" s="26">
+        <v>1</v>
+      </c>
+      <c r="F353" s="18"/>
+      <c r="G353" s="3">
+        <f>IF(ISBLANK(B353)," ",SUMIF($B$2:B353,B353,$E$2:E353)-SUMIF($B$2:B353,B353,$F$2:F353))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="354" spans="2:7">
+      <c r="B354" s="48" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C354" s="8" t="e">
+        <f>IF(ISBLANK(B354)," ",VLOOKUP(B354,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D354" s="4" t="e">
+        <f>IF(ISBLANK(B354)," ",VLOOKUP(B354,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E354" s="26">
+        <v>1</v>
+      </c>
+      <c r="F354" s="18"/>
+      <c r="G354" s="3">
+        <f>IF(ISBLANK(B354)," ",SUMIF($B$2:B354,B354,$E$2:E354)-SUMIF($B$2:B354,B354,$F$2:F354))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="2:7">
+      <c r="B355" s="41" t="s">
+        <v>545</v>
+      </c>
+      <c r="C355" s="8" t="str">
+        <f>IF(ISBLANK(B355)," ",VLOOKUP(B355,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve">ABANICO  DE TORRE SANKEY </v>
+      </c>
+      <c r="D355" s="4">
+        <f>IF(ISBLANK(B355)," ",VLOOKUP(B355,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E355" s="26"/>
+      <c r="F355" s="18">
+        <v>1</v>
+      </c>
+      <c r="G355" s="3">
+        <f>IF(ISBLANK(B355)," ",SUMIF($B$2:B355,B355,$E$2:E355)-SUMIF($B$2:B355,B355,$F$2:F355))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="2:7">
+      <c r="B356" s="41" t="s">
+        <v>527</v>
+      </c>
+      <c r="C356" s="8" t="str">
+        <f>IF(ISBLANK(B356)," ",VLOOKUP(B356,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>RELOJ PARA PARED</v>
+      </c>
+      <c r="D356" s="4">
+        <f>IF(ISBLANK(B356)," ",VLOOKUP(B356,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>48</v>
+      </c>
+      <c r="E356" s="26"/>
+      <c r="F356" s="18">
+        <v>1</v>
+      </c>
+      <c r="G356" s="3">
+        <f>IF(ISBLANK(B356)," ",SUMIF($B$2:B356,B356,$E$2:E356)-SUMIF($B$2:B356,B356,$F$2:F356))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="2:7">
+      <c r="B357" s="41" t="s">
+        <v>938</v>
+      </c>
+      <c r="C357" s="8" t="str">
+        <f>IF(ISBLANK(B357)," ",VLOOKUP(B357,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>PARAGUA PARA TERREZA</v>
+      </c>
+      <c r="D357" s="4">
+        <f>IF(ISBLANK(B357)," ",VLOOKUP(B357,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E357" s="26"/>
+      <c r="F357" s="18">
+        <v>1</v>
+      </c>
+      <c r="G357" s="3">
+        <f>IF(ISBLANK(B357)," ",SUMIF($B$2:B357,B357,$E$2:E357)-SUMIF($B$2:B357,B357,$F$2:F357))</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="358" spans="2:7">
+      <c r="B358" s="48" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C358" s="8" t="e">
+        <f>IF(ISBLANK(B358)," ",VLOOKUP(B358,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D358" s="4" t="e">
+        <f>IF(ISBLANK(B358)," ",VLOOKUP(B358,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E358" s="26"/>
+      <c r="F358" s="18">
+        <v>1</v>
+      </c>
+      <c r="G358" s="3">
+        <f>IF(ISBLANK(B358)," ",SUMIF($B$2:B358,B358,$E$2:E358)-SUMIF($B$2:B358,B358,$F$2:F358))</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="359" spans="2:7">
+      <c r="B359" s="41" t="s">
+        <v>516</v>
+      </c>
+      <c r="C359" s="8" t="str">
+        <f>IF(ISBLANK(B359)," ",VLOOKUP(B359,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve">PLANTA ARTIFICIAL CON MACETA </v>
+      </c>
+      <c r="D359" s="4">
+        <f>IF(ISBLANK(B359)," ",VLOOKUP(B359,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>12</v>
+      </c>
+      <c r="E359" s="26"/>
+      <c r="F359" s="18">
+        <v>1</v>
+      </c>
+      <c r="G359" s="3">
+        <f>IF(ISBLANK(B359)," ",SUMIF($B$2:B359,B359,$E$2:E359)-SUMIF($B$2:B359,B359,$F$2:F359))</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="360" spans="2:7">
+      <c r="B360" s="48" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C360" s="8" t="e">
+        <f>IF(ISBLANK(B360)," ",VLOOKUP(B360,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D360" s="4" t="e">
+        <f>IF(ISBLANK(B360)," ",VLOOKUP(B360,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E360" s="26">
+        <v>3</v>
+      </c>
+      <c r="F360" s="18"/>
+      <c r="G360" s="3">
+        <f>IF(ISBLANK(B360)," ",SUMIF($B$2:B360,B360,$E$2:E360)-SUMIF($B$2:B360,B360,$F$2:F360))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="361" spans="2:7">
+      <c r="B361" s="41" t="s">
+        <v>514</v>
+      </c>
+      <c r="C361" s="8" t="str">
+        <f>IF(ISBLANK(B361)," ",VLOOKUP(B361,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve">PLANTA ARTIFICIAL CON MACETA </v>
+      </c>
+      <c r="D361" s="4">
+        <f>IF(ISBLANK(B361)," ",VLOOKUP(B361,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>8.5</v>
+      </c>
+      <c r="E361" s="26"/>
+      <c r="F361" s="18">
+        <v>1</v>
+      </c>
+      <c r="G361" s="3">
+        <f>IF(ISBLANK(B361)," ",SUMIF($B$2:B361,B361,$E$2:E361)-SUMIF($B$2:B361,B361,$F$2:F361))</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="362" spans="2:7">
+      <c r="B362" s="41" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C362" s="8" t="str">
+        <f>IF(ISBLANK(B362)," ",VLOOKUP(B362,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve">SET TAZA PARA CAFÉ </v>
+      </c>
+      <c r="D362" s="4">
+        <f>IF(ISBLANK(B362)," ",VLOOKUP(B362,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>6.5</v>
+      </c>
+      <c r="E362" s="26"/>
+      <c r="F362" s="18">
+        <v>2</v>
+      </c>
+      <c r="G362" s="3">
+        <f>IF(ISBLANK(B362)," ",SUMIF($B$2:B362,B362,$E$2:E362)-SUMIF($B$2:B362,B362,$F$2:F362))</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="363" spans="2:7">
+      <c r="B363" s="41" t="s">
+        <v>938</v>
+      </c>
+      <c r="C363" s="8" t="str">
+        <f>IF(ISBLANK(B363)," ",VLOOKUP(B363,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>PARAGUA PARA TERREZA</v>
+      </c>
+      <c r="D363" s="4">
+        <f>IF(ISBLANK(B363)," ",VLOOKUP(B363,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E363" s="26"/>
+      <c r="F363" s="18">
+        <v>1</v>
+      </c>
+      <c r="G363" s="3">
+        <f>IF(ISBLANK(B363)," ",SUMIF($B$2:B363,B363,$E$2:E363)-SUMIF($B$2:B363,B363,$F$2:F363))</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="364" spans="2:7">
+      <c r="B364" s="41" t="s">
+        <v>952</v>
+      </c>
+      <c r="C364" s="8" t="str">
+        <f>IF(ISBLANK(B364)," ",VLOOKUP(B364,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve">ESCRITORIO DE VIDRIO </v>
+      </c>
+      <c r="D364" s="4">
+        <f>IF(ISBLANK(B364)," ",VLOOKUP(B364,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E364" s="26"/>
+      <c r="F364" s="18">
+        <v>1</v>
+      </c>
+      <c r="G364" s="3">
+        <f>IF(ISBLANK(B364)," ",SUMIF($B$2:B364,B364,$E$2:E364)-SUMIF($B$2:B364,B364,$F$2:F364))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="2:7">
+      <c r="B365" s="41" t="s">
+        <v>954</v>
+      </c>
+      <c r="C365" s="8" t="str">
+        <f>IF(ISBLANK(B365)," ",VLOOKUP(B365,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve">MOTO NITRO </v>
+      </c>
+      <c r="D365" s="4">
+        <f>IF(ISBLANK(B365)," ",VLOOKUP(B365,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E365" s="26"/>
+      <c r="F365" s="18">
+        <v>1</v>
+      </c>
+      <c r="G365" s="3">
+        <f>IF(ISBLANK(B365)," ",SUMIF($B$2:B365,B365,$E$2:E365)-SUMIF($B$2:B365,B365,$F$2:F365))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="2:7">
+      <c r="B366" s="48" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C366" s="8" t="e">
+        <f>IF(ISBLANK(B366)," ",VLOOKUP(B366,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D366" s="4" t="e">
+        <f>IF(ISBLANK(B366)," ",VLOOKUP(B366,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E366" s="26">
+        <v>3</v>
+      </c>
+      <c r="F366" s="18"/>
+      <c r="G366" s="3">
+        <f>IF(ISBLANK(B366)," ",SUMIF($B$2:B366,B366,$E$2:E366)-SUMIF($B$2:B366,B366,$F$2:F366))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="367" spans="2:7">
+      <c r="B367" s="41" t="s">
+        <v>963</v>
+      </c>
+      <c r="C367" s="8" t="str">
+        <f>IF(ISBLANK(B367)," ",VLOOKUP(B367,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve">JOYERO </v>
+      </c>
+      <c r="D367" s="4">
+        <f>IF(ISBLANK(B367)," ",VLOOKUP(B367,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E367" s="26"/>
+      <c r="F367" s="18">
+        <v>2</v>
+      </c>
+      <c r="G367" s="3">
+        <f>IF(ISBLANK(B367)," ",SUMIF($B$2:B367,B367,$E$2:E367)-SUMIF($B$2:B367,B367,$F$2:F367))</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="368" spans="2:7">
+      <c r="B368" s="41" t="s">
+        <v>626</v>
+      </c>
+      <c r="C368" s="8" t="str">
+        <f>IF(ISBLANK(B368)," ",VLOOKUP(B368,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>SILLA PARA BAR</v>
+      </c>
+      <c r="D368" s="4">
+        <f>IF(ISBLANK(B368)," ",VLOOKUP(B368,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>48</v>
+      </c>
+      <c r="E368" s="26">
+        <v>6</v>
+      </c>
+      <c r="F368" s="18"/>
+      <c r="G368" s="3">
+        <f>IF(ISBLANK(B368)," ",SUMIF($B$2:B368,B368,$E$2:E368)-SUMIF($B$2:B368,B368,$F$2:F368))</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="369" spans="2:7">
+      <c r="B369" s="41" t="s">
+        <v>728</v>
+      </c>
+      <c r="C369" s="8" t="str">
+        <f>IF(ISBLANK(B369)," ",VLOOKUP(B369,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve">SILLA PARA BAR </v>
+      </c>
+      <c r="D369" s="4">
+        <f>IF(ISBLANK(B369)," ",VLOOKUP(B369,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>48</v>
+      </c>
+      <c r="E369" s="26">
+        <v>3</v>
+      </c>
+      <c r="F369" s="18"/>
+      <c r="G369" s="3">
+        <f>IF(ISBLANK(B369)," ",SUMIF($B$2:B369,B369,$E$2:E369)-SUMIF($B$2:B369,B369,$F$2:F369))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="370" spans="2:7">
+      <c r="B370" s="41" t="s">
+        <v>576</v>
+      </c>
+      <c r="C370" s="8" t="str">
+        <f>IF(ISBLANK(B370)," ",VLOOKUP(B370,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve">LAMPARA PARA MESA </v>
+      </c>
+      <c r="D370" s="4">
+        <f>IF(ISBLANK(B370)," ",VLOOKUP(B370,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>15</v>
+      </c>
+      <c r="E370" s="26"/>
+      <c r="F370" s="18">
+        <v>4</v>
+      </c>
+      <c r="G370" s="3">
+        <f>IF(ISBLANK(B370)," ",SUMIF($B$2:B370,B370,$E$2:E370)-SUMIF($B$2:B370,B370,$F$2:F370))</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="371" spans="2:7">
+      <c r="B371" s="41" t="s">
+        <v>605</v>
+      </c>
+      <c r="C371" s="8" t="str">
+        <f>IF(ISBLANK(B371)," ",VLOOKUP(B371,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>LAMPARA PARA PARED</v>
+      </c>
+      <c r="D371" s="4">
+        <f>IF(ISBLANK(B371)," ",VLOOKUP(B371,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>12</v>
+      </c>
+      <c r="E371" s="26"/>
+      <c r="F371" s="18">
+        <v>3</v>
+      </c>
+      <c r="G371" s="3">
+        <f>IF(ISBLANK(B371)," ",SUMIF($B$2:B371,B371,$E$2:E371)-SUMIF($B$2:B371,B371,$F$2:F371))</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="372" spans="2:7">
+      <c r="B372" s="48" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C372" s="8" t="e">
+        <f>IF(ISBLANK(B372)," ",VLOOKUP(B372,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D372" s="4" t="e">
+        <f>IF(ISBLANK(B372)," ",VLOOKUP(B372,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E372" s="26">
+        <v>2</v>
+      </c>
+      <c r="F372" s="18"/>
+      <c r="G372" s="3">
+        <f>IF(ISBLANK(B372)," ",SUMIF($B$2:B372,B372,$E$2:E372)-SUMIF($B$2:B372,B372,$F$2:F372))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="373" spans="2:7">
+      <c r="B373" s="48" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C373" s="8" t="e">
+        <f>IF(ISBLANK(B373)," ",VLOOKUP(B373,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D373" s="4" t="e">
+        <f>IF(ISBLANK(B373)," ",VLOOKUP(B373,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E373" s="26"/>
+      <c r="F373" s="18">
+        <v>2</v>
+      </c>
+      <c r="G373" s="3">
+        <f>IF(ISBLANK(B373)," ",SUMIF($B$2:B373,B373,$E$2:E373)-SUMIF($B$2:B373,B373,$F$2:F373))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="2:7">
+      <c r="B374" s="48" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C374" s="8" t="e">
+        <f>IF(ISBLANK(B374)," ",VLOOKUP(B374,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D374" s="4" t="e">
+        <f>IF(ISBLANK(B374)," ",VLOOKUP(B374,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E374" s="26"/>
+      <c r="F374" s="18">
+        <v>1</v>
+      </c>
+      <c r="G374" s="3">
+        <f>IF(ISBLANK(B374)," ",SUMIF($B$2:B374,B374,$E$2:E374)-SUMIF($B$2:B374,B374,$F$2:F374))</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="375" spans="2:7">
+      <c r="B375" s="48" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C375" s="8" t="e">
+        <f>IF(ISBLANK(B375)," ",VLOOKUP(B375,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D375" s="4" t="e">
+        <f>IF(ISBLANK(B375)," ",VLOOKUP(B375,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E375" s="26"/>
+      <c r="F375" s="18">
+        <v>3</v>
+      </c>
+      <c r="G375" s="3">
+        <f>IF(ISBLANK(B375)," ",SUMIF($B$2:B375,B375,$E$2:E375)-SUMIF($B$2:B375,B375,$F$2:F375))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="2:7">
+      <c r="B376" s="48" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C376" s="8" t="e">
+        <f>IF(ISBLANK(B376)," ",VLOOKUP(B376,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D376" s="4" t="e">
+        <f>IF(ISBLANK(B376)," ",VLOOKUP(B376,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E376" s="26"/>
+      <c r="F376" s="18">
+        <v>1</v>
+      </c>
+      <c r="G376" s="3">
+        <f>IF(ISBLANK(B376)," ",SUMIF($B$2:B376,B376,$E$2:E376)-SUMIF($B$2:B376,B376,$F$2:F376))</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="377" spans="2:7">
+      <c r="B377" s="41" t="s">
+        <v>644</v>
+      </c>
+      <c r="C377" s="8" t="str">
+        <f>IF(ISBLANK(B377)," ",VLOOKUP(B377,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>SILLA DE ESPERA PLASTICA</v>
+      </c>
+      <c r="D377" s="4">
+        <f>IF(ISBLANK(B377)," ",VLOOKUP(B377,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>35</v>
+      </c>
+      <c r="E377" s="26"/>
+      <c r="F377" s="18">
+        <v>4</v>
+      </c>
+      <c r="G377" s="3">
+        <f>IF(ISBLANK(B377)," ",SUMIF($B$2:B377,B377,$E$2:E377)-SUMIF($B$2:B377,B377,$F$2:F377))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="2:7">
+      <c r="B378" s="41" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C378" s="8" t="str">
+        <f>IF(ISBLANK(B378)," ",VLOOKUP(B378,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve">ABANICO ASTAR </v>
+      </c>
+      <c r="D378" s="4">
+        <f>IF(ISBLANK(B378)," ",VLOOKUP(B378,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E378" s="26">
+        <v>8</v>
+      </c>
+      <c r="F378" s="18"/>
+      <c r="G378" s="3">
+        <f>IF(ISBLANK(B378)," ",SUMIF($B$2:B378,B378,$E$2:E378)-SUMIF($B$2:B378,B378,$F$2:F378))</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="379" spans="2:7">
+      <c r="B379" s="41" t="s">
+        <v>542</v>
+      </c>
+      <c r="C379" s="8" t="str">
+        <f>IF(ISBLANK(B379)," ",VLOOKUP(B379,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>ABANICO  DE PISO LA PRIMAVERA PEQUEÑO</v>
+      </c>
+      <c r="D379" s="4">
+        <f>IF(ISBLANK(B379)," ",VLOOKUP(B379,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>14</v>
+      </c>
+      <c r="E379" s="26">
+        <v>4</v>
+      </c>
+      <c r="F379" s="18"/>
+      <c r="G379" s="3">
+        <f>IF(ISBLANK(B379)," ",SUMIF($B$2:B379,B379,$E$2:E379)-SUMIF($B$2:B379,B379,$F$2:F379))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="380" spans="2:7">
+      <c r="B380" s="41" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C380" s="8" t="str">
+        <f>IF(ISBLANK(B380)," ",VLOOKUP(B380,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>VAJILLA HARTIN</v>
+      </c>
+      <c r="D380" s="4">
+        <f>IF(ISBLANK(B380)," ",VLOOKUP(B380,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>98</v>
+      </c>
+      <c r="E380" s="26"/>
+      <c r="F380" s="18">
+        <v>1</v>
+      </c>
+      <c r="G380" s="3">
+        <f>IF(ISBLANK(B380)," ",SUMIF($B$2:B380,B380,$E$2:E380)-SUMIF($B$2:B380,B380,$F$2:F380))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="2:7">
+      <c r="B381" s="41" t="s">
+        <v>598</v>
+      </c>
+      <c r="C381" s="8" t="str">
+        <f>IF(ISBLANK(B381)," ",VLOOKUP(B381,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve">ALFOMBRA DE PVC MAX MOTOR </v>
+      </c>
+      <c r="D381" s="4">
+        <f>IF(ISBLANK(B381)," ",VLOOKUP(B381,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>50</v>
+      </c>
+      <c r="E381" s="26"/>
+      <c r="F381" s="18">
+        <v>1</v>
+      </c>
+      <c r="G381" s="3">
+        <f>IF(ISBLANK(B381)," ",SUMIF($B$2:B381,B381,$E$2:E381)-SUMIF($B$2:B381,B381,$F$2:F381))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="382" spans="2:7">
+      <c r="B382" s="41" t="s">
+        <v>514</v>
+      </c>
+      <c r="C382" s="8" t="str">
+        <f>IF(ISBLANK(B382)," ",VLOOKUP(B382,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve">PLANTA ARTIFICIAL CON MACETA </v>
+      </c>
+      <c r="D382" s="4">
+        <f>IF(ISBLANK(B382)," ",VLOOKUP(B382,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>8.5</v>
+      </c>
+      <c r="E382" s="26"/>
+      <c r="F382" s="18">
+        <v>1</v>
+      </c>
+      <c r="G382" s="3">
+        <f>IF(ISBLANK(B382)," ",SUMIF($B$2:B382,B382,$E$2:E382)-SUMIF($B$2:B382,B382,$F$2:F382))</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="383" spans="2:7">
+      <c r="B383" s="48" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C383" s="8" t="e">
+        <f>IF(ISBLANK(B383)," ",VLOOKUP(B383,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D383" s="4" t="e">
+        <f>IF(ISBLANK(B383)," ",VLOOKUP(B383,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E383" s="26"/>
+      <c r="F383" s="18">
+        <v>1</v>
+      </c>
+      <c r="G383" s="3">
+        <f>IF(ISBLANK(B383)," ",SUMIF($B$2:B383,B383,$E$2:E383)-SUMIF($B$2:B383,B383,$F$2:F383))</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="384" spans="2:7">
+      <c r="B384" s="41" t="s">
+        <v>527</v>
+      </c>
+      <c r="C384" s="8" t="str">
+        <f>IF(ISBLANK(B384)," ",VLOOKUP(B384,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>RELOJ PARA PARED</v>
+      </c>
+      <c r="D384" s="4">
+        <f>IF(ISBLANK(B384)," ",VLOOKUP(B384,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>48</v>
+      </c>
+      <c r="E384" s="26"/>
+      <c r="F384" s="18">
+        <v>1</v>
+      </c>
+      <c r="G384" s="3">
+        <f>IF(ISBLANK(B384)," ",SUMIF($B$2:B384,B384,$E$2:E384)-SUMIF($B$2:B384,B384,$F$2:F384))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="2:7">
+      <c r="B385" s="41" t="s">
+        <v>728</v>
+      </c>
+      <c r="C385" s="8" t="str">
+        <f>IF(ISBLANK(B385)," ",VLOOKUP(B385,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve">SILLA PARA BAR </v>
+      </c>
+      <c r="D385" s="4">
+        <f>IF(ISBLANK(B385)," ",VLOOKUP(B385,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>48</v>
+      </c>
+      <c r="E385" s="26"/>
+      <c r="F385" s="18">
+        <v>3</v>
+      </c>
+      <c r="G385" s="3">
+        <f>IF(ISBLANK(B385)," ",SUMIF($B$2:B385,B385,$E$2:E385)-SUMIF($B$2:B385,B385,$F$2:F385))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="2:7">
+      <c r="B386" s="48" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C386" s="8" t="e">
+        <f>IF(ISBLANK(B386)," ",VLOOKUP(B386,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D386" s="4" t="e">
+        <f>IF(ISBLANK(B386)," ",VLOOKUP(B386,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E386" s="26">
+        <v>5</v>
+      </c>
+      <c r="F386" s="18"/>
+      <c r="G386" s="3">
+        <f>IF(ISBLANK(B386)," ",SUMIF($B$2:B386,B386,$E$2:E386)-SUMIF($B$2:B386,B386,$F$2:F386))</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="387" spans="2:7">
+      <c r="B387" s="48" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C387" s="8" t="e">
+        <f>IF(ISBLANK(B387)," ",VLOOKUP(B387,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D387" s="4" t="e">
+        <f>IF(ISBLANK(B387)," ",VLOOKUP(B387,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E387" s="26"/>
+      <c r="F387" s="18">
+        <v>6</v>
+      </c>
+      <c r="G387" s="3">
+        <f>IF(ISBLANK(B387)," ",SUMIF($B$2:B387,B387,$E$2:E387)-SUMIF($B$2:B387,B387,$F$2:F387))</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="388" spans="2:7">
+      <c r="B388" s="48" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C388" s="8" t="e">
+        <f>IF(ISBLANK(B388)," ",VLOOKUP(B388,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D388" s="4" t="e">
+        <f>IF(ISBLANK(B388)," ",VLOOKUP(B388,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E388" s="26"/>
+      <c r="F388" s="18">
+        <v>1</v>
+      </c>
+      <c r="G388" s="3">
+        <f>IF(ISBLANK(B388)," ",SUMIF($B$2:B388,B388,$E$2:E388)-SUMIF($B$2:B388,B388,$F$2:F388))</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="389" spans="2:7">
+      <c r="B389" s="41" t="s">
+        <v>979</v>
+      </c>
+      <c r="C389" s="8" t="str">
+        <f>IF(ISBLANK(B389)," ",VLOOKUP(B389,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve">SILLA PLASTICA </v>
+      </c>
+      <c r="D389" s="4">
+        <f>IF(ISBLANK(B389)," ",VLOOKUP(B389,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E389" s="26"/>
+      <c r="F389" s="18">
+        <v>2</v>
+      </c>
+      <c r="G389" s="3">
+        <f>IF(ISBLANK(B389)," ",SUMIF($B$2:B389,B389,$E$2:E389)-SUMIF($B$2:B389,B389,$F$2:F389))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="2:7">
+      <c r="B390" s="41" t="s">
+        <v>514</v>
+      </c>
+      <c r="C390" s="8" t="str">
+        <f>IF(ISBLANK(B390)," ",VLOOKUP(B390,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve">PLANTA ARTIFICIAL CON MACETA </v>
+      </c>
+      <c r="D390" s="4">
+        <f>IF(ISBLANK(B390)," ",VLOOKUP(B390,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>8.5</v>
+      </c>
+      <c r="E390" s="26"/>
+      <c r="F390" s="18">
+        <v>3</v>
+      </c>
+      <c r="G390" s="3">
+        <f>IF(ISBLANK(B390)," ",SUMIF($B$2:B390,B390,$E$2:E390)-SUMIF($B$2:B390,B390,$F$2:F390))</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="391" spans="2:7">
+      <c r="B391" s="41" t="s">
+        <v>727</v>
+      </c>
+      <c r="C391" s="8" t="str">
+        <f>IF(ISBLANK(B391)," ",VLOOKUP(B391,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>SILLA PARA ESPERA</v>
+      </c>
+      <c r="D391" s="4">
+        <f>IF(ISBLANK(B391)," ",VLOOKUP(B391,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>35</v>
+      </c>
+      <c r="E391" s="26">
+        <v>10</v>
+      </c>
+      <c r="F391" s="18"/>
+      <c r="G391" s="3">
+        <f>IF(ISBLANK(B391)," ",SUMIF($B$2:B391,B391,$E$2:E391)-SUMIF($B$2:B391,B391,$F$2:F391))</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="392" spans="2:7">
+      <c r="B392" s="41" t="s">
+        <v>727</v>
+      </c>
+      <c r="C392" s="8" t="str">
+        <f>IF(ISBLANK(B392)," ",VLOOKUP(B392,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>SILLA PARA ESPERA</v>
+      </c>
+      <c r="D392" s="4">
+        <f>IF(ISBLANK(B392)," ",VLOOKUP(B392,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>35</v>
+      </c>
+      <c r="E392" s="26"/>
+      <c r="F392" s="18">
+        <v>3</v>
+      </c>
+      <c r="G392" s="3">
+        <f>IF(ISBLANK(B392)," ",SUMIF($B$2:B392,B392,$E$2:E392)-SUMIF($B$2:B392,B392,$F$2:F392))</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="393" spans="2:7">
+      <c r="B393" s="41" t="s">
+        <v>727</v>
+      </c>
+      <c r="C393" s="8" t="str">
+        <f>IF(ISBLANK(B393)," ",VLOOKUP(B393,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>SILLA PARA ESPERA</v>
+      </c>
+      <c r="D393" s="4">
+        <f>IF(ISBLANK(B393)," ",VLOOKUP(B393,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>35</v>
+      </c>
+      <c r="E393" s="26"/>
+      <c r="F393" s="18">
+        <v>6</v>
+      </c>
+      <c r="G393" s="3">
+        <f>IF(ISBLANK(B393)," ",SUMIF($B$2:B393,B393,$E$2:E393)-SUMIF($B$2:B393,B393,$F$2:F393))</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="394" spans="2:7">
+      <c r="B394" s="48" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C394" s="8" t="e">
+        <f>IF(ISBLANK(B394)," ",VLOOKUP(B394,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D394" s="4" t="e">
+        <f>IF(ISBLANK(B394)," ",VLOOKUP(B394,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E394" s="26"/>
+      <c r="F394" s="18">
+        <v>1</v>
+      </c>
+      <c r="G394" s="3">
+        <f>IF(ISBLANK(B394)," ",SUMIF($B$2:B394,B394,$E$2:E394)-SUMIF($B$2:B394,B394,$F$2:F394))</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="395" spans="2:7">
+      <c r="B395" s="41" t="s">
+        <v>546</v>
+      </c>
+      <c r="C395" s="8" t="str">
+        <f>IF(ISBLANK(B395)," ",VLOOKUP(B395,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve">ESPEJO PARA TOCADOR </v>
+      </c>
+      <c r="D395" s="4">
+        <f>IF(ISBLANK(B395)," ",VLOOKUP(B395,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>60</v>
+      </c>
+      <c r="E395" s="26"/>
+      <c r="F395" s="18">
+        <v>1</v>
+      </c>
+      <c r="G395" s="3">
+        <f>IF(ISBLANK(B395)," ",SUMIF($B$2:B395,B395,$E$2:E395)-SUMIF($B$2:B395,B395,$F$2:F395))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="2:7">
+      <c r="B396" s="41" t="s">
+        <v>368</v>
+      </c>
+      <c r="C396" s="8" t="str">
+        <f>IF(ISBLANK(B396)," ",VLOOKUP(B396,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>MESA PARA SALA</v>
+      </c>
+      <c r="D396" s="4">
+        <f>IF(ISBLANK(B396)," ",VLOOKUP(B396,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>120</v>
+      </c>
+      <c r="E396" s="26"/>
+      <c r="F396" s="18">
+        <v>1</v>
+      </c>
+      <c r="G396" s="3">
+        <f>IF(ISBLANK(B396)," ",SUMIF($B$2:B396,B396,$E$2:E396)-SUMIF($B$2:B396,B396,$F$2:F396))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="2:7">
+      <c r="B397" s="41" t="s">
+        <v>634</v>
+      </c>
+      <c r="C397" s="8" t="str">
+        <f>IF(ISBLANK(B397)," ",VLOOKUP(B397,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>SILLA PARA BAR</v>
+      </c>
+      <c r="D397" s="4">
+        <f>IF(ISBLANK(B397)," ",VLOOKUP(B397,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E397" s="26">
+        <v>2</v>
+      </c>
+      <c r="F397" s="18">
+        <v>2</v>
+      </c>
+      <c r="G397" s="3">
+        <f>IF(ISBLANK(B397)," ",SUMIF($B$2:B397,B397,$E$2:E397)-SUMIF($B$2:B397,B397,$F$2:F397))</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="398" spans="2:7">
+      <c r="B398" s="41" t="s">
+        <v>542</v>
+      </c>
+      <c r="C398" s="8" t="str">
+        <f>IF(ISBLANK(B398)," ",VLOOKUP(B398,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>ABANICO  DE PISO LA PRIMAVERA PEQUEÑO</v>
+      </c>
+      <c r="D398" s="4">
+        <f>IF(ISBLANK(B398)," ",VLOOKUP(B398,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>14</v>
+      </c>
+      <c r="E398" s="26">
+        <v>4</v>
+      </c>
+      <c r="F398" s="18">
+        <v>4</v>
+      </c>
+      <c r="G398" s="3">
+        <f>IF(ISBLANK(B398)," ",SUMIF($B$2:B398,B398,$E$2:E398)-SUMIF($B$2:B398,B398,$F$2:F398))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="399" spans="2:7">
+      <c r="B399" s="41" t="s">
+        <v>995</v>
+      </c>
+      <c r="C399" s="8" t="str">
+        <f>IF(ISBLANK(B399)," ",VLOOKUP(B399,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve">COMEDOR 5 PIEZAS </v>
+      </c>
+      <c r="D399" s="4">
+        <f>IF(ISBLANK(B399)," ",VLOOKUP(B399,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E399" s="26">
+        <v>1</v>
+      </c>
+      <c r="F399" s="18"/>
+      <c r="G399" s="3">
+        <f>IF(ISBLANK(B399)," ",SUMIF($B$2:B399,B399,$E$2:E399)-SUMIF($B$2:B399,B399,$F$2:F399))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" spans="2:7">
+      <c r="B400" s="41" t="s">
+        <v>470</v>
+      </c>
+      <c r="C400" s="8" t="str">
+        <f>IF(ISBLANK(B400)," ",VLOOKUP(B400,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>SILLAS PARA OFICINA CON BRAZOS</v>
+      </c>
+      <c r="D400" s="4">
+        <f>IF(ISBLANK(B400)," ",VLOOKUP(B400,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>125</v>
+      </c>
+      <c r="E400" s="26">
+        <v>2</v>
+      </c>
+      <c r="F400" s="18"/>
+      <c r="G400" s="3">
+        <f>IF(ISBLANK(B400)," ",SUMIF($B$2:B400,B400,$E$2:E400)-SUMIF($B$2:B400,B400,$F$2:F400))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="401" spans="2:7">
+      <c r="B401" s="48" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C401" s="8" t="e">
+        <f>IF(ISBLANK(B401)," ",VLOOKUP(B401,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D401" s="4" t="e">
+        <f>IF(ISBLANK(B401)," ",VLOOKUP(B401,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E401" s="26">
+        <v>3</v>
+      </c>
+      <c r="F401" s="18"/>
+      <c r="G401" s="3">
+        <f>IF(ISBLANK(B401)," ",SUMIF($B$2:B401,B401,$E$2:E401)-SUMIF($B$2:B401,B401,$F$2:F401))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="402" spans="2:7">
+      <c r="B402" s="41" t="s">
+        <v>626</v>
+      </c>
+      <c r="C402" s="8" t="str">
+        <f>IF(ISBLANK(B402)," ",VLOOKUP(B402,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>SILLA PARA BAR</v>
+      </c>
+      <c r="D402" s="4">
+        <f>IF(ISBLANK(B402)," ",VLOOKUP(B402,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>48</v>
+      </c>
+      <c r="E402" s="26">
+        <v>4</v>
+      </c>
+      <c r="F402" s="18"/>
+      <c r="G402" s="3">
+        <f>IF(ISBLANK(B402)," ",SUMIF($B$2:B402,B402,$E$2:E402)-SUMIF($B$2:B402,B402,$F$2:F402))</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="403" spans="2:7">
+      <c r="B403" s="48" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C403" s="8" t="e">
+        <f>IF(ISBLANK(B403)," ",VLOOKUP(B403,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D403" s="4" t="e">
+        <f>IF(ISBLANK(B403)," ",VLOOKUP(B403,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E403" s="26">
+        <v>1</v>
+      </c>
+      <c r="F403" s="18"/>
+      <c r="G403" s="3">
+        <f>IF(ISBLANK(B403)," ",SUMIF($B$2:B403,B403,$E$2:E403)-SUMIF($B$2:B403,B403,$F$2:F403))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" spans="2:7">
+      <c r="B404" s="41" t="s">
+        <v>546</v>
+      </c>
+      <c r="C404" s="8" t="str">
+        <f>IF(ISBLANK(B404)," ",VLOOKUP(B404,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve">ESPEJO PARA TOCADOR </v>
+      </c>
+      <c r="D404" s="4">
+        <f>IF(ISBLANK(B404)," ",VLOOKUP(B404,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>60</v>
+      </c>
+      <c r="E404" s="26">
+        <v>1</v>
+      </c>
+      <c r="F404" s="18"/>
+      <c r="G404" s="3">
+        <f>IF(ISBLANK(B404)," ",SUMIF($B$2:B404,B404,$E$2:E404)-SUMIF($B$2:B404,B404,$F$2:F404))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" spans="2:7">
+      <c r="B405" s="48" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C405" s="8" t="e">
+        <f>IF(ISBLANK(B405)," ",VLOOKUP(B405,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D405" s="4" t="e">
+        <f>IF(ISBLANK(B405)," ",VLOOKUP(B405,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E405" s="26"/>
+      <c r="F405" s="18">
+        <v>1</v>
+      </c>
+      <c r="G405" s="3">
+        <f>IF(ISBLANK(B405)," ",SUMIF($B$2:B405,B405,$E$2:E405)-SUMIF($B$2:B405,B405,$F$2:F405))</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="406" spans="2:7">
+      <c r="B406" s="48" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C406" s="8" t="e">
+        <f>IF(ISBLANK(B406)," ",VLOOKUP(B406,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D406" s="4" t="e">
+        <f>IF(ISBLANK(B406)," ",VLOOKUP(B406,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E406" s="26"/>
+      <c r="F406" s="18">
+        <v>1</v>
+      </c>
+      <c r="G406" s="3">
+        <f>IF(ISBLANK(B406)," ",SUMIF($B$2:B406,B406,$E$2:E406)-SUMIF($B$2:B406,B406,$F$2:F406))</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="407" spans="2:7">
+      <c r="B407" s="41" t="s">
+        <v>501</v>
+      </c>
+      <c r="C407" s="8" t="str">
+        <f>IF(ISBLANK(B407)," ",VLOOKUP(B407,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve">SILLA PARA MANICURE CON 2 BANDEJAS </v>
+      </c>
+      <c r="D407" s="4">
+        <f>IF(ISBLANK(B407)," ",VLOOKUP(B407,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>168</v>
+      </c>
+      <c r="E407" s="26"/>
+      <c r="F407" s="18">
+        <v>1</v>
+      </c>
+      <c r="G407" s="3">
+        <f>IF(ISBLANK(B407)," ",SUMIF($B$2:B407,B407,$E$2:E407)-SUMIF($B$2:B407,B407,$F$2:F407))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="2:7">
+      <c r="B408" s="41" t="s">
+        <v>497</v>
+      </c>
+      <c r="C408" s="8" t="str">
+        <f>IF(ISBLANK(B408)," ",VLOOKUP(B408,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve">LAVA CABEZAS </v>
+      </c>
+      <c r="D408" s="4">
+        <f>IF(ISBLANK(B408)," ",VLOOKUP(B408,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>124</v>
+      </c>
+      <c r="E408" s="26"/>
+      <c r="F408" s="18">
+        <v>1</v>
+      </c>
+      <c r="G408" s="3">
+        <f>IF(ISBLANK(B408)," ",SUMIF($B$2:B408,B408,$E$2:E408)-SUMIF($B$2:B408,B408,$F$2:F408))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="2:7">
+      <c r="B409" s="41" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C409" s="8" t="str">
+        <f>IF(ISBLANK(B409)," ",VLOOKUP(B409,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>AUXILIAR PARA MANICURA</v>
+      </c>
+      <c r="D409" s="4">
+        <f>IF(ISBLANK(B409)," ",VLOOKUP(B409,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>126</v>
+      </c>
+      <c r="E409" s="26"/>
+      <c r="F409" s="18">
+        <v>1</v>
+      </c>
+      <c r="G409" s="3">
+        <f>IF(ISBLANK(B409)," ",SUMIF($B$2:B409,B409,$E$2:E409)-SUMIF($B$2:B409,B409,$F$2:F409))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" spans="2:7">
+      <c r="B410" s="41" t="s">
+        <v>516</v>
+      </c>
+      <c r="C410" s="8" t="str">
+        <f>IF(ISBLANK(B410)," ",VLOOKUP(B410,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve">PLANTA ARTIFICIAL CON MACETA </v>
+      </c>
+      <c r="D410" s="4">
+        <f>IF(ISBLANK(B410)," ",VLOOKUP(B410,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>12</v>
+      </c>
+      <c r="E410" s="26"/>
+      <c r="F410" s="18">
+        <v>3</v>
+      </c>
+      <c r="G410" s="3">
+        <f>IF(ISBLANK(B410)," ",SUMIF($B$2:B410,B410,$E$2:E410)-SUMIF($B$2:B410,B410,$F$2:F410))</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="411" spans="2:7">
+      <c r="B411" s="41" t="s">
+        <v>515</v>
+      </c>
+      <c r="C411" s="8" t="str">
+        <f>IF(ISBLANK(B411)," ",VLOOKUP(B411,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve">PLANTA ARTIFICIAL CON MACETA </v>
+      </c>
+      <c r="D411" s="4">
+        <f>IF(ISBLANK(B411)," ",VLOOKUP(B411,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>7</v>
+      </c>
+      <c r="E411" s="26"/>
+      <c r="F411" s="18">
+        <v>3</v>
+      </c>
+      <c r="G411" s="3">
+        <f>IF(ISBLANK(B411)," ",SUMIF($B$2:B411,B411,$E$2:E411)-SUMIF($B$2:B411,B411,$F$2:F411))</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="412" spans="2:7">
+      <c r="B412" s="41" t="s">
+        <v>514</v>
+      </c>
+      <c r="C412" s="8" t="str">
+        <f>IF(ISBLANK(B412)," ",VLOOKUP(B412,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve">PLANTA ARTIFICIAL CON MACETA </v>
+      </c>
+      <c r="D412" s="4">
+        <f>IF(ISBLANK(B412)," ",VLOOKUP(B412,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>8.5</v>
+      </c>
+      <c r="E412" s="26"/>
+      <c r="F412" s="18">
+        <v>3</v>
+      </c>
+      <c r="G412" s="3">
+        <f>IF(ISBLANK(B412)," ",SUMIF($B$2:B412,B412,$E$2:E412)-SUMIF($B$2:B412,B412,$F$2:F412))</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="413" spans="2:7">
+      <c r="B413" s="41" t="s">
+        <v>421</v>
+      </c>
+      <c r="C413" s="8" t="str">
+        <f>IF(ISBLANK(B413)," ",VLOOKUP(B413,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve">GAVETERO DE CUATRO ESTANTES </v>
+      </c>
+      <c r="D413" s="4">
+        <f>IF(ISBLANK(B413)," ",VLOOKUP(B413,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>115</v>
+      </c>
+      <c r="E413" s="26"/>
+      <c r="F413" s="18">
+        <v>1</v>
+      </c>
+      <c r="G413" s="3">
+        <f>IF(ISBLANK(B413)," ",SUMIF($B$2:B413,B413,$E$2:E413)-SUMIF($B$2:B413,B413,$F$2:F413))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="2:7">
+      <c r="B414" s="41" t="s">
+        <v>598</v>
+      </c>
+      <c r="C414" s="8" t="str">
+        <f>IF(ISBLANK(B414)," ",VLOOKUP(B414,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve">ALFOMBRA DE PVC MAX MOTOR </v>
+      </c>
+      <c r="D414" s="4">
+        <f>IF(ISBLANK(B414)," ",VLOOKUP(B414,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>50</v>
+      </c>
+      <c r="E414" s="26"/>
+      <c r="F414" s="18">
+        <v>1</v>
+      </c>
+      <c r="G414" s="3">
+        <f>IF(ISBLANK(B414)," ",SUMIF($B$2:B414,B414,$E$2:E414)-SUMIF($B$2:B414,B414,$F$2:F414))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="415" spans="2:7">
+      <c r="B415" s="41" t="s">
+        <v>597</v>
+      </c>
+      <c r="C415" s="8" t="str">
+        <f>IF(ISBLANK(B415)," ",VLOOKUP(B415,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>CESPED  ARTIFICIAL</v>
+      </c>
+      <c r="D415" s="4">
+        <f>IF(ISBLANK(B415)," ",VLOOKUP(B415,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>125</v>
+      </c>
+      <c r="E415" s="26"/>
+      <c r="F415" s="18">
+        <v>1</v>
+      </c>
+      <c r="G415" s="3">
+        <f>IF(ISBLANK(B415)," ",SUMIF($B$2:B415,B415,$E$2:E415)-SUMIF($B$2:B415,B415,$F$2:F415))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="416" spans="2:7">
+      <c r="B416" s="41" t="s">
+        <v>727</v>
+      </c>
+      <c r="C416" s="8" t="str">
+        <f>IF(ISBLANK(B416)," ",VLOOKUP(B416,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>SILLA PARA ESPERA</v>
+      </c>
+      <c r="D416" s="4">
+        <f>IF(ISBLANK(B416)," ",VLOOKUP(B416,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>35</v>
+      </c>
+      <c r="E416" s="26"/>
+      <c r="F416" s="18">
+        <v>5</v>
+      </c>
+      <c r="G416" s="3">
+        <f>IF(ISBLANK(B416)," ",SUMIF($B$2:B416,B416,$E$2:E416)-SUMIF($B$2:B416,B416,$F$2:F416))</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="417" spans="2:7">
+      <c r="B417" s="48" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C417" s="8" t="e">
+        <f>IF(ISBLANK(B417)," ",VLOOKUP(B417,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D417" s="4" t="e">
+        <f>IF(ISBLANK(B417)," ",VLOOKUP(B417,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E417" s="26">
+        <v>1</v>
+      </c>
+      <c r="F417" s="18"/>
+      <c r="G417" s="3">
+        <f>IF(ISBLANK(B417)," ",SUMIF($B$2:B417,B417,$E$2:E417)-SUMIF($B$2:B417,B417,$F$2:F417))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" spans="2:7">
+      <c r="B418" s="41" t="s">
+        <v>634</v>
+      </c>
+      <c r="C418" s="8" t="str">
+        <f>IF(ISBLANK(B418)," ",VLOOKUP(B418,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>SILLA PARA BAR</v>
+      </c>
+      <c r="D418" s="4">
+        <f>IF(ISBLANK(B418)," ",VLOOKUP(B418,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E418" s="26">
+        <v>2</v>
+      </c>
+      <c r="F418" s="18"/>
+      <c r="G418" s="3">
+        <f>IF(ISBLANK(B418)," ",SUMIF($B$2:B418,B418,$E$2:E418)-SUMIF($B$2:B418,B418,$F$2:F418))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="2:7">
+      <c r="B419" s="41" t="s">
+        <v>983</v>
+      </c>
+      <c r="C419" s="8" t="str">
+        <f>IF(ISBLANK(B419)," ",VLOOKUP(B419,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>MESA CON SILLA PARA TERRAZA NEGRO</v>
+      </c>
+      <c r="D419" s="4">
+        <f>IF(ISBLANK(B419)," ",VLOOKUP(B419,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E419" s="26"/>
+      <c r="F419" s="18">
+        <v>1</v>
+      </c>
+      <c r="G419" s="3">
+        <f>IF(ISBLANK(B419)," ",SUMIF($B$2:B419,B419,$E$2:E419)-SUMIF($B$2:B419,B419,$F$2:F419))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="2:7">
+      <c r="B420" s="48" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C420" s="8" t="e">
+        <f>IF(ISBLANK(B420)," ",VLOOKUP(B420,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D420" s="4" t="e">
+        <f>IF(ISBLANK(B420)," ",VLOOKUP(B420,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E420" s="26"/>
+      <c r="F420" s="18">
+        <v>1</v>
+      </c>
+      <c r="G420" s="3">
+        <f>IF(ISBLANK(B420)," ",SUMIF($B$2:B420,B420,$E$2:E420)-SUMIF($B$2:B420,B420,$F$2:F420))</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="421" spans="2:7">
+      <c r="B421" s="41" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C421" s="8" t="e">
+        <f>IF(ISBLANK(B421)," ",VLOOKUP(B421,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D421" s="4" t="e">
+        <f>IF(ISBLANK(B421)," ",VLOOKUP(B421,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E421" s="26"/>
+      <c r="F421" s="18">
+        <v>1</v>
+      </c>
+      <c r="G421" s="3">
+        <f>IF(ISBLANK(B421)," ",SUMIF($B$2:B421,B421,$E$2:E421)-SUMIF($B$2:B421,B421,$F$2:F421))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="2:7">
+      <c r="B422" s="41" t="s">
+        <v>986</v>
+      </c>
+      <c r="C422" s="8" t="str">
+        <f>IF(ISBLANK(B422)," ",VLOOKUP(B422,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve">MESA DE CENTRO </v>
+      </c>
+      <c r="D422" s="4">
+        <f>IF(ISBLANK(B422)," ",VLOOKUP(B422,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E422" s="26">
+        <v>2</v>
+      </c>
+      <c r="F422" s="18">
+        <v>1</v>
+      </c>
+      <c r="G422" s="3">
+        <f>IF(ISBLANK(B422)," ",SUMIF($B$2:B422,B422,$E$2:E422)-SUMIF($B$2:B422,B422,$F$2:F422))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="2:7">
+      <c r="B423" s="41" t="s">
+        <v>988</v>
+      </c>
+      <c r="C423" s="8" t="str">
+        <f>IF(ISBLANK(B423)," ",VLOOKUP(B423,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>SILLON RECLINABLE</v>
+      </c>
+      <c r="D423" s="4">
+        <f>IF(ISBLANK(B423)," ",VLOOKUP(B423,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E423" s="26"/>
+      <c r="F423" s="18">
+        <v>1</v>
+      </c>
+      <c r="G423" s="3">
+        <f>IF(ISBLANK(B423)," ",SUMIF($B$2:B423,B423,$E$2:E423)-SUMIF($B$2:B423,B423,$F$2:F423))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="2:7">
+      <c r="B424" s="41" t="s">
+        <v>498</v>
+      </c>
+      <c r="C424" s="8" t="str">
+        <f>IF(ISBLANK(B424)," ",VLOOKUP(B424,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve">AUXILIAR PARA SALON, 3 BANDEJAS </v>
+      </c>
+      <c r="D424" s="4">
+        <f>IF(ISBLANK(B424)," ",VLOOKUP(B424,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>60</v>
+      </c>
+      <c r="E424" s="26"/>
+      <c r="F424" s="18">
+        <v>1</v>
+      </c>
+      <c r="G424" s="3">
+        <f>IF(ISBLANK(B424)," ",SUMIF($B$2:B424,B424,$E$2:E424)-SUMIF($B$2:B424,B424,$F$2:F424))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="425" spans="2:7">
+      <c r="B425" s="41" t="s">
+        <v>954</v>
+      </c>
+      <c r="C425" s="8" t="str">
+        <f>IF(ISBLANK(B425)," ",VLOOKUP(B425,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve">MOTO NITRO </v>
+      </c>
+      <c r="D425" s="4">
+        <f>IF(ISBLANK(B425)," ",VLOOKUP(B425,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E425" s="26">
+        <v>1</v>
+      </c>
+      <c r="F425" s="18"/>
+      <c r="G425" s="3">
+        <f>IF(ISBLANK(B425)," ",SUMIF($B$2:B425,B425,$E$2:E425)-SUMIF($B$2:B425,B425,$F$2:F425))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="426" spans="2:7">
+      <c r="B426" s="48" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C426" s="8" t="e">
+        <f>IF(ISBLANK(B426)," ",VLOOKUP(B426,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D426" s="4" t="e">
+        <f>IF(ISBLANK(B426)," ",VLOOKUP(B426,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E426" s="26">
+        <v>18</v>
+      </c>
+      <c r="F426" s="18"/>
+      <c r="G426" s="3">
+        <f>IF(ISBLANK(B426)," ",SUMIF($B$2:B426,B426,$E$2:E426)-SUMIF($B$2:B426,B426,$F$2:F426))</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="427" spans="2:7">
+      <c r="B427" s="48" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C427" s="8" t="e">
+        <f>IF(ISBLANK(B427)," ",VLOOKUP(B427,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D427" s="4" t="e">
+        <f>IF(ISBLANK(B427)," ",VLOOKUP(B427,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E427" s="26">
+        <v>4</v>
+      </c>
+      <c r="F427" s="18"/>
+      <c r="G427" s="3">
+        <f>IF(ISBLANK(B427)," ",SUMIF($B$2:B427,B427,$E$2:E427)-SUMIF($B$2:B427,B427,$F$2:F427))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="428" spans="2:7">
+      <c r="B428" s="41" t="s">
+        <v>519</v>
+      </c>
+      <c r="C428" s="8" t="str">
+        <f>IF(ISBLANK(B428)," ",VLOOKUP(B428,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve">FLORERO </v>
+      </c>
+      <c r="D428" s="4">
+        <f>IF(ISBLANK(B428)," ",VLOOKUP(B428,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>32</v>
+      </c>
+      <c r="E428" s="26">
+        <v>4</v>
+      </c>
+      <c r="F428" s="18"/>
+      <c r="G428" s="3">
+        <f>IF(ISBLANK(B428)," ",SUMIF($B$2:B428,B428,$E$2:E428)-SUMIF($B$2:B428,B428,$F$2:F428))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="429" spans="2:7">
+      <c r="B429" s="48" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C429" s="8" t="e">
+        <f>IF(ISBLANK(B429)," ",VLOOKUP(B429,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D429" s="4" t="e">
+        <f>IF(ISBLANK(B429)," ",VLOOKUP(B429,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E429" s="26">
+        <v>1</v>
+      </c>
+      <c r="F429" s="18"/>
+      <c r="G429" s="3">
+        <f>IF(ISBLANK(B429)," ",SUMIF($B$2:B429,B429,$E$2:E429)-SUMIF($B$2:B429,B429,$F$2:F429))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="2:7">
+      <c r="B430" s="48" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C430" s="8" t="e">
+        <f>IF(ISBLANK(B430)," ",VLOOKUP(B430,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D430" s="4" t="e">
+        <f>IF(ISBLANK(B430)," ",VLOOKUP(B430,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E430" s="26">
+        <v>2</v>
+      </c>
+      <c r="F430" s="18"/>
+      <c r="G430" s="3">
+        <f>IF(ISBLANK(B430)," ",SUMIF($B$2:B430,B430,$E$2:E430)-SUMIF($B$2:B430,B430,$F$2:F430))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="431" spans="2:7">
+      <c r="B431" s="48" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C431" s="8" t="e">
+        <f>IF(ISBLANK(B431)," ",VLOOKUP(B431,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D431" s="4" t="e">
+        <f>IF(ISBLANK(B431)," ",VLOOKUP(B431,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E431" s="26">
+        <v>1</v>
+      </c>
+      <c r="F431" s="18"/>
+      <c r="G431" s="3">
+        <f>IF(ISBLANK(B431)," ",SUMIF($B$2:B431,B431,$E$2:E431)-SUMIF($B$2:B431,B431,$F$2:F431))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="2:7">
+      <c r="B432" s="48" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C432" s="8" t="e">
+        <f>IF(ISBLANK(B432)," ",VLOOKUP(B432,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D432" s="4" t="e">
+        <f>IF(ISBLANK(B432)," ",VLOOKUP(B432,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E432" s="26">
+        <v>1</v>
+      </c>
+      <c r="F432" s="18"/>
+      <c r="G432" s="3">
+        <f>IF(ISBLANK(B432)," ",SUMIF($B$2:B432,B432,$E$2:E432)-SUMIF($B$2:B432,B432,$F$2:F432))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="2:7">
+      <c r="B433" s="41" t="s">
+        <v>521</v>
+      </c>
+      <c r="C433" s="8" t="str">
+        <f>IF(ISBLANK(B433)," ",VLOOKUP(B433,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>FLORERO</v>
+      </c>
+      <c r="D433" s="4">
+        <f>IF(ISBLANK(B433)," ",VLOOKUP(B433,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>58</v>
+      </c>
+      <c r="E433" s="26">
+        <v>5</v>
+      </c>
+      <c r="F433" s="18"/>
+      <c r="G433" s="3">
+        <f>IF(ISBLANK(B433)," ",SUMIF($B$2:B433,B433,$E$2:E433)-SUMIF($B$2:B433,B433,$F$2:F433))</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="434" spans="2:7">
+      <c r="B434" s="41" t="s">
+        <v>431</v>
+      </c>
+      <c r="C434" s="8" t="str">
+        <f>IF(ISBLANK(B434)," ",VLOOKUP(B434,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>ARCHIVADOR METALICO DE 3 PUERTAS</v>
+      </c>
+      <c r="D434" s="4">
+        <f>IF(ISBLANK(B434)," ",VLOOKUP(B434,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>145</v>
+      </c>
+      <c r="E434" s="26">
+        <v>1</v>
+      </c>
+      <c r="F434" s="18"/>
+      <c r="G434" s="3">
+        <f>IF(ISBLANK(B434)," ",SUMIF($B$2:B434,B434,$E$2:E434)-SUMIF($B$2:B434,B434,$F$2:F434))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="435" spans="2:7">
+      <c r="B435" s="41" t="s">
+        <v>428</v>
+      </c>
+      <c r="C435" s="8" t="str">
+        <f>IF(ISBLANK(B435)," ",VLOOKUP(B435,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>ARCHVADOR METALICO CON UNA SOLA PUERTA</v>
+      </c>
+      <c r="D435" s="4">
+        <f>IF(ISBLANK(B435)," ",VLOOKUP(B435,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>135</v>
+      </c>
+      <c r="E435" s="26">
+        <v>1</v>
+      </c>
+      <c r="F435" s="18"/>
+      <c r="G435" s="3">
+        <f>IF(ISBLANK(B435)," ",SUMIF($B$2:B435,B435,$E$2:E435)-SUMIF($B$2:B435,B435,$F$2:F435))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="436" spans="2:7">
+      <c r="B436" s="41" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C436" s="8" t="str">
+        <f>IF(ISBLANK(B436)," ",VLOOKUP(B436,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>MESA PARA CENTRO CAFÉ</v>
+      </c>
+      <c r="D436" s="4">
+        <f>IF(ISBLANK(B436)," ",VLOOKUP(B436,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E436" s="26">
+        <v>1</v>
+      </c>
+      <c r="F436" s="18"/>
+      <c r="G436" s="3">
+        <f>IF(ISBLANK(B436)," ",SUMIF($B$2:B436,B436,$E$2:E436)-SUMIF($B$2:B436,B436,$F$2:F436))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="2:7">
+      <c r="B437" s="48" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C437" s="8" t="e">
+        <f>IF(ISBLANK(B437)," ",VLOOKUP(B437,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D437" s="4" t="e">
+        <f>IF(ISBLANK(B437)," ",VLOOKUP(B437,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E437" s="26">
+        <v>1</v>
+      </c>
+      <c r="F437" s="18"/>
+      <c r="G437" s="3">
+        <f>IF(ISBLANK(B437)," ",SUMIF($B$2:B437,B437,$E$2:E437)-SUMIF($B$2:B437,B437,$F$2:F437))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="2:7">
+      <c r="B438" s="41" t="s">
+        <v>990</v>
+      </c>
+      <c r="C438" s="8" t="str">
+        <f>IF(ISBLANK(B438)," ",VLOOKUP(B438,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve">MUEBLE DE TV </v>
+      </c>
+      <c r="D438" s="4">
+        <f>IF(ISBLANK(B438)," ",VLOOKUP(B438,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E438" s="26"/>
+      <c r="F438" s="18">
+        <v>1</v>
+      </c>
+      <c r="G438" s="3">
+        <f>IF(ISBLANK(B438)," ",SUMIF($B$2:B438,B438,$E$2:E438)-SUMIF($B$2:B438,B438,$F$2:F438))</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="439" spans="2:7">
+      <c r="B439" s="41" t="s">
+        <v>543</v>
+      </c>
+      <c r="C439" s="8" t="str">
+        <f>IF(ISBLANK(B439)," ",VLOOKUP(B439,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>ABANICO  DE PISO STAR PLUS GRANDE</v>
+      </c>
+      <c r="D439" s="4">
+        <f>IF(ISBLANK(B439)," ",VLOOKUP(B439,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E439" s="26"/>
+      <c r="F439" s="18">
+        <v>1</v>
+      </c>
+      <c r="G439" s="3">
+        <f>IF(ISBLANK(B439)," ",SUMIF($B$2:B439,B439,$E$2:E439)-SUMIF($B$2:B439,B439,$F$2:F439))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="2:7">
+      <c r="B440" s="48" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C440" s="8" t="e">
+        <f>IF(ISBLANK(B440)," ",VLOOKUP(B440,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D440" s="4" t="e">
+        <f>IF(ISBLANK(B440)," ",VLOOKUP(B440,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E440" s="26"/>
+      <c r="F440" s="18">
+        <v>1</v>
+      </c>
+      <c r="G440" s="3">
+        <f>IF(ISBLANK(B440)," ",SUMIF($B$2:B440,B440,$E$2:E440)-SUMIF($B$2:B440,B440,$F$2:F440))</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="441" spans="2:7">
+      <c r="B441" s="41" t="s">
+        <v>719</v>
+      </c>
+      <c r="C441" s="8" t="str">
+        <f>IF(ISBLANK(B441)," ",VLOOKUP(B441,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve">JEEP ELECTRICO MRANGLER PARA NIÑO </v>
+      </c>
+      <c r="D441" s="4">
+        <f>IF(ISBLANK(B441)," ",VLOOKUP(B441,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>220</v>
+      </c>
+      <c r="E441" s="26"/>
+      <c r="F441" s="18">
+        <v>1</v>
+      </c>
+      <c r="G441" s="3">
+        <f>IF(ISBLANK(B441)," ",SUMIF($B$2:B441,B441,$E$2:E441)-SUMIF($B$2:B441,B441,$F$2:F441))</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="442" spans="2:7">
+      <c r="B442" s="41" t="s">
+        <v>727</v>
+      </c>
+      <c r="C442" s="8" t="str">
+        <f>IF(ISBLANK(B442)," ",VLOOKUP(B442,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>SILLA PARA ESPERA</v>
+      </c>
+      <c r="D442" s="4">
+        <f>IF(ISBLANK(B442)," ",VLOOKUP(B442,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>35</v>
+      </c>
+      <c r="E442" s="26"/>
+      <c r="F442" s="18">
+        <v>2</v>
+      </c>
+      <c r="G442" s="3">
+        <f>IF(ISBLANK(B442)," ",SUMIF($B$2:B442,B442,$E$2:E442)-SUMIF($B$2:B442,B442,$F$2:F442))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="443" spans="2:7">
+      <c r="B443" s="41" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C443" s="8" t="str">
+        <f>IF(ISBLANK(B443)," ",VLOOKUP(B443,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>LAMPARA PARA PARED</v>
+      </c>
+      <c r="D443" s="4">
+        <f>IF(ISBLANK(B443)," ",VLOOKUP(B443,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E443" s="26"/>
+      <c r="F443" s="18">
+        <v>1</v>
+      </c>
+      <c r="G443" s="3">
+        <f>IF(ISBLANK(B443)," ",SUMIF($B$2:B443,B443,$E$2:E443)-SUMIF($B$2:B443,B443,$F$2:F443))</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="444" spans="2:7">
+      <c r="B444" s="41" t="s">
+        <v>572</v>
+      </c>
+      <c r="C444" s="8" t="str">
+        <f>IF(ISBLANK(B444)," ",VLOOKUP(B444,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve">LAMPARA PARA MESA </v>
+      </c>
+      <c r="D444" s="4">
+        <f>IF(ISBLANK(B444)," ",VLOOKUP(B444,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>32</v>
+      </c>
+      <c r="E444" s="26"/>
+      <c r="F444" s="18">
+        <v>2</v>
+      </c>
+      <c r="G444" s="3">
+        <f>IF(ISBLANK(B444)," ",SUMIF($B$2:B444,B444,$E$2:E444)-SUMIF($B$2:B444,B444,$F$2:F444))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="445" spans="2:7">
+      <c r="B445" s="41" t="s">
+        <v>992</v>
+      </c>
+      <c r="C445" s="8" t="str">
+        <f>IF(ISBLANK(B445)," ",VLOOKUP(B445,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>VASOS TRANSPARENTES LIFE ART</v>
+      </c>
+      <c r="D445" s="4">
+        <f>IF(ISBLANK(B445)," ",VLOOKUP(B445,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>2.95</v>
+      </c>
+      <c r="E445" s="26"/>
+      <c r="F445" s="18">
+        <v>6</v>
+      </c>
+      <c r="G445" s="3">
+        <f>IF(ISBLANK(B445)," ",SUMIF($B$2:B445,B445,$E$2:E445)-SUMIF($B$2:B445,B445,$F$2:F445))</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="446" spans="2:7">
+      <c r="B446" s="41" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C446" s="8" t="str">
+        <f>IF(ISBLANK(B446)," ",VLOOKUP(B446,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>HIELERA PEQUEÑA LIFE ART</v>
+      </c>
+      <c r="D446" s="4">
+        <f>IF(ISBLANK(B446)," ",VLOOKUP(B446,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>3.5</v>
+      </c>
+      <c r="E446" s="26"/>
+      <c r="F446" s="18">
+        <v>6</v>
+      </c>
+      <c r="G446" s="3">
+        <f>IF(ISBLANK(B446)," ",SUMIF($B$2:B446,B446,$E$2:E446)-SUMIF($B$2:B446,B446,$F$2:F446))</f>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="447" spans="2:7">
+      <c r="B447" s="41" t="s">
+        <v>514</v>
+      </c>
+      <c r="C447" s="8" t="str">
+        <f>IF(ISBLANK(B447)," ",VLOOKUP(B447,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve">PLANTA ARTIFICIAL CON MACETA </v>
+      </c>
+      <c r="D447" s="4">
+        <f>IF(ISBLANK(B447)," ",VLOOKUP(B447,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>8.5</v>
+      </c>
+      <c r="E447" s="26"/>
+      <c r="F447" s="18">
+        <v>3</v>
+      </c>
+      <c r="G447" s="3">
+        <f>IF(ISBLANK(B447)," ",SUMIF($B$2:B447,B447,$E$2:E447)-SUMIF($B$2:B447,B447,$F$2:F447))</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="448" spans="2:7">
+      <c r="B448" s="41" t="s">
+        <v>938</v>
+      </c>
+      <c r="C448" s="8" t="str">
+        <f>IF(ISBLANK(B448)," ",VLOOKUP(B448,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>PARAGUA PARA TERREZA</v>
+      </c>
+      <c r="D448" s="4">
+        <f>IF(ISBLANK(B448)," ",VLOOKUP(B448,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E448" s="26"/>
+      <c r="F448" s="18">
+        <v>1</v>
+      </c>
+      <c r="G448" s="3">
+        <f>IF(ISBLANK(B448)," ",SUMIF($B$2:B448,B448,$E$2:E448)-SUMIF($B$2:B448,B448,$F$2:F448))</f>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="449" spans="2:7">
+      <c r="B449" s="41" t="s">
+        <v>540</v>
+      </c>
+      <c r="C449" s="8" t="str">
+        <f>IF(ISBLANK(B449)," ",VLOOKUP(B449,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>LAMPARA PARA TECHO  5 BOMBILLOS</v>
+      </c>
+      <c r="D449" s="4">
+        <f>IF(ISBLANK(B449)," ",VLOOKUP(B449,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>60</v>
+      </c>
+      <c r="E449" s="26"/>
+      <c r="F449" s="18">
+        <v>1</v>
+      </c>
+      <c r="G449" s="3">
+        <f>IF(ISBLANK(B449)," ",SUMIF($B$2:B449,B449,$E$2:E449)-SUMIF($B$2:B449,B449,$F$2:F449))</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="450" spans="2:7">
+      <c r="B450" s="41" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C450" s="8" t="str">
+        <f>IF(ISBLANK(B450)," ",VLOOKUP(B450,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>LAMPARA PARA MESA</v>
+      </c>
+      <c r="D450" s="4">
+        <f>IF(ISBLANK(B450)," ",VLOOKUP(B450,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E450" s="26"/>
+      <c r="F450" s="18">
+        <v>2</v>
+      </c>
+      <c r="G450" s="3">
+        <f>IF(ISBLANK(B450)," ",SUMIF($B$2:B450,B450,$E$2:E450)-SUMIF($B$2:B450,B450,$F$2:F450))</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="451" spans="2:7">
+      <c r="B451" s="41" t="s">
+        <v>571</v>
+      </c>
+      <c r="C451" s="8" t="str">
+        <f>IF(ISBLANK(B451)," ",VLOOKUP(B451,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve">LAMPARA PARA MESA </v>
+      </c>
+      <c r="D451" s="4">
+        <f>IF(ISBLANK(B451)," ",VLOOKUP(B451,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>18</v>
+      </c>
+      <c r="E451" s="26"/>
+      <c r="F451" s="18">
+        <v>3</v>
+      </c>
+      <c r="G451" s="3">
+        <f>IF(ISBLANK(B451)," ",SUMIF($B$2:B451,B451,$E$2:E451)-SUMIF($B$2:B451,B451,$F$2:F451))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="452" spans="2:7">
+      <c r="B452" s="41" t="s">
+        <v>993</v>
+      </c>
+      <c r="C452" s="8" t="str">
+        <f>IF(ISBLANK(B452)," ",VLOOKUP(B452,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve">LAMPARA TECHO </v>
+      </c>
+      <c r="D452" s="4">
+        <f>IF(ISBLANK(B452)," ",VLOOKUP(B452,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E452" s="26"/>
+      <c r="F452" s="18">
+        <v>2</v>
+      </c>
+      <c r="G452" s="3">
+        <f>IF(ISBLANK(B452)," ",SUMIF($B$2:B452,B452,$E$2:E452)-SUMIF($B$2:B452,B452,$F$2:F452))</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="453" spans="2:7">
+      <c r="B453" s="41" t="s">
+        <v>515</v>
+      </c>
+      <c r="C453" s="8" t="str">
+        <f>IF(ISBLANK(B453)," ",VLOOKUP(B453,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve">PLANTA ARTIFICIAL CON MACETA </v>
+      </c>
+      <c r="D453" s="4">
+        <f>IF(ISBLANK(B453)," ",VLOOKUP(B453,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>7</v>
+      </c>
+      <c r="E453" s="26"/>
+      <c r="F453" s="18">
+        <v>2</v>
+      </c>
+      <c r="G453" s="3">
+        <f>IF(ISBLANK(B453)," ",SUMIF($B$2:B453,B453,$E$2:E453)-SUMIF($B$2:B453,B453,$F$2:F453))</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="454" spans="2:7">
+      <c r="B454" s="41" t="s">
+        <v>995</v>
+      </c>
+      <c r="C454" s="8" t="str">
+        <f>IF(ISBLANK(B454)," ",VLOOKUP(B454,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve">COMEDOR 5 PIEZAS </v>
+      </c>
+      <c r="D454" s="4">
+        <f>IF(ISBLANK(B454)," ",VLOOKUP(B454,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E454" s="26">
+        <v>3</v>
+      </c>
+      <c r="F454" s="18">
+        <v>2</v>
+      </c>
+      <c r="G454" s="3">
+        <f>IF(ISBLANK(B454)," ",SUMIF($B$2:B454,B454,$E$2:E454)-SUMIF($B$2:B454,B454,$F$2:F454))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="455" spans="2:7">
+      <c r="B455" s="41" t="s">
+        <v>484</v>
+      </c>
+      <c r="C455" s="8" t="str">
+        <f>IF(ISBLANK(B455)," ",VLOOKUP(B455,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve">SET SILLA DE ESPERA DE 4 SILLAS </v>
+      </c>
+      <c r="D455" s="4">
+        <f>IF(ISBLANK(B455)," ",VLOOKUP(B455,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>198</v>
+      </c>
+      <c r="E455" s="26">
+        <v>4</v>
+      </c>
+      <c r="F455" s="18">
+        <v>4</v>
+      </c>
+      <c r="G455" s="3">
+        <f>IF(ISBLANK(B455)," ",SUMIF($B$2:B455,B455,$E$2:E455)-SUMIF($B$2:B455,B455,$F$2:F455))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="2:7">
+      <c r="B456" s="41" t="s">
+        <v>727</v>
+      </c>
+      <c r="C456" s="8" t="str">
+        <f>IF(ISBLANK(B456)," ",VLOOKUP(B456,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>SILLA PARA ESPERA</v>
+      </c>
+      <c r="D456" s="4">
+        <f>IF(ISBLANK(B456)," ",VLOOKUP(B456,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>35</v>
+      </c>
+      <c r="E456" s="26">
+        <v>10</v>
+      </c>
+      <c r="F456" s="18"/>
+      <c r="G456" s="3">
+        <f>IF(ISBLANK(B456)," ",SUMIF($B$2:B456,B456,$E$2:E456)-SUMIF($B$2:B456,B456,$F$2:F456))</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="457" spans="2:7">
+      <c r="B457" s="41" t="s">
+        <v>626</v>
+      </c>
+      <c r="C457" s="8" t="str">
+        <f>IF(ISBLANK(B457)," ",VLOOKUP(B457,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>SILLA PARA BAR</v>
+      </c>
+      <c r="D457" s="4">
+        <f>IF(ISBLANK(B457)," ",VLOOKUP(B457,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>48</v>
+      </c>
+      <c r="E457" s="26"/>
+      <c r="F457" s="18">
+        <v>4</v>
+      </c>
+      <c r="G457" s="3">
+        <f>IF(ISBLANK(B457)," ",SUMIF($B$2:B457,B457,$E$2:E457)-SUMIF($B$2:B457,B457,$F$2:F457))</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="458" spans="2:7">
+      <c r="B458" s="41" t="s">
+        <v>506</v>
+      </c>
+      <c r="C458" s="8" t="str">
+        <f>IF(ISBLANK(B458)," ",VLOOKUP(B458,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve">SILLA PARA SALON </v>
+      </c>
+      <c r="D458" s="4">
+        <f>IF(ISBLANK(B458)," ",VLOOKUP(B458,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>195</v>
+      </c>
+      <c r="E458" s="26"/>
+      <c r="F458" s="18">
+        <v>1</v>
+      </c>
+      <c r="G458" s="3">
+        <f>IF(ISBLANK(B458)," ",SUMIF($B$2:B458,B458,$E$2:E458)-SUMIF($B$2:B458,B458,$F$2:F458))</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="459" spans="2:7">
+      <c r="B459" s="41" t="s">
+        <v>626</v>
+      </c>
+      <c r="C459" s="8" t="str">
+        <f>IF(ISBLANK(B459)," ",VLOOKUP(B459,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>SILLA PARA BAR</v>
+      </c>
+      <c r="D459" s="4">
+        <f>IF(ISBLANK(B459)," ",VLOOKUP(B459,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>48</v>
+      </c>
+      <c r="E459" s="26"/>
+      <c r="F459" s="18">
+        <v>1</v>
+      </c>
+      <c r="G459" s="3">
+        <f>IF(ISBLANK(B459)," ",SUMIF($B$2:B459,B459,$E$2:E459)-SUMIF($B$2:B459,B459,$F$2:F459))</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="460" spans="2:7">
+      <c r="B460" s="41" t="s">
+        <v>435</v>
+      </c>
+      <c r="C460" s="8" t="str">
+        <f>IF(ISBLANK(B460)," ",VLOOKUP(B460,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>ARCHIVADOR METALICO DE 4 GAVETAS</v>
+      </c>
+      <c r="D460" s="4">
+        <f>IF(ISBLANK(B460)," ",VLOOKUP(B460,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>268</v>
+      </c>
+      <c r="E460" s="26">
+        <v>2</v>
+      </c>
+      <c r="F460" s="18">
+        <v>1</v>
+      </c>
+      <c r="G460" s="3">
+        <f>IF(ISBLANK(B460)," ",SUMIF($B$2:B460,B460,$E$2:E460)-SUMIF($B$2:B460,B460,$F$2:F460))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="2:7">
+      <c r="B461" s="48" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C461" s="8" t="e">
+        <f>IF(ISBLANK(B461)," ",VLOOKUP(B461,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D461" s="4" t="e">
+        <f>IF(ISBLANK(B461)," ",VLOOKUP(B461,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E461" s="26">
+        <v>14</v>
+      </c>
+      <c r="F461" s="18">
+        <v>10</v>
+      </c>
+      <c r="G461" s="3">
+        <f>IF(ISBLANK(B461)," ",SUMIF($B$2:B461,B461,$E$2:E461)-SUMIF($B$2:B461,B461,$F$2:F461))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="462" spans="2:7">
+      <c r="B462" s="48" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C462" s="8" t="e">
+        <f>IF(ISBLANK(B462)," ",VLOOKUP(B462,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D462" s="4" t="e">
+        <f>IF(ISBLANK(B462)," ",VLOOKUP(B462,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E462" s="26"/>
+      <c r="F462" s="18">
+        <v>4</v>
+      </c>
+      <c r="G462" s="3">
+        <f>IF(ISBLANK(B462)," ",SUMIF($B$2:B462,B462,$E$2:E462)-SUMIF($B$2:B462,B462,$F$2:F462))</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="463" spans="2:7">
+      <c r="B463" s="41" t="s">
+        <v>626</v>
+      </c>
+      <c r="C463" s="8" t="str">
+        <f>IF(ISBLANK(B463)," ",VLOOKUP(B463,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>SILLA PARA BAR</v>
+      </c>
+      <c r="D463" s="4">
+        <f>IF(ISBLANK(B463)," ",VLOOKUP(B463,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>48</v>
+      </c>
+      <c r="E463" s="26"/>
+      <c r="F463" s="18">
+        <v>2</v>
+      </c>
+      <c r="G463" s="3">
+        <f>IF(ISBLANK(B463)," ",SUMIF($B$2:B463,B463,$E$2:E463)-SUMIF($B$2:B463,B463,$F$2:F463))</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="464" spans="2:7">
+      <c r="B464" s="41" t="s">
+        <v>623</v>
+      </c>
+      <c r="C464" s="8" t="str">
+        <f>IF(ISBLANK(B464)," ",VLOOKUP(B464,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>SILLA PARA BAR</v>
+      </c>
+      <c r="D464" s="4">
+        <f>IF(ISBLANK(B464)," ",VLOOKUP(B464,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>65</v>
+      </c>
+      <c r="E464" s="26">
+        <v>2</v>
+      </c>
+      <c r="F464" s="18">
+        <v>2</v>
+      </c>
+      <c r="G464" s="3">
+        <f>IF(ISBLANK(B464)," ",SUMIF($B$2:B464,B464,$E$2:E464)-SUMIF($B$2:B464,B464,$F$2:F464))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="2:7">
+      <c r="B465" s="48" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C465" s="8" t="e">
+        <f>IF(ISBLANK(B465)," ",VLOOKUP(B465,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D465" s="4" t="e">
+        <f>IF(ISBLANK(B465)," ",VLOOKUP(B465,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E465" s="26">
+        <v>4</v>
+      </c>
+      <c r="F465" s="18">
+        <v>1</v>
+      </c>
+      <c r="G465" s="3">
+        <f>IF(ISBLANK(B465)," ",SUMIF($B$2:B465,B465,$E$2:E465)-SUMIF($B$2:B465,B465,$F$2:F465))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="466" spans="2:7">
+      <c r="B466" s="41" t="s">
+        <v>597</v>
+      </c>
+      <c r="C466" s="8" t="str">
+        <f>IF(ISBLANK(B466)," ",VLOOKUP(B466,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>CESPED  ARTIFICIAL</v>
+      </c>
+      <c r="D466" s="4">
+        <f>IF(ISBLANK(B466)," ",VLOOKUP(B466,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>125</v>
+      </c>
+      <c r="E466" s="26"/>
+      <c r="F466" s="18">
+        <v>1</v>
+      </c>
+      <c r="G466" s="3">
+        <f>IF(ISBLANK(B466)," ",SUMIF($B$2:B466,B466,$E$2:E466)-SUMIF($B$2:B466,B466,$F$2:F466))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="2:7">
+      <c r="B467" s="41" t="s">
+        <v>725</v>
+      </c>
+      <c r="C467" s="8" t="str">
+        <f>IF(ISBLANK(B467)," ",VLOOKUP(B467,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve">ARCHIVADOR 2 GAVETAS </v>
+      </c>
+      <c r="D467" s="4">
+        <f>IF(ISBLANK(B467)," ",VLOOKUP(B467,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>185</v>
+      </c>
+      <c r="E467" s="26">
+        <v>1</v>
+      </c>
+      <c r="F467" s="18"/>
+      <c r="G467" s="3">
+        <f>IF(ISBLANK(B467)," ",SUMIF($B$2:B467,B467,$E$2:E467)-SUMIF($B$2:B467,B467,$F$2:F467))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="2:7">
+      <c r="B468" s="41" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C468" s="8" t="str">
+        <f>IF(ISBLANK(B468)," ",VLOOKUP(B468,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>SOFA CAMA</v>
+      </c>
+      <c r="D468" s="4">
+        <f>IF(ISBLANK(B468)," ",VLOOKUP(B468,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E468" s="26">
+        <v>1</v>
+      </c>
+      <c r="F468" s="18"/>
+      <c r="G468" s="3">
+        <f>IF(ISBLANK(B468)," ",SUMIF($B$2:B468,B468,$E$2:E468)-SUMIF($B$2:B468,B468,$F$2:F468))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="2:7">
+      <c r="B469" s="41" t="s">
+        <v>448</v>
+      </c>
+      <c r="C469" s="8" t="str">
+        <f>IF(ISBLANK(B469)," ",VLOOKUP(B469,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>PARAGUAS PARA JARDIN</v>
+      </c>
+      <c r="D469" s="4">
+        <f>IF(ISBLANK(B469)," ",VLOOKUP(B469,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>235</v>
+      </c>
+      <c r="E469" s="26">
+        <v>1</v>
+      </c>
+      <c r="F469" s="18"/>
+      <c r="G469" s="3">
+        <f>IF(ISBLANK(B469)," ",SUMIF($B$2:B469,B469,$E$2:E469)-SUMIF($B$2:B469,B469,$F$2:F469))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="2:7">
+      <c r="B470" s="48" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C470" s="8" t="e">
+        <f>IF(ISBLANK(B470)," ",VLOOKUP(B470,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D470" s="4" t="e">
+        <f>IF(ISBLANK(B470)," ",VLOOKUP(B470,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E470" s="26">
+        <v>1</v>
+      </c>
+      <c r="F470" s="18"/>
+      <c r="G470" s="3">
+        <f>IF(ISBLANK(B470)," ",SUMIF($B$2:B470,B470,$E$2:E470)-SUMIF($B$2:B470,B470,$F$2:F470))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="2:7">
+      <c r="B471" s="41" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C471" s="8" t="str">
+        <f>IF(ISBLANK(B471)," ",VLOOKUP(B471,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve">SILLA METALICA </v>
+      </c>
+      <c r="D471" s="4">
+        <f>IF(ISBLANK(B471)," ",VLOOKUP(B471,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E471" s="26"/>
+      <c r="F471" s="18">
+        <v>3</v>
+      </c>
+      <c r="G471" s="3">
+        <f>IF(ISBLANK(B471)," ",SUMIF($B$2:B471,B471,$E$2:E471)-SUMIF($B$2:B471,B471,$F$2:F471))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="2:7">
+      <c r="B472" s="41" t="s">
+        <v>641</v>
+      </c>
+      <c r="C472" s="8" t="str">
+        <f>IF(ISBLANK(B472)," ",VLOOKUP(B472,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>SILLA PLEGABLE PLASTICA</v>
+      </c>
+      <c r="D472" s="4">
+        <f>IF(ISBLANK(B472)," ",VLOOKUP(B472,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>32</v>
+      </c>
+      <c r="E472" s="26"/>
+      <c r="F472" s="18">
+        <v>5</v>
+      </c>
+      <c r="G472" s="3">
+        <f>IF(ISBLANK(B472)," ",SUMIF($B$2:B472,B472,$E$2:E472)-SUMIF($B$2:B472,B472,$F$2:F472))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="473" spans="2:7">
+      <c r="B473" s="48" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C473" s="8" t="e">
+        <f>IF(ISBLANK(B473)," ",VLOOKUP(B473,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D473" s="4" t="e">
+        <f>IF(ISBLANK(B473)," ",VLOOKUP(B473,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E473" s="26"/>
+      <c r="F473" s="18">
+        <v>3</v>
+      </c>
+      <c r="G473" s="3">
+        <f>IF(ISBLANK(B473)," ",SUMIF($B$2:B473,B473,$E$2:E473)-SUMIF($B$2:B473,B473,$F$2:F473))</f>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="474" spans="2:7">
+      <c r="B474" s="48" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C474" s="8" t="e">
+        <f>IF(ISBLANK(B474)," ",VLOOKUP(B474,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D474" s="4" t="e">
+        <f>IF(ISBLANK(B474)," ",VLOOKUP(B474,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E474" s="26"/>
+      <c r="F474" s="18">
+        <v>6</v>
+      </c>
+      <c r="G474" s="3">
+        <f>IF(ISBLANK(B474)," ",SUMIF($B$2:B474,B474,$E$2:E474)-SUMIF($B$2:B474,B474,$F$2:F474))</f>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="475" spans="2:7">
+      <c r="B475" s="48" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C475" s="8" t="e">
+        <f>IF(ISBLANK(B475)," ",VLOOKUP(B475,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D475" s="4" t="e">
+        <f>IF(ISBLANK(B475)," ",VLOOKUP(B475,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E475" s="26"/>
+      <c r="F475" s="18">
+        <v>1</v>
+      </c>
+      <c r="G475" s="3">
+        <f>IF(ISBLANK(B475)," ",SUMIF($B$2:B475,B475,$E$2:E475)-SUMIF($B$2:B475,B475,$F$2:F475))</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="476" spans="2:7">
+      <c r="B476" s="48" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C476" s="8" t="e">
+        <f>IF(ISBLANK(B476)," ",VLOOKUP(B476,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D476" s="4" t="e">
+        <f>IF(ISBLANK(B476)," ",VLOOKUP(B476,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E476" s="26"/>
+      <c r="F476" s="18">
+        <v>1</v>
+      </c>
+      <c r="G476" s="3">
+        <f>IF(ISBLANK(B476)," ",SUMIF($B$2:B476,B476,$E$2:E476)-SUMIF($B$2:B476,B476,$F$2:F476))</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="477" spans="2:7">
+      <c r="B477" s="48" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C477" s="8" t="e">
+        <f>IF(ISBLANK(B477)," ",VLOOKUP(B477,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D477" s="4" t="e">
+        <f>IF(ISBLANK(B477)," ",VLOOKUP(B477,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E477" s="26"/>
+      <c r="F477" s="18">
+        <v>1</v>
+      </c>
+      <c r="G477" s="3">
+        <f>IF(ISBLANK(B477)," ",SUMIF($B$2:B477,B477,$E$2:E477)-SUMIF($B$2:B477,B477,$F$2:F477))</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="478" spans="2:7">
+      <c r="B478" s="41" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C478" s="8" t="str">
+        <f>IF(ISBLANK(B478)," ",VLOOKUP(B478,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>GABINETE PARA COCINA</v>
+      </c>
+      <c r="D478" s="4">
+        <f>IF(ISBLANK(B478)," ",VLOOKUP(B478,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E478" s="26">
+        <v>1</v>
+      </c>
+      <c r="F478" s="18"/>
+      <c r="G478" s="3">
+        <f>IF(ISBLANK(B478)," ",SUMIF($B$2:B478,B478,$E$2:E478)-SUMIF($B$2:B478,B478,$F$2:F478))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" spans="2:7">
+      <c r="B479" s="41" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C479" s="8" t="str">
+        <f>IF(ISBLANK(B479)," ",VLOOKUP(B479,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve">SILLA PARA SALON </v>
+      </c>
+      <c r="D479" s="4">
+        <f>IF(ISBLANK(B479)," ",VLOOKUP(B479,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E479" s="26">
+        <v>1</v>
+      </c>
+      <c r="F479" s="18"/>
+      <c r="G479" s="3">
+        <f>IF(ISBLANK(B479)," ",SUMIF($B$2:B479,B479,$E$2:E479)-SUMIF($B$2:B479,B479,$F$2:F479))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480" spans="2:7">
+      <c r="B480" s="41" t="s">
+        <v>940</v>
+      </c>
+      <c r="C480" s="8" t="str">
+        <f>IF(ISBLANK(B480)," ",VLOOKUP(B480,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>MESA CENTRO DE MADERA/VIDRIO</v>
+      </c>
+      <c r="D480" s="4">
+        <f>IF(ISBLANK(B480)," ",VLOOKUP(B480,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E480" s="26">
+        <v>1</v>
+      </c>
+      <c r="F480" s="18"/>
+      <c r="G480" s="3">
+        <f>IF(ISBLANK(B480)," ",SUMIF($B$2:B480,B480,$E$2:E480)-SUMIF($B$2:B480,B480,$F$2:F480))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="481" spans="2:7">
+      <c r="B481" s="48" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C481" s="8" t="e">
+        <f>IF(ISBLANK(B481)," ",VLOOKUP(B481,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D481" s="4" t="e">
+        <f>IF(ISBLANK(B481)," ",VLOOKUP(B481,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E481" s="26">
+        <v>1</v>
+      </c>
+      <c r="F481" s="18"/>
+      <c r="G481" s="3">
+        <f>IF(ISBLANK(B481)," ",SUMIF($B$2:B481,B481,$E$2:E481)-SUMIF($B$2:B481,B481,$F$2:F481))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" spans="2:7">
+      <c r="B482" s="48" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C482" s="8" t="e">
+        <f>IF(ISBLANK(B482)," ",VLOOKUP(B482,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D482" s="4" t="e">
+        <f>IF(ISBLANK(B482)," ",VLOOKUP(B482,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E482" s="26">
+        <v>1</v>
+      </c>
+      <c r="F482" s="18"/>
+      <c r="G482" s="3">
+        <f>IF(ISBLANK(B482)," ",SUMIF($B$2:B482,B482,$E$2:E482)-SUMIF($B$2:B482,B482,$F$2:F482))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" spans="2:7">
+      <c r="B483" s="48" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C483" s="8" t="e">
+        <f>IF(ISBLANK(B483)," ",VLOOKUP(B483,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D483" s="4" t="e">
+        <f>IF(ISBLANK(B483)," ",VLOOKUP(B483,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E483" s="26">
+        <v>1</v>
+      </c>
+      <c r="F483" s="18"/>
+      <c r="G483" s="3">
+        <f>IF(ISBLANK(B483)," ",SUMIF($B$2:B483,B483,$E$2:E483)-SUMIF($B$2:B483,B483,$F$2:F483))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" spans="2:7">
+      <c r="B484" s="41" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C484" s="8" t="str">
+        <f>IF(ISBLANK(B484)," ",VLOOKUP(B484,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve">ESCRITORIO DE VIDRIO </v>
+      </c>
+      <c r="D484" s="4">
+        <f>IF(ISBLANK(B484)," ",VLOOKUP(B484,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E484" s="26">
+        <v>1</v>
+      </c>
+      <c r="F484" s="18"/>
+      <c r="G484" s="3">
+        <f>IF(ISBLANK(B484)," ",SUMIF($B$2:B484,B484,$E$2:E484)-SUMIF($B$2:B484,B484,$F$2:F484))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" spans="2:7">
+      <c r="B485" s="41" t="s">
+        <v>484</v>
+      </c>
+      <c r="C485" s="8" t="str">
+        <f>IF(ISBLANK(B485)," ",VLOOKUP(B485,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve">SET SILLA DE ESPERA DE 4 SILLAS </v>
+      </c>
+      <c r="D485" s="4">
+        <f>IF(ISBLANK(B485)," ",VLOOKUP(B485,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>198</v>
+      </c>
+      <c r="E485" s="26">
+        <v>1</v>
+      </c>
+      <c r="F485" s="18"/>
+      <c r="G485" s="3">
+        <f>IF(ISBLANK(B485)," ",SUMIF($B$2:B485,B485,$E$2:E485)-SUMIF($B$2:B485,B485,$F$2:F485))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="486" spans="2:7">
+      <c r="B486" s="41" t="s">
+        <v>995</v>
+      </c>
+      <c r="C486" s="8" t="str">
+        <f>IF(ISBLANK(B486)," ",VLOOKUP(B486,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve">COMEDOR 5 PIEZAS </v>
+      </c>
+      <c r="D486" s="4">
+        <f>IF(ISBLANK(B486)," ",VLOOKUP(B486,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E486" s="26">
+        <v>1</v>
+      </c>
+      <c r="F486" s="18"/>
+      <c r="G486" s="3">
+        <f>IF(ISBLANK(B486)," ",SUMIF($B$2:B486,B486,$E$2:E486)-SUMIF($B$2:B486,B486,$F$2:F486))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="487" spans="2:7">
+      <c r="B487" s="41" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C487" s="8" t="str">
+        <f>IF(ISBLANK(B487)," ",VLOOKUP(B487,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>SOFA CAMA</v>
+      </c>
+      <c r="D487" s="4">
+        <f>IF(ISBLANK(B487)," ",VLOOKUP(B487,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E487" s="26"/>
+      <c r="F487" s="18">
+        <v>1</v>
+      </c>
+      <c r="G487" s="3">
+        <f>IF(ISBLANK(B487)," ",SUMIF($B$2:B487,B487,$E$2:E487)-SUMIF($B$2:B487,B487,$F$2:F487))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488" spans="2:7">
+      <c r="B488" s="41" t="s">
+        <v>470</v>
+      </c>
+      <c r="C488" s="8" t="str">
+        <f>IF(ISBLANK(B488)," ",VLOOKUP(B488,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>SILLAS PARA OFICINA CON BRAZOS</v>
+      </c>
+      <c r="D488" s="4">
+        <f>IF(ISBLANK(B488)," ",VLOOKUP(B488,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>125</v>
+      </c>
+      <c r="E488" s="26"/>
+      <c r="F488" s="18">
+        <v>1</v>
+      </c>
+      <c r="G488" s="3">
+        <f>IF(ISBLANK(B488)," ",SUMIF($B$2:B488,B488,$E$2:E488)-SUMIF($B$2:B488,B488,$F$2:F488))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489" spans="2:7">
+      <c r="B489" s="41" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C489" s="8" t="str">
+        <f>IF(ISBLANK(B489)," ",VLOOKUP(B489,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve">SILLA PARA SALON </v>
+      </c>
+      <c r="D489" s="4">
+        <f>IF(ISBLANK(B489)," ",VLOOKUP(B489,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E489" s="26"/>
+      <c r="F489" s="18">
+        <v>1</v>
+      </c>
+      <c r="G489" s="3">
+        <f>IF(ISBLANK(B489)," ",SUMIF($B$2:B489,B489,$E$2:E489)-SUMIF($B$2:B489,B489,$F$2:F489))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490" spans="2:7">
+      <c r="B490" s="41" t="s">
+        <v>614</v>
+      </c>
+      <c r="C490" s="8" t="str">
+        <f>IF(ISBLANK(B490)," ",VLOOKUP(B490,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve">LAMPARA PARA PARED </v>
+      </c>
+      <c r="D490" s="4">
+        <f>IF(ISBLANK(B490)," ",VLOOKUP(B490,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>12</v>
+      </c>
+      <c r="E490" s="26"/>
+      <c r="F490" s="18">
+        <v>1</v>
+      </c>
+      <c r="G490" s="3">
+        <f>IF(ISBLANK(B490)," ",SUMIF($B$2:B490,B490,$E$2:E490)-SUMIF($B$2:B490,B490,$F$2:F490))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="491" spans="2:7">
+      <c r="B491" s="41" t="s">
+        <v>514</v>
+      </c>
+      <c r="C491" s="8" t="str">
+        <f>IF(ISBLANK(B491)," ",VLOOKUP(B491,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve">PLANTA ARTIFICIAL CON MACETA </v>
+      </c>
+      <c r="D491" s="4">
+        <f>IF(ISBLANK(B491)," ",VLOOKUP(B491,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>8.5</v>
+      </c>
+      <c r="E491" s="26"/>
+      <c r="F491" s="18">
+        <v>2</v>
+      </c>
+      <c r="G491" s="3">
+        <f>IF(ISBLANK(B491)," ",SUMIF($B$2:B491,B491,$E$2:E491)-SUMIF($B$2:B491,B491,$F$2:F491))</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="492" spans="2:7">
+      <c r="B492" s="48" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C492" s="8" t="e">
+        <f>IF(ISBLANK(B492)," ",VLOOKUP(B492,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D492" s="4" t="e">
+        <f>IF(ISBLANK(B492)," ",VLOOKUP(B492,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E492" s="26"/>
+      <c r="F492" s="18">
+        <v>1</v>
+      </c>
+      <c r="G492" s="3">
+        <f>IF(ISBLANK(B492)," ",SUMIF($B$2:B492,B492,$E$2:E492)-SUMIF($B$2:B492,B492,$F$2:F492))</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="493" spans="2:7">
+      <c r="B493" s="41" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C493" s="8" t="str">
+        <f>IF(ISBLANK(B493)," ",VLOOKUP(B493,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>JARRON GRANDE CON FLORERO</v>
+      </c>
+      <c r="D493" s="4">
+        <f>IF(ISBLANK(B493)," ",VLOOKUP(B493,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>168</v>
+      </c>
+      <c r="E493" s="26"/>
+      <c r="F493" s="18">
+        <v>1</v>
+      </c>
+      <c r="G493" s="3">
+        <f>IF(ISBLANK(B493)," ",SUMIF($B$2:B493,B493,$E$2:E493)-SUMIF($B$2:B493,B493,$F$2:F493))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" spans="2:7">
+      <c r="B494" s="41" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C494" s="8" t="str">
+        <f>IF(ISBLANK(B494)," ",VLOOKUP(B494,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>ESQUINERA 3 NIVELES</v>
+      </c>
+      <c r="D494" s="4">
+        <f>IF(ISBLANK(B494)," ",VLOOKUP(B494,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E494" s="26"/>
+      <c r="F494" s="18">
+        <v>1</v>
+      </c>
+      <c r="G494" s="3">
+        <f>IF(ISBLANK(B494)," ",SUMIF($B$2:B494,B494,$E$2:E494)-SUMIF($B$2:B494,B494,$F$2:F494))</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="495" spans="2:7">
+      <c r="B495" s="41" t="s">
+        <v>727</v>
+      </c>
+      <c r="C495" s="8" t="str">
+        <f>IF(ISBLANK(B495)," ",VLOOKUP(B495,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>SILLA PARA ESPERA</v>
+      </c>
+      <c r="D495" s="4">
+        <f>IF(ISBLANK(B495)," ",VLOOKUP(B495,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>35</v>
+      </c>
+      <c r="E495" s="26"/>
+      <c r="F495" s="18">
+        <v>3</v>
+      </c>
+      <c r="G495" s="3">
+        <f>IF(ISBLANK(B495)," ",SUMIF($B$2:B495,B495,$E$2:E495)-SUMIF($B$2:B495,B495,$F$2:F495))</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="496" spans="2:7">
+      <c r="B496" s="41" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C496" s="8" t="str">
+        <f>IF(ISBLANK(B496)," ",VLOOKUP(B496,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>CANDELABRO</v>
+      </c>
+      <c r="D496" s="4">
+        <f>IF(ISBLANK(B496)," ",VLOOKUP(B496,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E496" s="26">
+        <v>9</v>
+      </c>
+      <c r="F496" s="18"/>
+      <c r="G496" s="3">
+        <f>IF(ISBLANK(B496)," ",SUMIF($B$2:B496,B496,$E$2:E496)-SUMIF($B$2:B496,B496,$F$2:F496))</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="497" spans="2:7">
+      <c r="B497" s="41" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C497" s="8" t="str">
+        <f>IF(ISBLANK(B497)," ",VLOOKUP(B497,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve">CANDELABRO </v>
+      </c>
+      <c r="D497" s="4">
+        <f>IF(ISBLANK(B497)," ",VLOOKUP(B497,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E497" s="26">
+        <v>4</v>
+      </c>
+      <c r="F497" s="18"/>
+      <c r="G497" s="3">
+        <f>IF(ISBLANK(B497)," ",SUMIF($B$2:B497,B497,$E$2:E497)-SUMIF($B$2:B497,B497,$F$2:F497))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="498" spans="2:7">
+      <c r="B498" s="41" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C498" s="8" t="str">
+        <f>IF(ISBLANK(B498)," ",VLOOKUP(B498,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>CANDELABRO</v>
+      </c>
+      <c r="D498" s="4">
+        <f>IF(ISBLANK(B498)," ",VLOOKUP(B498,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E498" s="26">
+        <v>3</v>
+      </c>
+      <c r="F498" s="18"/>
+      <c r="G498" s="3">
+        <f>IF(ISBLANK(B498)," ",SUMIF($B$2:B498,B498,$E$2:E498)-SUMIF($B$2:B498,B498,$F$2:F498))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="499" spans="2:7">
+      <c r="B499" s="41" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C499" s="8" t="str">
+        <f>IF(ISBLANK(B499)," ",VLOOKUP(B499,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve">CANDELABRO </v>
+      </c>
+      <c r="D499" s="4">
+        <f>IF(ISBLANK(B499)," ",VLOOKUP(B499,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E499" s="26">
+        <v>4</v>
+      </c>
+      <c r="F499" s="18"/>
+      <c r="G499" s="3">
+        <f>IF(ISBLANK(B499)," ",SUMIF($B$2:B499,B499,$E$2:E499)-SUMIF($B$2:B499,B499,$F$2:F499))</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="500" spans="2:7">
+      <c r="B500" s="41" t="s">
+        <v>692</v>
+      </c>
+      <c r="C500" s="8" t="str">
+        <f>IF(ISBLANK(B500)," ",VLOOKUP(B500,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>CANDELABRO  PARA MESA</v>
+      </c>
+      <c r="D500" s="4">
+        <f>IF(ISBLANK(B500)," ",VLOOKUP(B500,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>75</v>
+      </c>
+      <c r="E500" s="26">
+        <v>5</v>
+      </c>
+      <c r="F500" s="18"/>
+      <c r="G500" s="3">
+        <f>IF(ISBLANK(B500)," ",SUMIF($B$2:B500,B500,$E$2:E500)-SUMIF($B$2:B500,B500,$F$2:F500))</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="501" spans="2:7">
+      <c r="B501" s="48" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C501" s="8" t="e">
+        <f>IF(ISBLANK(B501)," ",VLOOKUP(B501,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D501" s="4" t="e">
+        <f>IF(ISBLANK(B501)," ",VLOOKUP(B501,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E501" s="26">
+        <v>3</v>
+      </c>
+      <c r="F501" s="18"/>
+      <c r="G501" s="3">
+        <f>IF(ISBLANK(B501)," ",SUMIF($B$2:B501,B501,$E$2:E501)-SUMIF($B$2:B501,B501,$F$2:F501))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="502" spans="2:7">
+      <c r="B502" s="41" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C502" s="8" t="str">
+        <f>IF(ISBLANK(B502)," ",VLOOKUP(B502,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve">CANDELABRO </v>
+      </c>
+      <c r="D502" s="4">
+        <f>IF(ISBLANK(B502)," ",VLOOKUP(B502,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E502" s="26">
+        <v>5</v>
+      </c>
+      <c r="F502" s="18"/>
+      <c r="G502" s="3">
+        <f>IF(ISBLANK(B502)," ",SUMIF($B$2:B502,B502,$E$2:E502)-SUMIF($B$2:B502,B502,$F$2:F502))</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="503" spans="2:7">
+      <c r="B503" s="41" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C503" s="8" t="str">
+        <f>IF(ISBLANK(B503)," ",VLOOKUP(B503,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve">CUADRO PEQUEÑO </v>
+      </c>
+      <c r="D503" s="4">
+        <f>IF(ISBLANK(B503)," ",VLOOKUP(B503,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E503" s="26">
+        <v>18</v>
+      </c>
+      <c r="F503" s="18"/>
+      <c r="G503" s="3">
+        <f>IF(ISBLANK(B503)," ",SUMIF($B$2:B503,B503,$E$2:E503)-SUMIF($B$2:B503,B503,$F$2:F503))</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="504" spans="2:7">
+      <c r="B504" s="41" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C504" s="8" t="str">
+        <f>IF(ISBLANK(B504)," ",VLOOKUP(B504,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve">CUADRO GRANDE </v>
+      </c>
+      <c r="D504" s="4">
+        <f>IF(ISBLANK(B504)," ",VLOOKUP(B504,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E504" s="26">
+        <v>5</v>
+      </c>
+      <c r="F504" s="18"/>
+      <c r="G504" s="3">
+        <f>IF(ISBLANK(B504)," ",SUMIF($B$2:B504,B504,$E$2:E504)-SUMIF($B$2:B504,B504,$F$2:F504))</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="505" spans="2:7">
+      <c r="B505" s="41" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C505" s="8" t="str">
+        <f>IF(ISBLANK(B505)," ",VLOOKUP(B505,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve">CUADRO DE METAL </v>
+      </c>
+      <c r="D505" s="4">
+        <f>IF(ISBLANK(B505)," ",VLOOKUP(B505,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E505" s="26">
+        <v>3</v>
+      </c>
+      <c r="F505" s="18"/>
+      <c r="G505" s="3">
+        <f>IF(ISBLANK(B505)," ",SUMIF($B$2:B505,B505,$E$2:E505)-SUMIF($B$2:B505,B505,$F$2:F505))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="506" spans="2:7">
+      <c r="B506" s="41" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C506" s="8" t="str">
+        <f>IF(ISBLANK(B506)," ",VLOOKUP(B506,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve">CUADRO DE METAL </v>
+      </c>
+      <c r="D506" s="4">
+        <f>IF(ISBLANK(B506)," ",VLOOKUP(B506,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E506" s="26">
+        <v>3</v>
+      </c>
+      <c r="F506" s="18"/>
+      <c r="G506" s="3">
+        <f>IF(ISBLANK(B506)," ",SUMIF($B$2:B506,B506,$E$2:E506)-SUMIF($B$2:B506,B506,$F$2:F506))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="507" spans="2:7">
+      <c r="B507" s="41" t="s">
+        <v>630</v>
+      </c>
+      <c r="C507" s="8" t="str">
+        <f>IF(ISBLANK(B507)," ",VLOOKUP(B507,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>SILLA PARA BAR</v>
+      </c>
+      <c r="D507" s="4">
+        <f>IF(ISBLANK(B507)," ",VLOOKUP(B507,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>82</v>
+      </c>
+      <c r="E507" s="26">
+        <v>2</v>
+      </c>
+      <c r="F507" s="18"/>
+      <c r="G507" s="3">
+        <f>IF(ISBLANK(B507)," ",SUMIF($B$2:B507,B507,$E$2:E507)-SUMIF($B$2:B507,B507,$F$2:F507))</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="508" spans="2:7">
+      <c r="B508" s="48" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C508" s="8" t="e">
+        <f>IF(ISBLANK(B508)," ",VLOOKUP(B508,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D508" s="4" t="e">
+        <f>IF(ISBLANK(B508)," ",VLOOKUP(B508,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E508" s="26">
+        <v>1</v>
+      </c>
+      <c r="F508" s="18"/>
+      <c r="G508" s="3">
+        <f>IF(ISBLANK(B508)," ",SUMIF($B$2:B508,B508,$E$2:E508)-SUMIF($B$2:B508,B508,$F$2:F508))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="509" spans="2:7">
+      <c r="B509" s="41" t="s">
+        <v>626</v>
+      </c>
+      <c r="C509" s="8" t="str">
+        <f>IF(ISBLANK(B509)," ",VLOOKUP(B509,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>SILLA PARA BAR</v>
+      </c>
+      <c r="D509" s="4">
+        <f>IF(ISBLANK(B509)," ",VLOOKUP(B509,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>48</v>
+      </c>
+      <c r="E509" s="26">
+        <v>4</v>
+      </c>
+      <c r="F509" s="18"/>
+      <c r="G509" s="3">
+        <f>IF(ISBLANK(B509)," ",SUMIF($B$2:B509,B509,$E$2:E509)-SUMIF($B$2:B509,B509,$F$2:F509))</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="510" spans="2:7">
+      <c r="B510" s="41" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C510" s="8" t="str">
+        <f>IF(ISBLANK(B510)," ",VLOOKUP(B510,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve">SILLA METALICA </v>
+      </c>
+      <c r="D510" s="4">
+        <f>IF(ISBLANK(B510)," ",VLOOKUP(B510,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E510" s="26">
+        <v>6</v>
+      </c>
+      <c r="F510" s="18">
+        <v>1</v>
+      </c>
+      <c r="G510" s="3">
+        <f>IF(ISBLANK(B510)," ",SUMIF($B$2:B510,B510,$E$2:E510)-SUMIF($B$2:B510,B510,$F$2:F510))</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="511" spans="2:7">
+      <c r="B511" s="41" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C511" s="8" t="str">
+        <f>IF(ISBLANK(B511)," ",VLOOKUP(B511,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>GABINETE PARA OFICINA 3 DEPOSITOS</v>
+      </c>
+      <c r="D511" s="4">
+        <f>IF(ISBLANK(B511)," ",VLOOKUP(B511,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E511" s="26">
+        <v>1</v>
+      </c>
+      <c r="F511" s="18"/>
+      <c r="G511" s="3">
+        <f>IF(ISBLANK(B511)," ",SUMIF($B$2:B511,B511,$E$2:E511)-SUMIF($B$2:B511,B511,$F$2:F511))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="512" spans="2:7">
+      <c r="B512" s="48" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C512" s="8" t="e">
+        <f>IF(ISBLANK(B512)," ",VLOOKUP(B512,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D512" s="4" t="e">
+        <f>IF(ISBLANK(B512)," ",VLOOKUP(B512,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E512" s="26">
+        <v>2</v>
+      </c>
+      <c r="F512" s="18"/>
+      <c r="G512" s="3">
+        <f>IF(ISBLANK(B512)," ",SUMIF($B$2:B512,B512,$E$2:E512)-SUMIF($B$2:B512,B512,$F$2:F512))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="513" spans="2:7">
+      <c r="B513" s="41" t="s">
+        <v>485</v>
+      </c>
+      <c r="C513" s="8" t="str">
+        <f>IF(ISBLANK(B513)," ",VLOOKUP(B513,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve">SET SILLA DE ESPERA DE 3 SILLAS </v>
+      </c>
+      <c r="D513" s="4">
+        <f>IF(ISBLANK(B513)," ",VLOOKUP(B513,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>168</v>
+      </c>
+      <c r="E513" s="26">
+        <v>1</v>
+      </c>
+      <c r="F513" s="18"/>
+      <c r="G513" s="3">
+        <f>IF(ISBLANK(B513)," ",SUMIF($B$2:B513,B513,$E$2:E513)-SUMIF($B$2:B513,B513,$F$2:F513))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="514" spans="2:7">
+      <c r="B514" s="41" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C514" s="8" t="str">
+        <f>IF(ISBLANK(B514)," ",VLOOKUP(B514,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>MESA PARA CENTRO CAFÉ</v>
+      </c>
+      <c r="D514" s="4">
+        <f>IF(ISBLANK(B514)," ",VLOOKUP(B514,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E514" s="26">
+        <v>2</v>
+      </c>
+      <c r="F514" s="18"/>
+      <c r="G514" s="3">
+        <f>IF(ISBLANK(B514)," ",SUMIF($B$2:B514,B514,$E$2:E514)-SUMIF($B$2:B514,B514,$F$2:F514))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="515" spans="2:7">
+      <c r="B515" s="41" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C515" s="8" t="str">
+        <f>IF(ISBLANK(B515)," ",VLOOKUP(B515,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>MALETIN PARA COMPUTADORA POLO</v>
+      </c>
+      <c r="D515" s="4">
+        <f>IF(ISBLANK(B515)," ",VLOOKUP(B515,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E515" s="26">
+        <v>2</v>
+      </c>
+      <c r="F515" s="18"/>
+      <c r="G515" s="3">
+        <f>IF(ISBLANK(B515)," ",SUMIF($B$2:B515,B515,$E$2:E515)-SUMIF($B$2:B515,B515,$F$2:F515))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="516" spans="2:7">
+      <c r="B516" s="48" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C516" s="8" t="e">
+        <f>IF(ISBLANK(B516)," ",VLOOKUP(B516,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D516" s="4" t="e">
+        <f>IF(ISBLANK(B516)," ",VLOOKUP(B516,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E516" s="26">
+        <v>2</v>
+      </c>
+      <c r="F516" s="18"/>
+      <c r="G516" s="3">
+        <f>IF(ISBLANK(B516)," ",SUMIF($B$2:B516,B516,$E$2:E516)-SUMIF($B$2:B516,B516,$F$2:F516))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="517" spans="2:7">
+      <c r="B517" s="48" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C517" s="8" t="e">
+        <f>IF(ISBLANK(B517)," ",VLOOKUP(B517,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D517" s="4" t="e">
+        <f>IF(ISBLANK(B517)," ",VLOOKUP(B517,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E517" s="26"/>
+      <c r="F517" s="18">
+        <v>1</v>
+      </c>
+      <c r="G517" s="3">
+        <f>IF(ISBLANK(B517)," ",SUMIF($B$2:B517,B517,$E$2:E517)-SUMIF($B$2:B517,B517,$F$2:F517))</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="518" spans="2:7">
+      <c r="B518" s="41" t="s">
+        <v>448</v>
+      </c>
+      <c r="C518" s="8" t="str">
+        <f>IF(ISBLANK(B518)," ",VLOOKUP(B518,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>PARAGUAS PARA JARDIN</v>
+      </c>
+      <c r="D518" s="4">
+        <f>IF(ISBLANK(B518)," ",VLOOKUP(B518,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>235</v>
+      </c>
+      <c r="E518" s="26"/>
+      <c r="F518" s="18">
+        <v>1</v>
+      </c>
+      <c r="G518" s="3">
+        <f>IF(ISBLANK(B518)," ",SUMIF($B$2:B518,B518,$E$2:E518)-SUMIF($B$2:B518,B518,$F$2:F518))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519" spans="2:7">
+      <c r="B519" s="48" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C519" s="8" t="e">
+        <f>IF(ISBLANK(B519)," ",VLOOKUP(B519,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D519" s="4" t="e">
+        <f>IF(ISBLANK(B519)," ",VLOOKUP(B519,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E519" s="26"/>
+      <c r="F519" s="18">
+        <v>1</v>
+      </c>
+      <c r="G519" s="3">
+        <f>IF(ISBLANK(B519)," ",SUMIF($B$2:B519,B519,$E$2:E519)-SUMIF($B$2:B519,B519,$F$2:F519))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="520" spans="2:7">
+      <c r="B520" s="41" t="s">
+        <v>712</v>
+      </c>
+      <c r="C520" s="8" t="str">
+        <f>IF(ISBLANK(B520)," ",VLOOKUP(B520,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve">SILLON INFLABLE </v>
+      </c>
+      <c r="D520" s="4">
+        <f>IF(ISBLANK(B520)," ",VLOOKUP(B520,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>38</v>
+      </c>
+      <c r="E520" s="26"/>
+      <c r="F520" s="18">
+        <v>1</v>
+      </c>
+      <c r="G520" s="3">
+        <f>IF(ISBLANK(B520)," ",SUMIF($B$2:B520,B520,$E$2:E520)-SUMIF($B$2:B520,B520,$F$2:F520))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521" spans="2:7">
+      <c r="B521" s="41" t="s">
+        <v>514</v>
+      </c>
+      <c r="C521" s="8" t="str">
+        <f>IF(ISBLANK(B521)," ",VLOOKUP(B521,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve">PLANTA ARTIFICIAL CON MACETA </v>
+      </c>
+      <c r="D521" s="4">
+        <f>IF(ISBLANK(B521)," ",VLOOKUP(B521,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>8.5</v>
+      </c>
+      <c r="E521" s="26"/>
+      <c r="F521" s="18">
+        <v>1</v>
+      </c>
+      <c r="G521" s="3">
+        <f>IF(ISBLANK(B521)," ",SUMIF($B$2:B521,B521,$E$2:E521)-SUMIF($B$2:B521,B521,$F$2:F521))</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="522" spans="2:7">
+      <c r="B522" s="48" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C522" s="8" t="e">
+        <f>IF(ISBLANK(B522)," ",VLOOKUP(B522,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D522" s="4" t="e">
+        <f>IF(ISBLANK(B522)," ",VLOOKUP(B522,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E522" s="26"/>
+      <c r="F522" s="18">
+        <v>1</v>
+      </c>
+      <c r="G522" s="3">
+        <f>IF(ISBLANK(B522)," ",SUMIF($B$2:B522,B522,$E$2:E522)-SUMIF($B$2:B522,B522,$F$2:F522))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523" spans="2:7">
+      <c r="B523" s="41" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C523" s="8" t="str">
+        <f>IF(ISBLANK(B523)," ",VLOOKUP(B523,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve">RELOJ DE PARED </v>
+      </c>
+      <c r="D523" s="4">
+        <f>IF(ISBLANK(B523)," ",VLOOKUP(B523,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E523" s="26">
+        <v>5</v>
+      </c>
+      <c r="F523" s="18"/>
+      <c r="G523" s="3">
+        <f>IF(ISBLANK(B523)," ",SUMIF($B$2:B523,B523,$E$2:E523)-SUMIF($B$2:B523,B523,$F$2:F523))</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="524" spans="2:7">
+      <c r="B524" s="48" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C524" s="8" t="e">
+        <f>IF(ISBLANK(B524)," ",VLOOKUP(B524,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D524" s="4" t="e">
+        <f>IF(ISBLANK(B524)," ",VLOOKUP(B524,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E524" s="26">
+        <v>7</v>
+      </c>
+      <c r="F524" s="18"/>
+      <c r="G524" s="3">
+        <f>IF(ISBLANK(B524)," ",SUMIF($B$2:B524,B524,$E$2:E524)-SUMIF($B$2:B524,B524,$F$2:F524))</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="525" spans="2:7">
+      <c r="B525" s="41" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C525" s="8" t="str">
+        <f>IF(ISBLANK(B525)," ",VLOOKUP(B525,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>CUADRO PARA PARED</v>
+      </c>
+      <c r="D525" s="4">
+        <f>IF(ISBLANK(B525)," ",VLOOKUP(B525,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E525" s="26">
+        <v>21</v>
+      </c>
+      <c r="F525" s="18"/>
+      <c r="G525" s="3">
+        <f>IF(ISBLANK(B525)," ",SUMIF($B$2:B525,B525,$E$2:E525)-SUMIF($B$2:B525,B525,$F$2:F525))</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="526" spans="2:7">
+      <c r="B526" s="41" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C526" s="8" t="str">
+        <f>IF(ISBLANK(B526)," ",VLOOKUP(B526,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>CUADRO PARA PARED</v>
+      </c>
+      <c r="D526" s="4">
+        <f>IF(ISBLANK(B526)," ",VLOOKUP(B526,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E526" s="26">
+        <v>22</v>
+      </c>
+      <c r="F526" s="18"/>
+      <c r="G526" s="3">
+        <f>IF(ISBLANK(B526)," ",SUMIF($B$2:B526,B526,$E$2:E526)-SUMIF($B$2:B526,B526,$F$2:F526))</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="527" spans="2:7">
+      <c r="B527" s="48" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C527" s="8" t="e">
+        <f>IF(ISBLANK(B527)," ",VLOOKUP(B527,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D527" s="4" t="e">
+        <f>IF(ISBLANK(B527)," ",VLOOKUP(B527,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E527" s="26">
+        <v>15</v>
+      </c>
+      <c r="F527" s="18"/>
+      <c r="G527" s="3">
+        <f>IF(ISBLANK(B527)," ",SUMIF($B$2:B527,B527,$E$2:E527)-SUMIF($B$2:B527,B527,$F$2:F527))</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="528" spans="2:7">
+      <c r="B528" s="48" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C528" s="8" t="e">
+        <f>IF(ISBLANK(B528)," ",VLOOKUP(B528,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D528" s="4" t="e">
+        <f>IF(ISBLANK(B528)," ",VLOOKUP(B528,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E528" s="26">
+        <v>7</v>
+      </c>
+      <c r="F528" s="18"/>
+      <c r="G528" s="3">
+        <f>IF(ISBLANK(B528)," ",SUMIF($B$2:B528,B528,$E$2:E528)-SUMIF($B$2:B528,B528,$F$2:F528))</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="529" spans="2:7">
+      <c r="B529" s="41" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C529" s="8" t="str">
+        <f>IF(ISBLANK(B529)," ",VLOOKUP(B529,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve">CANDELABRO </v>
+      </c>
+      <c r="D529" s="4">
+        <f>IF(ISBLANK(B529)," ",VLOOKUP(B529,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E529" s="26">
+        <v>1</v>
+      </c>
+      <c r="F529" s="18"/>
+      <c r="G529" s="3">
+        <f>IF(ISBLANK(B529)," ",SUMIF($B$2:B529,B529,$E$2:E529)-SUMIF($B$2:B529,B529,$F$2:F529))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530" spans="2:7">
+      <c r="B530" s="41" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C530" s="8" t="str">
+        <f>IF(ISBLANK(B530)," ",VLOOKUP(B530,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve">CANDELABRO </v>
+      </c>
+      <c r="D530" s="4">
+        <f>IF(ISBLANK(B530)," ",VLOOKUP(B530,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E530" s="26">
+        <v>2</v>
+      </c>
+      <c r="F530" s="18"/>
+      <c r="G530" s="3">
+        <f>IF(ISBLANK(B530)," ",SUMIF($B$2:B530,B530,$E$2:E530)-SUMIF($B$2:B530,B530,$F$2:F530))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="531" spans="2:7">
+      <c r="B531" s="41" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C531" s="8" t="str">
+        <f>IF(ISBLANK(B531)," ",VLOOKUP(B531,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve">CANDELABRO </v>
+      </c>
+      <c r="D531" s="4">
+        <f>IF(ISBLANK(B531)," ",VLOOKUP(B531,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E531" s="26">
+        <v>3</v>
+      </c>
+      <c r="F531" s="18"/>
+      <c r="G531" s="3">
+        <f>IF(ISBLANK(B531)," ",SUMIF($B$2:B531,B531,$E$2:E531)-SUMIF($B$2:B531,B531,$F$2:F531))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="532" spans="2:7">
+      <c r="B532" s="41" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C532" s="8" t="str">
+        <f>IF(ISBLANK(B532)," ",VLOOKUP(B532,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve">CANDELABRO </v>
+      </c>
+      <c r="D532" s="4">
+        <f>IF(ISBLANK(B532)," ",VLOOKUP(B532,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E532" s="26">
+        <v>6</v>
+      </c>
+      <c r="F532" s="18"/>
+      <c r="G532" s="3">
+        <f>IF(ISBLANK(B532)," ",SUMIF($B$2:B532,B532,$E$2:E532)-SUMIF($B$2:B532,B532,$F$2:F532))</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="533" spans="2:7">
+      <c r="B533" s="48" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C533" s="8" t="e">
+        <f>IF(ISBLANK(B533)," ",VLOOKUP(B533,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D533" s="4" t="e">
+        <f>IF(ISBLANK(B533)," ",VLOOKUP(B533,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E533" s="26">
+        <v>5</v>
+      </c>
+      <c r="F533" s="18"/>
+      <c r="G533" s="3">
+        <f>IF(ISBLANK(B533)," ",SUMIF($B$2:B533,B533,$E$2:E533)-SUMIF($B$2:B533,B533,$F$2:F533))</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="534" spans="2:7">
+      <c r="B534" s="48" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C534" s="8" t="e">
+        <f>IF(ISBLANK(B534)," ",VLOOKUP(B534,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D534" s="4" t="e">
+        <f>IF(ISBLANK(B534)," ",VLOOKUP(B534,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E534" s="26">
+        <v>6</v>
+      </c>
+      <c r="F534" s="18"/>
+      <c r="G534" s="3">
+        <f>IF(ISBLANK(B534)," ",SUMIF($B$2:B534,B534,$E$2:E534)-SUMIF($B$2:B534,B534,$F$2:F534))</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="535" spans="2:7">
+      <c r="B535" s="41" t="s">
+        <v>485</v>
+      </c>
+      <c r="C535" s="8" t="str">
+        <f>IF(ISBLANK(B535)," ",VLOOKUP(B535,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve">SET SILLA DE ESPERA DE 3 SILLAS </v>
+      </c>
+      <c r="D535" s="4">
+        <f>IF(ISBLANK(B535)," ",VLOOKUP(B535,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>168</v>
+      </c>
+      <c r="E535" s="26"/>
+      <c r="F535" s="18">
+        <v>1</v>
+      </c>
+      <c r="G535" s="3">
+        <f>IF(ISBLANK(B535)," ",SUMIF($B$2:B535,B535,$E$2:E535)-SUMIF($B$2:B535,B535,$F$2:F535))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536" spans="2:7">
+      <c r="B536" s="41" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C536" s="8" t="str">
+        <f>IF(ISBLANK(B536)," ",VLOOKUP(B536,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve">ESCRITORIO DE VIDRIO </v>
+      </c>
+      <c r="D536" s="4">
+        <f>IF(ISBLANK(B536)," ",VLOOKUP(B536,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E536" s="26"/>
+      <c r="F536" s="18">
+        <v>1</v>
+      </c>
+      <c r="G536" s="3">
+        <f>IF(ISBLANK(B536)," ",SUMIF($B$2:B536,B536,$E$2:E536)-SUMIF($B$2:B536,B536,$F$2:F536))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537" spans="2:7">
+      <c r="B537" s="48" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C537" s="8" t="e">
+        <f>IF(ISBLANK(B537)," ",VLOOKUP(B537,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D537" s="4" t="e">
+        <f>IF(ISBLANK(B537)," ",VLOOKUP(B537,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E537" s="26"/>
+      <c r="F537" s="18">
+        <v>1</v>
+      </c>
+      <c r="G537" s="3">
+        <f>IF(ISBLANK(B537)," ",SUMIF($B$2:B537,B537,$E$2:E537)-SUMIF($B$2:B537,B537,$F$2:F537))</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="538" spans="2:7">
+      <c r="B538" s="48" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C538" s="8" t="e">
+        <f>IF(ISBLANK(B538)," ",VLOOKUP(B538,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D538" s="4" t="e">
+        <f>IF(ISBLANK(B538)," ",VLOOKUP(B538,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E538" s="26"/>
+      <c r="F538" s="18">
+        <v>1</v>
+      </c>
+      <c r="G538" s="3">
+        <f>IF(ISBLANK(B538)," ",SUMIF($B$2:B538,B538,$E$2:E538)-SUMIF($B$2:B538,B538,$F$2:F538))</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="539" spans="2:7">
+      <c r="B539" s="41" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C539" s="8" t="str">
+        <f>IF(ISBLANK(B539)," ",VLOOKUP(B539,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>MESA PARA CENTRO CAFÉ</v>
+      </c>
+      <c r="D539" s="4">
+        <f>IF(ISBLANK(B539)," ",VLOOKUP(B539,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E539" s="26"/>
+      <c r="F539" s="18">
+        <v>1</v>
+      </c>
+      <c r="G539" s="3">
+        <f>IF(ISBLANK(B539)," ",SUMIF($B$2:B539,B539,$E$2:E539)-SUMIF($B$2:B539,B539,$F$2:F539))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="540" spans="2:7">
+      <c r="B540" s="41" t="s">
+        <v>603</v>
+      </c>
+      <c r="C540" s="8" t="str">
+        <f>IF(ISBLANK(B540)," ",VLOOKUP(B540,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve">JUEGO MESA  DECORADA REDONDA DE PLASTICO, DOS SILLAS </v>
+      </c>
+      <c r="D540" s="4">
+        <f>IF(ISBLANK(B540)," ",VLOOKUP(B540,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>110</v>
+      </c>
+      <c r="E540" s="26"/>
+      <c r="F540" s="18">
+        <v>1</v>
+      </c>
+      <c r="G540" s="3">
+        <f>IF(ISBLANK(B540)," ",SUMIF($B$2:B540,B540,$E$2:E540)-SUMIF($B$2:B540,B540,$F$2:F540))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="541" spans="2:7">
+      <c r="B541" s="41" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C541" s="8" t="str">
+        <f>IF(ISBLANK(B541)," ",VLOOKUP(B541,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>GABINETE PARA OFICINA</v>
+      </c>
+      <c r="D541" s="4">
+        <f>IF(ISBLANK(B541)," ",VLOOKUP(B541,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E541" s="26"/>
+      <c r="F541" s="18">
+        <v>1</v>
+      </c>
+      <c r="G541" s="3">
+        <f>IF(ISBLANK(B541)," ",SUMIF($B$2:B541,B541,$E$2:E541)-SUMIF($B$2:B541,B541,$F$2:F541))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="542" spans="2:7">
+      <c r="B542" s="41" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C542" s="8" t="str">
+        <f>IF(ISBLANK(B542)," ",VLOOKUP(B542,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>GABINETE PARA OFICINA 3 DEPOSITOS</v>
+      </c>
+      <c r="D542" s="4">
+        <f>IF(ISBLANK(B542)," ",VLOOKUP(B542,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E542" s="26"/>
+      <c r="F542" s="18">
+        <v>1</v>
+      </c>
+      <c r="G542" s="3">
+        <f>IF(ISBLANK(B542)," ",SUMIF($B$2:B542,B542,$E$2:E542)-SUMIF($B$2:B542,B542,$F$2:F542))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" spans="2:7">
+      <c r="B543" s="41" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C543" s="8" t="str">
+        <f>IF(ISBLANK(B543)," ",VLOOKUP(B543,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>MALETIN PARA COMPUTADORA POLO</v>
+      </c>
+      <c r="D543" s="4">
+        <f>IF(ISBLANK(B543)," ",VLOOKUP(B543,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E543" s="26"/>
+      <c r="F543" s="18">
+        <v>1</v>
+      </c>
+      <c r="G543" s="3">
+        <f>IF(ISBLANK(B543)," ",SUMIF($B$2:B543,B543,$E$2:E543)-SUMIF($B$2:B543,B543,$F$2:F543))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544" spans="2:7">
+      <c r="B544" s="41" t="s">
+        <v>554</v>
+      </c>
+      <c r="C544" s="8" t="str">
+        <f>IF(ISBLANK(B544)," ",VLOOKUP(B544,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve">RAC METALICO DE TRES BANDEJAS PEQUEÑAS </v>
+      </c>
+      <c r="D544" s="4">
+        <f>IF(ISBLANK(B544)," ",VLOOKUP(B544,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>25</v>
+      </c>
+      <c r="E544" s="26"/>
+      <c r="F544" s="18">
+        <v>1</v>
+      </c>
+      <c r="G544" s="3">
+        <f>IF(ISBLANK(B544)," ",SUMIF($B$2:B544,B544,$E$2:E544)-SUMIF($B$2:B544,B544,$F$2:F544))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="545" spans="2:7">
+      <c r="B545" s="41" t="s">
+        <v>641</v>
+      </c>
+      <c r="C545" s="8" t="str">
+        <f>IF(ISBLANK(B545)," ",VLOOKUP(B545,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>SILLA PLEGABLE PLASTICA</v>
+      </c>
+      <c r="D545" s="4">
+        <f>IF(ISBLANK(B545)," ",VLOOKUP(B545,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>32</v>
+      </c>
+      <c r="E545" s="26"/>
+      <c r="F545" s="18">
+        <v>2</v>
+      </c>
+      <c r="G545" s="3">
+        <f>IF(ISBLANK(B545)," ",SUMIF($B$2:B545,B545,$E$2:E545)-SUMIF($B$2:B545,B545,$F$2:F545))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="546" spans="2:7">
+      <c r="B546" s="41" t="s">
+        <v>703</v>
+      </c>
+      <c r="C546" s="8" t="str">
+        <f>IF(ISBLANK(B546)," ",VLOOKUP(B546,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>GABINETE PARA COCINA 2 GAVETAS , 2 PUERTAS</v>
+      </c>
+      <c r="D546" s="4">
+        <f>IF(ISBLANK(B546)," ",VLOOKUP(B546,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>135</v>
+      </c>
+      <c r="E546" s="26"/>
+      <c r="F546" s="18">
+        <v>1</v>
+      </c>
+      <c r="G546" s="3">
+        <f>IF(ISBLANK(B546)," ",SUMIF($B$2:B546,B546,$E$2:E546)-SUMIF($B$2:B546,B546,$F$2:F546))</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="547" spans="2:7">
+      <c r="B547" s="41" t="s">
+        <v>940</v>
+      </c>
+      <c r="C547" s="8" t="str">
+        <f>IF(ISBLANK(B547)," ",VLOOKUP(B547,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>MESA CENTRO DE MADERA/VIDRIO</v>
+      </c>
+      <c r="D547" s="4">
+        <f>IF(ISBLANK(B547)," ",VLOOKUP(B547,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E547" s="26"/>
+      <c r="F547" s="18">
+        <v>1</v>
+      </c>
+      <c r="G547" s="3">
+        <f>IF(ISBLANK(B547)," ",SUMIF($B$2:B547,B547,$E$2:E547)-SUMIF($B$2:B547,B547,$F$2:F547))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="548" spans="2:7">
+      <c r="B548" s="41" t="s">
+        <v>606</v>
+      </c>
+      <c r="C548" s="8" t="str">
+        <f>IF(ISBLANK(B548)," ",VLOOKUP(B548,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>LAMPARA PARA PARED</v>
+      </c>
+      <c r="D548" s="4">
+        <f>IF(ISBLANK(B548)," ",VLOOKUP(B548,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E548" s="26"/>
+      <c r="F548" s="18">
+        <v>2</v>
+      </c>
+      <c r="G548" s="3">
+        <f>IF(ISBLANK(B548)," ",SUMIF($B$2:B548,B548,$E$2:E548)-SUMIF($B$2:B548,B548,$F$2:F548))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="549" spans="2:7">
+      <c r="B549" s="41" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C549" s="8" t="str">
+        <f>IF(ISBLANK(B549)," ",VLOOKUP(B549,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>GABINETE PARA COCINA</v>
+      </c>
+      <c r="D549" s="4">
+        <f>IF(ISBLANK(B549)," ",VLOOKUP(B549,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E549" s="26"/>
+      <c r="F549" s="18">
+        <v>1</v>
+      </c>
+      <c r="G549" s="3">
+        <f>IF(ISBLANK(B549)," ",SUMIF($B$2:B549,B549,$E$2:E549)-SUMIF($B$2:B549,B549,$F$2:F549))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="550" spans="2:7">
+      <c r="B550" s="41" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C550" s="8" t="str">
+        <f>IF(ISBLANK(B550)," ",VLOOKUP(B550,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>CARRO ELECTRICO AMARILLO</v>
+      </c>
+      <c r="D550" s="4">
+        <f>IF(ISBLANK(B550)," ",VLOOKUP(B550,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E550" s="26"/>
+      <c r="F550" s="18">
+        <v>1</v>
+      </c>
+      <c r="G550" s="3">
+        <f>IF(ISBLANK(B550)," ",SUMIF($B$2:B550,B550,$E$2:E550)-SUMIF($B$2:B550,B550,$F$2:F550))</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="551" spans="2:7">
+      <c r="B551" s="48" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C551" s="8" t="e">
+        <f>IF(ISBLANK(B551)," ",VLOOKUP(B551,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D551" s="4" t="e">
+        <f>IF(ISBLANK(B551)," ",VLOOKUP(B551,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E551" s="26"/>
+      <c r="F551" s="18">
+        <v>2</v>
+      </c>
+      <c r="G551" s="3">
+        <f>IF(ISBLANK(B551)," ",SUMIF($B$2:B551,B551,$E$2:E551)-SUMIF($B$2:B551,B551,$F$2:F551))</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="552" spans="2:7">
+      <c r="B552" s="41" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C552" s="8" t="str">
+        <f>IF(ISBLANK(B552)," ",VLOOKUP(B552,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>CARRO ROSADO</v>
+      </c>
+      <c r="D552" s="4">
+        <f>IF(ISBLANK(B552)," ",VLOOKUP(B552,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E552" s="26"/>
+      <c r="F552" s="18">
+        <v>1</v>
+      </c>
+      <c r="G552" s="3">
+        <f>IF(ISBLANK(B552)," ",SUMIF($B$2:B552,B552,$E$2:E552)-SUMIF($B$2:B552,B552,$F$2:F552))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="553" spans="2:7">
+      <c r="B553" s="41" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C553" s="8" t="str">
+        <f>IF(ISBLANK(B553)," ",VLOOKUP(B553,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>ESCRITORIO DE MADERA ROJO</v>
+      </c>
+      <c r="D553" s="4">
+        <f>IF(ISBLANK(B553)," ",VLOOKUP(B553,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E553" s="26"/>
+      <c r="F553" s="18">
+        <v>1</v>
+      </c>
+      <c r="G553" s="3">
+        <f>IF(ISBLANK(B553)," ",SUMIF($B$2:B553,B553,$E$2:E553)-SUMIF($B$2:B553,B553,$F$2:F553))</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="554" spans="2:7">
+      <c r="B554" s="41" t="s">
+        <v>542</v>
+      </c>
+      <c r="C554" s="8" t="str">
+        <f>IF(ISBLANK(B554)," ",VLOOKUP(B554,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>ABANICO  DE PISO LA PRIMAVERA PEQUEÑO</v>
+      </c>
+      <c r="D554" s="4">
+        <f>IF(ISBLANK(B554)," ",VLOOKUP(B554,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>14</v>
+      </c>
+      <c r="E554" s="26">
+        <v>8</v>
+      </c>
+      <c r="F554" s="18">
+        <v>3</v>
+      </c>
+      <c r="G554" s="3">
+        <f>IF(ISBLANK(B554)," ",SUMIF($B$2:B554,B554,$E$2:E554)-SUMIF($B$2:B554,B554,$F$2:F554))</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="555" spans="2:7">
+      <c r="B555" s="41" t="s">
+        <v>780</v>
+      </c>
+      <c r="C555" s="8" t="str">
+        <f>IF(ISBLANK(B555)," ",VLOOKUP(B555,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>SET EDREDON PALM SPRIMS</v>
+      </c>
+      <c r="D555" s="4">
+        <f>IF(ISBLANK(B555)," ",VLOOKUP(B555,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>79</v>
+      </c>
+      <c r="E555" s="26"/>
+      <c r="F555" s="18">
+        <v>1</v>
+      </c>
+      <c r="G555" s="3">
+        <f>IF(ISBLANK(B555)," ",SUMIF($B$2:B555,B555,$E$2:E555)-SUMIF($B$2:B555,B555,$F$2:F555))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="556" spans="2:7">
+      <c r="B556" s="48" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C556" s="8" t="e">
+        <f>IF(ISBLANK(B556)," ",VLOOKUP(B556,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D556" s="4" t="e">
+        <f>IF(ISBLANK(B556)," ",VLOOKUP(B556,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E556" s="26"/>
+      <c r="F556" s="18">
+        <v>1</v>
+      </c>
+      <c r="G556" s="3">
+        <f>IF(ISBLANK(B556)," ",SUMIF($B$2:B556,B556,$E$2:E556)-SUMIF($B$2:B556,B556,$F$2:F556))</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="557" spans="2:7">
+      <c r="B557" s="48" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C557" s="8" t="e">
+        <f>IF(ISBLANK(B557)," ",VLOOKUP(B557,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D557" s="4" t="e">
+        <f>IF(ISBLANK(B557)," ",VLOOKUP(B557,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E557" s="26"/>
+      <c r="F557" s="18">
+        <v>2</v>
+      </c>
+      <c r="G557" s="3">
+        <f>IF(ISBLANK(B557)," ",SUMIF($B$2:B557,B557,$E$2:E557)-SUMIF($B$2:B557,B557,$F$2:F557))</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="558" spans="2:7">
+      <c r="B558" s="41" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C558" s="8" t="str">
+        <f>IF(ISBLANK(B558)," ",VLOOKUP(B558,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>LAMPARA PARA TECHO AZUL</v>
+      </c>
+      <c r="D558" s="4">
+        <f>IF(ISBLANK(B558)," ",VLOOKUP(B558,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E558" s="26"/>
+      <c r="F558" s="18">
+        <v>1</v>
+      </c>
+      <c r="G558" s="3">
+        <f>IF(ISBLANK(B558)," ",SUMIF($B$2:B558,B558,$E$2:E558)-SUMIF($B$2:B558,B558,$F$2:F558))</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="559" spans="2:7">
+      <c r="B559" s="48" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C559" s="8" t="e">
+        <f>IF(ISBLANK(B559)," ",VLOOKUP(B559,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D559" s="4" t="e">
+        <f>IF(ISBLANK(B559)," ",VLOOKUP(B559,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E559" s="26"/>
+      <c r="F559" s="18">
+        <v>1</v>
+      </c>
+      <c r="G559" s="3">
+        <f>IF(ISBLANK(B559)," ",SUMIF($B$2:B559,B559,$E$2:E559)-SUMIF($B$2:B559,B559,$F$2:F559))</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="560" spans="2:7">
+      <c r="B560" s="48" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C560" s="8" t="e">
+        <f>IF(ISBLANK(B560)," ",VLOOKUP(B560,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D560" s="4" t="e">
+        <f>IF(ISBLANK(B560)," ",VLOOKUP(B560,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E560" s="26"/>
+      <c r="F560" s="18">
+        <v>1</v>
+      </c>
+      <c r="G560" s="3">
+        <f>IF(ISBLANK(B560)," ",SUMIF($B$2:B560,B560,$E$2:E560)-SUMIF($B$2:B560,B560,$F$2:F560))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="561" spans="2:7">
+      <c r="B561" s="41" t="s">
+        <v>641</v>
+      </c>
+      <c r="C561" s="8" t="str">
+        <f>IF(ISBLANK(B561)," ",VLOOKUP(B561,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>SILLA PLEGABLE PLASTICA</v>
+      </c>
+      <c r="D561" s="4">
+        <f>IF(ISBLANK(B561)," ",VLOOKUP(B561,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>32</v>
+      </c>
+      <c r="E561" s="26">
+        <v>6</v>
+      </c>
+      <c r="F561" s="18"/>
+      <c r="G561" s="3">
+        <f>IF(ISBLANK(B561)," ",SUMIF($B$2:B561,B561,$E$2:E561)-SUMIF($B$2:B561,B561,$F$2:F561))</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="562" spans="2:7">
+      <c r="B562" s="48" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C562" s="8" t="e">
+        <f>IF(ISBLANK(B562)," ",VLOOKUP(B562,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D562" s="4" t="e">
+        <f>IF(ISBLANK(B562)," ",VLOOKUP(B562,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E562" s="26">
+        <v>1</v>
+      </c>
+      <c r="F562" s="18"/>
+      <c r="G562" s="3">
+        <f>IF(ISBLANK(B562)," ",SUMIF($B$2:B562,B562,$E$2:E562)-SUMIF($B$2:B562,B562,$F$2:F562))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="563" spans="2:7">
+      <c r="B563" s="41" t="s">
+        <v>468</v>
+      </c>
+      <c r="C563" s="8" t="str">
+        <f>IF(ISBLANK(B563)," ",VLOOKUP(B563,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>SILLAS PARA OFICINA CON BRAZOS</v>
+      </c>
+      <c r="D563" s="4">
+        <f>IF(ISBLANK(B563)," ",VLOOKUP(B563,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>145</v>
+      </c>
+      <c r="E563" s="26">
+        <v>3</v>
+      </c>
+      <c r="F563" s="18"/>
+      <c r="G563" s="3">
+        <f>IF(ISBLANK(B563)," ",SUMIF($B$2:B563,B563,$E$2:E563)-SUMIF($B$2:B563,B563,$F$2:F563))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="564" spans="2:7">
+      <c r="B564" s="41" t="s">
+        <v>470</v>
+      </c>
+      <c r="C564" s="8" t="str">
+        <f>IF(ISBLANK(B564)," ",VLOOKUP(B564,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>SILLAS PARA OFICINA CON BRAZOS</v>
+      </c>
+      <c r="D564" s="4">
+        <f>IF(ISBLANK(B564)," ",VLOOKUP(B564,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>125</v>
+      </c>
+      <c r="E564" s="26">
+        <v>1</v>
+      </c>
+      <c r="F564" s="18"/>
+      <c r="G564" s="3">
+        <f>IF(ISBLANK(B564)," ",SUMIF($B$2:B564,B564,$E$2:E564)-SUMIF($B$2:B564,B564,$F$2:F564))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="565" spans="2:7">
+      <c r="B565" s="48" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C565" s="8" t="e">
+        <f>IF(ISBLANK(B565)," ",VLOOKUP(B565,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D565" s="4" t="e">
+        <f>IF(ISBLANK(B565)," ",VLOOKUP(B565,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E565" s="26"/>
+      <c r="F565" s="18">
+        <v>1</v>
+      </c>
+      <c r="G565" s="3">
+        <f>IF(ISBLANK(B565)," ",SUMIF($B$2:B565,B565,$E$2:E565)-SUMIF($B$2:B565,B565,$F$2:F565))</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="566" spans="2:7">
+      <c r="B566" s="41" t="s">
+        <v>979</v>
+      </c>
+      <c r="C566" s="8" t="str">
+        <f>IF(ISBLANK(B566)," ",VLOOKUP(B566,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve">SILLA PLASTICA </v>
+      </c>
+      <c r="D566" s="4">
+        <f>IF(ISBLANK(B566)," ",VLOOKUP(B566,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E566" s="26">
+        <v>8</v>
+      </c>
+      <c r="F566" s="18">
+        <v>2</v>
+      </c>
+      <c r="G566" s="3">
+        <f>IF(ISBLANK(B566)," ",SUMIF($B$2:B566,B566,$E$2:E566)-SUMIF($B$2:B566,B566,$F$2:F566))</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="567" spans="2:7">
+      <c r="B567" s="41" t="s">
+        <v>464</v>
+      </c>
+      <c r="C567" s="8" t="str">
+        <f>IF(ISBLANK(B567)," ",VLOOKUP(B567,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>GABINETE PARA COCINA 5 PUERTAS Y 4 GABETAS VIDRIO CORREDIZO</v>
+      </c>
+      <c r="D567" s="4">
+        <f>IF(ISBLANK(B567)," ",VLOOKUP(B567,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>325</v>
+      </c>
+      <c r="E567" s="26"/>
+      <c r="F567" s="18">
+        <v>1</v>
+      </c>
+      <c r="G567" s="3">
+        <f>IF(ISBLANK(B567)," ",SUMIF($B$2:B567,B567,$E$2:E567)-SUMIF($B$2:B567,B567,$F$2:F567))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="568" spans="2:7">
+      <c r="B568" s="48" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C568" s="8" t="e">
+        <f>IF(ISBLANK(B568)," ",VLOOKUP(B568,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D568" s="4" t="e">
+        <f>IF(ISBLANK(B568)," ",VLOOKUP(B568,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E568" s="26"/>
+      <c r="F568" s="18">
+        <v>2</v>
+      </c>
+      <c r="G568" s="3">
+        <f>IF(ISBLANK(B568)," ",SUMIF($B$2:B568,B568,$E$2:E568)-SUMIF($B$2:B568,B568,$F$2:F568))</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="569" spans="2:7">
+      <c r="B569" s="41" t="s">
+        <v>626</v>
+      </c>
+      <c r="C569" s="8" t="str">
+        <f>IF(ISBLANK(B569)," ",VLOOKUP(B569,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>SILLA PARA BAR</v>
+      </c>
+      <c r="D569" s="4">
+        <f>IF(ISBLANK(B569)," ",VLOOKUP(B569,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>48</v>
+      </c>
+      <c r="E569" s="26"/>
+      <c r="F569" s="18">
+        <v>3</v>
+      </c>
+      <c r="G569" s="3">
+        <f>IF(ISBLANK(B569)," ",SUMIF($B$2:B569,B569,$E$2:E569)-SUMIF($B$2:B569,B569,$F$2:F569))</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="570" spans="2:7">
+      <c r="B570" s="41" t="s">
+        <v>968</v>
+      </c>
+      <c r="C570" s="8" t="str">
+        <f>IF(ISBLANK(B570)," ",VLOOKUP(B570,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>MESA CON ESPEJO(REPISA)</v>
+      </c>
+      <c r="D570" s="4">
+        <f>IF(ISBLANK(B570)," ",VLOOKUP(B570,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E570" s="26">
+        <v>1</v>
+      </c>
+      <c r="F570" s="18"/>
+      <c r="G570" s="3">
+        <f>IF(ISBLANK(B570)," ",SUMIF($B$2:B570,B570,$E$2:E570)-SUMIF($B$2:B570,B570,$F$2:F570))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571" spans="2:7">
+      <c r="B571" s="48" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C571" s="8" t="e">
+        <f>IF(ISBLANK(B571)," ",VLOOKUP(B571,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D571" s="4" t="e">
+        <f>IF(ISBLANK(B571)," ",VLOOKUP(B571,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E571" s="26">
+        <v>1</v>
+      </c>
+      <c r="F571" s="18"/>
+      <c r="G571" s="3">
+        <f>IF(ISBLANK(B571)," ",SUMIF($B$2:B571,B571,$E$2:E571)-SUMIF($B$2:B571,B571,$F$2:F571))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="572" spans="2:7">
+      <c r="B572" s="48" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C572" s="8" t="e">
+        <f>IF(ISBLANK(B572)," ",VLOOKUP(B572,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D572" s="4" t="e">
+        <f>IF(ISBLANK(B572)," ",VLOOKUP(B572,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E572" s="26"/>
+      <c r="F572" s="18">
+        <v>1</v>
+      </c>
+      <c r="G572" s="3">
+        <f>IF(ISBLANK(B572)," ",SUMIF($B$2:B572,B572,$E$2:E572)-SUMIF($B$2:B572,B572,$F$2:F572))</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="573" spans="2:7">
+      <c r="B573" s="48" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C573" s="8" t="e">
+        <f>IF(ISBLANK(B573)," ",VLOOKUP(B573,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D573" s="4" t="e">
+        <f>IF(ISBLANK(B573)," ",VLOOKUP(B573,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E573" s="26"/>
+      <c r="F573" s="18">
+        <v>1</v>
+      </c>
+      <c r="G573" s="3">
+        <f>IF(ISBLANK(B573)," ",SUMIF($B$2:B573,B573,$E$2:E573)-SUMIF($B$2:B573,B573,$F$2:F573))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="574" spans="2:7">
+      <c r="B574" s="41" t="s">
+        <v>488</v>
+      </c>
+      <c r="C574" s="8" t="str">
+        <f>IF(ISBLANK(B574)," ",VLOOKUP(B574,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>SILLA PARA OFICINA SIN BRAZOS</v>
+      </c>
+      <c r="D574" s="4">
+        <f>IF(ISBLANK(B574)," ",VLOOKUP(B574,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>95</v>
+      </c>
+      <c r="E574" s="26"/>
+      <c r="F574" s="18">
+        <v>1</v>
+      </c>
+      <c r="G574" s="3">
+        <f>IF(ISBLANK(B574)," ",SUMIF($B$2:B574,B574,$E$2:E574)-SUMIF($B$2:B574,B574,$F$2:F574))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="575" spans="2:7">
+      <c r="B575" s="41" t="s">
+        <v>634</v>
+      </c>
+      <c r="C575" s="8" t="str">
+        <f>IF(ISBLANK(B575)," ",VLOOKUP(B575,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>SILLA PARA BAR</v>
+      </c>
+      <c r="D575" s="4">
+        <f>IF(ISBLANK(B575)," ",VLOOKUP(B575,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E575" s="26"/>
+      <c r="F575" s="18">
+        <v>2</v>
+      </c>
+      <c r="G575" s="3">
+        <f>IF(ISBLANK(B575)," ",SUMIF($B$2:B575,B575,$E$2:E575)-SUMIF($B$2:B575,B575,$F$2:F575))</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="576" spans="2:7">
+      <c r="B576" s="48" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C576" s="8" t="e">
+        <f>IF(ISBLANK(B576)," ",VLOOKUP(B576,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D576" s="4" t="e">
+        <f>IF(ISBLANK(B576)," ",VLOOKUP(B576,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E576" s="26"/>
+      <c r="F576" s="18">
+        <v>1</v>
+      </c>
+      <c r="G576" s="3">
+        <f>IF(ISBLANK(B576)," ",SUMIF($B$2:B576,B576,$E$2:E576)-SUMIF($B$2:B576,B576,$F$2:F576))</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="577" spans="2:7">
+      <c r="B577" s="41" t="s">
+        <v>591</v>
+      </c>
+      <c r="C577" s="8" t="str">
+        <f>IF(ISBLANK(B577)," ",VLOOKUP(B577,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>JUEGO DE VARILLA DECORATIVA PARA CORTINA ROD SET</v>
+      </c>
+      <c r="D577" s="4">
+        <f>IF(ISBLANK(B577)," ",VLOOKUP(B577,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>15</v>
+      </c>
+      <c r="E577" s="26"/>
+      <c r="F577" s="18">
+        <v>1</v>
+      </c>
+      <c r="G577" s="3">
+        <f>IF(ISBLANK(B577)," ",SUMIF($B$2:B577,B577,$E$2:E577)-SUMIF($B$2:B577,B577,$F$2:F577))</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="578" spans="2:7">
+      <c r="B578" s="41" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C578" s="8" t="str">
+        <f>IF(ISBLANK(B578)," ",VLOOKUP(B578,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve">CANDELABRO </v>
+      </c>
+      <c r="D578" s="4">
+        <f>IF(ISBLANK(B578)," ",VLOOKUP(B578,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E578" s="26"/>
+      <c r="F578" s="18">
+        <v>2</v>
+      </c>
+      <c r="G578" s="3">
+        <f>IF(ISBLANK(B578)," ",SUMIF($B$2:B578,B578,$E$2:E578)-SUMIF($B$2:B578,B578,$F$2:F578))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="579" spans="2:7">
+      <c r="B579" s="48" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C579" s="8" t="e">
+        <f>IF(ISBLANK(B579)," ",VLOOKUP(B579,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D579" s="4" t="e">
+        <f>IF(ISBLANK(B579)," ",VLOOKUP(B579,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E579" s="26">
+        <v>4</v>
+      </c>
+      <c r="F579" s="18"/>
+      <c r="G579" s="3">
+        <f>IF(ISBLANK(B579)," ",SUMIF($B$2:B579,B579,$E$2:E579)-SUMIF($B$2:B579,B579,$F$2:F579))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="580" spans="2:7">
+      <c r="B580" s="48" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C580" s="8" t="e">
+        <f>IF(ISBLANK(B580)," ",VLOOKUP(B580,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D580" s="4" t="e">
+        <f>IF(ISBLANK(B580)," ",VLOOKUP(B580,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E580" s="26">
+        <v>1</v>
+      </c>
+      <c r="F580" s="18"/>
+      <c r="G580" s="3">
+        <f>IF(ISBLANK(B580)," ",SUMIF($B$2:B580,B580,$E$2:E580)-SUMIF($B$2:B580,B580,$F$2:F580))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="581" spans="2:7">
+      <c r="B581" s="48" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C581" s="8" t="e">
+        <f>IF(ISBLANK(B581)," ",VLOOKUP(B581,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D581" s="4" t="e">
+        <f>IF(ISBLANK(B581)," ",VLOOKUP(B581,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E581" s="26">
+        <v>1</v>
+      </c>
+      <c r="F581" s="18"/>
+      <c r="G581" s="3">
+        <f>IF(ISBLANK(B581)," ",SUMIF($B$2:B581,B581,$E$2:E581)-SUMIF($B$2:B581,B581,$F$2:F581))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="582" spans="2:7">
+      <c r="B582" s="41" t="s">
+        <v>500</v>
+      </c>
+      <c r="C582" s="8" t="str">
+        <f>IF(ISBLANK(B582)," ",VLOOKUP(B582,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve">CAMA PARA MASAJE CON BUTACA </v>
+      </c>
+      <c r="D582" s="4">
+        <f>IF(ISBLANK(B582)," ",VLOOKUP(B582,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>420</v>
+      </c>
+      <c r="E582" s="26">
+        <v>1</v>
+      </c>
+      <c r="F582" s="18"/>
+      <c r="G582" s="3">
+        <f>IF(ISBLANK(B582)," ",SUMIF($B$2:B582,B582,$E$2:E582)-SUMIF($B$2:B582,B582,$F$2:F582))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="583" spans="2:7">
+      <c r="B583" s="41" t="s">
+        <v>886</v>
+      </c>
+      <c r="C583" s="8" t="str">
+        <f>IF(ISBLANK(B583)," ",VLOOKUP(B583,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>BANDEJA PARA BUFFET</v>
+      </c>
+      <c r="D583" s="4">
+        <f>IF(ISBLANK(B583)," ",VLOOKUP(B583,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>68</v>
+      </c>
+      <c r="E583" s="26">
+        <v>1</v>
+      </c>
+      <c r="F583" s="18"/>
+      <c r="G583" s="3">
+        <f>IF(ISBLANK(B583)," ",SUMIF($B$2:B583,B583,$E$2:E583)-SUMIF($B$2:B583,B583,$F$2:F583))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="584" spans="2:7">
+      <c r="B584" s="48" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C584" s="8" t="e">
+        <f>IF(ISBLANK(B584)," ",VLOOKUP(B584,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D584" s="4" t="e">
+        <f>IF(ISBLANK(B584)," ",VLOOKUP(B584,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E584" s="26"/>
+      <c r="F584" s="18">
+        <v>1</v>
+      </c>
+      <c r="G584" s="3">
+        <f>IF(ISBLANK(B584)," ",SUMIF($B$2:B584,B584,$E$2:E584)-SUMIF($B$2:B584,B584,$F$2:F584))</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="585" spans="2:7">
+      <c r="B585" s="41" t="s">
+        <v>514</v>
+      </c>
+      <c r="C585" s="8" t="str">
+        <f>IF(ISBLANK(B585)," ",VLOOKUP(B585,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve">PLANTA ARTIFICIAL CON MACETA </v>
+      </c>
+      <c r="D585" s="4">
+        <f>IF(ISBLANK(B585)," ",VLOOKUP(B585,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>8.5</v>
+      </c>
+      <c r="E585" s="26"/>
+      <c r="F585" s="18">
+        <v>2</v>
+      </c>
+      <c r="G585" s="3">
+        <f>IF(ISBLANK(B585)," ",SUMIF($B$2:B585,B585,$E$2:E585)-SUMIF($B$2:B585,B585,$F$2:F585))</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="586" spans="2:7">
+      <c r="B586" s="48" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C586" s="8" t="e">
+        <f>IF(ISBLANK(B586)," ",VLOOKUP(B586,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D586" s="4" t="e">
+        <f>IF(ISBLANK(B586)," ",VLOOKUP(B586,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E586" s="26"/>
+      <c r="F586" s="18">
+        <v>2</v>
+      </c>
+      <c r="G586" s="3">
+        <f>IF(ISBLANK(B586)," ",SUMIF($B$2:B586,B586,$E$2:E586)-SUMIF($B$2:B586,B586,$F$2:F586))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="587" spans="2:7">
+      <c r="B587" s="48" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C587" s="8" t="e">
+        <f>IF(ISBLANK(B587)," ",VLOOKUP(B587,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D587" s="4" t="e">
+        <f>IF(ISBLANK(B587)," ",VLOOKUP(B587,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E587" s="26"/>
+      <c r="F587" s="18">
+        <v>1</v>
+      </c>
+      <c r="G587" s="3">
+        <f>IF(ISBLANK(B587)," ",SUMIF($B$2:B587,B587,$E$2:E587)-SUMIF($B$2:B587,B587,$F$2:F587))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="588" spans="2:7">
+      <c r="B588" s="41" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C588" s="8" t="str">
+        <f>IF(ISBLANK(B588)," ",VLOOKUP(B588,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>LAMPARA PARA TECHO 5 BOMBILLOS</v>
+      </c>
+      <c r="D588" s="4">
+        <f>IF(ISBLANK(B588)," ",VLOOKUP(B588,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>68</v>
+      </c>
+      <c r="E588" s="26"/>
+      <c r="F588" s="18">
+        <v>1</v>
+      </c>
+      <c r="G588" s="3">
+        <f>IF(ISBLANK(B588)," ",SUMIF($B$2:B588,B588,$E$2:E588)-SUMIF($B$2:B588,B588,$F$2:F588))</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="589" spans="2:7">
+      <c r="B589" s="41" t="s">
+        <v>765</v>
+      </c>
+      <c r="C589" s="8" t="str">
+        <f>IF(ISBLANK(B589)," ",VLOOKUP(B589,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve">JUEGO DE BAÑO CORTINA Y ALFOMBRAS </v>
+      </c>
+      <c r="D589" s="4">
+        <f>IF(ISBLANK(B589)," ",VLOOKUP(B589,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>19.5</v>
+      </c>
+      <c r="E589" s="26"/>
+      <c r="F589" s="18">
+        <v>1</v>
+      </c>
+      <c r="G589" s="3">
+        <f>IF(ISBLANK(B589)," ",SUMIF($B$2:B589,B589,$E$2:E589)-SUMIF($B$2:B589,B589,$F$2:F589))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="590" spans="2:7">
+      <c r="B590" s="48" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C590" s="8" t="e">
+        <f>IF(ISBLANK(B590)," ",VLOOKUP(B590,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D590" s="4" t="e">
+        <f>IF(ISBLANK(B590)," ",VLOOKUP(B590,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E590" s="26"/>
+      <c r="F590" s="18">
+        <v>1</v>
+      </c>
+      <c r="G590" s="3">
+        <f>IF(ISBLANK(B590)," ",SUMIF($B$2:B590,B590,$E$2:E590)-SUMIF($B$2:B590,B590,$F$2:F590))</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="591" spans="2:7">
+      <c r="B591" s="41" t="s">
+        <v>685</v>
+      </c>
+      <c r="C591" s="8" t="str">
+        <f>IF(ISBLANK(B591)," ",VLOOKUP(B591,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>CANDELABRO  PARA MESA</v>
+      </c>
+      <c r="D591" s="4">
+        <f>IF(ISBLANK(B591)," ",VLOOKUP(B591,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>23</v>
+      </c>
+      <c r="E591" s="26"/>
+      <c r="F591" s="18">
+        <v>1</v>
+      </c>
+      <c r="G591" s="3">
+        <f>IF(ISBLANK(B591)," ",SUMIF($B$2:B591,B591,$E$2:E591)-SUMIF($B$2:B591,B591,$F$2:F591))</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="592" spans="2:7">
+      <c r="B592" s="48" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C592" s="8" t="e">
+        <f>IF(ISBLANK(B592)," ",VLOOKUP(B592,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D592" s="4" t="e">
+        <f>IF(ISBLANK(B592)," ",VLOOKUP(B592,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E592" s="26"/>
+      <c r="F592" s="18">
+        <v>1</v>
+      </c>
+      <c r="G592" s="3">
+        <f>IF(ISBLANK(B592)," ",SUMIF($B$2:B592,B592,$E$2:E592)-SUMIF($B$2:B592,B592,$F$2:F592))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="593" spans="2:7">
+      <c r="B593" s="48" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C593" s="8" t="e">
+        <f>IF(ISBLANK(B593)," ",VLOOKUP(B593,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D593" s="4" t="e">
+        <f>IF(ISBLANK(B593)," ",VLOOKUP(B593,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E593" s="26"/>
+      <c r="F593" s="18">
+        <v>1</v>
+      </c>
+      <c r="G593" s="3">
+        <f>IF(ISBLANK(B593)," ",SUMIF($B$2:B593,B593,$E$2:E593)-SUMIF($B$2:B593,B593,$F$2:F593))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="594" spans="2:7">
+      <c r="B594" s="48" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C594" s="8" t="e">
+        <f>IF(ISBLANK(B594)," ",VLOOKUP(B594,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D594" s="4" t="e">
+        <f>IF(ISBLANK(B594)," ",VLOOKUP(B594,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E594" s="26"/>
+      <c r="F594" s="18">
+        <v>1</v>
+      </c>
+      <c r="G594" s="3">
+        <f>IF(ISBLANK(B594)," ",SUMIF($B$2:B594,B594,$E$2:E594)-SUMIF($B$2:B594,B594,$F$2:F594))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="595" spans="2:7">
+      <c r="B595" s="48" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C595" s="8" t="e">
+        <f>IF(ISBLANK(B595)," ",VLOOKUP(B595,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D595" s="4" t="e">
+        <f>IF(ISBLANK(B595)," ",VLOOKUP(B595,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E595" s="26"/>
+      <c r="F595" s="18">
+        <v>1</v>
+      </c>
+      <c r="G595" s="3">
+        <f>IF(ISBLANK(B595)," ",SUMIF($B$2:B595,B595,$E$2:E595)-SUMIF($B$2:B595,B595,$F$2:F595))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="596" spans="2:7">
+      <c r="B596" s="48" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C596" s="8" t="e">
+        <f>IF(ISBLANK(B596)," ",VLOOKUP(B596,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D596" s="4" t="e">
+        <f>IF(ISBLANK(B596)," ",VLOOKUP(B596,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E596" s="26"/>
+      <c r="F596" s="18">
+        <v>1</v>
+      </c>
+      <c r="G596" s="3">
+        <f>IF(ISBLANK(B596)," ",SUMIF($B$2:B596,B596,$E$2:E596)-SUMIF($B$2:B596,B596,$F$2:F596))</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="597" spans="2:7">
+      <c r="B597" s="48" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C597" s="8" t="e">
+        <f>IF(ISBLANK(B597)," ",VLOOKUP(B597,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D597" s="4" t="e">
+        <f>IF(ISBLANK(B597)," ",VLOOKUP(B597,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E597" s="26"/>
+      <c r="F597" s="18">
+        <v>1</v>
+      </c>
+      <c r="G597" s="3">
+        <f>IF(ISBLANK(B597)," ",SUMIF($B$2:B597,B597,$E$2:E597)-SUMIF($B$2:B597,B597,$F$2:F597))</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="598" spans="2:7">
+      <c r="B598" s="48" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C598" s="8" t="e">
+        <f>IF(ISBLANK(B598)," ",VLOOKUP(B598,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D598" s="4" t="e">
+        <f>IF(ISBLANK(B598)," ",VLOOKUP(B598,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E598" s="26"/>
+      <c r="F598" s="18">
+        <v>1</v>
+      </c>
+      <c r="G598" s="3">
+        <f>IF(ISBLANK(B598)," ",SUMIF($B$2:B598,B598,$E$2:E598)-SUMIF($B$2:B598,B598,$F$2:F598))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="599" spans="2:7">
+      <c r="B599" s="41" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C599" s="8" t="str">
+        <f>IF(ISBLANK(B599)," ",VLOOKUP(B599,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve">RELOJ DE PARED </v>
+      </c>
+      <c r="D599" s="4">
+        <f>IF(ISBLANK(B599)," ",VLOOKUP(B599,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E599" s="26"/>
+      <c r="F599" s="18">
+        <v>1</v>
+      </c>
+      <c r="G599" s="3">
+        <f>IF(ISBLANK(B599)," ",SUMIF($B$2:B599,B599,$E$2:E599)-SUMIF($B$2:B599,B599,$F$2:F599))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="600" spans="2:7">
+      <c r="B600" s="57" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C600" s="8" t="e">
+        <f>IF(ISBLANK(B600)," ",VLOOKUP(B600,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D600" s="4" t="e">
+        <f>IF(ISBLANK(B600)," ",VLOOKUP(B600,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E600" s="26"/>
+      <c r="F600" s="18">
+        <v>1</v>
+      </c>
+      <c r="G600" s="3">
+        <f>IF(ISBLANK(B600)," ",SUMIF($B$2:B600,B600,$E$2:E600)-SUMIF($B$2:B600,B600,$F$2:F600))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="601" spans="2:7">
+      <c r="B601" s="41" t="s">
+        <v>763</v>
+      </c>
+      <c r="C601" s="8" t="str">
+        <f>IF(ISBLANK(B601)," ",VLOOKUP(B601,'Listado articulos'!A:B,2,FALSE))</f>
+        <v>CORTINA PARA BAÑO  PACIFIC CLUB</v>
+      </c>
+      <c r="D601" s="4">
+        <f>IF(ISBLANK(B601)," ",VLOOKUP(B601,'Listado articulos'!A:C,3,FALSE))</f>
+        <v>4.5</v>
+      </c>
+      <c r="E601" s="26"/>
+      <c r="F601" s="18">
+        <v>3</v>
+      </c>
+      <c r="G601" s="3">
+        <f>IF(ISBLANK(B601)," ",SUMIF($B$2:B601,B601,$E$2:E601)-SUMIF($B$2:B601,B601,$F$2:F601))</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="602" spans="2:7">
+      <c r="B602" s="41"/>
+      <c r="C602" s="8" t="str">
+        <f>IF(ISBLANK(B602)," ",VLOOKUP(B602,'Listado articulos'!A:B,2,FALSE))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D328" s="4" t="str">
-        <f>IF(ISBLANK(B328)," ",VLOOKUP(B328,'Listado articulos'!A:C,3,FALSE))</f>
+      <c r="D602" s="4" t="str">
+        <f>IF(ISBLANK(B602)," ",VLOOKUP(B602,'Listado articulos'!A:C,3,FALSE))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E328" s="26"/>
-      <c r="F328" s="18"/>
-      <c r="G328" s="3" t="str">
-        <f>IF(ISBLANK(B328)," ",SUMIF($B$2:B328,B328,$E$2:E328)-SUMIF($B$2:B328,B328,$F$2:F328))</f>
+      <c r="E602" s="26"/>
+      <c r="F602" s="18"/>
+      <c r="G602" s="3" t="str">
+        <f>IF(ISBLANK(B602)," ",SUMIF($B$2:B602,B602,$E$2:E602)-SUMIF($B$2:B602,B602,$F$2:F602))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="603" spans="2:7">
+      <c r="B603" s="41"/>
+      <c r="C603" s="8" t="str">
+        <f>IF(ISBLANK(B603)," ",VLOOKUP(B603,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D603" s="4" t="str">
+        <f>IF(ISBLANK(B603)," ",VLOOKUP(B603,'Listado articulos'!A:C,3,FALSE))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E603" s="26"/>
+      <c r="F603" s="18"/>
+      <c r="G603" s="3" t="str">
+        <f>IF(ISBLANK(B603)," ",SUMIF($B$2:B603,B603,$E$2:E603)-SUMIF($B$2:B603,B603,$F$2:F603))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="604" spans="2:7">
+      <c r="B604" s="41"/>
+      <c r="C604" s="8" t="str">
+        <f>IF(ISBLANK(B604)," ",VLOOKUP(B604,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D604" s="4" t="str">
+        <f>IF(ISBLANK(B604)," ",VLOOKUP(B604,'Listado articulos'!A:C,3,FALSE))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E604" s="26"/>
+      <c r="F604" s="18"/>
+      <c r="G604" s="3" t="str">
+        <f>IF(ISBLANK(B604)," ",SUMIF($B$2:B604,B604,$E$2:E604)-SUMIF($B$2:B604,B604,$F$2:F604))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="605" spans="2:7">
+      <c r="B605" s="41"/>
+      <c r="C605" s="8" t="str">
+        <f>IF(ISBLANK(B605)," ",VLOOKUP(B605,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D605" s="4" t="str">
+        <f>IF(ISBLANK(B605)," ",VLOOKUP(B605,'Listado articulos'!A:C,3,FALSE))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E605" s="26"/>
+      <c r="F605" s="18"/>
+      <c r="G605" s="3" t="str">
+        <f>IF(ISBLANK(B605)," ",SUMIF($B$2:B605,B605,$E$2:E605)-SUMIF($B$2:B605,B605,$F$2:F605))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="606" spans="2:7">
+      <c r="B606" s="41"/>
+      <c r="C606" s="8" t="str">
+        <f>IF(ISBLANK(B606)," ",VLOOKUP(B606,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D606" s="4" t="str">
+        <f>IF(ISBLANK(B606)," ",VLOOKUP(B606,'Listado articulos'!A:C,3,FALSE))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E606" s="26"/>
+      <c r="F606" s="18"/>
+      <c r="G606" s="3" t="str">
+        <f>IF(ISBLANK(B606)," ",SUMIF($B$2:B606,B606,$E$2:E606)-SUMIF($B$2:B606,B606,$F$2:F606))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="607" spans="2:7">
+      <c r="B607" s="41"/>
+      <c r="C607" s="8" t="str">
+        <f>IF(ISBLANK(B607)," ",VLOOKUP(B607,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D607" s="4" t="str">
+        <f>IF(ISBLANK(B607)," ",VLOOKUP(B607,'Listado articulos'!A:C,3,FALSE))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E607" s="26"/>
+      <c r="F607" s="18"/>
+      <c r="G607" s="3" t="str">
+        <f>IF(ISBLANK(B607)," ",SUMIF($B$2:B607,B607,$E$2:E607)-SUMIF($B$2:B607,B607,$F$2:F607))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="608" spans="2:7">
+      <c r="B608" s="41"/>
+      <c r="C608" s="8" t="str">
+        <f>IF(ISBLANK(B608)," ",VLOOKUP(B608,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D608" s="4" t="str">
+        <f>IF(ISBLANK(B608)," ",VLOOKUP(B608,'Listado articulos'!A:C,3,FALSE))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E608" s="26"/>
+      <c r="F608" s="18"/>
+      <c r="G608" s="3" t="str">
+        <f>IF(ISBLANK(B608)," ",SUMIF($B$2:B608,B608,$E$2:E608)-SUMIF($B$2:B608,B608,$F$2:F608))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="609" spans="2:7">
+      <c r="B609" s="41"/>
+      <c r="C609" s="8" t="str">
+        <f>IF(ISBLANK(B609)," ",VLOOKUP(B609,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D609" s="4" t="str">
+        <f>IF(ISBLANK(B609)," ",VLOOKUP(B609,'Listado articulos'!A:C,3,FALSE))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E609" s="26"/>
+      <c r="F609" s="18"/>
+      <c r="G609" s="3" t="str">
+        <f>IF(ISBLANK(B609)," ",SUMIF($B$2:B609,B609,$E$2:E609)-SUMIF($B$2:B609,B609,$F$2:F609))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="610" spans="2:7">
+      <c r="B610" s="41"/>
+      <c r="C610" s="8" t="str">
+        <f>IF(ISBLANK(B610)," ",VLOOKUP(B610,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D610" s="4" t="str">
+        <f>IF(ISBLANK(B610)," ",VLOOKUP(B610,'Listado articulos'!A:C,3,FALSE))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E610" s="26"/>
+      <c r="F610" s="18"/>
+      <c r="G610" s="3" t="str">
+        <f>IF(ISBLANK(B610)," ",SUMIF($B$2:B610,B610,$E$2:E610)-SUMIF($B$2:B610,B610,$F$2:F610))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="611" spans="2:7">
+      <c r="B611" s="41"/>
+      <c r="C611" s="8" t="str">
+        <f>IF(ISBLANK(B611)," ",VLOOKUP(B611,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D611" s="4" t="str">
+        <f>IF(ISBLANK(B611)," ",VLOOKUP(B611,'Listado articulos'!A:C,3,FALSE))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E611" s="26"/>
+      <c r="F611" s="18"/>
+      <c r="G611" s="3" t="str">
+        <f>IF(ISBLANK(B611)," ",SUMIF($B$2:B611,B611,$E$2:E611)-SUMIF($B$2:B611,B611,$F$2:F611))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="612" spans="2:7">
+      <c r="B612" s="41"/>
+      <c r="C612" s="8" t="str">
+        <f>IF(ISBLANK(B612)," ",VLOOKUP(B612,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D612" s="4" t="str">
+        <f>IF(ISBLANK(B612)," ",VLOOKUP(B612,'Listado articulos'!A:C,3,FALSE))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E612" s="26"/>
+      <c r="F612" s="18"/>
+      <c r="G612" s="3" t="str">
+        <f>IF(ISBLANK(B612)," ",SUMIF($B$2:B612,B612,$E$2:E612)-SUMIF($B$2:B612,B612,$F$2:F612))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="613" spans="2:7">
+      <c r="B613" s="41"/>
+      <c r="C613" s="8" t="str">
+        <f>IF(ISBLANK(B613)," ",VLOOKUP(B613,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D613" s="4" t="str">
+        <f>IF(ISBLANK(B613)," ",VLOOKUP(B613,'Listado articulos'!A:C,3,FALSE))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E613" s="26"/>
+      <c r="F613" s="18"/>
+      <c r="G613" s="3" t="str">
+        <f>IF(ISBLANK(B613)," ",SUMIF($B$2:B613,B613,$E$2:E613)-SUMIF($B$2:B613,B613,$F$2:F613))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="614" spans="2:7">
+      <c r="B614" s="41"/>
+      <c r="C614" s="8" t="str">
+        <f>IF(ISBLANK(B614)," ",VLOOKUP(B614,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D614" s="4" t="str">
+        <f>IF(ISBLANK(B614)," ",VLOOKUP(B614,'Listado articulos'!A:C,3,FALSE))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E614" s="26"/>
+      <c r="F614" s="18"/>
+      <c r="G614" s="3" t="str">
+        <f>IF(ISBLANK(B614)," ",SUMIF($B$2:B614,B614,$E$2:E614)-SUMIF($B$2:B614,B614,$F$2:F614))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="615" spans="2:7">
+      <c r="B615" s="41"/>
+      <c r="C615" s="8" t="str">
+        <f>IF(ISBLANK(B615)," ",VLOOKUP(B615,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D615" s="4" t="str">
+        <f>IF(ISBLANK(B615)," ",VLOOKUP(B615,'Listado articulos'!A:C,3,FALSE))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E615" s="26"/>
+      <c r="F615" s="18"/>
+      <c r="G615" s="3" t="str">
+        <f>IF(ISBLANK(B615)," ",SUMIF($B$2:B615,B615,$E$2:E615)-SUMIF($B$2:B615,B615,$F$2:F615))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="616" spans="2:7">
+      <c r="B616" s="41"/>
+      <c r="C616" s="8" t="str">
+        <f>IF(ISBLANK(B616)," ",VLOOKUP(B616,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D616" s="4" t="str">
+        <f>IF(ISBLANK(B616)," ",VLOOKUP(B616,'Listado articulos'!A:C,3,FALSE))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E616" s="26"/>
+      <c r="F616" s="18"/>
+      <c r="G616" s="3" t="str">
+        <f>IF(ISBLANK(B616)," ",SUMIF($B$2:B616,B616,$E$2:E616)-SUMIF($B$2:B616,B616,$F$2:F616))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="617" spans="2:7">
+      <c r="B617" s="41"/>
+      <c r="C617" s="8" t="str">
+        <f>IF(ISBLANK(B617)," ",VLOOKUP(B617,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D617" s="4" t="str">
+        <f>IF(ISBLANK(B617)," ",VLOOKUP(B617,'Listado articulos'!A:C,3,FALSE))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E617" s="26"/>
+      <c r="F617" s="18"/>
+      <c r="G617" s="3" t="str">
+        <f>IF(ISBLANK(B617)," ",SUMIF($B$2:B617,B617,$E$2:E617)-SUMIF($B$2:B617,B617,$F$2:F617))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="618" spans="2:7">
+      <c r="B618" s="41"/>
+      <c r="C618" s="8" t="str">
+        <f>IF(ISBLANK(B618)," ",VLOOKUP(B618,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D618" s="4" t="str">
+        <f>IF(ISBLANK(B618)," ",VLOOKUP(B618,'Listado articulos'!A:C,3,FALSE))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E618" s="26"/>
+      <c r="F618" s="18"/>
+      <c r="G618" s="3" t="str">
+        <f>IF(ISBLANK(B618)," ",SUMIF($B$2:B618,B618,$E$2:E618)-SUMIF($B$2:B618,B618,$F$2:F618))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="619" spans="2:7">
+      <c r="B619" s="41"/>
+      <c r="C619" s="8" t="str">
+        <f>IF(ISBLANK(B619)," ",VLOOKUP(B619,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D619" s="4" t="str">
+        <f>IF(ISBLANK(B619)," ",VLOOKUP(B619,'Listado articulos'!A:C,3,FALSE))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E619" s="26"/>
+      <c r="F619" s="18"/>
+      <c r="G619" s="3" t="str">
+        <f>IF(ISBLANK(B619)," ",SUMIF($B$2:B619,B619,$E$2:E619)-SUMIF($B$2:B619,B619,$F$2:F619))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="620" spans="2:7">
+      <c r="B620" s="41"/>
+      <c r="C620" s="8" t="str">
+        <f>IF(ISBLANK(B620)," ",VLOOKUP(B620,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D620" s="4" t="str">
+        <f>IF(ISBLANK(B620)," ",VLOOKUP(B620,'Listado articulos'!A:C,3,FALSE))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E620" s="26"/>
+      <c r="F620" s="18"/>
+      <c r="G620" s="3" t="str">
+        <f>IF(ISBLANK(B620)," ",SUMIF($B$2:B620,B620,$E$2:E620)-SUMIF($B$2:B620,B620,$F$2:F620))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="621" spans="2:7">
+      <c r="B621" s="41"/>
+      <c r="C621" s="8" t="str">
+        <f>IF(ISBLANK(B621)," ",VLOOKUP(B621,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D621" s="4" t="str">
+        <f>IF(ISBLANK(B621)," ",VLOOKUP(B621,'Listado articulos'!A:C,3,FALSE))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E621" s="26"/>
+      <c r="F621" s="18"/>
+      <c r="G621" s="3" t="str">
+        <f>IF(ISBLANK(B621)," ",SUMIF($B$2:B621,B621,$E$2:E621)-SUMIF($B$2:B621,B621,$F$2:F621))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="622" spans="2:7">
+      <c r="B622" s="41"/>
+      <c r="C622" s="8" t="str">
+        <f>IF(ISBLANK(B622)," ",VLOOKUP(B622,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D622" s="4" t="str">
+        <f>IF(ISBLANK(B622)," ",VLOOKUP(B622,'Listado articulos'!A:C,3,FALSE))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E622" s="26"/>
+      <c r="F622" s="18"/>
+      <c r="G622" s="3" t="str">
+        <f>IF(ISBLANK(B622)," ",SUMIF($B$2:B622,B622,$E$2:E622)-SUMIF($B$2:B622,B622,$F$2:F622))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="623" spans="2:7">
+      <c r="B623" s="41"/>
+      <c r="C623" s="8" t="str">
+        <f>IF(ISBLANK(B623)," ",VLOOKUP(B623,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D623" s="4" t="str">
+        <f>IF(ISBLANK(B623)," ",VLOOKUP(B623,'Listado articulos'!A:C,3,FALSE))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E623" s="26"/>
+      <c r="F623" s="18"/>
+      <c r="G623" s="3" t="str">
+        <f>IF(ISBLANK(B623)," ",SUMIF($B$2:B623,B623,$E$2:E623)-SUMIF($B$2:B623,B623,$F$2:F623))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="624" spans="2:7">
+      <c r="B624" s="41"/>
+      <c r="C624" s="8" t="str">
+        <f>IF(ISBLANK(B624)," ",VLOOKUP(B624,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D624" s="4" t="str">
+        <f>IF(ISBLANK(B624)," ",VLOOKUP(B624,'Listado articulos'!A:C,3,FALSE))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E624" s="26"/>
+      <c r="F624" s="18"/>
+      <c r="G624" s="3" t="str">
+        <f>IF(ISBLANK(B624)," ",SUMIF($B$2:B624,B624,$E$2:E624)-SUMIF($B$2:B624,B624,$F$2:F624))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="625" spans="2:7">
+      <c r="B625" s="41"/>
+      <c r="C625" s="8" t="str">
+        <f>IF(ISBLANK(B625)," ",VLOOKUP(B625,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D625" s="4" t="str">
+        <f>IF(ISBLANK(B625)," ",VLOOKUP(B625,'Listado articulos'!A:C,3,FALSE))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E625" s="26"/>
+      <c r="F625" s="18"/>
+      <c r="G625" s="3" t="str">
+        <f>IF(ISBLANK(B625)," ",SUMIF($B$2:B625,B625,$E$2:E625)-SUMIF($B$2:B625,B625,$F$2:F625))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="626" spans="2:7">
+      <c r="B626" s="41"/>
+      <c r="C626" s="8" t="str">
+        <f>IF(ISBLANK(B626)," ",VLOOKUP(B626,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D626" s="4" t="str">
+        <f>IF(ISBLANK(B626)," ",VLOOKUP(B626,'Listado articulos'!A:C,3,FALSE))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E626" s="26"/>
+      <c r="F626" s="18"/>
+      <c r="G626" s="3" t="str">
+        <f>IF(ISBLANK(B626)," ",SUMIF($B$2:B626,B626,$E$2:E626)-SUMIF($B$2:B626,B626,$F$2:F626))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="627" spans="2:7">
+      <c r="B627" s="41"/>
+      <c r="C627" s="8" t="str">
+        <f>IF(ISBLANK(B627)," ",VLOOKUP(B627,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D627" s="4" t="str">
+        <f>IF(ISBLANK(B627)," ",VLOOKUP(B627,'Listado articulos'!A:C,3,FALSE))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E627" s="26"/>
+      <c r="F627" s="18"/>
+      <c r="G627" s="3" t="str">
+        <f>IF(ISBLANK(B627)," ",SUMIF($B$2:B627,B627,$E$2:E627)-SUMIF($B$2:B627,B627,$F$2:F627))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="628" spans="2:7">
+      <c r="B628" s="41"/>
+      <c r="C628" s="8" t="str">
+        <f>IF(ISBLANK(B628)," ",VLOOKUP(B628,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D628" s="4" t="str">
+        <f>IF(ISBLANK(B628)," ",VLOOKUP(B628,'Listado articulos'!A:C,3,FALSE))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E628" s="26"/>
+      <c r="F628" s="18"/>
+      <c r="G628" s="3" t="str">
+        <f>IF(ISBLANK(B628)," ",SUMIF($B$2:B628,B628,$E$2:E628)-SUMIF($B$2:B628,B628,$F$2:F628))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="629" spans="2:7">
+      <c r="B629" s="41"/>
+      <c r="C629" s="8" t="str">
+        <f>IF(ISBLANK(B629)," ",VLOOKUP(B629,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D629" s="4" t="str">
+        <f>IF(ISBLANK(B629)," ",VLOOKUP(B629,'Listado articulos'!A:C,3,FALSE))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E629" s="26"/>
+      <c r="F629" s="18"/>
+      <c r="G629" s="3" t="str">
+        <f>IF(ISBLANK(B629)," ",SUMIF($B$2:B629,B629,$E$2:E629)-SUMIF($B$2:B629,B629,$F$2:F629))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="630" spans="2:7">
+      <c r="B630" s="41"/>
+      <c r="C630" s="8" t="str">
+        <f>IF(ISBLANK(B630)," ",VLOOKUP(B630,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D630" s="4" t="str">
+        <f>IF(ISBLANK(B630)," ",VLOOKUP(B630,'Listado articulos'!A:C,3,FALSE))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E630" s="26"/>
+      <c r="F630" s="18"/>
+      <c r="G630" s="3" t="str">
+        <f>IF(ISBLANK(B630)," ",SUMIF($B$2:B630,B630,$E$2:E630)-SUMIF($B$2:B630,B630,$F$2:F630))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="631" spans="2:7">
+      <c r="B631" s="41"/>
+      <c r="C631" s="8" t="str">
+        <f>IF(ISBLANK(B631)," ",VLOOKUP(B631,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D631" s="4" t="str">
+        <f>IF(ISBLANK(B631)," ",VLOOKUP(B631,'Listado articulos'!A:C,3,FALSE))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E631" s="26"/>
+      <c r="F631" s="18"/>
+      <c r="G631" s="3" t="str">
+        <f>IF(ISBLANK(B631)," ",SUMIF($B$2:B631,B631,$E$2:E631)-SUMIF($B$2:B631,B631,$F$2:F631))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="632" spans="2:7">
+      <c r="B632" s="41"/>
+      <c r="C632" s="8" t="str">
+        <f>IF(ISBLANK(B632)," ",VLOOKUP(B632,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D632" s="4" t="str">
+        <f>IF(ISBLANK(B632)," ",VLOOKUP(B632,'Listado articulos'!A:C,3,FALSE))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E632" s="26"/>
+      <c r="F632" s="18"/>
+      <c r="G632" s="3" t="str">
+        <f>IF(ISBLANK(B632)," ",SUMIF($B$2:B632,B632,$E$2:E632)-SUMIF($B$2:B632,B632,$F$2:F632))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="633" spans="2:7">
+      <c r="B633" s="41"/>
+      <c r="C633" s="8" t="str">
+        <f>IF(ISBLANK(B633)," ",VLOOKUP(B633,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D633" s="4" t="str">
+        <f>IF(ISBLANK(B633)," ",VLOOKUP(B633,'Listado articulos'!A:C,3,FALSE))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E633" s="26"/>
+      <c r="F633" s="18"/>
+      <c r="G633" s="3" t="str">
+        <f>IF(ISBLANK(B633)," ",SUMIF($B$2:B633,B633,$E$2:E633)-SUMIF($B$2:B633,B633,$F$2:F633))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="634" spans="2:7">
+      <c r="B634" s="41"/>
+      <c r="C634" s="8" t="str">
+        <f>IF(ISBLANK(B634)," ",VLOOKUP(B634,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D634" s="4" t="str">
+        <f>IF(ISBLANK(B634)," ",VLOOKUP(B634,'Listado articulos'!A:C,3,FALSE))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E634" s="26"/>
+      <c r="F634" s="18"/>
+      <c r="G634" s="3" t="str">
+        <f>IF(ISBLANK(B634)," ",SUMIF($B$2:B634,B634,$E$2:E634)-SUMIF($B$2:B634,B634,$F$2:F634))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="635" spans="2:7">
+      <c r="B635" s="41"/>
+      <c r="C635" s="8" t="str">
+        <f>IF(ISBLANK(B635)," ",VLOOKUP(B635,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D635" s="4" t="str">
+        <f>IF(ISBLANK(B635)," ",VLOOKUP(B635,'Listado articulos'!A:C,3,FALSE))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E635" s="26"/>
+      <c r="F635" s="18"/>
+      <c r="G635" s="3" t="str">
+        <f>IF(ISBLANK(B635)," ",SUMIF($B$2:B635,B635,$E$2:E635)-SUMIF($B$2:B635,B635,$F$2:F635))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="636" spans="2:7">
+      <c r="B636" s="41"/>
+      <c r="C636" s="8" t="str">
+        <f>IF(ISBLANK(B636)," ",VLOOKUP(B636,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D636" s="4" t="str">
+        <f>IF(ISBLANK(B636)," ",VLOOKUP(B636,'Listado articulos'!A:C,3,FALSE))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E636" s="26"/>
+      <c r="F636" s="18"/>
+      <c r="G636" s="3" t="str">
+        <f>IF(ISBLANK(B636)," ",SUMIF($B$2:B636,B636,$E$2:E636)-SUMIF($B$2:B636,B636,$F$2:F636))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="637" spans="2:7">
+      <c r="B637" s="41"/>
+      <c r="C637" s="8" t="str">
+        <f>IF(ISBLANK(B637)," ",VLOOKUP(B637,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D637" s="4" t="str">
+        <f>IF(ISBLANK(B637)," ",VLOOKUP(B637,'Listado articulos'!A:C,3,FALSE))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E637" s="26"/>
+      <c r="F637" s="18"/>
+      <c r="G637" s="3" t="str">
+        <f>IF(ISBLANK(B637)," ",SUMIF($B$2:B637,B637,$E$2:E637)-SUMIF($B$2:B637,B637,$F$2:F637))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="638" spans="2:7">
+      <c r="B638" s="41"/>
+      <c r="C638" s="8" t="str">
+        <f>IF(ISBLANK(B638)," ",VLOOKUP(B638,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D638" s="4" t="str">
+        <f>IF(ISBLANK(B638)," ",VLOOKUP(B638,'Listado articulos'!A:C,3,FALSE))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E638" s="26"/>
+      <c r="F638" s="18"/>
+      <c r="G638" s="3" t="str">
+        <f>IF(ISBLANK(B638)," ",SUMIF($B$2:B638,B638,$E$2:E638)-SUMIF($B$2:B638,B638,$F$2:F638))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="639" spans="2:7">
+      <c r="B639" s="41"/>
+      <c r="C639" s="8" t="str">
+        <f>IF(ISBLANK(B639)," ",VLOOKUP(B639,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D639" s="4" t="str">
+        <f>IF(ISBLANK(B639)," ",VLOOKUP(B639,'Listado articulos'!A:C,3,FALSE))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E639" s="26"/>
+      <c r="F639" s="18"/>
+      <c r="G639" s="3" t="str">
+        <f>IF(ISBLANK(B639)," ",SUMIF($B$2:B639,B639,$E$2:E639)-SUMIF($B$2:B639,B639,$F$2:F639))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="640" spans="2:7">
+      <c r="B640" s="41"/>
+      <c r="C640" s="8" t="str">
+        <f>IF(ISBLANK(B640)," ",VLOOKUP(B640,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D640" s="4" t="str">
+        <f>IF(ISBLANK(B640)," ",VLOOKUP(B640,'Listado articulos'!A:C,3,FALSE))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E640" s="26"/>
+      <c r="F640" s="18"/>
+      <c r="G640" s="3" t="str">
+        <f>IF(ISBLANK(B640)," ",SUMIF($B$2:B640,B640,$E$2:E640)-SUMIF($B$2:B640,B640,$F$2:F640))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="641" spans="2:7">
+      <c r="B641" s="41"/>
+      <c r="C641" s="8" t="str">
+        <f>IF(ISBLANK(B641)," ",VLOOKUP(B641,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D641" s="4" t="str">
+        <f>IF(ISBLANK(B641)," ",VLOOKUP(B641,'Listado articulos'!A:C,3,FALSE))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E641" s="26"/>
+      <c r="F641" s="18"/>
+      <c r="G641" s="3" t="str">
+        <f>IF(ISBLANK(B641)," ",SUMIF($B$2:B641,B641,$E$2:E641)-SUMIF($B$2:B641,B641,$F$2:F641))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="642" spans="2:7">
+      <c r="B642" s="41"/>
+      <c r="C642" s="8" t="str">
+        <f>IF(ISBLANK(B642)," ",VLOOKUP(B642,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D642" s="4" t="str">
+        <f>IF(ISBLANK(B642)," ",VLOOKUP(B642,'Listado articulos'!A:C,3,FALSE))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E642" s="26"/>
+      <c r="F642" s="18"/>
+      <c r="G642" s="3" t="str">
+        <f>IF(ISBLANK(B642)," ",SUMIF($B$2:B642,B642,$E$2:E642)-SUMIF($B$2:B642,B642,$F$2:F642))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="643" spans="2:7">
+      <c r="B643" s="41"/>
+      <c r="C643" s="8" t="str">
+        <f>IF(ISBLANK(B643)," ",VLOOKUP(B643,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D643" s="4" t="str">
+        <f>IF(ISBLANK(B643)," ",VLOOKUP(B643,'Listado articulos'!A:C,3,FALSE))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E643" s="26"/>
+      <c r="F643" s="18"/>
+      <c r="G643" s="3" t="str">
+        <f>IF(ISBLANK(B643)," ",SUMIF($B$2:B643,B643,$E$2:E643)-SUMIF($B$2:B643,B643,$F$2:F643))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="644" spans="2:7">
+      <c r="B644" s="41"/>
+      <c r="C644" s="8" t="str">
+        <f>IF(ISBLANK(B644)," ",VLOOKUP(B644,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D644" s="4" t="str">
+        <f>IF(ISBLANK(B644)," ",VLOOKUP(B644,'Listado articulos'!A:C,3,FALSE))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E644" s="26"/>
+      <c r="F644" s="18"/>
+      <c r="G644" s="3" t="str">
+        <f>IF(ISBLANK(B644)," ",SUMIF($B$2:B644,B644,$E$2:E644)-SUMIF($B$2:B644,B644,$F$2:F644))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="645" spans="2:7">
+      <c r="B645" s="41"/>
+      <c r="C645" s="8" t="str">
+        <f>IF(ISBLANK(B645)," ",VLOOKUP(B645,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D645" s="4" t="str">
+        <f>IF(ISBLANK(B645)," ",VLOOKUP(B645,'Listado articulos'!A:C,3,FALSE))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E645" s="26"/>
+      <c r="F645" s="18"/>
+      <c r="G645" s="3" t="str">
+        <f>IF(ISBLANK(B645)," ",SUMIF($B$2:B645,B645,$E$2:E645)-SUMIF($B$2:B645,B645,$F$2:F645))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="646" spans="2:7">
+      <c r="B646" s="41"/>
+      <c r="C646" s="8" t="str">
+        <f>IF(ISBLANK(B646)," ",VLOOKUP(B646,'Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D646" s="4" t="str">
+        <f>IF(ISBLANK(B646)," ",VLOOKUP(B646,'Listado articulos'!A:C,3,FALSE))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E646" s="26"/>
+      <c r="F646" s="18"/>
+      <c r="G646" s="3" t="str">
+        <f>IF(ISBLANK(B646)," ",SUMIF($B$2:B646,B646,$E$2:E646)-SUMIF($B$2:B646,B646,$F$2:F646))</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:G64719">
-    <cfRule type="cellIs" dxfId="17" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="17" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="containsText" dxfId="15" priority="16" operator="containsText" text="S">
+    <cfRule type="containsText" dxfId="17" priority="16" operator="containsText" text="S">
       <formula>NOT(ISERROR(SEARCH("S",G1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B316">
-    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B327:B328">
-    <cfRule type="duplicateValues" dxfId="13" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B328">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B646">
       <formula1>REF</formula1>
     </dataValidation>
   </dataValidations>
@@ -29641,8 +36361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1230"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="A392" workbookViewId="0">
+      <selection activeCell="A265" sqref="A265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -39892,43 +46612,43 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A344:A377 A590 A595 A597 A599:A606 A379:A388 A390:A413 A416:A420 A423:A424 A426:A428 A431:A434 A437:A438 A440:A485 A487:A544 A546:A547 A550:A551 A554:A555 A558:A559 A561:A567 A569:A585 A608">
-    <cfRule type="duplicateValues" dxfId="12" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A586">
-    <cfRule type="duplicateValues" dxfId="11" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A587">
-    <cfRule type="duplicateValues" dxfId="10" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A588">
-    <cfRule type="duplicateValues" dxfId="9" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A589">
-    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A591:A592">
-    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A593:A594">
-    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A596">
-    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A598">
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A378 A389 A414:A415 A421:A422 A425 A429:A430 A435:A436 A439 A486 A545 A548:A549 A552:A553 A556:A557 A560 A568 A607">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20 A24 A35:A36 A74 A210 A248:A249 A251">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A685">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A19 A21:A23 A25:A34 A37:A73 A75:A209 A211:A247 A250 A252:A343">
-    <cfRule type="duplicateValues" dxfId="0" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="33"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Entradas y Salidas.xlsx
+++ b/Entradas y Salidas.xlsx
@@ -5,26 +5,29 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\MH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexander Siles\Documents\GitHub\MH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8232" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Entradas-salidas Exhibicion" sheetId="1" r:id="rId1"/>
     <sheet name="Entradas-salidas Bodega" sheetId="4" r:id="rId2"/>
     <sheet name="Listado articulos" sheetId="2" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <definedNames>
     <definedName name="REF">'Listado articulos'!$A:$A</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2844" uniqueCount="1311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2929" uniqueCount="1325">
   <si>
     <t>Entradas</t>
   </si>
@@ -3969,11 +3972,53 @@
   <si>
     <t>853-90122120</t>
   </si>
+  <si>
+    <t>981-9072742</t>
+  </si>
+  <si>
+    <t>HCAM-021-LEAVE</t>
+  </si>
+  <si>
+    <t>3246-H62</t>
+  </si>
+  <si>
+    <t>246AHD62</t>
+  </si>
+  <si>
+    <t>714-90112723</t>
+  </si>
+  <si>
+    <t>GI-2926-42</t>
+  </si>
+  <si>
+    <t>718-29156</t>
+  </si>
+  <si>
+    <t>ESCALERA METALICA</t>
+  </si>
+  <si>
+    <t>SILLAS PLAYERAS</t>
+  </si>
+  <si>
+    <t>KIT DE CAMARAS DE VIGILANCIA 4 CAMARAS</t>
+  </si>
+  <si>
+    <t>KIT DE CAMARAS DE VIGILANCIA 8 CAMARAS</t>
+  </si>
+  <si>
+    <t>RIEL PARA CORTINA</t>
+  </si>
+  <si>
+    <t>FLORERO METALICO</t>
+  </si>
+  <si>
+    <t>SOPORTE PARA TV</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
@@ -4314,7 +4359,32 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="25">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u val="none"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -4518,13 +4588,7751 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Entradas-salidas Exhibicion"/>
+      <sheetName val="Listado articulos"/>
+      <sheetName val="Entradas-salidas Bodega"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>CÓDIGO</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>DESCRIPCION</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>PRECIO</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>851-SOFAR</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>SOFA EN L</v>
+          </cell>
+          <cell r="C2">
+            <v>1050</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>852-112219AW</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>MESA PARA SALA</v>
+          </cell>
+          <cell r="C3">
+            <v>120</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>851-5136061</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v xml:space="preserve">JUEGO SOFA </v>
+          </cell>
+          <cell r="C4">
+            <v>1080</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>852-MA150340CH1</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>MESA PARA SALA</v>
+          </cell>
+          <cell r="C5">
+            <v>115</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>851-408011</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v>SOFA EN L</v>
+          </cell>
+          <cell r="C6">
+            <v>1100</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>852-112219AN1</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>MESA PARA SALA</v>
+          </cell>
+          <cell r="C7">
+            <v>120</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>855-HW5015C</v>
+          </cell>
+          <cell r="B8" t="str">
+            <v>MUEBLE PARA TV</v>
+          </cell>
+          <cell r="C8">
+            <v>295</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>851-MA111192A</v>
+          </cell>
+          <cell r="B9" t="str">
+            <v xml:space="preserve">JUEGO DE SOFA </v>
+          </cell>
+          <cell r="C9">
+            <v>1180</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>851-LF3581</v>
+          </cell>
+          <cell r="B10" t="str">
+            <v>SOFA EN L</v>
+          </cell>
+          <cell r="C10">
+            <v>580</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>852-CT9651</v>
+          </cell>
+          <cell r="B11" t="str">
+            <v>MESA PARA SALA</v>
+          </cell>
+          <cell r="C11">
+            <v>120</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>854-MA210058CHCRO</v>
+          </cell>
+          <cell r="B12" t="str">
+            <v>JUEGO SOFA PARA TERRAZA</v>
+          </cell>
+          <cell r="C12">
+            <v>520</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>859-9095923</v>
+          </cell>
+          <cell r="B13" t="str">
+            <v xml:space="preserve">SILLON PARA MASAJE </v>
+          </cell>
+          <cell r="C13">
+            <v>1280</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>851-59092</v>
+          </cell>
+          <cell r="B14" t="str">
+            <v xml:space="preserve">SOFA RECLINABLE </v>
+          </cell>
+          <cell r="C14">
+            <v>490</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>857-59350</v>
+          </cell>
+          <cell r="B15" t="str">
+            <v>SOFA RECLINABLE</v>
+          </cell>
+          <cell r="C15">
+            <v>482</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>851-509502152</v>
+          </cell>
+          <cell r="B16" t="str">
+            <v>JUEGO SOFA</v>
+          </cell>
+          <cell r="C16">
+            <v>1350</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>2302</v>
+          </cell>
+          <cell r="B17" t="str">
+            <v xml:space="preserve">MESA PARA SALA </v>
+          </cell>
+          <cell r="C17">
+            <v>165</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>851-90133182</v>
+          </cell>
+          <cell r="B18" t="str">
+            <v>TABURETE PARA HABITACION</v>
+          </cell>
+          <cell r="C18">
+            <v>125</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>RCA40D16N-SM-00662</v>
+          </cell>
+          <cell r="B19" t="str">
+            <v>PANTALLA  PLASMA RCA</v>
+          </cell>
+          <cell r="C19">
+            <v>380</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>N/A_0001</v>
+          </cell>
+          <cell r="B20" t="str">
+            <v xml:space="preserve">SOFA RECLINABLE </v>
+          </cell>
+          <cell r="C20">
+            <v>320</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>852-CT343P</v>
+          </cell>
+          <cell r="B21" t="str">
+            <v>MESA DE CENTRO</v>
+          </cell>
+          <cell r="C21">
+            <v>125</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>852-9306</v>
+          </cell>
+          <cell r="B22" t="str">
+            <v>MESA DE CENTRO</v>
+          </cell>
+          <cell r="C22">
+            <v>145</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>721-90140623</v>
+          </cell>
+          <cell r="B23" t="str">
+            <v>PORTARRETRATO RAINBOWS</v>
+          </cell>
+          <cell r="C23">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>N/A_0002</v>
+          </cell>
+          <cell r="B24" t="str">
+            <v>MUEBLE PARA TV</v>
+          </cell>
+          <cell r="C24">
+            <v>209</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>855-TSGM015</v>
+          </cell>
+          <cell r="B25" t="str">
+            <v>MUEBLE PARA TV</v>
+          </cell>
+          <cell r="C25">
+            <v>210</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>851-MA1111926</v>
+          </cell>
+          <cell r="B26" t="str">
+            <v xml:space="preserve">JUEGO DE SOFA </v>
+          </cell>
+          <cell r="C26">
+            <v>1180</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27">
+            <v>928</v>
+          </cell>
+          <cell r="B27" t="str">
+            <v xml:space="preserve">JUEGO SOFA </v>
+          </cell>
+          <cell r="C27">
+            <v>2800</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28">
+            <v>208</v>
+          </cell>
+          <cell r="B28" t="str">
+            <v xml:space="preserve">JUEGO SOFA </v>
+          </cell>
+          <cell r="C28">
+            <v>2980</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29">
+            <v>862</v>
+          </cell>
+          <cell r="B29" t="str">
+            <v>MESA DE CENTRO (FALLADA)</v>
+          </cell>
+          <cell r="C29">
+            <v>980</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>852-DRE372</v>
+          </cell>
+          <cell r="B30" t="str">
+            <v>MESA DE CENTRO</v>
+          </cell>
+          <cell r="C30">
+            <v>170</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31" t="str">
+            <v>853-3605MCB</v>
+          </cell>
+          <cell r="B31" t="str">
+            <v>SILLA PARA OFICINA</v>
+          </cell>
+          <cell r="C31">
+            <v>135</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32" t="str">
+            <v>322-47002</v>
+          </cell>
+          <cell r="B32" t="str">
+            <v>ESCRITORIO PARA OFICINA PARA CUATRO PERSONAS</v>
+          </cell>
+          <cell r="C32">
+            <v>1200</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33" t="str">
+            <v>857-45255</v>
+          </cell>
+          <cell r="B33" t="str">
+            <v>LITERA DE MADERA  UNIPERSONAL DESARMABLE</v>
+          </cell>
+          <cell r="C33">
+            <v>480</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34" t="str">
+            <v>857-45232CH</v>
+          </cell>
+          <cell r="B34" t="str">
+            <v>LITERA DE MADERA  UNIPERSONAL DESARMABLE</v>
+          </cell>
+          <cell r="C34">
+            <v>580</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>N/A_0003</v>
+          </cell>
+          <cell r="B35" t="str">
+            <v>ESPEJO DE BAÑO CON ACCESORIO</v>
+          </cell>
+          <cell r="C35">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v>N/A_0004</v>
+          </cell>
+          <cell r="B36" t="str">
+            <v>COLCHONETA MATRIMONIAL INDUFOAM</v>
+          </cell>
+          <cell r="C36">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37" t="str">
+            <v>853-8827MSCB</v>
+          </cell>
+          <cell r="B37" t="str">
+            <v>SILLA PARA OFICINA</v>
+          </cell>
+          <cell r="C37">
+            <v>165</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38" t="str">
+            <v>BL-D49-1260</v>
+          </cell>
+          <cell r="B38" t="str">
+            <v>ESCRITORIO PARA OFICINA</v>
+          </cell>
+          <cell r="C38">
+            <v>185</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39" t="str">
+            <v>D-036B</v>
+          </cell>
+          <cell r="B39" t="str">
+            <v>ESCRITORIO PARA OFICINA</v>
+          </cell>
+          <cell r="C39">
+            <v>205</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40" t="str">
+            <v>W-150B</v>
+          </cell>
+          <cell r="B40" t="str">
+            <v>SILLA PARA OFICINA</v>
+          </cell>
+          <cell r="C40">
+            <v>148</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41" t="str">
+            <v>853-SL1021</v>
+          </cell>
+          <cell r="B41" t="str">
+            <v>SILLA PARA OFICINA</v>
+          </cell>
+          <cell r="C41">
+            <v>66</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42" t="str">
+            <v>A1407</v>
+          </cell>
+          <cell r="B42" t="str">
+            <v>ESCRITORIO PARA OFICINA</v>
+          </cell>
+          <cell r="C42">
+            <v>265</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43" t="str">
+            <v>853-7573R</v>
+          </cell>
+          <cell r="B43" t="str">
+            <v>ESCRITORIO PARA OFICINA</v>
+          </cell>
+          <cell r="C43">
+            <v>235</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44" t="str">
+            <v>853-2067HECH</v>
+          </cell>
+          <cell r="B44" t="str">
+            <v>SILLA PARA OFICINA</v>
+          </cell>
+          <cell r="C44">
+            <v>180</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45" t="str">
+            <v>853-0902ECC</v>
+          </cell>
+          <cell r="B45" t="str">
+            <v>SILLA PARA OFICINA</v>
+          </cell>
+          <cell r="C45">
+            <v>155</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46" t="str">
+            <v>N43</v>
+          </cell>
+          <cell r="B46" t="str">
+            <v>ESCRITORIO PARA OFICINA CON LABOR</v>
+          </cell>
+          <cell r="C46">
+            <v>350</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47" t="str">
+            <v>BL-MP8</v>
+          </cell>
+          <cell r="B47" t="str">
+            <v xml:space="preserve">ESCRITORIO PARA OFICINA </v>
+          </cell>
+          <cell r="C47">
+            <v>295</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48" t="str">
+            <v>C-039</v>
+          </cell>
+          <cell r="B48" t="str">
+            <v xml:space="preserve">ESCRITORIO PARA OFICINA </v>
+          </cell>
+          <cell r="C48">
+            <v>225</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49" t="str">
+            <v>MB-1401</v>
+          </cell>
+          <cell r="B49" t="str">
+            <v xml:space="preserve">ESCRITORIO PARA OFICINA FINO </v>
+          </cell>
+          <cell r="C49">
+            <v>435</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50" t="str">
+            <v>TA-1515</v>
+          </cell>
+          <cell r="B50" t="str">
+            <v>ESCRITORIO EN L PARA OFICINA</v>
+          </cell>
+          <cell r="C50">
+            <v>320</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51" t="str">
+            <v>MB-1810</v>
+          </cell>
+          <cell r="B51" t="str">
+            <v>ESCRITORIO PARA OFICINA</v>
+          </cell>
+          <cell r="C51">
+            <v>1200</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52" t="str">
+            <v>MB-61825</v>
+          </cell>
+          <cell r="B52" t="str">
+            <v>ESCRITORIO PARA OFICINA</v>
+          </cell>
+          <cell r="C52">
+            <v>1200</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53" t="str">
+            <v>MB-223</v>
+          </cell>
+          <cell r="B53" t="str">
+            <v>ESCRITORIO PARA OFICINA</v>
+          </cell>
+          <cell r="C53">
+            <v>1200</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54" t="str">
+            <v>MB104-601</v>
+          </cell>
+          <cell r="B54" t="str">
+            <v xml:space="preserve">LIBRERO </v>
+          </cell>
+          <cell r="C54">
+            <v>1100</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55" t="str">
+            <v>YS-2240</v>
+          </cell>
+          <cell r="B55" t="str">
+            <v xml:space="preserve">LIBRERO </v>
+          </cell>
+          <cell r="C55">
+            <v>950</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56" t="str">
+            <v>856-HW3004CHOC</v>
+          </cell>
+          <cell r="B56" t="str">
+            <v>GAVINETE PARA COCINA</v>
+          </cell>
+          <cell r="C56">
+            <v>320</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57" t="str">
+            <v>ST-S1401</v>
+          </cell>
+          <cell r="B57" t="str">
+            <v>MUEBLE P/ COMPUTADORA</v>
+          </cell>
+          <cell r="C57">
+            <v>195</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58" t="str">
+            <v>B15</v>
+          </cell>
+          <cell r="B58" t="str">
+            <v>SILLA PARA OFICINA</v>
+          </cell>
+          <cell r="C58">
+            <v>360</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59">
+            <v>529</v>
+          </cell>
+          <cell r="B59" t="str">
+            <v>SILLA PARA OFICINA</v>
+          </cell>
+          <cell r="C59">
+            <v>298</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60" t="str">
+            <v>22106-G</v>
+          </cell>
+          <cell r="B60" t="str">
+            <v>MALETIN GRANDE AIRLINER</v>
+          </cell>
+          <cell r="C60">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61" t="str">
+            <v>22106-P</v>
+          </cell>
+          <cell r="B61" t="str">
+            <v>MALETIN PEQUEÑO AIRLINER</v>
+          </cell>
+          <cell r="C61">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62" t="str">
+            <v>1848-G</v>
+          </cell>
+          <cell r="B62" t="str">
+            <v>MALETIN GRANDE AIRLINER</v>
+          </cell>
+          <cell r="C62">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63" t="str">
+            <v>1848-P</v>
+          </cell>
+          <cell r="B63" t="str">
+            <v>MALETIN PEQUEÑO AIRLINER</v>
+          </cell>
+          <cell r="C63">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64" t="str">
+            <v>729-90140642</v>
+          </cell>
+          <cell r="B64" t="str">
+            <v xml:space="preserve">ESPEJO PARA SALA </v>
+          </cell>
+          <cell r="C64">
+            <v>300</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65" t="str">
+            <v>855-AB04N6</v>
+          </cell>
+          <cell r="B65" t="str">
+            <v xml:space="preserve">MUEBLE PARA TV </v>
+          </cell>
+          <cell r="C65">
+            <v>85</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66" t="str">
+            <v>855-HW4006CHO</v>
+          </cell>
+          <cell r="B66" t="str">
+            <v xml:space="preserve">MUEBLE PARA TV </v>
+          </cell>
+          <cell r="C66">
+            <v>220</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67" t="str">
+            <v>853-90122121</v>
+          </cell>
+          <cell r="B67" t="str">
+            <v>MESA PARA COMPUTADORA</v>
+          </cell>
+          <cell r="C67">
+            <v>46</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68" t="str">
+            <v>853-90122123</v>
+          </cell>
+          <cell r="B68" t="str">
+            <v>MESA PARA COMPUTADORA</v>
+          </cell>
+          <cell r="C68">
+            <v>68</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="A69" t="str">
+            <v>853-90122122</v>
+          </cell>
+          <cell r="B69" t="str">
+            <v>MESA PARA COMPUTADORA</v>
+          </cell>
+          <cell r="C69">
+            <v>46</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="A70" t="str">
+            <v>856-DRN872</v>
+          </cell>
+          <cell r="B70" t="str">
+            <v xml:space="preserve">AUXILIAR PARA COCINA </v>
+          </cell>
+          <cell r="C70">
+            <v>65</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="A71" t="str">
+            <v>856-79008</v>
+          </cell>
+          <cell r="B71" t="str">
+            <v xml:space="preserve">GAVETERO DE CUATRO ESTANTES </v>
+          </cell>
+          <cell r="C71">
+            <v>115</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="A72" t="str">
+            <v>856-AB05CHC</v>
+          </cell>
+          <cell r="B72" t="str">
+            <v xml:space="preserve">MESA DE NOCHE </v>
+          </cell>
+          <cell r="C72">
+            <v>65</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="A73" t="str">
+            <v>KTV-007</v>
+          </cell>
+          <cell r="B73" t="str">
+            <v>MESA PARA TV</v>
+          </cell>
+          <cell r="C73">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="A74" t="str">
+            <v>N/A_0005</v>
+          </cell>
+          <cell r="B74" t="str">
+            <v>GAVINETE PARA ESCRITORIO FALLADO DE TRES GAVETAS</v>
+          </cell>
+          <cell r="C74">
+            <v>45</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="A75" t="str">
+            <v>754-9010046</v>
+          </cell>
+          <cell r="B75" t="str">
+            <v>CUADRO DE ORQUIDEAS  DECORE EMPASTADO</v>
+          </cell>
+          <cell r="C75">
+            <v>34</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="A76" t="str">
+            <v>754-90116782</v>
+          </cell>
+          <cell r="B76" t="str">
+            <v>CUADRO DE CABALLO</v>
+          </cell>
+          <cell r="C76">
+            <v>34</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="A77" t="str">
+            <v>856-901252456</v>
+          </cell>
+          <cell r="B77" t="str">
+            <v>ARCHIVADOR METALICO DE 5 GAVETAS</v>
+          </cell>
+          <cell r="C77">
+            <v>185</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="A78" t="str">
+            <v>856-90125241</v>
+          </cell>
+          <cell r="B78" t="str">
+            <v>ARCHVADOR METALICO CON UNA SOLA PUERTA</v>
+          </cell>
+          <cell r="C78">
+            <v>135</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="A79" t="str">
+            <v>856-90125259</v>
+          </cell>
+          <cell r="B79" t="str">
+            <v xml:space="preserve">ARHIVADOR DE DOS PUERTAS </v>
+          </cell>
+          <cell r="C79">
+            <v>310</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="A80" t="str">
+            <v>856-90125257</v>
+          </cell>
+          <cell r="B80" t="str">
+            <v>ARCHIVADOR METALICO DE 6 PUERTAS</v>
+          </cell>
+          <cell r="C80">
+            <v>395</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="A81" t="str">
+            <v>856-90125244</v>
+          </cell>
+          <cell r="B81" t="str">
+            <v>ARCHIVADOR METALICO DE 3 PUERTAS</v>
+          </cell>
+          <cell r="C81">
+            <v>145</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="A82" t="str">
+            <v>KD-42</v>
+          </cell>
+          <cell r="B82" t="str">
+            <v xml:space="preserve">ARCHIVADOR METALICO DE 2 PUERTAS CORREDISAS </v>
+          </cell>
+          <cell r="C82">
+            <v>475</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="A83" t="str">
+            <v>856-90125239</v>
+          </cell>
+          <cell r="B83" t="str">
+            <v xml:space="preserve">ARCHIVADOR METALICO DE 10 PUERTAS </v>
+          </cell>
+          <cell r="C83">
+            <v>350</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="A84" t="str">
+            <v>856-90133154</v>
+          </cell>
+          <cell r="B84" t="str">
+            <v>ARCHIVADOR METALICO DE 4 GAVETAS</v>
+          </cell>
+          <cell r="C84">
+            <v>268</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="A85" t="str">
+            <v>856-90125227</v>
+          </cell>
+          <cell r="B85" t="str">
+            <v>ARCHIVADOR METALICO DE 4 GAVETAS</v>
+          </cell>
+          <cell r="C85">
+            <v>268</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="A86" t="str">
+            <v>856-90125226</v>
+          </cell>
+          <cell r="B86" t="str">
+            <v>ARCHIVADOR METALICO DE 3 GAVETAS</v>
+          </cell>
+          <cell r="C86">
+            <v>215</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="A87" t="str">
+            <v>ST-F1079</v>
+          </cell>
+          <cell r="B87" t="str">
+            <v xml:space="preserve">MESA PARA COMPUTADORA </v>
+          </cell>
+          <cell r="C87">
+            <v>158</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="A88" t="str">
+            <v>ST-S1229CPU</v>
+          </cell>
+          <cell r="B88" t="str">
+            <v>MESA PARA COMPUTADORA</v>
+          </cell>
+          <cell r="C88">
+            <v>178</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="A89">
+            <v>205</v>
+          </cell>
+          <cell r="B89" t="str">
+            <v xml:space="preserve">SILLA PARA CONFERENCIA </v>
+          </cell>
+          <cell r="C89">
+            <v>155</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="A90" t="str">
+            <v>856-BS7049RB</v>
+          </cell>
+          <cell r="B90" t="str">
+            <v xml:space="preserve">LIBRERO </v>
+          </cell>
+          <cell r="C90">
+            <v>115</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="A91" t="str">
+            <v>856-DR883150</v>
+          </cell>
+          <cell r="B91" t="str">
+            <v xml:space="preserve">MUEBLE PARA MICROONDAS </v>
+          </cell>
+          <cell r="C91">
+            <v>115</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="A92" t="str">
+            <v>856-DR883500</v>
+          </cell>
+          <cell r="B92" t="str">
+            <v>GABINETE PARA COCINA</v>
+          </cell>
+          <cell r="C92">
+            <v>180</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="A93" t="str">
+            <v>856-AB12CHC</v>
+          </cell>
+          <cell r="B93" t="str">
+            <v>GABINETE MULTIUSO</v>
+          </cell>
+          <cell r="C93">
+            <v>110</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="A94" t="str">
+            <v>D1-75928</v>
+          </cell>
+          <cell r="B94" t="str">
+            <v xml:space="preserve">CUADRO CHOCOLATE </v>
+          </cell>
+          <cell r="C94">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="A95" t="str">
+            <v>DLY-R019</v>
+          </cell>
+          <cell r="B95" t="str">
+            <v>JUEGO SOFA PARA TERRAZA</v>
+          </cell>
+          <cell r="C95">
+            <v>490</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="A96" t="str">
+            <v>LUXURA-RSC-MBG</v>
+          </cell>
+          <cell r="B96" t="str">
+            <v>JUEGO SOFA PARA TERRAZA</v>
+          </cell>
+          <cell r="C96">
+            <v>328</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="A97" t="str">
+            <v>CABECERA-180</v>
+          </cell>
+          <cell r="B97" t="str">
+            <v xml:space="preserve">CABECERA PARA CAMA </v>
+          </cell>
+          <cell r="C97">
+            <v>180</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="A98" t="str">
+            <v>053-123061N</v>
+          </cell>
+          <cell r="B98" t="str">
+            <v>PARAGUAS PARA TERRAZA</v>
+          </cell>
+          <cell r="C98">
+            <v>158</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="A99" t="str">
+            <v>053-90133525</v>
+          </cell>
+          <cell r="B99" t="str">
+            <v>PARAGUAS PARA JARDIN</v>
+          </cell>
+          <cell r="C99">
+            <v>235</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="A100" t="str">
+            <v>AC3309</v>
+          </cell>
+          <cell r="B100" t="str">
+            <v>COMEDOR DE 8 SILLAS</v>
+          </cell>
+          <cell r="C100">
+            <v>2300</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="A101" t="str">
+            <v>64135E</v>
+          </cell>
+          <cell r="B101" t="str">
+            <v xml:space="preserve">COLCHON INFLABLE </v>
+          </cell>
+          <cell r="C101">
+            <v>78</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="A102" t="str">
+            <v>Q7278FA</v>
+          </cell>
+          <cell r="B102" t="str">
+            <v>RELOJ PARA PARED CAFÉ TIMES TOWER</v>
+          </cell>
+          <cell r="C102">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="A103" t="str">
+            <v>856-3500000714S</v>
+          </cell>
+          <cell r="B103" t="str">
+            <v>GABINETE PARA COCINA 3 PUERTAS</v>
+          </cell>
+          <cell r="C103">
+            <v>138</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="A104" t="str">
+            <v>856-90125248</v>
+          </cell>
+          <cell r="B104" t="str">
+            <v xml:space="preserve">GAVETERO PARA OFICINA 3 GAVETAS </v>
+          </cell>
+          <cell r="C104">
+            <v>142</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="A105" t="str">
+            <v>856-3500000701S</v>
+          </cell>
+          <cell r="B105" t="str">
+            <v xml:space="preserve">GABINETE PARA COCINA 3 PUERTAS </v>
+          </cell>
+          <cell r="C105">
+            <v>138</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="A106" t="str">
+            <v>602-80905</v>
+          </cell>
+          <cell r="B106" t="str">
+            <v>RELOJ PARA PARED</v>
+          </cell>
+          <cell r="C106">
+            <v>48</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="A107" t="str">
+            <v>602-80906</v>
+          </cell>
+          <cell r="B107" t="str">
+            <v>RELOJ PARA PARED</v>
+          </cell>
+          <cell r="C107">
+            <v>45</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="A108" t="str">
+            <v>856-149HM00153</v>
+          </cell>
+          <cell r="B108" t="str">
+            <v>GABINETE PARA COCINA 4 GAVETAS Y DOS PUERTAS</v>
+          </cell>
+          <cell r="C108">
+            <v>235</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="A109" t="str">
+            <v>856-F1AV10603P00115</v>
+          </cell>
+          <cell r="B109" t="str">
+            <v>GABINETE PARA COCINA 3 PUERTAS</v>
+          </cell>
+          <cell r="C109">
+            <v>159</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="A110" t="str">
+            <v>856-149HM00109</v>
+          </cell>
+          <cell r="B110" t="str">
+            <v>GABINETE PARA COCINA 2 PUERTAS Y CUATRO GABETAS</v>
+          </cell>
+          <cell r="C110">
+            <v>235</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="A111" t="str">
+            <v>856-3500000674</v>
+          </cell>
+          <cell r="B111" t="str">
+            <v>GABINETE PARA COCINA 5 PUERTAS Y 3 GABETAS</v>
+          </cell>
+          <cell r="C111">
+            <v>375</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="A112" t="str">
+            <v>859-GB702CBN</v>
+          </cell>
+          <cell r="B112" t="str">
+            <v>GABINETE PARA COCINA 6 PUERTAS Y 3 GABETAS</v>
+          </cell>
+          <cell r="C112">
+            <v>365</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="A113" t="str">
+            <v>856-3500000687</v>
+          </cell>
+          <cell r="B113" t="str">
+            <v>GABINETE PARA COCINA 5 PUERTAS Y 3 GABETAS</v>
+          </cell>
+          <cell r="C113">
+            <v>375</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="A114" t="str">
+            <v>856-3500000689</v>
+          </cell>
+          <cell r="B114" t="str">
+            <v>GABINETE PARA COCINA 5 PUERTAS Y 3 GABETAS</v>
+          </cell>
+          <cell r="C114">
+            <v>375</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="A115" t="str">
+            <v>856-6000000252</v>
+          </cell>
+          <cell r="B115" t="str">
+            <v>GABINETE PARA COCINA 5 PUERTAS Y 4 GABETAS VIDRIO CORREDIZO</v>
+          </cell>
+          <cell r="C115">
+            <v>325</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="A116" t="str">
+            <v>853-2067HEN</v>
+          </cell>
+          <cell r="B116" t="str">
+            <v>SILLAS PARA OFICINA CON BRAZOS</v>
+          </cell>
+          <cell r="C116">
+            <v>180</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="A117" t="str">
+            <v>853-2155HEN</v>
+          </cell>
+          <cell r="B117" t="str">
+            <v>SILLAS PARA OFICINA CON BRAZOS</v>
+          </cell>
+          <cell r="C117">
+            <v>180</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="A118" t="str">
+            <v>853-2155HECH</v>
+          </cell>
+          <cell r="B118" t="str">
+            <v>SILLAS PARA OFICINA CON BRAZOS</v>
+          </cell>
+          <cell r="C118">
+            <v>180</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="A119" t="str">
+            <v>853-2312HN</v>
+          </cell>
+          <cell r="B119" t="str">
+            <v>SILLAS PARA OFICINA CON BRAZOS</v>
+          </cell>
+          <cell r="C119">
+            <v>152</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="A120" t="str">
+            <v>853-SL036</v>
+          </cell>
+          <cell r="B120" t="str">
+            <v>SILLAS PARA OFICINA CON BRAZOS</v>
+          </cell>
+          <cell r="C120">
+            <v>145</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="A121" t="str">
+            <v>851-3012HC</v>
+          </cell>
+          <cell r="B121" t="str">
+            <v>SILLAS PARA OFICINA CON BRAZOS</v>
+          </cell>
+          <cell r="C121">
+            <v>125</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="A122" t="str">
+            <v>853-8074</v>
+          </cell>
+          <cell r="B122" t="str">
+            <v>SILLAS PARA OFICINA CON BRAZOS</v>
+          </cell>
+          <cell r="C122">
+            <v>125</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="A123" t="str">
+            <v>853-90133067</v>
+          </cell>
+          <cell r="B123" t="str">
+            <v>SILLAS PARA OFICINA CON BRAZOS IDEAL FURNITURE</v>
+          </cell>
+          <cell r="C123">
+            <v>185</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="A124" t="str">
+            <v>851-HL100KF</v>
+          </cell>
+          <cell r="B124" t="str">
+            <v>SILLAS PARA OFICINA SIN BRAZOS</v>
+          </cell>
+          <cell r="C124">
+            <v>155</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="A125" t="str">
+            <v>304BA</v>
+          </cell>
+          <cell r="B125" t="str">
+            <v>SILLAS PARA OFICINA CON BRAZOS</v>
+          </cell>
+          <cell r="C125">
+            <v>160</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="A126" t="str">
+            <v>851-HL100KA</v>
+          </cell>
+          <cell r="B126" t="str">
+            <v>SILLAS PARA OFICINA SIN BRAZOS</v>
+          </cell>
+          <cell r="C126">
+            <v>160</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="A127" t="str">
+            <v>853-SL1006A</v>
+          </cell>
+          <cell r="B127" t="str">
+            <v>SILLAS PARA OFICINA CON BRAZOS</v>
+          </cell>
+          <cell r="C127">
+            <v>145</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="A128" t="str">
+            <v>853-90133068</v>
+          </cell>
+          <cell r="B128" t="str">
+            <v>SILLAS PARA OFICINA CON BRAZOS</v>
+          </cell>
+          <cell r="C128">
+            <v>165</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="A129" t="str">
+            <v>853-8006MSC</v>
+          </cell>
+          <cell r="B129" t="str">
+            <v>SILLAS PARA OFICINA CON BRAZOS</v>
+          </cell>
+          <cell r="C129">
+            <v>145</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="A130" t="str">
+            <v>B04-4P</v>
+          </cell>
+          <cell r="B130" t="str">
+            <v>SET SILLA DE ESPERA 4 SILLAS</v>
+          </cell>
+          <cell r="C130">
+            <v>325</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="A131" t="str">
+            <v>851-9096266</v>
+          </cell>
+          <cell r="B131" t="str">
+            <v>SET SILLA DE ESPERA 3 SILLAS</v>
+          </cell>
+          <cell r="C131">
+            <v>309</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="A132" t="str">
+            <v>LG11399</v>
+          </cell>
+          <cell r="B132" t="str">
+            <v>SILLA PARA JARDIN</v>
+          </cell>
+          <cell r="C132">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="A133" t="str">
+            <v>851-90110722</v>
+          </cell>
+          <cell r="B133" t="str">
+            <v>SET SILLAS DE ESPERA 2 SILLAS</v>
+          </cell>
+          <cell r="C133">
+            <v>276</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="A134" t="str">
+            <v>B03-1</v>
+          </cell>
+          <cell r="B134" t="str">
+            <v>SET SILLAS DE ESPERA 2 SILLAS</v>
+          </cell>
+          <cell r="C134">
+            <v>220</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="A135" t="str">
+            <v>853-3009</v>
+          </cell>
+          <cell r="B135" t="str">
+            <v>SILLA PARA OFICINA</v>
+          </cell>
+          <cell r="C135">
+            <v>98</v>
+          </cell>
+        </row>
+        <row r="136">
+          <cell r="A136" t="str">
+            <v>CF-402PS-4</v>
+          </cell>
+          <cell r="B136" t="str">
+            <v xml:space="preserve">SET SILLA DE ESPERA DE 4 SILLAS </v>
+          </cell>
+          <cell r="C136">
+            <v>198</v>
+          </cell>
+        </row>
+        <row r="137">
+          <cell r="A137" t="str">
+            <v>CF-402PS-3</v>
+          </cell>
+          <cell r="B137" t="str">
+            <v xml:space="preserve">SET SILLA DE ESPERA DE 3 SILLAS </v>
+          </cell>
+          <cell r="C137">
+            <v>168</v>
+          </cell>
+        </row>
+        <row r="138">
+          <cell r="A138" t="str">
+            <v>9300L-BLACK</v>
+          </cell>
+          <cell r="B138" t="str">
+            <v>SILLAS PARA OFICINA CON BRAZOS</v>
+          </cell>
+          <cell r="C138">
+            <v>95</v>
+          </cell>
+        </row>
+        <row r="139">
+          <cell r="A139" t="str">
+            <v>B02#2P</v>
+          </cell>
+          <cell r="B139" t="str">
+            <v>SET SILLA DE ESPERA 2 SILLAS</v>
+          </cell>
+          <cell r="C139">
+            <v>195</v>
+          </cell>
+        </row>
+        <row r="140">
+          <cell r="A140" t="str">
+            <v>853-8008J</v>
+          </cell>
+          <cell r="B140" t="str">
+            <v>SILLA PARA OFICINA SIN BRAZOS</v>
+          </cell>
+          <cell r="C140">
+            <v>95</v>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="A141" t="str">
+            <v>853-FC001</v>
+          </cell>
+          <cell r="B141" t="str">
+            <v>SILLAS PARA OFICINA CON BRAZOS</v>
+          </cell>
+          <cell r="C141">
+            <v>68</v>
+          </cell>
+        </row>
+        <row r="142">
+          <cell r="A142" t="str">
+            <v>861-90136444</v>
+          </cell>
+          <cell r="B142" t="str">
+            <v>AUXILIAR PARA MANICURA</v>
+          </cell>
+          <cell r="C142">
+            <v>126</v>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="A143" t="str">
+            <v>YS-R301</v>
+          </cell>
+          <cell r="B143" t="str">
+            <v>CENTRO DE ENTRETENIMIENTO</v>
+          </cell>
+          <cell r="C143">
+            <v>99</v>
+          </cell>
+        </row>
+        <row r="144">
+          <cell r="A144" t="str">
+            <v>58474NP</v>
+          </cell>
+          <cell r="B144" t="str">
+            <v>PICINA INTEX</v>
+          </cell>
+          <cell r="C144">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="145">
+          <cell r="A145">
+            <v>66929</v>
+          </cell>
+          <cell r="B145" t="str">
+            <v xml:space="preserve">COLCHON INFLABLE </v>
+          </cell>
+          <cell r="C145">
+            <v>38</v>
+          </cell>
+        </row>
+        <row r="146">
+          <cell r="A146" t="str">
+            <v>68563NP</v>
+          </cell>
+          <cell r="B146" t="str">
+            <v>SILLA INFLABLE</v>
+          </cell>
+          <cell r="C146">
+            <v>38</v>
+          </cell>
+        </row>
+        <row r="147">
+          <cell r="A147" t="str">
+            <v>800-56441</v>
+          </cell>
+          <cell r="B147" t="str">
+            <v xml:space="preserve">PISCINA INFLABLE </v>
+          </cell>
+          <cell r="C147">
+            <v>19</v>
+          </cell>
+        </row>
+        <row r="148">
+          <cell r="A148" t="str">
+            <v>48259NP</v>
+          </cell>
+          <cell r="B148" t="str">
+            <v xml:space="preserve">CASTILLO INFLABLE </v>
+          </cell>
+          <cell r="C148">
+            <v>78</v>
+          </cell>
+        </row>
+        <row r="149">
+          <cell r="A149" t="str">
+            <v>861-HL9263</v>
+          </cell>
+          <cell r="B149" t="str">
+            <v xml:space="preserve">SILLA PARA MASAJE </v>
+          </cell>
+          <cell r="C149">
+            <v>350</v>
+          </cell>
+        </row>
+        <row r="150">
+          <cell r="A150" t="str">
+            <v>861-HL8011BN</v>
+          </cell>
+          <cell r="B150" t="str">
+            <v xml:space="preserve">LAVA CABEZAS </v>
+          </cell>
+          <cell r="C150">
+            <v>520</v>
+          </cell>
+        </row>
+        <row r="151">
+          <cell r="A151" t="str">
+            <v>861-1110</v>
+          </cell>
+          <cell r="B151" t="str">
+            <v xml:space="preserve">LAVA CABEZAS </v>
+          </cell>
+          <cell r="C151">
+            <v>320</v>
+          </cell>
+        </row>
+        <row r="152">
+          <cell r="A152" t="str">
+            <v>861-1890</v>
+          </cell>
+          <cell r="B152" t="str">
+            <v xml:space="preserve">LAVA CABEZAS </v>
+          </cell>
+          <cell r="C152">
+            <v>124</v>
+          </cell>
+        </row>
+        <row r="153">
+          <cell r="A153" t="str">
+            <v>861-90136448</v>
+          </cell>
+          <cell r="B153" t="str">
+            <v xml:space="preserve">AUXILIAR PARA SALON, 3 BANDEJAS </v>
+          </cell>
+          <cell r="C153">
+            <v>60</v>
+          </cell>
+        </row>
+        <row r="154">
+          <cell r="A154" t="str">
+            <v>861-470</v>
+          </cell>
+          <cell r="B154" t="str">
+            <v>AUXILIAR PARA SALON, 1 BANDEJA 3 PANAS</v>
+          </cell>
+          <cell r="C154">
+            <v>108</v>
+          </cell>
+        </row>
+        <row r="155">
+          <cell r="A155" t="str">
+            <v>861-HL3558</v>
+          </cell>
+          <cell r="B155" t="str">
+            <v xml:space="preserve">CAMA PARA MASAJE CON BUTACA </v>
+          </cell>
+          <cell r="C155">
+            <v>420</v>
+          </cell>
+        </row>
+        <row r="156">
+          <cell r="A156" t="str">
+            <v>861-5006</v>
+          </cell>
+          <cell r="B156" t="str">
+            <v xml:space="preserve">SILLA PARA MANICURE CON 2 BANDEJAS </v>
+          </cell>
+          <cell r="C156">
+            <v>168</v>
+          </cell>
+        </row>
+        <row r="157">
+          <cell r="A157" t="str">
+            <v>861-HL312731</v>
+          </cell>
+          <cell r="B157" t="str">
+            <v xml:space="preserve">SILLA PARA SALON </v>
+          </cell>
+          <cell r="C157">
+            <v>375</v>
+          </cell>
+        </row>
+        <row r="158">
+          <cell r="A158" t="str">
+            <v>HL-31827-L</v>
+          </cell>
+          <cell r="B158" t="str">
+            <v xml:space="preserve">SILLA PARA SALON </v>
+          </cell>
+          <cell r="C158">
+            <v>850</v>
+          </cell>
+        </row>
+        <row r="159">
+          <cell r="A159" t="str">
+            <v>861-HL-31269-1</v>
+          </cell>
+          <cell r="B159" t="str">
+            <v xml:space="preserve">SILLA PARA SALON </v>
+          </cell>
+          <cell r="C159">
+            <v>460</v>
+          </cell>
+        </row>
+        <row r="160">
+          <cell r="A160" t="str">
+            <v>861-HL6126M</v>
+          </cell>
+          <cell r="B160" t="str">
+            <v xml:space="preserve">SILLA PARA SALON </v>
+          </cell>
+          <cell r="C160">
+            <v>265</v>
+          </cell>
+        </row>
+        <row r="161">
+          <cell r="A161" t="str">
+            <v>852-DR-9-1705</v>
+          </cell>
+          <cell r="B161" t="str">
+            <v xml:space="preserve">MESA METALICA </v>
+          </cell>
+          <cell r="C161">
+            <v>60</v>
+          </cell>
+        </row>
+        <row r="162">
+          <cell r="A162" t="str">
+            <v>851-T1084</v>
+          </cell>
+          <cell r="B162" t="str">
+            <v xml:space="preserve">SILLA PARA SALON </v>
+          </cell>
+          <cell r="C162">
+            <v>195</v>
+          </cell>
+        </row>
+        <row r="163">
+          <cell r="A163" t="str">
+            <v>854-3001</v>
+          </cell>
+          <cell r="B163" t="str">
+            <v>SILLA PLEGABLE PLAYA</v>
+          </cell>
+          <cell r="C163">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="164">
+          <cell r="A164" t="str">
+            <v>767-9043851</v>
+          </cell>
+          <cell r="B164" t="str">
+            <v>ARBOL DE LIMON ARTIFICIAL DECORE</v>
+          </cell>
+          <cell r="C164">
+            <v>120</v>
+          </cell>
+        </row>
+        <row r="165">
+          <cell r="A165">
+            <v>72534</v>
+          </cell>
+          <cell r="B165" t="str">
+            <v>ARBOL ARTIFICIAL DECORE</v>
+          </cell>
+          <cell r="C165">
+            <v>68</v>
+          </cell>
+        </row>
+        <row r="166">
+          <cell r="A166" t="str">
+            <v>718-90136243</v>
+          </cell>
+          <cell r="B166" t="str">
+            <v>ARBOL ARTIFICIAL DECORE</v>
+          </cell>
+          <cell r="C166">
+            <v>135</v>
+          </cell>
+        </row>
+        <row r="167">
+          <cell r="A167" t="str">
+            <v>718-68617</v>
+          </cell>
+          <cell r="B167" t="str">
+            <v>ARBOL ARTIFICIAL DECORE</v>
+          </cell>
+          <cell r="C167">
+            <v>68</v>
+          </cell>
+        </row>
+        <row r="168">
+          <cell r="A168" t="str">
+            <v>718-9095671</v>
+          </cell>
+          <cell r="B168" t="str">
+            <v xml:space="preserve">MINI COCO ARTIFICIAL DECORE </v>
+          </cell>
+          <cell r="C168">
+            <v>38</v>
+          </cell>
+        </row>
+        <row r="169">
+          <cell r="A169" t="str">
+            <v>714-90113203</v>
+          </cell>
+          <cell r="B169" t="str">
+            <v>FLORERO DECORE</v>
+          </cell>
+          <cell r="C169">
+            <v>27.5</v>
+          </cell>
+        </row>
+        <row r="170">
+          <cell r="A170" t="str">
+            <v>718-9095674</v>
+          </cell>
+          <cell r="B170" t="str">
+            <v xml:space="preserve">PLANTA DECORATIVA </v>
+          </cell>
+          <cell r="C170">
+            <v>38</v>
+          </cell>
+        </row>
+        <row r="171">
+          <cell r="A171" t="str">
+            <v>718-33324</v>
+          </cell>
+          <cell r="B171" t="str">
+            <v xml:space="preserve">PLANTA ARTIFICIAL CON MACETA </v>
+          </cell>
+          <cell r="C171">
+            <v>8.5</v>
+          </cell>
+        </row>
+        <row r="172">
+          <cell r="A172" t="str">
+            <v>718-33315</v>
+          </cell>
+          <cell r="B172" t="str">
+            <v xml:space="preserve">PLANTA ARTIFICIAL CON MACETA </v>
+          </cell>
+          <cell r="C172">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="173">
+          <cell r="A173" t="str">
+            <v>718-33322</v>
+          </cell>
+          <cell r="B173" t="str">
+            <v xml:space="preserve">PLANTA ARTIFICIAL CON MACETA </v>
+          </cell>
+          <cell r="C173">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="174">
+          <cell r="A174" t="str">
+            <v>718-90136245</v>
+          </cell>
+          <cell r="B174" t="str">
+            <v xml:space="preserve">BAMBU PLASTICO EN MACETA PLASTICA </v>
+          </cell>
+          <cell r="C174">
+            <v>48</v>
+          </cell>
+        </row>
+        <row r="175">
+          <cell r="A175" t="str">
+            <v>718-90136244</v>
+          </cell>
+          <cell r="B175" t="str">
+            <v>HORTENCIAS DE PLASTICO EN MACETA PLASTICA</v>
+          </cell>
+          <cell r="C175">
+            <v>42</v>
+          </cell>
+        </row>
+        <row r="176">
+          <cell r="A176" t="str">
+            <v>714-9099137</v>
+          </cell>
+          <cell r="B176" t="str">
+            <v xml:space="preserve">FLORERO </v>
+          </cell>
+          <cell r="C176">
+            <v>32</v>
+          </cell>
+        </row>
+        <row r="177">
+          <cell r="A177" t="str">
+            <v>714-66310</v>
+          </cell>
+          <cell r="B177" t="str">
+            <v>FLORERO</v>
+          </cell>
+          <cell r="C177">
+            <v>28.99</v>
+          </cell>
+        </row>
+        <row r="178">
+          <cell r="A178" t="str">
+            <v>714-27071</v>
+          </cell>
+          <cell r="B178" t="str">
+            <v>FLORERO</v>
+          </cell>
+          <cell r="C178">
+            <v>58</v>
+          </cell>
+        </row>
+        <row r="179">
+          <cell r="A179" t="str">
+            <v>714-79062</v>
+          </cell>
+          <cell r="B179" t="str">
+            <v>FLORERO</v>
+          </cell>
+          <cell r="C179">
+            <v>48</v>
+          </cell>
+        </row>
+        <row r="180">
+          <cell r="A180" t="str">
+            <v>PA001</v>
+          </cell>
+          <cell r="B180" t="str">
+            <v>PLANTA ARTIFICIAL</v>
+          </cell>
+          <cell r="C180">
+            <v>11.99</v>
+          </cell>
+        </row>
+        <row r="181">
+          <cell r="A181" t="str">
+            <v>718-31955</v>
+          </cell>
+          <cell r="B181" t="str">
+            <v>PLANTA ARTIFICIAL</v>
+          </cell>
+          <cell r="C181">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="182">
+          <cell r="A182" t="str">
+            <v>718-31958</v>
+          </cell>
+          <cell r="B182" t="str">
+            <v>PLANTA ARTIFICIAL</v>
+          </cell>
+          <cell r="C182">
+            <v>3.95</v>
+          </cell>
+        </row>
+        <row r="183">
+          <cell r="A183" t="str">
+            <v>714-90140455</v>
+          </cell>
+          <cell r="B183" t="str">
+            <v>JARRON GRANDE CON FLORERO</v>
+          </cell>
+          <cell r="C183">
+            <v>180</v>
+          </cell>
+        </row>
+        <row r="184">
+          <cell r="A184" t="str">
+            <v>714-90140453</v>
+          </cell>
+          <cell r="B184" t="str">
+            <v>JARRON GRANDE CON FLORERO</v>
+          </cell>
+          <cell r="C184">
+            <v>148</v>
+          </cell>
+        </row>
+        <row r="185">
+          <cell r="A185" t="str">
+            <v>714-90140460</v>
+          </cell>
+          <cell r="B185" t="str">
+            <v>JARRON GRANDE CON FLORERO</v>
+          </cell>
+          <cell r="C185">
+            <v>168</v>
+          </cell>
+        </row>
+        <row r="186">
+          <cell r="A186" t="str">
+            <v>767-83904</v>
+          </cell>
+          <cell r="B186" t="str">
+            <v>JARRON GRANDE</v>
+          </cell>
+          <cell r="C186">
+            <v>148</v>
+          </cell>
+        </row>
+        <row r="187">
+          <cell r="A187" t="str">
+            <v>602-90130693</v>
+          </cell>
+          <cell r="B187" t="str">
+            <v>RELOJ PARA PARED</v>
+          </cell>
+          <cell r="C187">
+            <v>48</v>
+          </cell>
+        </row>
+        <row r="188">
+          <cell r="A188" t="str">
+            <v>602-90122971</v>
+          </cell>
+          <cell r="B188" t="str">
+            <v>RELOJ PARA PARED</v>
+          </cell>
+          <cell r="C188">
+            <v>74</v>
+          </cell>
+        </row>
+        <row r="189">
+          <cell r="A189" t="str">
+            <v>718-31084</v>
+          </cell>
+          <cell r="B189" t="str">
+            <v>PLANTA ARTIFICIAL CON JARRON</v>
+          </cell>
+          <cell r="C189">
+            <v>42</v>
+          </cell>
+        </row>
+        <row r="190">
+          <cell r="A190" t="str">
+            <v>7574-9</v>
+          </cell>
+          <cell r="B190" t="str">
+            <v xml:space="preserve">LAMPARA PARA TECHO  9 BOMBILLOS </v>
+          </cell>
+          <cell r="C190">
+            <v>370</v>
+          </cell>
+        </row>
+        <row r="191">
+          <cell r="A191" t="str">
+            <v>8033-6</v>
+          </cell>
+          <cell r="B191" t="str">
+            <v xml:space="preserve">LAMPARA PARA TECHO  6 BOMBILLOS </v>
+          </cell>
+          <cell r="C191">
+            <v>225</v>
+          </cell>
+        </row>
+        <row r="192">
+          <cell r="A192" t="str">
+            <v>7573-9</v>
+          </cell>
+          <cell r="B192" t="str">
+            <v xml:space="preserve">LAMPARA PARA TECHO  9 BOMBILLOS </v>
+          </cell>
+          <cell r="C192">
+            <v>350</v>
+          </cell>
+        </row>
+        <row r="193">
+          <cell r="A193" t="str">
+            <v>G05-90114703</v>
+          </cell>
+          <cell r="B193" t="str">
+            <v>LAMPARA PARA TECHO 4 BOMBILLOS</v>
+          </cell>
+          <cell r="C193">
+            <v>85</v>
+          </cell>
+        </row>
+        <row r="194">
+          <cell r="A194" t="str">
+            <v>8266-5</v>
+          </cell>
+          <cell r="B194" t="str">
+            <v>LAMPARA PARA TECHO  5 BOMBILLOS</v>
+          </cell>
+          <cell r="C194">
+            <v>105</v>
+          </cell>
+        </row>
+        <row r="195">
+          <cell r="A195" t="str">
+            <v>8052-5</v>
+          </cell>
+          <cell r="B195" t="str">
+            <v>LAMPARA PARA TECHO  5 BOMBILLOS</v>
+          </cell>
+          <cell r="C195">
+            <v>95</v>
+          </cell>
+        </row>
+        <row r="196">
+          <cell r="A196" t="str">
+            <v>5413/571</v>
+          </cell>
+          <cell r="B196" t="str">
+            <v>LAMPARA PARA TECHO  5 BOMBILLOS</v>
+          </cell>
+          <cell r="C196">
+            <v>98</v>
+          </cell>
+        </row>
+        <row r="197">
+          <cell r="A197" t="str">
+            <v>6601-1-300</v>
+          </cell>
+          <cell r="B197" t="str">
+            <v xml:space="preserve">LAMPARA PARA TECHO </v>
+          </cell>
+          <cell r="C197">
+            <v>125</v>
+          </cell>
+        </row>
+        <row r="198">
+          <cell r="A198" t="str">
+            <v>6009BR-3H</v>
+          </cell>
+          <cell r="B198" t="str">
+            <v>LAMPARA PARA TECHO  3 BOMBILLOS</v>
+          </cell>
+          <cell r="C198">
+            <v>68</v>
+          </cell>
+        </row>
+        <row r="199">
+          <cell r="A199" t="str">
+            <v>8171-5+1</v>
+          </cell>
+          <cell r="B199" t="str">
+            <v>LAMPARA PARA TECHO  5 BOMBILLOS</v>
+          </cell>
+          <cell r="C199">
+            <v>98</v>
+          </cell>
+        </row>
+        <row r="200">
+          <cell r="A200" t="str">
+            <v>3214RAB-5H</v>
+          </cell>
+          <cell r="B200" t="str">
+            <v>LAMPARA PARA TECHO  5 BOMBILLOS</v>
+          </cell>
+          <cell r="C200">
+            <v>60</v>
+          </cell>
+        </row>
+        <row r="201">
+          <cell r="A201" t="str">
+            <v>856-77790</v>
+          </cell>
+          <cell r="B201" t="str">
+            <v xml:space="preserve">MAMPARA , PARIS </v>
+          </cell>
+          <cell r="C201">
+            <v>75</v>
+          </cell>
+        </row>
+        <row r="202">
+          <cell r="A202" t="str">
+            <v>LP-2205</v>
+          </cell>
+          <cell r="B202" t="str">
+            <v>ABANICO  DE PISO LA PRIMAVERA PEQUEÑO</v>
+          </cell>
+          <cell r="C202">
+            <v>14</v>
+          </cell>
+        </row>
+        <row r="203">
+          <cell r="A203" t="str">
+            <v>VSP-1801</v>
+          </cell>
+          <cell r="B203" t="str">
+            <v>ABANICO  DE PISO STAR PLUS GRANDE</v>
+          </cell>
+          <cell r="C203">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="204">
+          <cell r="A204" t="str">
+            <v>SM-18</v>
+          </cell>
+          <cell r="B204" t="str">
+            <v>ABANICO  DE PISO ASTOR GRANDE</v>
+          </cell>
+          <cell r="C204">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="205">
+          <cell r="A205" t="str">
+            <v>FN-40T02WR</v>
+          </cell>
+          <cell r="B205" t="str">
+            <v xml:space="preserve">ABANICO  DE TORRE SANKEY </v>
+          </cell>
+          <cell r="C205">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="206">
+          <cell r="A206" t="str">
+            <v>856-19317</v>
+          </cell>
+          <cell r="B206" t="str">
+            <v xml:space="preserve">ESPEJO PARA TOCADOR </v>
+          </cell>
+          <cell r="C206">
+            <v>60</v>
+          </cell>
+        </row>
+        <row r="207">
+          <cell r="A207" t="str">
+            <v>856-19315</v>
+          </cell>
+          <cell r="B207" t="str">
+            <v xml:space="preserve">LAVA MANOS PARA TOCADOR </v>
+          </cell>
+          <cell r="C207">
+            <v>115</v>
+          </cell>
+        </row>
+        <row r="208">
+          <cell r="A208" t="str">
+            <v>852-90122271</v>
+          </cell>
+          <cell r="B208" t="str">
+            <v xml:space="preserve">COMODA DE VIDRIO </v>
+          </cell>
+          <cell r="C208">
+            <v>210</v>
+          </cell>
+        </row>
+        <row r="209">
+          <cell r="A209" t="str">
+            <v>5420-3H</v>
+          </cell>
+          <cell r="B209" t="str">
+            <v>LAMPARA PARA TECHO 3 BOMBILLOS</v>
+          </cell>
+          <cell r="C209">
+            <v>39</v>
+          </cell>
+        </row>
+        <row r="210">
+          <cell r="A210" t="str">
+            <v>N/A_0006</v>
+          </cell>
+          <cell r="B210" t="str">
+            <v>VINERA PEQUEÑA NFINITY</v>
+          </cell>
+          <cell r="C210">
+            <v>480</v>
+          </cell>
+        </row>
+        <row r="211">
+          <cell r="A211" t="str">
+            <v>729-90110996</v>
+          </cell>
+          <cell r="B211" t="str">
+            <v>ESPEJO PARA PARED</v>
+          </cell>
+          <cell r="C211">
+            <v>110</v>
+          </cell>
+        </row>
+        <row r="212">
+          <cell r="A212" t="str">
+            <v>D1-19747</v>
+          </cell>
+          <cell r="B212" t="str">
+            <v>LAMPARA PARA TECHO 3 BOMBILLOS</v>
+          </cell>
+          <cell r="C212">
+            <v>62</v>
+          </cell>
+        </row>
+        <row r="213">
+          <cell r="A213">
+            <v>268688001</v>
+          </cell>
+          <cell r="B213" t="str">
+            <v>VINERA GRANDE WINEENTHUSIAST</v>
+          </cell>
+          <cell r="C213">
+            <v>650</v>
+          </cell>
+        </row>
+        <row r="214">
+          <cell r="A214" t="str">
+            <v>D1-76078</v>
+          </cell>
+          <cell r="B214" t="str">
+            <v>ESPEJO PARA PARED</v>
+          </cell>
+          <cell r="C214">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="215">
+          <cell r="A215" t="str">
+            <v>DR-6546</v>
+          </cell>
+          <cell r="B215" t="str">
+            <v xml:space="preserve">RAC METALICO DE TRES BANDEJAS PEQUEÑAS </v>
+          </cell>
+          <cell r="C215">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="216">
+          <cell r="A216" t="str">
+            <v>EAG2044NIS</v>
+          </cell>
+          <cell r="B216" t="str">
+            <v>COCINA ATLAS 4 QUEMADORES, HORNO</v>
+          </cell>
+          <cell r="C216">
+            <v>295</v>
+          </cell>
+        </row>
+        <row r="217">
+          <cell r="A217" t="str">
+            <v>GRD298</v>
+          </cell>
+          <cell r="B217" t="str">
+            <v>REFRIGERADOR GRS 2 PUERTAS</v>
+          </cell>
+          <cell r="C217">
+            <v>487</v>
+          </cell>
+        </row>
+        <row r="218">
+          <cell r="A218" t="str">
+            <v>BFH416-LA</v>
+          </cell>
+          <cell r="B218" t="str">
+            <v>CALEFACTOR DE ESCRITORIO BIONAIRE</v>
+          </cell>
+          <cell r="C218">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="219">
+          <cell r="A219" t="str">
+            <v>853-7573CO</v>
+          </cell>
+          <cell r="B219" t="str">
+            <v xml:space="preserve">ESCCRITORIO </v>
+          </cell>
+          <cell r="C219">
+            <v>235</v>
+          </cell>
+        </row>
+        <row r="220">
+          <cell r="A220" t="str">
+            <v>850-9069</v>
+          </cell>
+          <cell r="B220" t="str">
+            <v xml:space="preserve">COMEDOR DE 4 SILLAS </v>
+          </cell>
+          <cell r="C220">
+            <v>228</v>
+          </cell>
+        </row>
+        <row r="221">
+          <cell r="A221" t="str">
+            <v>852-32287</v>
+          </cell>
+          <cell r="B221" t="str">
+            <v xml:space="preserve">COMODA CON ESPEJO Y BUTACA </v>
+          </cell>
+          <cell r="C221">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="222">
+          <cell r="A222" t="str">
+            <v>852-90122530</v>
+          </cell>
+          <cell r="B222" t="str">
+            <v xml:space="preserve">SET DE MESAS </v>
+          </cell>
+          <cell r="C222">
+            <v>160</v>
+          </cell>
+        </row>
+        <row r="223">
+          <cell r="A223" t="str">
+            <v>852-STB460101</v>
+          </cell>
+          <cell r="B223" t="str">
+            <v xml:space="preserve">COMODA </v>
+          </cell>
+          <cell r="C223">
+            <v>95</v>
+          </cell>
+        </row>
+        <row r="224">
+          <cell r="A224" t="str">
+            <v>602-27630</v>
+          </cell>
+          <cell r="B224" t="str">
+            <v>RELOJ DE PISO CON PENDULO, FALLADO</v>
+          </cell>
+          <cell r="C224">
+            <v>180</v>
+          </cell>
+        </row>
+        <row r="225">
+          <cell r="A225" t="str">
+            <v>ABE16PIE</v>
+          </cell>
+          <cell r="B225" t="str">
+            <v>ABANICO ERICKSON</v>
+          </cell>
+          <cell r="C225">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="226">
+          <cell r="A226" t="str">
+            <v>7679-KIT</v>
+          </cell>
+          <cell r="B226" t="str">
+            <v>SET LAMPARAS DE PEDESTAL</v>
+          </cell>
+          <cell r="C226">
+            <v>120</v>
+          </cell>
+        </row>
+        <row r="227">
+          <cell r="A227" t="str">
+            <v>604-81906</v>
+          </cell>
+          <cell r="B227" t="str">
+            <v xml:space="preserve">LAMPARA PARA MESA </v>
+          </cell>
+          <cell r="C227">
+            <v>28</v>
+          </cell>
+        </row>
+        <row r="228">
+          <cell r="A228">
+            <v>8038</v>
+          </cell>
+          <cell r="B228" t="str">
+            <v>LAMPARA PARA MESA ANGRY BIRT</v>
+          </cell>
+          <cell r="C228">
+            <v>24</v>
+          </cell>
+        </row>
+        <row r="229">
+          <cell r="A229" t="str">
+            <v>607-DS9929</v>
+          </cell>
+          <cell r="B229" t="str">
+            <v>LAMPARA PARA ESCRITORIO</v>
+          </cell>
+          <cell r="C229">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="230">
+          <cell r="A230" t="str">
+            <v>604-81808</v>
+          </cell>
+          <cell r="B230" t="str">
+            <v xml:space="preserve">LAMPARA PARA MESA </v>
+          </cell>
+          <cell r="C230">
+            <v>18</v>
+          </cell>
+        </row>
+        <row r="231">
+          <cell r="A231" t="str">
+            <v>604-78996</v>
+          </cell>
+          <cell r="B231" t="str">
+            <v xml:space="preserve">LAMPARA PARA MESA </v>
+          </cell>
+          <cell r="C231">
+            <v>19</v>
+          </cell>
+        </row>
+        <row r="232">
+          <cell r="A232" t="str">
+            <v>3407-BO</v>
+          </cell>
+          <cell r="B232" t="str">
+            <v xml:space="preserve">LAMPARA PARA JARDIN </v>
+          </cell>
+          <cell r="C232">
+            <v>30.99</v>
+          </cell>
+        </row>
+        <row r="233">
+          <cell r="A233" t="str">
+            <v>6520-BK</v>
+          </cell>
+          <cell r="B233" t="str">
+            <v xml:space="preserve">LAMPARA PARA MESA </v>
+          </cell>
+          <cell r="C233">
+            <v>19</v>
+          </cell>
+        </row>
+        <row r="234">
+          <cell r="A234" t="str">
+            <v>604-78453</v>
+          </cell>
+          <cell r="B234" t="str">
+            <v xml:space="preserve">LAMPARA PARA MESA </v>
+          </cell>
+          <cell r="C234">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="235">
+          <cell r="A235" t="str">
+            <v>604-76274</v>
+          </cell>
+          <cell r="B235" t="str">
+            <v xml:space="preserve">LAMPARA PARA MESA </v>
+          </cell>
+          <cell r="C235">
+            <v>18</v>
+          </cell>
+        </row>
+        <row r="236">
+          <cell r="A236" t="str">
+            <v>604-81910</v>
+          </cell>
+          <cell r="B236" t="str">
+            <v xml:space="preserve">LAMPARA PARA MESA </v>
+          </cell>
+          <cell r="C236">
+            <v>32</v>
+          </cell>
+        </row>
+        <row r="237">
+          <cell r="A237" t="str">
+            <v>604-78456</v>
+          </cell>
+          <cell r="B237" t="str">
+            <v xml:space="preserve">LAMPARA PARA MESA </v>
+          </cell>
+          <cell r="C237">
+            <v>28</v>
+          </cell>
+        </row>
+        <row r="238">
+          <cell r="A238" t="str">
+            <v>604-80993</v>
+          </cell>
+          <cell r="B238" t="str">
+            <v xml:space="preserve">LAMPARA PARA MESA </v>
+          </cell>
+          <cell r="C238">
+            <v>32</v>
+          </cell>
+        </row>
+        <row r="239">
+          <cell r="A239" t="str">
+            <v>604-81813</v>
+          </cell>
+          <cell r="B239" t="str">
+            <v xml:space="preserve">LAMPARA PARA MESA </v>
+          </cell>
+          <cell r="C239">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="240">
+          <cell r="A240" t="str">
+            <v>604-76277</v>
+          </cell>
+          <cell r="B240" t="str">
+            <v xml:space="preserve">LAMPARA PARA MESA </v>
+          </cell>
+          <cell r="C240">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="241">
+          <cell r="A241" t="str">
+            <v>604-L2250330</v>
+          </cell>
+          <cell r="B241" t="str">
+            <v xml:space="preserve">LAMPARA PARA MESA </v>
+          </cell>
+          <cell r="C241">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="242">
+          <cell r="A242" t="str">
+            <v>604-78461</v>
+          </cell>
+          <cell r="B242" t="str">
+            <v xml:space="preserve">LAMPARA PARA MESA </v>
+          </cell>
+          <cell r="C242">
+            <v>19</v>
+          </cell>
+        </row>
+        <row r="243">
+          <cell r="A243" t="str">
+            <v>604-L22500345</v>
+          </cell>
+          <cell r="B243" t="str">
+            <v xml:space="preserve">LAMPARA PARA MESA </v>
+          </cell>
+          <cell r="C243">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="244">
+          <cell r="A244" t="str">
+            <v>604-81795</v>
+          </cell>
+          <cell r="B244" t="str">
+            <v>LAMPARA PARA MESA MOTITO</v>
+          </cell>
+          <cell r="C244">
+            <v>15.99</v>
+          </cell>
+        </row>
+        <row r="245">
+          <cell r="A245" t="str">
+            <v>604-30516</v>
+          </cell>
+          <cell r="B245" t="str">
+            <v>LAMPARA PARA MESA CARRITO</v>
+          </cell>
+          <cell r="C245">
+            <v>17.989999999999998</v>
+          </cell>
+        </row>
+        <row r="246">
+          <cell r="A246" t="str">
+            <v>6935BK-03</v>
+          </cell>
+          <cell r="B246" t="str">
+            <v xml:space="preserve">LAMPARA DE PEDESTAL PARA PATIO  3 BOMBILLOS </v>
+          </cell>
+          <cell r="C246">
+            <v>140</v>
+          </cell>
+        </row>
+        <row r="247">
+          <cell r="A247">
+            <v>828202</v>
+          </cell>
+          <cell r="B247" t="str">
+            <v xml:space="preserve">LAMPARA DE PEDESTAL PARA PATIO  3 BOMBILLOS </v>
+          </cell>
+          <cell r="C247">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="248">
+          <cell r="A248" t="str">
+            <v>N/A_0007</v>
+          </cell>
+          <cell r="B248" t="str">
+            <v xml:space="preserve">RAC DE BAÑO PARA COSMETICOS </v>
+          </cell>
+          <cell r="C248">
+            <v>14</v>
+          </cell>
+        </row>
+        <row r="249">
+          <cell r="A249" t="str">
+            <v>N/A_0008</v>
+          </cell>
+          <cell r="B249" t="str">
+            <v xml:space="preserve">RAC DE BAÑO PARA COSMETICOS </v>
+          </cell>
+          <cell r="C249">
+            <v>14</v>
+          </cell>
+        </row>
+        <row r="250">
+          <cell r="A250" t="str">
+            <v>136-938</v>
+          </cell>
+          <cell r="B250" t="str">
+            <v xml:space="preserve">ESTANTE PARA TOALLAS </v>
+          </cell>
+          <cell r="C250">
+            <v>23</v>
+          </cell>
+        </row>
+        <row r="251">
+          <cell r="A251" t="str">
+            <v>N/A_0009</v>
+          </cell>
+          <cell r="B251" t="str">
+            <v xml:space="preserve">ESTANTE PARA TOALLAS </v>
+          </cell>
+          <cell r="C251">
+            <v>23</v>
+          </cell>
+        </row>
+        <row r="252">
+          <cell r="A252" t="str">
+            <v>971-US60</v>
+          </cell>
+          <cell r="B252" t="str">
+            <v xml:space="preserve">CARRITO PARA COMPRAS </v>
+          </cell>
+          <cell r="C252">
+            <v>155</v>
+          </cell>
+        </row>
+        <row r="253">
+          <cell r="A253" t="str">
+            <v>D1-89397</v>
+          </cell>
+          <cell r="B253" t="str">
+            <v xml:space="preserve">PECERA </v>
+          </cell>
+          <cell r="C253">
+            <v>85</v>
+          </cell>
+        </row>
+        <row r="254">
+          <cell r="A254" t="str">
+            <v>854-52651960CH</v>
+          </cell>
+          <cell r="B254" t="str">
+            <v xml:space="preserve">JUEGO MESA  REDONDA DE VIDRIO, DOS SILLAS </v>
+          </cell>
+          <cell r="C254">
+            <v>180</v>
+          </cell>
+        </row>
+        <row r="255">
+          <cell r="A255" t="str">
+            <v>854-90133191</v>
+          </cell>
+          <cell r="B255" t="str">
+            <v xml:space="preserve">JUEGO MESA  REDONDA DE VIDRIO, DOS SILLAS </v>
+          </cell>
+          <cell r="C255">
+            <v>160</v>
+          </cell>
+        </row>
+        <row r="256">
+          <cell r="A256" t="str">
+            <v>4065-01-DG</v>
+          </cell>
+          <cell r="B256" t="str">
+            <v xml:space="preserve">LAMPARA DE PEDESTAL PARA PATIO  1 BOMBILLO </v>
+          </cell>
+          <cell r="C256">
+            <v>115</v>
+          </cell>
+        </row>
+        <row r="257">
+          <cell r="A257" t="str">
+            <v>4065-01-BK</v>
+          </cell>
+          <cell r="B257" t="str">
+            <v xml:space="preserve">LAMPARA DE PEDESTAL PARA PATIO  1 BOMBILLO </v>
+          </cell>
+          <cell r="C257">
+            <v>95</v>
+          </cell>
+        </row>
+        <row r="258">
+          <cell r="A258" t="str">
+            <v>722-90139268</v>
+          </cell>
+          <cell r="B258" t="str">
+            <v>JUEGO DE VARILLA DECORATIVA PARA CORTINA ROD SET</v>
+          </cell>
+          <cell r="C258">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="259">
+          <cell r="A259" t="str">
+            <v>722-MCR030</v>
+          </cell>
+          <cell r="B259" t="str">
+            <v>JUEGO DE VARILLA DECORATIVA PARA CORTINA ROD SET</v>
+          </cell>
+          <cell r="C259">
+            <v>18</v>
+          </cell>
+        </row>
+        <row r="260">
+          <cell r="A260" t="str">
+            <v>722-90139248</v>
+          </cell>
+          <cell r="B260" t="str">
+            <v>JUEGO DE VARILLA DECORATIVA PARA CORTINA ROD SET</v>
+          </cell>
+          <cell r="C260">
+            <v>13.5</v>
+          </cell>
+        </row>
+        <row r="261">
+          <cell r="A261" t="str">
+            <v>722-90139802</v>
+          </cell>
+          <cell r="B261" t="str">
+            <v>JUEGO DE VARILLA DECORATIVA PARA CORTINA ROD SET</v>
+          </cell>
+          <cell r="C261">
+            <v>13</v>
+          </cell>
+        </row>
+        <row r="262">
+          <cell r="A262" t="str">
+            <v>722-90139795</v>
+          </cell>
+          <cell r="B262" t="str">
+            <v>JUEGO DE VARILLA DECORATIVA PARA CORTINA ROD SET</v>
+          </cell>
+          <cell r="C262">
+            <v>8.5</v>
+          </cell>
+        </row>
+        <row r="263">
+          <cell r="A263" t="str">
+            <v>722-90139256</v>
+          </cell>
+          <cell r="B263" t="str">
+            <v>JUEGO DE VARILLA DECORATIVA PARA CORTINA ROD SET</v>
+          </cell>
+          <cell r="C263">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="264">
+          <cell r="A264" t="str">
+            <v>722-90139258</v>
+          </cell>
+          <cell r="B264" t="str">
+            <v>JUEGO DE VARILLA DECORATIVA PARA CORTINA ROD SET</v>
+          </cell>
+          <cell r="C264">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="265">
+          <cell r="A265" t="str">
+            <v>964-90115992</v>
+          </cell>
+          <cell r="B265" t="str">
+            <v>CESPED  ARTIFICIAL</v>
+          </cell>
+          <cell r="C265">
+            <v>125</v>
+          </cell>
+        </row>
+        <row r="266">
+          <cell r="A266" t="str">
+            <v>964-90128607</v>
+          </cell>
+          <cell r="B266" t="str">
+            <v xml:space="preserve">ALFOMBRA DE PVC MAX MOTOR </v>
+          </cell>
+          <cell r="C266">
+            <v>50</v>
+          </cell>
+        </row>
+        <row r="267">
+          <cell r="A267" t="str">
+            <v>700-073903</v>
+          </cell>
+          <cell r="B267" t="str">
+            <v xml:space="preserve">ALFMBRA HOME LIVING </v>
+          </cell>
+          <cell r="C267">
+            <v>66</v>
+          </cell>
+        </row>
+        <row r="268">
+          <cell r="A268" t="str">
+            <v>700-072862</v>
+          </cell>
+          <cell r="B268" t="str">
+            <v>ALFOMBRA PELUDA HOME LIVING</v>
+          </cell>
+          <cell r="C268">
+            <v>66</v>
+          </cell>
+        </row>
+        <row r="269">
+          <cell r="A269" t="str">
+            <v>854-8733</v>
+          </cell>
+          <cell r="B269" t="str">
+            <v xml:space="preserve">JUEGO MESA  REDONDA DE PLASTICO, DOS SILLAS </v>
+          </cell>
+          <cell r="C269">
+            <v>110</v>
+          </cell>
+        </row>
+        <row r="270">
+          <cell r="A270" t="str">
+            <v>8178-03-BK</v>
+          </cell>
+          <cell r="B270" t="str">
+            <v xml:space="preserve">LAMPARA PARA EXTERIORES 3 BOMBILLOS </v>
+          </cell>
+          <cell r="C270">
+            <v>265</v>
+          </cell>
+        </row>
+        <row r="271">
+          <cell r="A271" t="str">
+            <v>6743F</v>
+          </cell>
+          <cell r="B271" t="str">
+            <v xml:space="preserve">LAMPARA PARA EXTERIORES </v>
+          </cell>
+          <cell r="C271">
+            <v>78</v>
+          </cell>
+        </row>
+        <row r="272">
+          <cell r="A272" t="str">
+            <v>854-7492</v>
+          </cell>
+          <cell r="B272" t="str">
+            <v xml:space="preserve">JUEGO MESA  DECORADA REDONDA DE PLASTICO, DOS SILLAS </v>
+          </cell>
+          <cell r="C272">
+            <v>110</v>
+          </cell>
+        </row>
+        <row r="273">
+          <cell r="A273" t="str">
+            <v>7668-13</v>
+          </cell>
+          <cell r="B273" t="str">
+            <v>LAMPARA PARA TECHO</v>
+          </cell>
+          <cell r="C273">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="274">
+          <cell r="A274" t="str">
+            <v>7210W</v>
+          </cell>
+          <cell r="B274" t="str">
+            <v>LAMPARA PARA PARED</v>
+          </cell>
+          <cell r="C274">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="275">
+          <cell r="A275" t="str">
+            <v>4903W</v>
+          </cell>
+          <cell r="B275" t="str">
+            <v>LAMPARA PARA PARED</v>
+          </cell>
+          <cell r="C275">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="276">
+          <cell r="A276" t="str">
+            <v>3392SN-15</v>
+          </cell>
+          <cell r="B276" t="str">
+            <v>LAMPARA PARA TECHO</v>
+          </cell>
+          <cell r="C276">
+            <v>29</v>
+          </cell>
+        </row>
+        <row r="277">
+          <cell r="A277" t="str">
+            <v>D001-450</v>
+          </cell>
+          <cell r="B277" t="str">
+            <v>LAMPARA PARA TECHO</v>
+          </cell>
+          <cell r="C277">
+            <v>55</v>
+          </cell>
+        </row>
+        <row r="278">
+          <cell r="A278">
+            <v>2301</v>
+          </cell>
+          <cell r="B278" t="str">
+            <v>LAMPARA PARA PARED</v>
+          </cell>
+          <cell r="C278">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="279">
+          <cell r="A279" t="str">
+            <v>5437W</v>
+          </cell>
+          <cell r="B279" t="str">
+            <v>LAMPARA PARA PARED</v>
+          </cell>
+          <cell r="C279">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="280">
+          <cell r="A280" t="str">
+            <v>4174SN-1W</v>
+          </cell>
+          <cell r="B280" t="str">
+            <v>LAMPARA PARA PARED</v>
+          </cell>
+          <cell r="C280">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="281">
+          <cell r="A281" t="str">
+            <v>6237-1W</v>
+          </cell>
+          <cell r="B281" t="str">
+            <v>LAMPARA PARA PARED</v>
+          </cell>
+          <cell r="C281">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="282">
+          <cell r="A282" t="str">
+            <v>6243-3</v>
+          </cell>
+          <cell r="B282" t="str">
+            <v xml:space="preserve">LAMPARA PARA PARED 3 BOMBILLOS </v>
+          </cell>
+          <cell r="C282">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="283">
+          <cell r="A283" t="str">
+            <v>4173SN-1W</v>
+          </cell>
+          <cell r="B283" t="str">
+            <v xml:space="preserve">LAMPARA PARA PARED </v>
+          </cell>
+          <cell r="C283">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="284">
+          <cell r="A284" t="str">
+            <v>3997-1W</v>
+          </cell>
+          <cell r="B284" t="str">
+            <v xml:space="preserve">LAMPARA PARA PARED </v>
+          </cell>
+          <cell r="C284">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="285">
+          <cell r="A285" t="str">
+            <v>8091-1W</v>
+          </cell>
+          <cell r="B285" t="str">
+            <v>LAMPARA PARA PARED GENOVA</v>
+          </cell>
+          <cell r="C285">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="286">
+          <cell r="A286" t="str">
+            <v>7149-2C</v>
+          </cell>
+          <cell r="B286" t="str">
+            <v>LAMPARA PARA TECHO</v>
+          </cell>
+          <cell r="C286">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="287">
+          <cell r="A287" t="str">
+            <v>4281BRZ-1W</v>
+          </cell>
+          <cell r="B287" t="str">
+            <v xml:space="preserve">LAMPARA PARA PARED </v>
+          </cell>
+          <cell r="C287">
+            <v>24</v>
+          </cell>
+        </row>
+        <row r="288">
+          <cell r="A288" t="str">
+            <v>20112-AB</v>
+          </cell>
+          <cell r="B288" t="str">
+            <v>LAMPARA PARA TECHO</v>
+          </cell>
+          <cell r="C288">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="289">
+          <cell r="A289" t="str">
+            <v>7119T-DUO</v>
+          </cell>
+          <cell r="B289" t="str">
+            <v>LAMPARA PARA MESA</v>
+          </cell>
+          <cell r="C289">
+            <v>26</v>
+          </cell>
+        </row>
+        <row r="290">
+          <cell r="A290" t="str">
+            <v>704-9204M</v>
+          </cell>
+          <cell r="B290" t="str">
+            <v>CANDELABRO  PARA MESA</v>
+          </cell>
+          <cell r="C290">
+            <v>23</v>
+          </cell>
+        </row>
+        <row r="291">
+          <cell r="A291" t="str">
+            <v>704-81532</v>
+          </cell>
+          <cell r="B291" t="str">
+            <v>CANDELABRO  PARA MESA</v>
+          </cell>
+          <cell r="C291">
+            <v>32</v>
+          </cell>
+        </row>
+        <row r="292">
+          <cell r="A292" t="str">
+            <v>851-90133316</v>
+          </cell>
+          <cell r="B292" t="str">
+            <v>SILLA PARA BAR</v>
+          </cell>
+          <cell r="C292">
+            <v>145</v>
+          </cell>
+        </row>
+        <row r="293">
+          <cell r="A293" t="str">
+            <v>851-90133516</v>
+          </cell>
+          <cell r="B293" t="str">
+            <v>SILLA PARA BAR</v>
+          </cell>
+          <cell r="C293">
+            <v>160</v>
+          </cell>
+        </row>
+        <row r="294">
+          <cell r="A294" t="str">
+            <v>851-5546RV</v>
+          </cell>
+          <cell r="B294" t="str">
+            <v>SILLA PARA BAR</v>
+          </cell>
+          <cell r="C294">
+            <v>65</v>
+          </cell>
+        </row>
+        <row r="295">
+          <cell r="A295" t="str">
+            <v>851-5546N</v>
+          </cell>
+          <cell r="B295" t="str">
+            <v>SILLA PARA BAR</v>
+          </cell>
+          <cell r="C295">
+            <v>65</v>
+          </cell>
+        </row>
+        <row r="296">
+          <cell r="A296" t="str">
+            <v>851-991222CH</v>
+          </cell>
+          <cell r="B296" t="str">
+            <v>SILLA PARA BAR</v>
+          </cell>
+          <cell r="C296">
+            <v>48</v>
+          </cell>
+        </row>
+        <row r="297">
+          <cell r="A297" t="str">
+            <v>851-991222</v>
+          </cell>
+          <cell r="B297" t="str">
+            <v>SILLA PARA BAR</v>
+          </cell>
+          <cell r="C297">
+            <v>48</v>
+          </cell>
+        </row>
+        <row r="298">
+          <cell r="A298" t="str">
+            <v>851-90133062</v>
+          </cell>
+          <cell r="B298" t="str">
+            <v>SILLA PARA BAR</v>
+          </cell>
+          <cell r="C298">
+            <v>82</v>
+          </cell>
+        </row>
+        <row r="299">
+          <cell r="A299" t="str">
+            <v>852-T103N</v>
+          </cell>
+          <cell r="B299" t="str">
+            <v>MESA PARA BAR</v>
+          </cell>
+          <cell r="C299">
+            <v>120</v>
+          </cell>
+        </row>
+        <row r="300">
+          <cell r="A300" t="str">
+            <v>851-9013310</v>
+          </cell>
+          <cell r="B300" t="str">
+            <v>SILLA PARA BAR</v>
+          </cell>
+          <cell r="C300">
+            <v>75</v>
+          </cell>
+        </row>
+        <row r="301">
+          <cell r="A301" t="str">
+            <v>851-90133063</v>
+          </cell>
+          <cell r="B301" t="str">
+            <v>SILLA PARA BAR</v>
+          </cell>
+          <cell r="C301">
+            <v>82</v>
+          </cell>
+        </row>
+        <row r="302">
+          <cell r="A302" t="str">
+            <v>851-HL134M</v>
+          </cell>
+          <cell r="B302" t="str">
+            <v>SILLA PARA BAR</v>
+          </cell>
+          <cell r="C302">
+            <v>55</v>
+          </cell>
+        </row>
+        <row r="303">
+          <cell r="A303" t="str">
+            <v>851-HL134R</v>
+          </cell>
+          <cell r="B303" t="str">
+            <v>SILLA PARA BAR</v>
+          </cell>
+          <cell r="C303">
+            <v>55</v>
+          </cell>
+        </row>
+        <row r="304">
+          <cell r="A304" t="str">
+            <v>851-HL134N</v>
+          </cell>
+          <cell r="B304" t="str">
+            <v>SILLA PARA BAR</v>
+          </cell>
+          <cell r="C304">
+            <v>55</v>
+          </cell>
+        </row>
+        <row r="305">
+          <cell r="A305" t="str">
+            <v>851-90133057</v>
+          </cell>
+          <cell r="B305" t="str">
+            <v>SILLA PARA BAR</v>
+          </cell>
+          <cell r="C305">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="306">
+          <cell r="A306" t="str">
+            <v>850-WRB154</v>
+          </cell>
+          <cell r="B306" t="str">
+            <v>COMEDOR DE CUATRO SILLAS MDF, METAL TELA</v>
+          </cell>
+          <cell r="C306">
+            <v>453</v>
+          </cell>
+        </row>
+        <row r="307">
+          <cell r="A307" t="str">
+            <v>851-DRA090</v>
+          </cell>
+          <cell r="B307" t="str">
+            <v>SILLA METALICA PARA BAR</v>
+          </cell>
+          <cell r="C307">
+            <v>33</v>
+          </cell>
+        </row>
+        <row r="308">
+          <cell r="A308" t="str">
+            <v>852-90133592</v>
+          </cell>
+          <cell r="B308" t="str">
+            <v>MESA PARA EXHIBICIIÓN</v>
+          </cell>
+          <cell r="C308">
+            <v>134</v>
+          </cell>
+        </row>
+        <row r="309">
+          <cell r="A309" t="str">
+            <v>852-90133596</v>
+          </cell>
+          <cell r="B309" t="str">
+            <v>MESA PARA EXHIBICIIÓN</v>
+          </cell>
+          <cell r="C309">
+            <v>150</v>
+          </cell>
+        </row>
+        <row r="310">
+          <cell r="A310" t="str">
+            <v>850-WRBT136G</v>
+          </cell>
+          <cell r="B310" t="str">
+            <v>COMEDOR DE CUATRO SILLAS VIDRIO, METAL TELA</v>
+          </cell>
+          <cell r="C310">
+            <v>429</v>
+          </cell>
+        </row>
+        <row r="311">
+          <cell r="A311" t="str">
+            <v>851-YSA2061D</v>
+          </cell>
+          <cell r="B311" t="str">
+            <v>SILLA PARA COMEDOR</v>
+          </cell>
+          <cell r="C311">
+            <v>40</v>
+          </cell>
+        </row>
+        <row r="312">
+          <cell r="A312" t="str">
+            <v>851-YXD25</v>
+          </cell>
+          <cell r="B312" t="str">
+            <v>SILLA PLEGABLE PLASTICA</v>
+          </cell>
+          <cell r="C312">
+            <v>32</v>
+          </cell>
+        </row>
+        <row r="313">
+          <cell r="A313" t="str">
+            <v>CH-LB-01</v>
+          </cell>
+          <cell r="B313" t="str">
+            <v>SILLA PLEGABLE PLASTICA</v>
+          </cell>
+          <cell r="C313">
+            <v>32</v>
+          </cell>
+        </row>
+        <row r="314">
+          <cell r="A314" t="str">
+            <v>CH-RD-04</v>
+          </cell>
+          <cell r="B314" t="str">
+            <v>SILLA PLEGABLE PLASTICA</v>
+          </cell>
+          <cell r="C314">
+            <v>32</v>
+          </cell>
+        </row>
+        <row r="315">
+          <cell r="A315" t="str">
+            <v>851-E01A</v>
+          </cell>
+          <cell r="B315" t="str">
+            <v>SILLA DE ESPERA PLASTICA</v>
+          </cell>
+          <cell r="C315">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="316">
+          <cell r="A316" t="str">
+            <v>851-JMJ0326A2</v>
+          </cell>
+          <cell r="B316" t="str">
+            <v>SILLA PLEGABLE METALICA</v>
+          </cell>
+          <cell r="C316">
+            <v>31.5</v>
+          </cell>
+        </row>
+        <row r="317">
+          <cell r="A317" t="str">
+            <v>DR-N-562B</v>
+          </cell>
+          <cell r="B317" t="str">
+            <v>SILLA PLEGABLE METALICA</v>
+          </cell>
+          <cell r="C317">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="318">
+          <cell r="A318" t="str">
+            <v>DR-N-562CO</v>
+          </cell>
+          <cell r="B318" t="str">
+            <v>SILLA PLEGABLE METALICA</v>
+          </cell>
+          <cell r="C318">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="319">
+          <cell r="A319" t="str">
+            <v>605-90114684</v>
+          </cell>
+          <cell r="B319" t="str">
+            <v>LAMPARA PARA TECHO</v>
+          </cell>
+          <cell r="C319">
+            <v>160</v>
+          </cell>
+        </row>
+        <row r="320">
+          <cell r="A320" t="str">
+            <v>605-90113234</v>
+          </cell>
+          <cell r="B320" t="str">
+            <v>LAMPARA PARA TECHO</v>
+          </cell>
+          <cell r="C320">
+            <v>108</v>
+          </cell>
+        </row>
+        <row r="321">
+          <cell r="A321" t="str">
+            <v>605-90113235</v>
+          </cell>
+          <cell r="B321" t="str">
+            <v>LAMPARA PARA TECHO</v>
+          </cell>
+          <cell r="C321">
+            <v>118</v>
+          </cell>
+        </row>
+        <row r="322">
+          <cell r="A322" t="str">
+            <v>605-90114686</v>
+          </cell>
+          <cell r="B322" t="str">
+            <v>LAMPARA PARA TECHO</v>
+          </cell>
+          <cell r="C322">
+            <v>189</v>
+          </cell>
+        </row>
+        <row r="323">
+          <cell r="A323" t="str">
+            <v>7500PK</v>
+          </cell>
+          <cell r="B323" t="str">
+            <v>LAMPARA PARA TECHO</v>
+          </cell>
+          <cell r="C323">
+            <v>36</v>
+          </cell>
+        </row>
+        <row r="324">
+          <cell r="A324" t="str">
+            <v>7500GN</v>
+          </cell>
+          <cell r="B324" t="str">
+            <v>LAMPARA PARA TECHO</v>
+          </cell>
+          <cell r="C324">
+            <v>36</v>
+          </cell>
+        </row>
+        <row r="325">
+          <cell r="A325" t="str">
+            <v>7500BL</v>
+          </cell>
+          <cell r="B325" t="str">
+            <v>LAMPARA PARA TECHO</v>
+          </cell>
+          <cell r="C325">
+            <v>36</v>
+          </cell>
+        </row>
+        <row r="326">
+          <cell r="A326" t="str">
+            <v>3419-3</v>
+          </cell>
+          <cell r="B326" t="str">
+            <v>LAMPARA PARA TECHO 3 BOMBILLOS</v>
+          </cell>
+          <cell r="C326">
+            <v>75</v>
+          </cell>
+        </row>
+        <row r="327">
+          <cell r="A327" t="str">
+            <v>2958-5H</v>
+          </cell>
+          <cell r="B327" t="str">
+            <v>LAMPARA PARA TECHO 5 BOMBILLOS</v>
+          </cell>
+          <cell r="C327">
+            <v>75</v>
+          </cell>
+        </row>
+        <row r="328">
+          <cell r="A328" t="str">
+            <v>7294-H</v>
+          </cell>
+          <cell r="B328" t="str">
+            <v>LAMPARA PARA TECHO</v>
+          </cell>
+          <cell r="C328">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="329">
+          <cell r="A329" t="str">
+            <v>222AB-5H</v>
+          </cell>
+          <cell r="B329" t="str">
+            <v>LAMPARA PARA TECHO 5 BOMBILLOS</v>
+          </cell>
+          <cell r="C329">
+            <v>68</v>
+          </cell>
+        </row>
+        <row r="330">
+          <cell r="A330" t="str">
+            <v>4174-SN5H</v>
+          </cell>
+          <cell r="B330" t="str">
+            <v>LAMPARA PARA TECHO 5 BOMBILLOS</v>
+          </cell>
+          <cell r="C330">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="331">
+          <cell r="A331">
+            <v>7011</v>
+          </cell>
+          <cell r="B331" t="str">
+            <v>LAMPARA PARA TECHO</v>
+          </cell>
+          <cell r="C331">
+            <v>19</v>
+          </cell>
+        </row>
+        <row r="332">
+          <cell r="A332" t="str">
+            <v>605-90114700</v>
+          </cell>
+          <cell r="B332" t="str">
+            <v>LAMPARA PARA TECHO 6 BOMBILLOS</v>
+          </cell>
+          <cell r="C332">
+            <v>95</v>
+          </cell>
+        </row>
+        <row r="333">
+          <cell r="A333" t="str">
+            <v>4472-1H</v>
+          </cell>
+          <cell r="B333" t="str">
+            <v>LAMPARA PARA TECHO</v>
+          </cell>
+          <cell r="C333">
+            <v>28</v>
+          </cell>
+        </row>
+        <row r="334">
+          <cell r="A334" t="str">
+            <v>4257-3</v>
+          </cell>
+          <cell r="B334" t="str">
+            <v>LAMPARA PARA TECHO 3 BOMBILLOS</v>
+          </cell>
+          <cell r="C334">
+            <v>65</v>
+          </cell>
+        </row>
+        <row r="335">
+          <cell r="A335">
+            <v>7209</v>
+          </cell>
+          <cell r="B335" t="str">
+            <v>LAMPARA PARA TECHO</v>
+          </cell>
+          <cell r="C335">
+            <v>22</v>
+          </cell>
+        </row>
+        <row r="336">
+          <cell r="A336" t="str">
+            <v>605-90114697</v>
+          </cell>
+          <cell r="B336" t="str">
+            <v>LAMPARA PARA TECHO 4 BOMBILLOS</v>
+          </cell>
+          <cell r="C336">
+            <v>78</v>
+          </cell>
+        </row>
+        <row r="337">
+          <cell r="A337" t="str">
+            <v>521/3</v>
+          </cell>
+          <cell r="B337" t="str">
+            <v>LAMPARA PARA TECHO 3 BOMBILLOS</v>
+          </cell>
+          <cell r="C337">
+            <v>68</v>
+          </cell>
+        </row>
+        <row r="338">
+          <cell r="A338" t="str">
+            <v>7199-H</v>
+          </cell>
+          <cell r="B338" t="str">
+            <v>LAMPARA PARA TECHO</v>
+          </cell>
+          <cell r="C338">
+            <v>32</v>
+          </cell>
+        </row>
+        <row r="339">
+          <cell r="A339">
+            <v>6025</v>
+          </cell>
+          <cell r="B339" t="str">
+            <v>LAMPARA PARA TECHO</v>
+          </cell>
+          <cell r="C339">
+            <v>32</v>
+          </cell>
+        </row>
+        <row r="340">
+          <cell r="A340" t="str">
+            <v>6910BR-5H</v>
+          </cell>
+          <cell r="B340" t="str">
+            <v>LAMPARA PARA TECHO 5 BOMBILLOS</v>
+          </cell>
+          <cell r="C340">
+            <v>67</v>
+          </cell>
+        </row>
+        <row r="341">
+          <cell r="A341" t="str">
+            <v>3209BRZ-5H</v>
+          </cell>
+          <cell r="B341" t="str">
+            <v>LAMPARA PARA TECHO 5 BOMBILLOS</v>
+          </cell>
+          <cell r="C341">
+            <v>68</v>
+          </cell>
+        </row>
+        <row r="342">
+          <cell r="A342" t="str">
+            <v>9297-600</v>
+          </cell>
+          <cell r="B342" t="str">
+            <v>LAMPARA PARA TECHO 6 BOMBILLOS</v>
+          </cell>
+          <cell r="C342">
+            <v>260</v>
+          </cell>
+        </row>
+        <row r="343">
+          <cell r="A343">
+            <v>19759</v>
+          </cell>
+          <cell r="B343" t="str">
+            <v>LAMPARA PARA TECHO 5 BOMBILLOS</v>
+          </cell>
+          <cell r="C343">
+            <v>75</v>
+          </cell>
+        </row>
+        <row r="344">
+          <cell r="A344" t="str">
+            <v>852-YXCF115</v>
+          </cell>
+          <cell r="B344" t="str">
+            <v xml:space="preserve">MUEBLE PARA COCINA </v>
+          </cell>
+          <cell r="C344">
+            <v>148</v>
+          </cell>
+        </row>
+        <row r="345">
+          <cell r="A345" t="str">
+            <v>850-T101C5179CR</v>
+          </cell>
+          <cell r="B345" t="str">
+            <v xml:space="preserve">COMEDOR DE 6 SILLAS </v>
+          </cell>
+          <cell r="C345">
+            <v>650</v>
+          </cell>
+        </row>
+        <row r="346">
+          <cell r="A346" t="str">
+            <v>850-COSKIMBERLING</v>
+          </cell>
+          <cell r="B346" t="str">
+            <v xml:space="preserve">COMEDOR DE 6 SILLAS </v>
+          </cell>
+          <cell r="C346">
+            <v>780</v>
+          </cell>
+        </row>
+        <row r="347">
+          <cell r="A347" t="str">
+            <v>850-COSX6</v>
+          </cell>
+          <cell r="B347" t="str">
+            <v xml:space="preserve">COMEDOR DE 6 SILLAS </v>
+          </cell>
+          <cell r="C347">
+            <v>570</v>
+          </cell>
+        </row>
+        <row r="348">
+          <cell r="A348" t="str">
+            <v>850-CARNATION</v>
+          </cell>
+          <cell r="B348" t="str">
+            <v xml:space="preserve">COMEDOR DE 6 SILLAS </v>
+          </cell>
+          <cell r="C348">
+            <v>590</v>
+          </cell>
+        </row>
+        <row r="349">
+          <cell r="A349" t="str">
+            <v>850-2008</v>
+          </cell>
+          <cell r="B349" t="str">
+            <v xml:space="preserve">COMEDOR DE 6 SILLAS </v>
+          </cell>
+          <cell r="C349">
+            <v>220</v>
+          </cell>
+        </row>
+        <row r="350">
+          <cell r="A350" t="str">
+            <v>850-85612A</v>
+          </cell>
+          <cell r="B350" t="str">
+            <v xml:space="preserve">COMEDOR 5 SILLAS </v>
+          </cell>
+          <cell r="C350">
+            <v>380</v>
+          </cell>
+        </row>
+        <row r="351">
+          <cell r="A351" t="str">
+            <v>850-93015</v>
+          </cell>
+          <cell r="B351" t="str">
+            <v xml:space="preserve">COMEDOR 4 SILLAS </v>
+          </cell>
+          <cell r="C351">
+            <v>370</v>
+          </cell>
+        </row>
+        <row r="352">
+          <cell r="A352" t="str">
+            <v>850-COSXN</v>
+          </cell>
+          <cell r="B352" t="str">
+            <v xml:space="preserve">COMEDOR 4 SILLAS </v>
+          </cell>
+          <cell r="C352">
+            <v>285</v>
+          </cell>
+        </row>
+        <row r="353">
+          <cell r="A353" t="str">
+            <v>850-YSD578</v>
+          </cell>
+          <cell r="B353" t="str">
+            <v xml:space="preserve">COMEDOR 4 SILLAS </v>
+          </cell>
+          <cell r="C353">
+            <v>175</v>
+          </cell>
+        </row>
+        <row r="354">
+          <cell r="A354" t="str">
+            <v>854-8815</v>
+          </cell>
+          <cell r="B354" t="str">
+            <v xml:space="preserve">JUEGO MESA CON SILLAS PARA EXTERIORES 6 SILLAS </v>
+          </cell>
+          <cell r="C354">
+            <v>278</v>
+          </cell>
+        </row>
+        <row r="355">
+          <cell r="A355" t="str">
+            <v>850-90133116</v>
+          </cell>
+          <cell r="B355" t="str">
+            <v xml:space="preserve">COMEDOR  6 SILLAS </v>
+          </cell>
+          <cell r="C355">
+            <v>680</v>
+          </cell>
+        </row>
+        <row r="356">
+          <cell r="A356" t="str">
+            <v>850-T101C5013</v>
+          </cell>
+          <cell r="B356" t="str">
+            <v xml:space="preserve">COMEDOR 3 SILLAS </v>
+          </cell>
+          <cell r="C356">
+            <v>595</v>
+          </cell>
+        </row>
+        <row r="357">
+          <cell r="A357" t="str">
+            <v>850-COSSBASTIAN</v>
+          </cell>
+          <cell r="B357" t="str">
+            <v xml:space="preserve">COMEDOR 6 SILLAS </v>
+          </cell>
+          <cell r="C357">
+            <v>630</v>
+          </cell>
+        </row>
+        <row r="358">
+          <cell r="A358" t="str">
+            <v>850-41129</v>
+          </cell>
+          <cell r="B358" t="str">
+            <v>COMEDOR  REDONDO 2 SILLAS</v>
+          </cell>
+          <cell r="C358">
+            <v>239</v>
+          </cell>
+        </row>
+        <row r="359">
+          <cell r="A359" t="str">
+            <v>850-122442</v>
+          </cell>
+          <cell r="B359" t="str">
+            <v xml:space="preserve">COMEDOR REDONDO 4 SILLAS </v>
+          </cell>
+          <cell r="C359">
+            <v>220</v>
+          </cell>
+        </row>
+        <row r="360">
+          <cell r="A360" t="str">
+            <v>850-BR991038</v>
+          </cell>
+          <cell r="B360" t="str">
+            <v xml:space="preserve">COMEDOR REDONDO 4 SILLAS </v>
+          </cell>
+          <cell r="C360">
+            <v>165</v>
+          </cell>
+        </row>
+        <row r="361">
+          <cell r="A361" t="str">
+            <v>704-90135296</v>
+          </cell>
+          <cell r="B361" t="str">
+            <v>CANDELABRO  PARA MESA</v>
+          </cell>
+          <cell r="C361">
+            <v>23</v>
+          </cell>
+        </row>
+        <row r="362">
+          <cell r="A362" t="str">
+            <v>706-26894</v>
+          </cell>
+          <cell r="B362" t="str">
+            <v>CANDELABRO  PARA MESA</v>
+          </cell>
+          <cell r="C362">
+            <v>48</v>
+          </cell>
+        </row>
+        <row r="363">
+          <cell r="A363" t="str">
+            <v>704-33335</v>
+          </cell>
+          <cell r="B363" t="str">
+            <v>CANDELABRO  PARA MESA</v>
+          </cell>
+          <cell r="C363">
+            <v>85</v>
+          </cell>
+        </row>
+        <row r="364">
+          <cell r="A364" t="str">
+            <v>704-90135303</v>
+          </cell>
+          <cell r="B364" t="str">
+            <v>CANDELABRO  PARA MESA</v>
+          </cell>
+          <cell r="C364">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="365">
+          <cell r="A365" t="str">
+            <v>704-90141430</v>
+          </cell>
+          <cell r="B365" t="str">
+            <v>CANDELABRO  PARA MESA</v>
+          </cell>
+          <cell r="C365">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="366">
+          <cell r="A366" t="str">
+            <v>704-28220</v>
+          </cell>
+          <cell r="B366" t="str">
+            <v>CANDELABRO  PARA MESA</v>
+          </cell>
+          <cell r="C366">
+            <v>49</v>
+          </cell>
+        </row>
+        <row r="367">
+          <cell r="A367" t="str">
+            <v>714-90140902</v>
+          </cell>
+          <cell r="B367" t="str">
+            <v>CANDELABRO  PARA MESA</v>
+          </cell>
+          <cell r="C367">
+            <v>45</v>
+          </cell>
+        </row>
+        <row r="368">
+          <cell r="A368" t="str">
+            <v>704-90140908</v>
+          </cell>
+          <cell r="B368" t="str">
+            <v>CANDELABRO  PARA MESA</v>
+          </cell>
+          <cell r="C368">
+            <v>75</v>
+          </cell>
+        </row>
+        <row r="369">
+          <cell r="A369">
+            <v>1507</v>
+          </cell>
+          <cell r="B369" t="str">
+            <v>CANDELABRO  PARA MESA</v>
+          </cell>
+          <cell r="C369">
+            <v>55</v>
+          </cell>
+        </row>
+        <row r="370">
+          <cell r="A370" t="str">
+            <v>704-7945</v>
+          </cell>
+          <cell r="B370" t="str">
+            <v>CANDELABRO  PARA MESA</v>
+          </cell>
+          <cell r="C370">
+            <v>134</v>
+          </cell>
+        </row>
+        <row r="371">
+          <cell r="A371" t="str">
+            <v>704-33360</v>
+          </cell>
+          <cell r="B371" t="str">
+            <v>CANDELABRO  PARA MESA</v>
+          </cell>
+          <cell r="C371">
+            <v>42</v>
+          </cell>
+        </row>
+        <row r="372">
+          <cell r="A372" t="str">
+            <v>704-33358</v>
+          </cell>
+          <cell r="B372" t="str">
+            <v>CANDELABRO  PARA MESA</v>
+          </cell>
+          <cell r="C372">
+            <v>28</v>
+          </cell>
+        </row>
+        <row r="373">
+          <cell r="A373" t="str">
+            <v>714-82757</v>
+          </cell>
+          <cell r="B373" t="str">
+            <v>FLORERO VIDRIO</v>
+          </cell>
+          <cell r="C373">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="374">
+          <cell r="A374" t="str">
+            <v>852-33331</v>
+          </cell>
+          <cell r="B374" t="str">
+            <v>CANDELABRO  PARA MESA</v>
+          </cell>
+          <cell r="C374">
+            <v>132</v>
+          </cell>
+        </row>
+        <row r="375">
+          <cell r="A375" t="str">
+            <v>C18-3</v>
+          </cell>
+          <cell r="B375" t="str">
+            <v xml:space="preserve">JUEGO MESA  PARA EXTERIORES 4 SILLAS </v>
+          </cell>
+          <cell r="C375">
+            <v>350</v>
+          </cell>
+        </row>
+        <row r="376">
+          <cell r="A376" t="str">
+            <v>850-37556BLK1</v>
+          </cell>
+          <cell r="B376" t="str">
+            <v xml:space="preserve">JEGO MESA PARA EXTERIORES 4 SILLAS PLEGABLES </v>
+          </cell>
+          <cell r="C376">
+            <v>160</v>
+          </cell>
+        </row>
+        <row r="377">
+          <cell r="A377" t="str">
+            <v>MG-6002</v>
+          </cell>
+          <cell r="B377" t="str">
+            <v>CUNA MECEDORA CON MOSQUITERO PARA BEBÉ</v>
+          </cell>
+          <cell r="C377">
+            <v>110</v>
+          </cell>
+        </row>
+        <row r="378">
+          <cell r="A378" t="str">
+            <v>N/A_0010</v>
+          </cell>
+          <cell r="B378" t="str">
+            <v xml:space="preserve">CORRAL PARA BEBÉ </v>
+          </cell>
+          <cell r="C378">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="379">
+          <cell r="A379" t="str">
+            <v>679-10937</v>
+          </cell>
+          <cell r="B379" t="str">
+            <v>ASIENTO PARA BEBÉ PARA AUTOMOVIL BABY FUN</v>
+          </cell>
+          <cell r="C379">
+            <v>70</v>
+          </cell>
+        </row>
+        <row r="380">
+          <cell r="A380" t="str">
+            <v>679-L4970010</v>
+          </cell>
+          <cell r="B380" t="str">
+            <v>SILLA PARA BEBÉ</v>
+          </cell>
+          <cell r="C380">
+            <v>96</v>
+          </cell>
+        </row>
+        <row r="381">
+          <cell r="A381" t="str">
+            <v>856-DRN902</v>
+          </cell>
+          <cell r="B381" t="str">
+            <v xml:space="preserve">GABINETE PARA COCINA </v>
+          </cell>
+          <cell r="C381">
+            <v>110</v>
+          </cell>
+        </row>
+        <row r="382">
+          <cell r="A382" t="str">
+            <v>856-GB702CHO</v>
+          </cell>
+          <cell r="B382" t="str">
+            <v>GABINETE PARA COCINA 3 GAVETAS, 6 PUERTAS</v>
+          </cell>
+          <cell r="C382">
+            <v>365</v>
+          </cell>
+        </row>
+        <row r="383">
+          <cell r="A383" t="str">
+            <v>856-SKK807CW</v>
+          </cell>
+          <cell r="B383" t="str">
+            <v>GABINETE PARA COCINA 2 GAVETAS , 2 PUERTAS</v>
+          </cell>
+          <cell r="C383">
+            <v>135</v>
+          </cell>
+        </row>
+        <row r="384">
+          <cell r="A384" t="str">
+            <v>856-SKK807BW</v>
+          </cell>
+          <cell r="B384" t="str">
+            <v>GABINETE PARA COCINA 3 GAVETAS , 2 PUERTAS</v>
+          </cell>
+          <cell r="C384">
+            <v>180</v>
+          </cell>
+        </row>
+        <row r="385">
+          <cell r="A385" t="str">
+            <v>GP-DISP/BL</v>
+          </cell>
+          <cell r="B385" t="str">
+            <v xml:space="preserve">DISPENSADOR DE AGUA </v>
+          </cell>
+          <cell r="C385">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="386">
+          <cell r="A386" t="str">
+            <v>800-68564</v>
+          </cell>
+          <cell r="B386" t="str">
+            <v xml:space="preserve">SILLON INFLABLE </v>
+          </cell>
+          <cell r="C386">
+            <v>45</v>
+          </cell>
+        </row>
+        <row r="387">
+          <cell r="A387" t="str">
+            <v>1179-RC</v>
+          </cell>
+          <cell r="B387" t="str">
+            <v xml:space="preserve">CORRAL PARA BEBÉ VERY HAPPY </v>
+          </cell>
+          <cell r="C387">
+            <v>82</v>
+          </cell>
+        </row>
+        <row r="388">
+          <cell r="A388" t="str">
+            <v>1179T</v>
+          </cell>
+          <cell r="B388" t="str">
+            <v xml:space="preserve">CORRAL PARA BEBÉ CON TECHO Y MOSQUITERO </v>
+          </cell>
+          <cell r="C388">
+            <v>82</v>
+          </cell>
+        </row>
+        <row r="389">
+          <cell r="A389" t="str">
+            <v>N/A_0011</v>
+          </cell>
+          <cell r="B389" t="str">
+            <v xml:space="preserve">CORRAL PARA BEBÉ CON TECHO Y MOSQUITERO </v>
+          </cell>
+          <cell r="C389">
+            <v>82</v>
+          </cell>
+        </row>
+        <row r="390">
+          <cell r="A390" t="str">
+            <v>HC05#</v>
+          </cell>
+          <cell r="B390" t="str">
+            <v xml:space="preserve">SET SILLAS DE ESPERA 4 SILLAS </v>
+          </cell>
+          <cell r="C390">
+            <v>240</v>
+          </cell>
+        </row>
+        <row r="391">
+          <cell r="A391" t="str">
+            <v>HC05</v>
+          </cell>
+          <cell r="B391" t="str">
+            <v xml:space="preserve">SET SILLAS DE ESPERA 4 SILLAS </v>
+          </cell>
+          <cell r="C391">
+            <v>240</v>
+          </cell>
+        </row>
+        <row r="392">
+          <cell r="A392" t="str">
+            <v>827582CM</v>
+          </cell>
+          <cell r="B392" t="str">
+            <v xml:space="preserve">SOFA DE DEDOS </v>
+          </cell>
+          <cell r="C392">
+            <v>135</v>
+          </cell>
+        </row>
+        <row r="393">
+          <cell r="A393" t="str">
+            <v>800-68563</v>
+          </cell>
+          <cell r="B393" t="str">
+            <v xml:space="preserve">SILLON INFLABLE </v>
+          </cell>
+          <cell r="C393">
+            <v>38</v>
+          </cell>
+        </row>
+        <row r="394">
+          <cell r="A394" t="str">
+            <v>800-66929</v>
+          </cell>
+          <cell r="B394" t="str">
+            <v xml:space="preserve">COLCHON INFLABLE </v>
+          </cell>
+          <cell r="C394">
+            <v>38</v>
+          </cell>
+        </row>
+        <row r="395">
+          <cell r="A395" t="str">
+            <v>1275-18</v>
+          </cell>
+          <cell r="B395" t="str">
+            <v>SILLA PARA BEBÉ PARA AUTOMOVIL</v>
+          </cell>
+          <cell r="C395">
+            <v>98</v>
+          </cell>
+        </row>
+        <row r="396">
+          <cell r="A396" t="str">
+            <v>ES6500</v>
+          </cell>
+          <cell r="B396" t="str">
+            <v xml:space="preserve">GENERADOR ELECTRICA YAMAHA </v>
+          </cell>
+          <cell r="C396">
+            <v>1200</v>
+          </cell>
+        </row>
+        <row r="397">
+          <cell r="A397" t="str">
+            <v>EX260</v>
+          </cell>
+          <cell r="B397" t="str">
+            <v>BOMBA DE AGUA HONDA</v>
+          </cell>
+          <cell r="C397">
+            <v>700</v>
+          </cell>
+        </row>
+        <row r="398">
+          <cell r="A398" t="str">
+            <v>USP-1801</v>
+          </cell>
+          <cell r="B398" t="str">
+            <v xml:space="preserve">ABANICO DE PEDESTAL STAR PLUS </v>
+          </cell>
+          <cell r="C398">
+            <v>48</v>
+          </cell>
+        </row>
+        <row r="399">
+          <cell r="A399" t="str">
+            <v>D158812</v>
+          </cell>
+          <cell r="B399" t="str">
+            <v xml:space="preserve">CARRO ELECTRICO PARA NIÑO </v>
+          </cell>
+          <cell r="C399">
+            <v>168</v>
+          </cell>
+        </row>
+        <row r="400">
+          <cell r="A400" t="str">
+            <v>SW09396</v>
+          </cell>
+          <cell r="B400" t="str">
+            <v xml:space="preserve">JEEP ELECTRICO MRANGLER PARA NIÑO </v>
+          </cell>
+          <cell r="C400">
+            <v>220</v>
+          </cell>
+        </row>
+        <row r="401">
+          <cell r="A401" t="str">
+            <v>DK-F002</v>
+          </cell>
+          <cell r="B401" t="str">
+            <v xml:space="preserve">CARRO ELECTRICO  PARA NIÑO </v>
+          </cell>
+          <cell r="C401">
+            <v>240.99</v>
+          </cell>
+        </row>
+        <row r="402">
+          <cell r="A402" t="str">
+            <v>MG-6001</v>
+          </cell>
+          <cell r="B402" t="str">
+            <v>CUNA PARA BEBÉ</v>
+          </cell>
+          <cell r="C402">
+            <v>110</v>
+          </cell>
+        </row>
+        <row r="403">
+          <cell r="A403" t="str">
+            <v>678-L1029020004</v>
+          </cell>
+          <cell r="B403" t="str">
+            <v>CUNA PARA BEBÉ</v>
+          </cell>
+          <cell r="C403">
+            <v>92</v>
+          </cell>
+        </row>
+        <row r="404">
+          <cell r="A404" t="str">
+            <v>MBSX1528</v>
+          </cell>
+          <cell r="B404" t="str">
+            <v>CARRO ELECRICO  HURRICANE PARA NIÑO</v>
+          </cell>
+          <cell r="C404">
+            <v>299</v>
+          </cell>
+        </row>
+        <row r="405">
+          <cell r="A405" t="str">
+            <v>XHZ-A068</v>
+          </cell>
+          <cell r="B405" t="str">
+            <v xml:space="preserve">JEEP ELECTRICO UNDER PARA NIÑO </v>
+          </cell>
+          <cell r="C405">
+            <v>247</v>
+          </cell>
+        </row>
+        <row r="406">
+          <cell r="A406" t="str">
+            <v>856-90125224</v>
+          </cell>
+          <cell r="B406" t="str">
+            <v xml:space="preserve">ARCHIVADOR 2 GAVETAS </v>
+          </cell>
+          <cell r="C406">
+            <v>185</v>
+          </cell>
+        </row>
+        <row r="407">
+          <cell r="A407" t="str">
+            <v>SCH-02</v>
+          </cell>
+          <cell r="B407" t="str">
+            <v xml:space="preserve">MESA PARA CENTRO </v>
+          </cell>
+          <cell r="C407">
+            <v>150</v>
+          </cell>
+        </row>
+        <row r="408">
+          <cell r="A408" t="str">
+            <v>AD0256</v>
+          </cell>
+          <cell r="B408" t="str">
+            <v>SILLA PARA ESPERA</v>
+          </cell>
+          <cell r="C408">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="409">
+          <cell r="A409" t="str">
+            <v>851-991219CH</v>
+          </cell>
+          <cell r="B409" t="str">
+            <v xml:space="preserve">SILLA PARA BAR </v>
+          </cell>
+          <cell r="C409">
+            <v>48</v>
+          </cell>
+        </row>
+        <row r="410">
+          <cell r="A410" t="str">
+            <v>801-13059662</v>
+          </cell>
+          <cell r="B410" t="str">
+            <v xml:space="preserve">SCOOTER PARA NIÑA </v>
+          </cell>
+          <cell r="C410">
+            <v>68</v>
+          </cell>
+        </row>
+        <row r="411">
+          <cell r="A411" t="str">
+            <v>801-28815Y</v>
+          </cell>
+          <cell r="B411" t="str">
+            <v xml:space="preserve">SCOOTER PARA NIÑA </v>
+          </cell>
+          <cell r="C411">
+            <v>70</v>
+          </cell>
+        </row>
+        <row r="412">
+          <cell r="A412" t="str">
+            <v>802-18510004</v>
+          </cell>
+          <cell r="B412" t="str">
+            <v>BICICLETA PARA NIÑO AVANTI</v>
+          </cell>
+          <cell r="C412">
+            <v>92</v>
+          </cell>
+        </row>
+        <row r="413">
+          <cell r="A413" t="str">
+            <v>802-18510009</v>
+          </cell>
+          <cell r="B413" t="str">
+            <v>BICICLETA PARA NIÑO AVANTI</v>
+          </cell>
+          <cell r="C413">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="414">
+          <cell r="A414" t="str">
+            <v>N/A_0012</v>
+          </cell>
+          <cell r="B414" t="str">
+            <v>SCOOTER PARA NIÑO KIXI</v>
+          </cell>
+          <cell r="C414">
+            <v>79</v>
+          </cell>
+        </row>
+        <row r="415">
+          <cell r="A415" t="str">
+            <v>N/A_0013</v>
+          </cell>
+          <cell r="B415" t="str">
+            <v>MOTO ELECTRICA PARA NIÑO XREADY</v>
+          </cell>
+          <cell r="C415">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="416">
+          <cell r="A416" t="str">
+            <v>HZ-1150</v>
+          </cell>
+          <cell r="B416" t="str">
+            <v xml:space="preserve">ANDARIBEL PARA NIÑO </v>
+          </cell>
+          <cell r="C416">
+            <v>68</v>
+          </cell>
+        </row>
+        <row r="417">
+          <cell r="A417" t="str">
+            <v>677-10844</v>
+          </cell>
+          <cell r="B417" t="str">
+            <v xml:space="preserve">ANDARIBEL PARA NIÑO </v>
+          </cell>
+          <cell r="C417">
+            <v>55</v>
+          </cell>
+        </row>
+        <row r="418">
+          <cell r="A418" t="str">
+            <v>851-9096769</v>
+          </cell>
+          <cell r="B418" t="str">
+            <v xml:space="preserve">SILLON PARA NIÑO </v>
+          </cell>
+          <cell r="C418">
+            <v>68</v>
+          </cell>
+        </row>
+        <row r="419">
+          <cell r="A419" t="str">
+            <v>69538698828888</v>
+          </cell>
+          <cell r="B419" t="str">
+            <v>SILLAS PARA NIÑO</v>
+          </cell>
+          <cell r="C419">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="420">
+          <cell r="A420" t="str">
+            <v>KTC-98</v>
+          </cell>
+          <cell r="B420" t="str">
+            <v xml:space="preserve">SET COCHE PARA BEBE </v>
+          </cell>
+          <cell r="C420">
+            <v>198</v>
+          </cell>
+        </row>
+        <row r="421">
+          <cell r="A421" t="str">
+            <v>N/A_0014</v>
+          </cell>
+          <cell r="B421" t="str">
+            <v xml:space="preserve">SET COCHE PARA BEBE </v>
+          </cell>
+          <cell r="C421">
+            <v>168</v>
+          </cell>
+        </row>
+        <row r="422">
+          <cell r="A422" t="str">
+            <v>N/A_0015</v>
+          </cell>
+          <cell r="B422" t="str">
+            <v xml:space="preserve">SET COCHE PARA BEBE </v>
+          </cell>
+          <cell r="C422">
+            <v>168</v>
+          </cell>
+        </row>
+        <row r="423">
+          <cell r="A423" t="str">
+            <v>316</v>
+          </cell>
+          <cell r="B423" t="str">
+            <v>INODORO PARA BEBE</v>
+          </cell>
+          <cell r="C423">
+            <v>24</v>
+          </cell>
+        </row>
+        <row r="424">
+          <cell r="A424" t="str">
+            <v>679-L-103501002</v>
+          </cell>
+          <cell r="B424" t="str">
+            <v xml:space="preserve">SILLA PARA BEBE </v>
+          </cell>
+          <cell r="C424">
+            <v>70</v>
+          </cell>
+        </row>
+        <row r="425">
+          <cell r="A425" t="str">
+            <v>N/A_0016</v>
+          </cell>
+          <cell r="B425" t="str">
+            <v>COCHE PARA BEBE GEMELOS INFACTEC</v>
+          </cell>
+          <cell r="C425">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="426">
+          <cell r="A426" t="str">
+            <v>SK-2400-178</v>
+          </cell>
+          <cell r="B426" t="str">
+            <v>SILLA PARA BEBE STORK</v>
+          </cell>
+          <cell r="C426">
+            <v>46</v>
+          </cell>
+        </row>
+        <row r="427">
+          <cell r="A427" t="str">
+            <v>851-L11710036</v>
+          </cell>
+          <cell r="B427" t="str">
+            <v>JUEGO DE MESA CON SILLAS PARA NIÑOS</v>
+          </cell>
+          <cell r="C427">
+            <v>52</v>
+          </cell>
+        </row>
+        <row r="428">
+          <cell r="A428" t="str">
+            <v>851-L11710039</v>
+          </cell>
+          <cell r="B428" t="str">
+            <v>JUEGO DE MESA CON SILLAS PARA NIÑOS FALLADO UTIE BABY</v>
+          </cell>
+          <cell r="C428">
+            <v>52</v>
+          </cell>
+        </row>
+        <row r="429">
+          <cell r="A429" t="str">
+            <v>N/A_0017</v>
+          </cell>
+          <cell r="B429" t="str">
+            <v xml:space="preserve">BICICLETA NITRO </v>
+          </cell>
+          <cell r="C429">
+            <v>68</v>
+          </cell>
+        </row>
+        <row r="430">
+          <cell r="A430" t="str">
+            <v>N/A_0018</v>
+          </cell>
+          <cell r="B430" t="str">
+            <v xml:space="preserve">BICICLETA NITRO </v>
+          </cell>
+          <cell r="C430">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="431">
+          <cell r="A431" t="str">
+            <v>11210059</v>
+          </cell>
+          <cell r="B431" t="str">
+            <v>MALETA POLO ORIGINAL</v>
+          </cell>
+          <cell r="C431">
+            <v>110</v>
+          </cell>
+        </row>
+        <row r="432">
+          <cell r="A432" t="str">
+            <v>L1121024</v>
+          </cell>
+          <cell r="B432" t="str">
+            <v>MALETA POLO ORIGINAL</v>
+          </cell>
+          <cell r="C432">
+            <v>110</v>
+          </cell>
+        </row>
+        <row r="433">
+          <cell r="A433" t="str">
+            <v>11210058</v>
+          </cell>
+          <cell r="B433" t="str">
+            <v>MALETA POLO ORIGINAL</v>
+          </cell>
+          <cell r="C433">
+            <v>110</v>
+          </cell>
+        </row>
+        <row r="434">
+          <cell r="A434" t="str">
+            <v>DS7549R</v>
+          </cell>
+          <cell r="B434" t="str">
+            <v>MALETA BUNGY SPORT</v>
+          </cell>
+          <cell r="C434">
+            <v>24</v>
+          </cell>
+        </row>
+        <row r="435">
+          <cell r="A435" t="str">
+            <v>N/A_0019</v>
+          </cell>
+          <cell r="B435" t="str">
+            <v xml:space="preserve">MALETA NICABAG PEQUEÑA </v>
+          </cell>
+          <cell r="C435">
+            <v>34</v>
+          </cell>
+        </row>
+        <row r="436">
+          <cell r="A436" t="str">
+            <v>N/A_0020</v>
+          </cell>
+          <cell r="B436" t="str">
+            <v>MALETA NICABAG GRANDE</v>
+          </cell>
+          <cell r="C436">
+            <v>38</v>
+          </cell>
+        </row>
+        <row r="437">
+          <cell r="A437" t="str">
+            <v>DS6091AZ-18</v>
+          </cell>
+          <cell r="B437" t="str">
+            <v>MALETA BUNGY SPORT</v>
+          </cell>
+          <cell r="C437">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="438">
+          <cell r="A438" t="str">
+            <v>DS7096N</v>
+          </cell>
+          <cell r="B438" t="str">
+            <v>MALETA BUNGY SPORT</v>
+          </cell>
+          <cell r="C438">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="439">
+          <cell r="A439" t="str">
+            <v>N/A_0021</v>
+          </cell>
+          <cell r="B439" t="str">
+            <v>MALETA NICABAGS MEDIANA</v>
+          </cell>
+          <cell r="C439">
+            <v>36</v>
+          </cell>
+        </row>
+        <row r="440">
+          <cell r="A440" t="str">
+            <v>21-1033</v>
+          </cell>
+          <cell r="B440" t="str">
+            <v xml:space="preserve">SET CORTINA CON  VELO MIEL HOME </v>
+          </cell>
+          <cell r="C440">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="441">
+          <cell r="A441" t="str">
+            <v>XC1102</v>
+          </cell>
+          <cell r="B441" t="str">
+            <v xml:space="preserve">SET CORTINA CRISTAL </v>
+          </cell>
+          <cell r="C441">
+            <v>14</v>
+          </cell>
+        </row>
+        <row r="442">
+          <cell r="A442" t="str">
+            <v>21-1016</v>
+          </cell>
+          <cell r="B442" t="str">
+            <v xml:space="preserve">SET CORTINAS MIEL HOME </v>
+          </cell>
+          <cell r="C442">
+            <v>19</v>
+          </cell>
+        </row>
+        <row r="443">
+          <cell r="A443" t="str">
+            <v>21-1007</v>
+          </cell>
+          <cell r="B443" t="str">
+            <v xml:space="preserve">SET CORTINAS MIEL HOME </v>
+          </cell>
+          <cell r="C443">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="444">
+          <cell r="A444" t="str">
+            <v>76800104</v>
+          </cell>
+          <cell r="B444" t="str">
+            <v>CORTINA PARA BAÑO  PACIFIC CLUB</v>
+          </cell>
+          <cell r="C444">
+            <v>9.5</v>
+          </cell>
+        </row>
+        <row r="445">
+          <cell r="A445" t="str">
+            <v>L7680067</v>
+          </cell>
+          <cell r="B445" t="str">
+            <v>CORTINA PARA BAÑO  PACIFIC CLUB</v>
+          </cell>
+          <cell r="C445">
+            <v>18</v>
+          </cell>
+        </row>
+        <row r="446">
+          <cell r="A446" t="str">
+            <v>711-90132540</v>
+          </cell>
+          <cell r="B446" t="str">
+            <v>SET CORTINA PARA BAÑO HOME LIVING</v>
+          </cell>
+          <cell r="C446">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="447">
+          <cell r="A447" t="str">
+            <v>711-90139167</v>
+          </cell>
+          <cell r="B447" t="str">
+            <v>CORTINA PARA BAÑO  PACIFIC CLUB</v>
+          </cell>
+          <cell r="C447">
+            <v>4.5</v>
+          </cell>
+        </row>
+        <row r="448">
+          <cell r="A448" t="str">
+            <v>21-1025</v>
+          </cell>
+          <cell r="B448" t="str">
+            <v>CORTINA MIEL HOME</v>
+          </cell>
+          <cell r="C448">
+            <v>4.5</v>
+          </cell>
+        </row>
+        <row r="449">
+          <cell r="A449" t="str">
+            <v>711-90139194</v>
+          </cell>
+          <cell r="B449" t="str">
+            <v xml:space="preserve">JUEGO DE BAÑO CORTINA Y ALFOMBRAS </v>
+          </cell>
+          <cell r="C449">
+            <v>19.5</v>
+          </cell>
+        </row>
+        <row r="450">
+          <cell r="A450" t="str">
+            <v>21-1027</v>
+          </cell>
+          <cell r="B450" t="str">
+            <v>SET SABANAS Y CORTINAS</v>
+          </cell>
+          <cell r="C450">
+            <v>22</v>
+          </cell>
+        </row>
+        <row r="451">
+          <cell r="A451" t="str">
+            <v>21-1048</v>
+          </cell>
+          <cell r="B451" t="str">
+            <v>SET DE SABANAS</v>
+          </cell>
+          <cell r="C451">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="452">
+          <cell r="A452" t="str">
+            <v>B-SABK100P</v>
+          </cell>
+          <cell r="B452" t="str">
+            <v>SET DE SABANAS PASION GUAJIRA</v>
+          </cell>
+          <cell r="C452">
+            <v>19</v>
+          </cell>
+        </row>
+        <row r="453">
+          <cell r="A453" t="str">
+            <v>21-1037</v>
+          </cell>
+          <cell r="B453" t="str">
+            <v>SET DE SABANAS MIEL HOME</v>
+          </cell>
+          <cell r="C453">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="454">
+          <cell r="A454" t="str">
+            <v>21-1026</v>
+          </cell>
+          <cell r="B454" t="str">
+            <v>SET DE SABANAS MIEL HOME</v>
+          </cell>
+          <cell r="C454">
+            <v>6.5</v>
+          </cell>
+        </row>
+        <row r="455">
+          <cell r="A455" t="str">
+            <v>LF0176</v>
+          </cell>
+          <cell r="B455" t="str">
+            <v>MANTEL BORDADO</v>
+          </cell>
+          <cell r="C455">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="456">
+          <cell r="A456" t="str">
+            <v>BD-1002</v>
+          </cell>
+          <cell r="B456" t="str">
+            <v>JUEGO DE SABANAS MI CASA D ORO</v>
+          </cell>
+          <cell r="C456">
+            <v>19</v>
+          </cell>
+        </row>
+        <row r="457">
+          <cell r="A457" t="str">
+            <v>SDX1800</v>
+          </cell>
+          <cell r="B457" t="str">
+            <v>JUEGO DE SABANAS SAMAR DELUXE</v>
+          </cell>
+          <cell r="C457">
+            <v>28</v>
+          </cell>
+        </row>
+        <row r="458">
+          <cell r="A458" t="str">
+            <v>48-015</v>
+          </cell>
+          <cell r="B458" t="str">
+            <v>JUEGO DE SABANAS MIEL HOME</v>
+          </cell>
+          <cell r="C458">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="459">
+          <cell r="A459" t="str">
+            <v>KIN-BS-1</v>
+          </cell>
+          <cell r="B459" t="str">
+            <v>JUEGO DE SABANAS EL MEJOR HOGAR</v>
+          </cell>
+          <cell r="C459">
+            <v>28</v>
+          </cell>
+        </row>
+        <row r="460">
+          <cell r="A460" t="str">
+            <v>SAB101</v>
+          </cell>
+          <cell r="B460" t="str">
+            <v>COLCHA SABATINI ANTIALERGICA</v>
+          </cell>
+          <cell r="C460">
+            <v>24</v>
+          </cell>
+        </row>
+        <row r="461">
+          <cell r="A461" t="str">
+            <v>ZT-14003</v>
+          </cell>
+          <cell r="B461" t="str">
+            <v xml:space="preserve">COLCHA PIEL INTIMA DELUXE </v>
+          </cell>
+          <cell r="C461">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="462">
+          <cell r="A462" t="str">
+            <v>ZY037</v>
+          </cell>
+          <cell r="B462" t="str">
+            <v>COLCHA ANTIALERGICA CAMAZONA PIEL DURAZNO</v>
+          </cell>
+          <cell r="C462">
+            <v>9.5</v>
+          </cell>
+        </row>
+        <row r="463">
+          <cell r="A463" t="str">
+            <v>21-1017</v>
+          </cell>
+          <cell r="B463" t="str">
+            <v xml:space="preserve">SET CORTINAS MIEL HOME </v>
+          </cell>
+          <cell r="C463">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="464">
+          <cell r="A464" t="str">
+            <v>A1665010003-Q</v>
+          </cell>
+          <cell r="B464" t="str">
+            <v>SET EDREDON PALM SPRIMS</v>
+          </cell>
+          <cell r="C464">
+            <v>79</v>
+          </cell>
+        </row>
+        <row r="465">
+          <cell r="A465" t="str">
+            <v>724003207</v>
+          </cell>
+          <cell r="B465" t="str">
+            <v xml:space="preserve">SET EDREDON MONICA </v>
+          </cell>
+          <cell r="C465">
+            <v>79</v>
+          </cell>
+        </row>
+        <row r="466">
+          <cell r="A466" t="str">
+            <v>MLK001-M</v>
+          </cell>
+          <cell r="B466" t="str">
+            <v>SET SABANA CASA VERANO</v>
+          </cell>
+          <cell r="C466">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="467">
+          <cell r="A467" t="str">
+            <v>002145</v>
+          </cell>
+          <cell r="B467" t="str">
+            <v xml:space="preserve">ALMOHADA REGAL </v>
+          </cell>
+          <cell r="C467">
+            <v>6.5</v>
+          </cell>
+        </row>
+        <row r="468">
+          <cell r="A468" t="str">
+            <v>A1637024</v>
+          </cell>
+          <cell r="B468" t="str">
+            <v>SET DE EDREDON PALM SPRINGS</v>
+          </cell>
+          <cell r="C468">
+            <v>58</v>
+          </cell>
+        </row>
+        <row r="469">
+          <cell r="A469" t="str">
+            <v>515323</v>
+          </cell>
+          <cell r="B469" t="str">
+            <v>SET EDREDON CON SABANA SUZZAN</v>
+          </cell>
+          <cell r="C469">
+            <v>28</v>
+          </cell>
+        </row>
+        <row r="470">
+          <cell r="A470" t="str">
+            <v>A1580004</v>
+          </cell>
+          <cell r="B470" t="str">
+            <v>SET DE EDREDON PALM SPRINGS</v>
+          </cell>
+          <cell r="C470">
+            <v>58</v>
+          </cell>
+        </row>
+        <row r="471">
+          <cell r="A471" t="str">
+            <v>A1344001K</v>
+          </cell>
+          <cell r="B471" t="str">
+            <v>SET EDREDONCPALM SPRINGS</v>
+          </cell>
+          <cell r="C471">
+            <v>52</v>
+          </cell>
+        </row>
+        <row r="472">
+          <cell r="A472" t="str">
+            <v>CUB-KAM-AZUL-12</v>
+          </cell>
+          <cell r="B472" t="str">
+            <v>SET EDREDON SANMUKA</v>
+          </cell>
+          <cell r="C472">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="473">
+          <cell r="A473" t="str">
+            <v>A1981012</v>
+          </cell>
+          <cell r="B473" t="str">
+            <v>SET DE EDREDON PALM SPRINGS</v>
+          </cell>
+          <cell r="C473">
+            <v>79</v>
+          </cell>
+        </row>
+        <row r="474">
+          <cell r="A474" t="str">
+            <v>053-90132255</v>
+          </cell>
+          <cell r="B474" t="str">
+            <v>SOMBRILLA PICALLINI DOBLE FORRO</v>
+          </cell>
+          <cell r="C474">
+            <v>8.99</v>
+          </cell>
+        </row>
+        <row r="475">
+          <cell r="A475" t="str">
+            <v>HM-2314</v>
+          </cell>
+          <cell r="B475" t="str">
+            <v>SOMBRILLA HORUS DOBLE FORRO</v>
+          </cell>
+          <cell r="C475">
+            <v>8.99</v>
+          </cell>
+        </row>
+        <row r="476">
+          <cell r="A476" t="str">
+            <v>053-9083000</v>
+          </cell>
+          <cell r="B476" t="str">
+            <v>SOMBRILLA DESIGNER TRIPLE FORRO</v>
+          </cell>
+          <cell r="C476">
+            <v>7.99</v>
+          </cell>
+        </row>
+        <row r="477">
+          <cell r="A477" t="str">
+            <v>DS6091GR-24</v>
+          </cell>
+          <cell r="B477" t="str">
+            <v>MALETA BUNGY SPORT</v>
+          </cell>
+          <cell r="C477">
+            <v>24</v>
+          </cell>
+        </row>
+        <row r="478">
+          <cell r="A478" t="str">
+            <v>DS6091GR-20</v>
+          </cell>
+          <cell r="B478" t="str">
+            <v>MALETA BUNGY SPORT</v>
+          </cell>
+          <cell r="C478">
+            <v>22</v>
+          </cell>
+        </row>
+        <row r="479">
+          <cell r="A479" t="str">
+            <v>DS6091CH-24</v>
+          </cell>
+          <cell r="B479" t="str">
+            <v>MALETA BUNGY SPORT</v>
+          </cell>
+          <cell r="C479">
+            <v>24</v>
+          </cell>
+        </row>
+        <row r="480">
+          <cell r="A480" t="str">
+            <v>DS6091CH-20</v>
+          </cell>
+          <cell r="B480" t="str">
+            <v>MALETA BUNGY SPORT</v>
+          </cell>
+          <cell r="C480">
+            <v>22</v>
+          </cell>
+        </row>
+        <row r="481">
+          <cell r="A481" t="str">
+            <v>507A-19</v>
+          </cell>
+          <cell r="B481" t="str">
+            <v xml:space="preserve">MALETA TORNADO </v>
+          </cell>
+          <cell r="C481">
+            <v>34</v>
+          </cell>
+        </row>
+        <row r="482">
+          <cell r="A482" t="str">
+            <v>507A-16</v>
+          </cell>
+          <cell r="B482" t="str">
+            <v xml:space="preserve">MALETA TORNADO </v>
+          </cell>
+          <cell r="C482">
+            <v>23</v>
+          </cell>
+        </row>
+        <row r="483">
+          <cell r="A483" t="str">
+            <v>EC-1321</v>
+          </cell>
+          <cell r="B483" t="str">
+            <v>PANAS DE VIDRIO</v>
+          </cell>
+          <cell r="C483">
+            <v>5.5</v>
+          </cell>
+        </row>
+        <row r="484">
+          <cell r="A484" t="str">
+            <v>750-IC-11/2-1WP</v>
+          </cell>
+          <cell r="B484" t="str">
+            <v>COPAS DE HELADO FREEZY</v>
+          </cell>
+          <cell r="C484">
+            <v>4.5</v>
+          </cell>
+        </row>
+        <row r="485">
+          <cell r="A485" t="str">
+            <v>N1070039</v>
+          </cell>
+          <cell r="B485" t="str">
+            <v>SET VASO DE VIDRIO HARTIN</v>
+          </cell>
+          <cell r="C485">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="486">
+          <cell r="A486" t="str">
+            <v>N/A_0022</v>
+          </cell>
+          <cell r="B486" t="str">
+            <v>VASO DE VIDRIO</v>
+          </cell>
+          <cell r="C486">
+            <v>1.8</v>
+          </cell>
+        </row>
+        <row r="487">
+          <cell r="A487" t="str">
+            <v>707-31604</v>
+          </cell>
+          <cell r="B487" t="str">
+            <v>HIELERA PEQUEÑA LIFE ART</v>
+          </cell>
+          <cell r="C487">
+            <v>3.5</v>
+          </cell>
+        </row>
+        <row r="488">
+          <cell r="A488" t="str">
+            <v>723-20620018</v>
+          </cell>
+          <cell r="B488" t="str">
+            <v>VASOS TRANSPARENTES LIFE ART</v>
+          </cell>
+          <cell r="C488">
+            <v>2.95</v>
+          </cell>
+        </row>
+        <row r="489">
+          <cell r="A489" t="str">
+            <v>723-20730019</v>
+          </cell>
+          <cell r="B489" t="str">
+            <v>COPAS TRANSPARENTES LIFE ART</v>
+          </cell>
+          <cell r="C489">
+            <v>2.4</v>
+          </cell>
+        </row>
+        <row r="490">
+          <cell r="A490" t="str">
+            <v>727-SW112461</v>
+          </cell>
+          <cell r="B490" t="str">
+            <v>SET TAZA CON PLATO HARTIN</v>
+          </cell>
+          <cell r="C490">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="491">
+          <cell r="A491" t="str">
+            <v>727-31294</v>
+          </cell>
+          <cell r="B491" t="str">
+            <v xml:space="preserve">SET TAZA PARA CAFÉ </v>
+          </cell>
+          <cell r="C491">
+            <v>6.5</v>
+          </cell>
+        </row>
+        <row r="492">
+          <cell r="A492" t="str">
+            <v>2203</v>
+          </cell>
+          <cell r="B492" t="str">
+            <v xml:space="preserve">SET TAZA PARA CAFÉ </v>
+          </cell>
+          <cell r="C492">
+            <v>7.46</v>
+          </cell>
+        </row>
+        <row r="493">
+          <cell r="A493" t="str">
+            <v>2201</v>
+          </cell>
+          <cell r="B493" t="str">
+            <v xml:space="preserve">SET TAZA PARA CAFÉ </v>
+          </cell>
+          <cell r="C493">
+            <v>7.46</v>
+          </cell>
+        </row>
+        <row r="494">
+          <cell r="A494" t="str">
+            <v>322</v>
+          </cell>
+          <cell r="B494" t="str">
+            <v>SECADOR PARA EL CABELLO INFINITI PRO 1875 VATIOS</v>
+          </cell>
+          <cell r="C494">
+            <v>52</v>
+          </cell>
+        </row>
+        <row r="495">
+          <cell r="A495" t="str">
+            <v>PISCES</v>
+          </cell>
+          <cell r="B495" t="str">
+            <v xml:space="preserve">MAQUINA PARA RASURAR PELO TAURUS </v>
+          </cell>
+          <cell r="C495">
+            <v>32</v>
+          </cell>
+        </row>
+        <row r="496">
+          <cell r="A496" t="str">
+            <v>HYDRA</v>
+          </cell>
+          <cell r="B496" t="str">
+            <v xml:space="preserve">ALACEDORA Y RIZADORA DE CABELLO HYDRA TAURUS RECUBRIMIENTO DE CERAMICA </v>
+          </cell>
+          <cell r="C496">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="497">
+          <cell r="A497" t="str">
+            <v>S-8001</v>
+          </cell>
+          <cell r="B497" t="str">
+            <v xml:space="preserve">PLANCHA PARA PELO REMINGTONG </v>
+          </cell>
+          <cell r="C497">
+            <v>48</v>
+          </cell>
+        </row>
+        <row r="498">
+          <cell r="A498" t="str">
+            <v>26269</v>
+          </cell>
+          <cell r="B498" t="str">
+            <v>PLANCHA PARA PELO PRITECH</v>
+          </cell>
+          <cell r="C498">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="499">
+          <cell r="A499" t="str">
+            <v>9686</v>
+          </cell>
+          <cell r="B499" t="str">
+            <v>RASURADORA WAHL</v>
+          </cell>
+          <cell r="C499">
+            <v>65</v>
+          </cell>
+        </row>
+        <row r="500">
+          <cell r="A500" t="str">
+            <v>ES2206</v>
+          </cell>
+          <cell r="B500" t="str">
+            <v>RASURADORA PARA MUJER/ HUMEDO, SECO PANASONIC</v>
+          </cell>
+          <cell r="C500">
+            <v>45</v>
+          </cell>
+        </row>
+        <row r="501">
+          <cell r="A501" t="str">
+            <v>CH95RW</v>
+          </cell>
+          <cell r="B501" t="str">
+            <v>RASURADORA CONAIR</v>
+          </cell>
+          <cell r="C501">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="502">
+          <cell r="A502" t="str">
+            <v>DY-HD330A</v>
+          </cell>
+          <cell r="B502" t="str">
+            <v xml:space="preserve">SECADOR PARA EL CABELLO DAYLI </v>
+          </cell>
+          <cell r="C502">
+            <v>13.5</v>
+          </cell>
+        </row>
+        <row r="503">
+          <cell r="A503" t="str">
+            <v>W-757</v>
+          </cell>
+          <cell r="B503" t="str">
+            <v>SET DE SARTEN SANKEY</v>
+          </cell>
+          <cell r="C503">
+            <v>132</v>
+          </cell>
+        </row>
+        <row r="504">
+          <cell r="A504" t="str">
+            <v>80138</v>
+          </cell>
+          <cell r="B504" t="str">
+            <v>SET DE SARTEN TRAMONTINA</v>
+          </cell>
+          <cell r="C504">
+            <v>132</v>
+          </cell>
+        </row>
+        <row r="505">
+          <cell r="A505" t="str">
+            <v>313177</v>
+          </cell>
+          <cell r="B505" t="str">
+            <v>SET TAZA CON PLATO</v>
+          </cell>
+          <cell r="C505">
+            <v>5.5</v>
+          </cell>
+        </row>
+        <row r="506">
+          <cell r="A506" t="str">
+            <v>313115</v>
+          </cell>
+          <cell r="B506" t="str">
+            <v>SET TAZA CON PLATO COFFEE</v>
+          </cell>
+          <cell r="C506">
+            <v>5.5</v>
+          </cell>
+        </row>
+        <row r="507">
+          <cell r="A507" t="str">
+            <v>313139</v>
+          </cell>
+          <cell r="B507" t="str">
+            <v xml:space="preserve">SET TAZA  CON PLATO </v>
+          </cell>
+          <cell r="C507">
+            <v>5.5</v>
+          </cell>
+        </row>
+        <row r="508">
+          <cell r="A508" t="str">
+            <v>313146</v>
+          </cell>
+          <cell r="B508" t="str">
+            <v xml:space="preserve">SET TAZA  CON PLATO </v>
+          </cell>
+          <cell r="C508">
+            <v>5.5</v>
+          </cell>
+        </row>
+        <row r="509">
+          <cell r="A509" t="str">
+            <v>139-009</v>
+          </cell>
+          <cell r="B509" t="str">
+            <v>SARTEN MEDIANO ESSENTIAL PASSION</v>
+          </cell>
+          <cell r="C509">
+            <v>28</v>
+          </cell>
+        </row>
+        <row r="510">
+          <cell r="A510" t="str">
+            <v>FP22-20</v>
+          </cell>
+          <cell r="B510" t="str">
+            <v xml:space="preserve">SARTEN PEQUEÑA DAILY </v>
+          </cell>
+          <cell r="C510">
+            <v>7.5</v>
+          </cell>
+        </row>
+        <row r="511">
+          <cell r="A511" t="str">
+            <v>107726</v>
+          </cell>
+          <cell r="B511" t="str">
+            <v xml:space="preserve">GUANTE PARA COCINA BEAUTIFUL HOME </v>
+          </cell>
+          <cell r="C511">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="512">
+          <cell r="A512" t="str">
+            <v>IT0028</v>
+          </cell>
+          <cell r="B512" t="str">
+            <v>VAJILLA HARTIN</v>
+          </cell>
+          <cell r="C512">
+            <v>38</v>
+          </cell>
+        </row>
+        <row r="513">
+          <cell r="A513" t="str">
+            <v>RD4507</v>
+          </cell>
+          <cell r="B513" t="str">
+            <v>VAJILLA HARTIN</v>
+          </cell>
+          <cell r="C513">
+            <v>95</v>
+          </cell>
+        </row>
+        <row r="514">
+          <cell r="A514" t="str">
+            <v>705-2936</v>
+          </cell>
+          <cell r="B514" t="str">
+            <v>VAJILLA HARTIN</v>
+          </cell>
+          <cell r="C514">
+            <v>98</v>
+          </cell>
+        </row>
+        <row r="515">
+          <cell r="A515" t="str">
+            <v>WKRCN15</v>
+          </cell>
+          <cell r="B515" t="str">
+            <v>ARROCERA WESTINGHOUSE</v>
+          </cell>
+          <cell r="C515">
+            <v>22</v>
+          </cell>
+        </row>
+        <row r="516">
+          <cell r="A516" t="str">
+            <v>L616887/0114</v>
+          </cell>
+          <cell r="B516" t="str">
+            <v>OLLA DE PRESION AETERNUM</v>
+          </cell>
+          <cell r="C516">
+            <v>90</v>
+          </cell>
+        </row>
+        <row r="517">
+          <cell r="A517" t="str">
+            <v>BY-PC820</v>
+          </cell>
+          <cell r="B517" t="str">
+            <v xml:space="preserve">OLLA DE PRESION PRESSURE COOKER </v>
+          </cell>
+          <cell r="C517">
+            <v>22</v>
+          </cell>
+        </row>
+        <row r="518">
+          <cell r="A518" t="str">
+            <v>652831</v>
+          </cell>
+          <cell r="B518" t="str">
+            <v>ARROCERA DIGITAL MULTIUSO EVERSTAR</v>
+          </cell>
+          <cell r="C518">
+            <v>58</v>
+          </cell>
+        </row>
+        <row r="519">
+          <cell r="A519" t="str">
+            <v>L618289/1214</v>
+          </cell>
+          <cell r="B519" t="str">
+            <v>JUEGO DE OLLAS AETERNUM</v>
+          </cell>
+          <cell r="C519">
+            <v>244</v>
+          </cell>
+        </row>
+        <row r="520">
+          <cell r="A520" t="str">
+            <v>L621387/3914</v>
+          </cell>
+          <cell r="B520" t="str">
+            <v>JUEGO DE OLLAS AETERNUM</v>
+          </cell>
+          <cell r="C520">
+            <v>280</v>
+          </cell>
+        </row>
+        <row r="521">
+          <cell r="A521" t="str">
+            <v>SW10754</v>
+          </cell>
+          <cell r="B521" t="str">
+            <v>JARRA TERMICA LIFE ART</v>
+          </cell>
+          <cell r="C521">
+            <v>7.5</v>
+          </cell>
+        </row>
+        <row r="522">
+          <cell r="A522" t="str">
+            <v>CEE308SS</v>
+          </cell>
+          <cell r="B522" t="str">
+            <v>HERVIDOR ELECTROCO ERICKSON, APAGADO AUTOMATICO</v>
+          </cell>
+          <cell r="C522">
+            <v>22</v>
+          </cell>
+        </row>
+        <row r="523">
+          <cell r="A523" t="str">
+            <v>MS-203DH</v>
+          </cell>
+          <cell r="B523" t="str">
+            <v>PERCOLADORA MATSUI</v>
+          </cell>
+          <cell r="C523">
+            <v>7.5</v>
+          </cell>
+        </row>
+        <row r="524">
+          <cell r="A524" t="str">
+            <v>JE2200B</v>
+          </cell>
+          <cell r="B524" t="str">
+            <v>ESTRACTOR DE JUGO BLACK &amp; DECKER</v>
+          </cell>
+          <cell r="C524">
+            <v>58</v>
+          </cell>
+        </row>
+        <row r="525">
+          <cell r="A525" t="str">
+            <v>RCCM12</v>
+          </cell>
+          <cell r="B525" t="str">
+            <v>CAFETERA RCA</v>
+          </cell>
+          <cell r="C525">
+            <v>38</v>
+          </cell>
+        </row>
+        <row r="526">
+          <cell r="A526" t="str">
+            <v>PXQ602BK</v>
+          </cell>
+          <cell r="B526" t="str">
+            <v>CAFETERA EROCKSON</v>
+          </cell>
+          <cell r="C526">
+            <v>18</v>
+          </cell>
+        </row>
+        <row r="527">
+          <cell r="A527" t="str">
+            <v>L6050012</v>
+          </cell>
+          <cell r="B527" t="str">
+            <v>TERMO DE ALUMINIO</v>
+          </cell>
+          <cell r="C527">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="528">
+          <cell r="A528" t="str">
+            <v>25PX27</v>
+          </cell>
+          <cell r="B528" t="str">
+            <v>HORNO MICROONDAS ERICKSON</v>
+          </cell>
+          <cell r="C528">
+            <v>110</v>
+          </cell>
+        </row>
+        <row r="529">
+          <cell r="A529" t="str">
+            <v>AM007W</v>
+          </cell>
+          <cell r="B529" t="str">
+            <v xml:space="preserve">HORNO MICROONDAS ATLAS </v>
+          </cell>
+          <cell r="C529">
+            <v>67</v>
+          </cell>
+        </row>
+        <row r="530">
+          <cell r="A530" t="str">
+            <v>BLBD10GW</v>
+          </cell>
+          <cell r="B530" t="str">
+            <v xml:space="preserve">LICUADORA BLACK &amp; DECKER </v>
+          </cell>
+          <cell r="C530">
+            <v>68</v>
+          </cell>
+        </row>
+        <row r="531">
+          <cell r="A531" t="str">
+            <v>VITRA</v>
+          </cell>
+          <cell r="B531" t="str">
+            <v xml:space="preserve">LICUADORA TAURUS </v>
+          </cell>
+          <cell r="C531">
+            <v>58</v>
+          </cell>
+        </row>
+        <row r="532">
+          <cell r="A532" t="str">
+            <v>RE-999W6</v>
+          </cell>
+          <cell r="B532" t="str">
+            <v xml:space="preserve">LICUADORA REGENCY </v>
+          </cell>
+          <cell r="C532">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="533">
+          <cell r="A533" t="str">
+            <v>21-752</v>
+          </cell>
+          <cell r="B533" t="str">
+            <v>WAFLERA PRSTO</v>
+          </cell>
+          <cell r="C533">
+            <v>120</v>
+          </cell>
+        </row>
+        <row r="534">
+          <cell r="A534" t="str">
+            <v>BL-EB551</v>
+          </cell>
+          <cell r="B534" t="str">
+            <v>LONCHERA ELECTRICA BELLOLINY</v>
+          </cell>
+          <cell r="C534">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="535">
+          <cell r="A535" t="str">
+            <v>D1-63186</v>
+          </cell>
+          <cell r="B535" t="str">
+            <v>LINTERNA POLAR</v>
+          </cell>
+          <cell r="C535">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="536">
+          <cell r="A536" t="str">
+            <v>JT2428</v>
+          </cell>
+          <cell r="B536" t="str">
+            <v>MONTURA DE PARED PARA TV</v>
+          </cell>
+          <cell r="C536">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="537">
+          <cell r="A537" t="str">
+            <v>963-9092453</v>
+          </cell>
+          <cell r="B537" t="str">
+            <v>ESTUFA DE MESA DE 4 QUEMADORES POLAR</v>
+          </cell>
+          <cell r="C537">
+            <v>40</v>
+          </cell>
+        </row>
+        <row r="538">
+          <cell r="A538" t="str">
+            <v>1642</v>
+          </cell>
+          <cell r="B538" t="str">
+            <v>ESTUFA DE MESA DE 3 QUEMADORES ERICKSON</v>
+          </cell>
+          <cell r="C538">
+            <v>34</v>
+          </cell>
+        </row>
+        <row r="539">
+          <cell r="A539" t="str">
+            <v>SX-DA01A</v>
+          </cell>
+          <cell r="B539" t="str">
+            <v>ESTUFA ELECTRICA DE MESA DE 2 QUEMADORES TAURUS</v>
+          </cell>
+          <cell r="C539">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="540">
+          <cell r="A540" t="str">
+            <v>RCTH11</v>
+          </cell>
+          <cell r="B540" t="str">
+            <v>HORNO TOSTADOR RCA</v>
+          </cell>
+          <cell r="C540">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="541">
+          <cell r="A541" t="str">
+            <v>S-0980</v>
+          </cell>
+          <cell r="B541" t="str">
+            <v>SET DE TABLA PARA CORTAR</v>
+          </cell>
+          <cell r="C541">
+            <v>3.5</v>
+          </cell>
+        </row>
+        <row r="542">
+          <cell r="A542" t="str">
+            <v>JP-68T</v>
+          </cell>
+          <cell r="B542" t="str">
+            <v xml:space="preserve">PLANCHA PARA ROPA ACADEMIC </v>
+          </cell>
+          <cell r="C542">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="543">
+          <cell r="A543" t="str">
+            <v>GCSTBS5802</v>
+          </cell>
+          <cell r="B543" t="str">
+            <v>PLANCHA PARA ROPA OSTER</v>
+          </cell>
+          <cell r="C543">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="544">
+          <cell r="A544" t="str">
+            <v>PYPZ-2788</v>
+          </cell>
+          <cell r="B544" t="str">
+            <v>PLANCHA PARA ROPA ERICKSON</v>
+          </cell>
+          <cell r="C544">
+            <v>23</v>
+          </cell>
+        </row>
+        <row r="545">
+          <cell r="A545" t="str">
+            <v>N/A_0023</v>
+          </cell>
+          <cell r="B545" t="str">
+            <v>PAPELERA</v>
+          </cell>
+          <cell r="C545">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="546">
+          <cell r="A546" t="str">
+            <v>01506</v>
+          </cell>
+          <cell r="B546" t="str">
+            <v>PORTA VAJILLA POLIPLAS</v>
+          </cell>
+          <cell r="C546">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="547">
+          <cell r="A547" t="str">
+            <v>134-004</v>
+          </cell>
+          <cell r="B547" t="str">
+            <v>DISPENSADOR DE BEBIDAS</v>
+          </cell>
+          <cell r="C547">
+            <v>28.5</v>
+          </cell>
+        </row>
+        <row r="548">
+          <cell r="A548" t="str">
+            <v>N/A_0024</v>
+          </cell>
+          <cell r="B548" t="str">
+            <v>MALETA NICABAGS</v>
+          </cell>
+          <cell r="C548">
+            <v>34</v>
+          </cell>
+        </row>
+        <row r="549">
+          <cell r="A549" t="str">
+            <v>N/A_0025</v>
+          </cell>
+          <cell r="B549" t="str">
+            <v>MALETA NICABAGS</v>
+          </cell>
+          <cell r="C549">
+            <v>34</v>
+          </cell>
+        </row>
+        <row r="550">
+          <cell r="A550" t="str">
+            <v>DS6091CH-18</v>
+          </cell>
+          <cell r="B550" t="str">
+            <v>MALETA BUNGY SPORT</v>
+          </cell>
+          <cell r="C550">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="551">
+          <cell r="A551" t="str">
+            <v>DS6091GR-18</v>
+          </cell>
+          <cell r="B551" t="str">
+            <v>MALETA BUNGY SPORT</v>
+          </cell>
+          <cell r="C551">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="552">
+          <cell r="A552" t="str">
+            <v>N/A_0026</v>
+          </cell>
+          <cell r="B552" t="str">
+            <v>MALETA NICABAGS</v>
+          </cell>
+          <cell r="C552">
+            <v>34</v>
+          </cell>
+        </row>
+        <row r="553">
+          <cell r="A553" t="str">
+            <v>N/A_0027</v>
+          </cell>
+          <cell r="B553" t="str">
+            <v>MALETA NICABAGS</v>
+          </cell>
+          <cell r="C553">
+            <v>34</v>
+          </cell>
+        </row>
+        <row r="554">
+          <cell r="A554" t="str">
+            <v>DS6091AZ-20</v>
+          </cell>
+          <cell r="B554" t="str">
+            <v>MALETA BUNGY SPORT</v>
+          </cell>
+          <cell r="C554">
+            <v>22</v>
+          </cell>
+        </row>
+        <row r="555">
+          <cell r="A555" t="str">
+            <v>DS6091AZ-24</v>
+          </cell>
+          <cell r="B555" t="str">
+            <v>MALETA BUNGY SPORT</v>
+          </cell>
+          <cell r="C555">
+            <v>24</v>
+          </cell>
+        </row>
+        <row r="556">
+          <cell r="A556" t="str">
+            <v>N/A_0028</v>
+          </cell>
+          <cell r="B556" t="str">
+            <v>MALETA NICABAGS</v>
+          </cell>
+          <cell r="C556">
+            <v>34</v>
+          </cell>
+        </row>
+        <row r="557">
+          <cell r="A557" t="str">
+            <v>N/A_0029</v>
+          </cell>
+          <cell r="B557" t="str">
+            <v>MALETA NICABAG GRANDE</v>
+          </cell>
+          <cell r="C557">
+            <v>38</v>
+          </cell>
+        </row>
+        <row r="558">
+          <cell r="A558" t="str">
+            <v>DS7556(5202)-23</v>
+          </cell>
+          <cell r="B558" t="str">
+            <v>MALETA BUNGY SPORT</v>
+          </cell>
+          <cell r="C558">
+            <v>22</v>
+          </cell>
+        </row>
+        <row r="559">
+          <cell r="A559" t="str">
+            <v>DS7556(5202)-27</v>
+          </cell>
+          <cell r="B559" t="str">
+            <v>MALETA BUNGY SPORT</v>
+          </cell>
+          <cell r="C559">
+            <v>27</v>
+          </cell>
+        </row>
+        <row r="560">
+          <cell r="A560" t="str">
+            <v>N/A_0030</v>
+          </cell>
+          <cell r="B560" t="str">
+            <v>MALETA NICABAG GRANDE</v>
+          </cell>
+          <cell r="C560">
+            <v>38</v>
+          </cell>
+        </row>
+        <row r="561">
+          <cell r="A561" t="str">
+            <v>507A-27</v>
+          </cell>
+          <cell r="B561" t="str">
+            <v xml:space="preserve">MALETA TORNADO </v>
+          </cell>
+          <cell r="C561">
+            <v>55</v>
+          </cell>
+        </row>
+        <row r="562">
+          <cell r="A562" t="str">
+            <v>507A-23</v>
+          </cell>
+          <cell r="B562" t="str">
+            <v xml:space="preserve">MALETA TORNADO </v>
+          </cell>
+          <cell r="C562">
+            <v>42</v>
+          </cell>
+        </row>
+        <row r="563">
+          <cell r="A563" t="str">
+            <v>DS7541(3022-4)-27</v>
+          </cell>
+          <cell r="B563" t="str">
+            <v>MALETA BUNGY SPORT</v>
+          </cell>
+          <cell r="C563">
+            <v>27</v>
+          </cell>
+        </row>
+        <row r="564">
+          <cell r="A564" t="str">
+            <v>DS7541(3022-4)-19</v>
+          </cell>
+          <cell r="B564" t="str">
+            <v>MALETA BUNGY SPORT</v>
+          </cell>
+          <cell r="C564">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="565">
+          <cell r="A565" t="str">
+            <v>DS7549R-27</v>
+          </cell>
+          <cell r="B565" t="str">
+            <v>MALETA BUNGY SPORT</v>
+          </cell>
+          <cell r="C565">
+            <v>22</v>
+          </cell>
+        </row>
+        <row r="566">
+          <cell r="A566" t="str">
+            <v>11210059-24</v>
+          </cell>
+          <cell r="B566" t="str">
+            <v>MALETA POLO ORIGINAL</v>
+          </cell>
+          <cell r="C566">
+            <v>95</v>
+          </cell>
+        </row>
+        <row r="567">
+          <cell r="A567" t="str">
+            <v>11210059-20</v>
+          </cell>
+          <cell r="B567" t="str">
+            <v>MALETA POLO ORIGINAL</v>
+          </cell>
+          <cell r="C567">
+            <v>80</v>
+          </cell>
+        </row>
+        <row r="568">
+          <cell r="A568" t="str">
+            <v>N/A_0031</v>
+          </cell>
+          <cell r="B568" t="str">
+            <v>MALETA NICABAGS</v>
+          </cell>
+          <cell r="C568">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="569">
+          <cell r="A569" t="str">
+            <v>4729</v>
+          </cell>
+          <cell r="B569" t="str">
+            <v>ARROCERA OSTER</v>
+          </cell>
+          <cell r="C569">
+            <v>52</v>
+          </cell>
+        </row>
+        <row r="570">
+          <cell r="A570" t="str">
+            <v>BBQ2002</v>
+          </cell>
+          <cell r="B570" t="str">
+            <v>PARRILLA PARA CARBON ERICKSON</v>
+          </cell>
+          <cell r="C570">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="571">
+          <cell r="A571" t="str">
+            <v>ABE56TECHO</v>
+          </cell>
+          <cell r="B571" t="str">
+            <v xml:space="preserve">ABANICO PARA TECHO ERICKSON </v>
+          </cell>
+          <cell r="C571">
+            <v>48</v>
+          </cell>
+        </row>
+        <row r="572">
+          <cell r="A572" t="str">
+            <v>TYPS36</v>
+          </cell>
+          <cell r="B572" t="str">
+            <v>CALDERO BISTRO</v>
+          </cell>
+          <cell r="C572">
+            <v>22</v>
+          </cell>
+        </row>
+        <row r="573">
+          <cell r="A573" t="str">
+            <v>3590</v>
+          </cell>
+          <cell r="B573" t="str">
+            <v>TERMO ICEBERG (DISPENSADOR AGUA)</v>
+          </cell>
+          <cell r="C573">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="574">
+          <cell r="A574" t="str">
+            <v>3555</v>
+          </cell>
+          <cell r="B574" t="str">
+            <v>TERMO SPRING (DISPENSADOR AGUA)</v>
+          </cell>
+          <cell r="C574">
+            <v>53</v>
+          </cell>
+        </row>
+        <row r="575">
+          <cell r="A575" t="str">
+            <v>D2001/6</v>
+          </cell>
+          <cell r="B575" t="str">
+            <v>LAMPARA PARA TECHO 6 BOMBILLOS</v>
+          </cell>
+          <cell r="C575">
+            <v>198</v>
+          </cell>
+        </row>
+        <row r="576">
+          <cell r="A576" t="str">
+            <v>706-78922</v>
+          </cell>
+          <cell r="B576" t="str">
+            <v>BANDEJA PARA BUFFET</v>
+          </cell>
+          <cell r="C576">
+            <v>128</v>
+          </cell>
+        </row>
+        <row r="577">
+          <cell r="A577" t="str">
+            <v>706-11057</v>
+          </cell>
+          <cell r="B577" t="str">
+            <v>BANDEJA PARA BUFFET</v>
+          </cell>
+          <cell r="C577">
+            <v>68</v>
+          </cell>
+        </row>
+        <row r="578">
+          <cell r="A578" t="str">
+            <v>706-80708</v>
+          </cell>
+          <cell r="B578" t="str">
+            <v>BANDEJA PARA BUFFET</v>
+          </cell>
+          <cell r="C578">
+            <v>72</v>
+          </cell>
+        </row>
+        <row r="579">
+          <cell r="A579" t="str">
+            <v>713-TYPS36ED</v>
+          </cell>
+          <cell r="B579" t="str">
+            <v>PAILA</v>
+          </cell>
+          <cell r="C579">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="580">
+          <cell r="A580" t="str">
+            <v>713-TYPS34ED</v>
+          </cell>
+          <cell r="B580" t="str">
+            <v>PAILA</v>
+          </cell>
+          <cell r="C580">
+            <v>22</v>
+          </cell>
+        </row>
+        <row r="581">
+          <cell r="A581" t="str">
+            <v>YSF-21</v>
+          </cell>
+          <cell r="B581" t="str">
+            <v>COCHE PARA BEBE</v>
+          </cell>
+          <cell r="C581">
+            <v>75</v>
+          </cell>
+        </row>
+        <row r="582">
+          <cell r="A582" t="str">
+            <v>SL-101-R</v>
+          </cell>
+          <cell r="B582" t="str">
+            <v>COCHE PARA BEBE SAN LE</v>
+          </cell>
+          <cell r="C582">
+            <v>50</v>
+          </cell>
+        </row>
+        <row r="583">
+          <cell r="A583" t="str">
+            <v>SL-101-N</v>
+          </cell>
+          <cell r="B583" t="str">
+            <v>COCHE PARA BEBE SAN LE</v>
+          </cell>
+          <cell r="C583">
+            <v>50</v>
+          </cell>
+        </row>
+        <row r="584">
+          <cell r="A584" t="str">
+            <v>HP-300</v>
+          </cell>
+          <cell r="B584" t="str">
+            <v>COCHE PARA BEBE</v>
+          </cell>
+          <cell r="C584">
+            <v>38</v>
+          </cell>
+        </row>
+        <row r="585">
+          <cell r="A585" t="str">
+            <v>921-32</v>
+          </cell>
+          <cell r="B585" t="str">
+            <v>COCHE PARA BEBE</v>
+          </cell>
+          <cell r="C585">
+            <v>174</v>
+          </cell>
+        </row>
+        <row r="586">
+          <cell r="A586" t="str">
+            <v>676-L0385003</v>
+          </cell>
+          <cell r="B586" t="str">
+            <v>COCHE PARA BEBE</v>
+          </cell>
+          <cell r="C586">
+            <v>60</v>
+          </cell>
+        </row>
+        <row r="587">
+          <cell r="A587" t="str">
+            <v>496-19</v>
+          </cell>
+          <cell r="B587" t="str">
+            <v>COCHE PARA BEBE PREGO</v>
+          </cell>
+          <cell r="C587">
+            <v>68</v>
+          </cell>
+        </row>
+        <row r="588">
+          <cell r="A588" t="str">
+            <v>496-A7</v>
+          </cell>
+          <cell r="B588" t="str">
+            <v>COCHE PARA BEBE PREGO</v>
+          </cell>
+          <cell r="C588">
+            <v>68</v>
+          </cell>
+        </row>
+        <row r="589">
+          <cell r="A589" t="str">
+            <v>496-A13</v>
+          </cell>
+          <cell r="B589" t="str">
+            <v>COCHE PARA BEBE PREGO</v>
+          </cell>
+          <cell r="C589">
+            <v>68</v>
+          </cell>
+        </row>
+        <row r="590">
+          <cell r="A590" t="str">
+            <v>679-L2009002</v>
+          </cell>
+          <cell r="B590" t="str">
+            <v>SILLA ALTA PARA BEBE</v>
+          </cell>
+          <cell r="C590">
+            <v>104.99</v>
+          </cell>
+        </row>
+        <row r="591">
+          <cell r="A591" t="str">
+            <v>679-L2009001</v>
+          </cell>
+          <cell r="B591" t="str">
+            <v>SILLA ALTA PARA BEBE</v>
+          </cell>
+          <cell r="C591">
+            <v>104.99</v>
+          </cell>
+        </row>
+        <row r="592">
+          <cell r="A592" t="str">
+            <v>871-32</v>
+          </cell>
+          <cell r="B592" t="str">
+            <v>SILLA ALTA PARA BEBE</v>
+          </cell>
+          <cell r="C592">
+            <v>138</v>
+          </cell>
+        </row>
+        <row r="593">
+          <cell r="A593" t="str">
+            <v>871-38</v>
+          </cell>
+          <cell r="B593" t="str">
+            <v>SILLA ALTA PARA BEBE</v>
+          </cell>
+          <cell r="C593">
+            <v>138</v>
+          </cell>
+        </row>
+        <row r="594">
+          <cell r="A594" t="str">
+            <v>871-36</v>
+          </cell>
+          <cell r="B594" t="str">
+            <v>SILLA ALTA PARA BEBE</v>
+          </cell>
+          <cell r="C594">
+            <v>138</v>
+          </cell>
+        </row>
+        <row r="595">
+          <cell r="A595" t="str">
+            <v>5232</v>
+          </cell>
+          <cell r="B595" t="str">
+            <v>ANDARIBEL PARA NIÑO BABY FUN</v>
+          </cell>
+          <cell r="C595">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="596">
+          <cell r="A596" t="str">
+            <v>L271100010</v>
+          </cell>
+          <cell r="B596" t="str">
+            <v>ANDARIBEL PARA NIÑO BABY WALKER</v>
+          </cell>
+          <cell r="C596">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="597">
+          <cell r="A597" t="str">
+            <v>813</v>
+          </cell>
+          <cell r="B597" t="str">
+            <v>ANDARIBEL</v>
+          </cell>
+          <cell r="C597">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="598">
+          <cell r="A598" t="str">
+            <v>813</v>
+          </cell>
+          <cell r="B598" t="str">
+            <v>ANDARIBEL</v>
+          </cell>
+          <cell r="C598">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="599">
+          <cell r="A599" t="str">
+            <v>665-21</v>
+          </cell>
+          <cell r="B599" t="str">
+            <v>MOTO ELECTRICA CUADRACICLO VAQUITA</v>
+          </cell>
+          <cell r="C599">
+            <v>95</v>
+          </cell>
+        </row>
+        <row r="600">
+          <cell r="A600" t="str">
+            <v>801-2710033</v>
+          </cell>
+          <cell r="B600" t="str">
+            <v>MOTO ELECTRICA</v>
+          </cell>
+          <cell r="C600">
+            <v>78</v>
+          </cell>
+        </row>
+        <row r="601">
+          <cell r="A601" t="str">
+            <v>MGM106</v>
+          </cell>
+          <cell r="B601" t="str">
+            <v>CARRO INFANTIL</v>
+          </cell>
+          <cell r="C601">
+            <v>29</v>
+          </cell>
+        </row>
+        <row r="602">
+          <cell r="A602" t="str">
+            <v>MG-103AIA</v>
+          </cell>
+          <cell r="B602" t="str">
+            <v>CARRO INFANTIL</v>
+          </cell>
+          <cell r="C602">
+            <v>40</v>
+          </cell>
+        </row>
+        <row r="603">
+          <cell r="A603" t="str">
+            <v>JS-5967B</v>
+          </cell>
+          <cell r="B603" t="str">
+            <v>CARRO INFANTIL</v>
+          </cell>
+          <cell r="C603">
+            <v>40</v>
+          </cell>
+        </row>
+        <row r="604">
+          <cell r="A604" t="str">
+            <v>01-36502</v>
+          </cell>
+          <cell r="B604" t="str">
+            <v>TRICICLO</v>
+          </cell>
+          <cell r="C604">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="605">
+          <cell r="A605" t="str">
+            <v>729-90129547</v>
+          </cell>
+          <cell r="B605" t="str">
+            <v xml:space="preserve">ESPEJO PARA SALA </v>
+          </cell>
+          <cell r="C605">
+            <v>198</v>
+          </cell>
+        </row>
+        <row r="606">
+          <cell r="A606" t="str">
+            <v>704-90140910</v>
+          </cell>
+          <cell r="B606" t="str">
+            <v>CANDELABRO  PARA MESA</v>
+          </cell>
+          <cell r="C606">
+            <v>125</v>
+          </cell>
+        </row>
+        <row r="607">
+          <cell r="A607" t="str">
+            <v>N/A_0032</v>
+          </cell>
+          <cell r="B607" t="str">
+            <v>JUEGO DE PATINES CON CASCO</v>
+          </cell>
+          <cell r="C607">
+            <v>28</v>
+          </cell>
+        </row>
+        <row r="608">
+          <cell r="A608" t="str">
+            <v>064-6014510</v>
+          </cell>
+          <cell r="B608" t="str">
+            <v>MALETA PARA COMPUTADORA POLO</v>
+          </cell>
+          <cell r="C608">
+            <v>98</v>
+          </cell>
+        </row>
+        <row r="609">
+          <cell r="A609" t="str">
+            <v>851-901364481</v>
+          </cell>
+          <cell r="B609" t="str">
+            <v xml:space="preserve">AUXILIAR PARA SALON </v>
+          </cell>
+        </row>
+        <row r="610">
+          <cell r="A610" t="str">
+            <v>CLED-32A05</v>
+          </cell>
+          <cell r="B610" t="str">
+            <v>YV SANKEY</v>
+          </cell>
+        </row>
+        <row r="611">
+          <cell r="A611" t="str">
+            <v>LP-2203</v>
+          </cell>
+          <cell r="B611" t="str">
+            <v xml:space="preserve">ABANICO ASTAR </v>
+          </cell>
+        </row>
+        <row r="612">
+          <cell r="A612">
+            <v>31249</v>
+          </cell>
+          <cell r="B612" t="str">
+            <v xml:space="preserve">JUEGO DE TASAS </v>
+          </cell>
+        </row>
+        <row r="613">
+          <cell r="A613">
+            <v>5442</v>
+          </cell>
+          <cell r="B613" t="str">
+            <v xml:space="preserve">LAMPARA DE TECHO </v>
+          </cell>
+        </row>
+        <row r="614">
+          <cell r="A614" t="str">
+            <v>MB27-2.4M</v>
+          </cell>
+          <cell r="B614" t="str">
+            <v xml:space="preserve">MESA PARA CONFERENCIA CHOCOLATE </v>
+          </cell>
+        </row>
+        <row r="615">
+          <cell r="A615" t="str">
+            <v>MB27-3M</v>
+          </cell>
+          <cell r="B615" t="str">
+            <v xml:space="preserve">MESA PARA CCONFERENCIA </v>
+          </cell>
+        </row>
+        <row r="616">
+          <cell r="A616" t="str">
+            <v>T94/Y-94</v>
+          </cell>
+          <cell r="B616" t="str">
+            <v>JUEGO PARA EXTERIORES (2 SILLAS )</v>
+          </cell>
+        </row>
+        <row r="617">
+          <cell r="A617" t="str">
+            <v>8178-10</v>
+          </cell>
+          <cell r="B617" t="str">
+            <v xml:space="preserve">LAMPARA PARA EXTERIORES </v>
+          </cell>
+        </row>
+        <row r="618">
+          <cell r="A618" t="str">
+            <v>MONACO</v>
+          </cell>
+          <cell r="B618" t="str">
+            <v>CENTRO DE ENTRETENIMIENTO</v>
+          </cell>
+        </row>
+        <row r="619">
+          <cell r="A619" t="str">
+            <v>APOLO</v>
+          </cell>
+          <cell r="B619" t="str">
+            <v>CENTRO DE ENTRETENIMIENTO</v>
+          </cell>
+        </row>
+        <row r="620">
+          <cell r="A620" t="str">
+            <v xml:space="preserve">VEGAS </v>
+          </cell>
+          <cell r="B620" t="str">
+            <v>CENTRO DE ENTRETIMI8ENTO</v>
+          </cell>
+        </row>
+        <row r="621">
+          <cell r="A621" t="str">
+            <v>TQ-C605A</v>
+          </cell>
+          <cell r="B621" t="str">
+            <v xml:space="preserve">SILLA AZUL METAL Y VINIL </v>
+          </cell>
+        </row>
+        <row r="622">
+          <cell r="A622" t="str">
+            <v>TQ-C605R</v>
+          </cell>
+          <cell r="B622" t="str">
+            <v xml:space="preserve">SILLA METAL VINIL ROJA </v>
+          </cell>
+        </row>
+        <row r="623">
+          <cell r="A623" t="str">
+            <v>TQ-C605N</v>
+          </cell>
+          <cell r="B623" t="str">
+            <v xml:space="preserve">SILLA METAL NEGRA </v>
+          </cell>
+        </row>
+        <row r="624">
+          <cell r="A624" t="str">
+            <v>8806-XP</v>
+          </cell>
+          <cell r="B624" t="str">
+            <v xml:space="preserve">SILLA PLASTICA ETERNA </v>
+          </cell>
+        </row>
+        <row r="625">
+          <cell r="A625" t="str">
+            <v>053-125011</v>
+          </cell>
+          <cell r="B625" t="str">
+            <v>PARAGUA PARA TERREZA</v>
+          </cell>
+        </row>
+        <row r="626">
+          <cell r="A626">
+            <v>1101</v>
+          </cell>
+          <cell r="B626" t="str">
+            <v xml:space="preserve">SILLA DE MALLA METALICA VISITA </v>
+          </cell>
+        </row>
+        <row r="627">
+          <cell r="A627" t="str">
+            <v>852-112219AN</v>
+          </cell>
+          <cell r="B627" t="str">
+            <v>MESA CENTRO DE MADERA/VIDRIO</v>
+          </cell>
+        </row>
+        <row r="628">
+          <cell r="A628" t="str">
+            <v>HG-2895</v>
+          </cell>
+          <cell r="B628" t="str">
+            <v>JUEGO DE TAZAS</v>
+          </cell>
+        </row>
+        <row r="629">
+          <cell r="A629" t="str">
+            <v>H303-14</v>
+          </cell>
+          <cell r="B629" t="str">
+            <v xml:space="preserve">SET DE TASAS/PLATOS </v>
+          </cell>
+        </row>
+        <row r="630">
+          <cell r="A630" t="str">
+            <v>727-31362</v>
+          </cell>
+          <cell r="B630" t="str">
+            <v xml:space="preserve">TAZAS C/PLATOS SET 12 PIEZAS </v>
+          </cell>
+        </row>
+        <row r="631">
+          <cell r="A631" t="str">
+            <v>100-0459B-CB</v>
+          </cell>
+          <cell r="B631" t="str">
+            <v xml:space="preserve">CUADRO DE FOLRES </v>
+          </cell>
+        </row>
+        <row r="632">
+          <cell r="A632" t="str">
+            <v>100-0459A-CB</v>
+          </cell>
+          <cell r="B632" t="str">
+            <v xml:space="preserve">CUADRO DE ROSAS </v>
+          </cell>
+        </row>
+        <row r="633">
+          <cell r="A633" t="str">
+            <v>ST-S1272A</v>
+          </cell>
+          <cell r="B633" t="str">
+            <v xml:space="preserve">ESCRITORIO DE VIDRIO </v>
+          </cell>
+        </row>
+        <row r="634">
+          <cell r="A634" t="str">
+            <v>ZP-3999A</v>
+          </cell>
+          <cell r="B634" t="str">
+            <v xml:space="preserve">MOTO NITRO </v>
+          </cell>
+        </row>
+        <row r="635">
+          <cell r="A635" t="str">
+            <v>705-32037</v>
+          </cell>
+          <cell r="B635" t="str">
+            <v xml:space="preserve">TAZAS/PLATOS SET </v>
+          </cell>
+        </row>
+        <row r="636">
+          <cell r="A636" t="str">
+            <v>855-HW4013C</v>
+          </cell>
+          <cell r="B636" t="str">
+            <v>CENTRO DE ENTRETENIMIENTO(CREMA)</v>
+          </cell>
+        </row>
+        <row r="637">
+          <cell r="A637" t="str">
+            <v>855-HW4009CHO</v>
+          </cell>
+          <cell r="B637" t="str">
+            <v>CENTRO DE ENTRETENIMIENTO(CAFÉ)</v>
+          </cell>
+        </row>
+        <row r="638">
+          <cell r="A638" t="str">
+            <v>719-83275</v>
+          </cell>
+          <cell r="B638" t="str">
+            <v xml:space="preserve">JOYERO </v>
+          </cell>
+        </row>
+        <row r="639">
+          <cell r="A639" t="str">
+            <v>DM-077AG</v>
+          </cell>
+          <cell r="B639" t="str">
+            <v>MESITA CON ESPEJO(REPISA)</v>
+          </cell>
+        </row>
+        <row r="640">
+          <cell r="A640" t="str">
+            <v>DM-078AG</v>
+          </cell>
+          <cell r="B640" t="str">
+            <v>MESA CON ESPEJO(REPISA)</v>
+          </cell>
+        </row>
+        <row r="641">
+          <cell r="A641" t="str">
+            <v>058-90133525</v>
+          </cell>
+          <cell r="B641" t="str">
+            <v xml:space="preserve">SOMBRILLA PARA JARDIN </v>
+          </cell>
+        </row>
+        <row r="642">
+          <cell r="A642" t="str">
+            <v>713-TYPS38</v>
+          </cell>
+          <cell r="B642" t="str">
+            <v>PAILA</v>
+          </cell>
+        </row>
+        <row r="643">
+          <cell r="A643" t="str">
+            <v>GCSTBS5803-013</v>
+          </cell>
+          <cell r="B643" t="str">
+            <v>PLANCHA OSTER</v>
+          </cell>
+        </row>
+        <row r="644">
+          <cell r="A644" t="str">
+            <v xml:space="preserve">20 CHILDREN </v>
+          </cell>
+          <cell r="B644" t="str">
+            <v xml:space="preserve">BICICLETA PRINCESA GROUP ROSI </v>
+          </cell>
+        </row>
+        <row r="645">
+          <cell r="A645" t="str">
+            <v>857-SLS1877Q</v>
+          </cell>
+          <cell r="B645" t="str">
+            <v xml:space="preserve">JUEGO DE RECAMARA SET 5 PIEZAS </v>
+          </cell>
+        </row>
+        <row r="646">
+          <cell r="A646" t="str">
+            <v>604-15607</v>
+          </cell>
+          <cell r="B646" t="str">
+            <v xml:space="preserve">CANDELABRO  </v>
+          </cell>
+        </row>
+        <row r="647">
+          <cell r="A647" t="str">
+            <v>854-7201</v>
+          </cell>
+          <cell r="B647" t="str">
+            <v xml:space="preserve">SILLA PLASTICA </v>
+          </cell>
+        </row>
+        <row r="648">
+          <cell r="A648" t="str">
+            <v>ML0202</v>
+          </cell>
+          <cell r="B648" t="str">
+            <v xml:space="preserve">ESPEJO DE PARED </v>
+          </cell>
+        </row>
+        <row r="649">
+          <cell r="A649" t="str">
+            <v>854-52651960N</v>
+          </cell>
+          <cell r="B649" t="str">
+            <v>MESA CON SILLA PARA TERRAZA NEGRO</v>
+          </cell>
+        </row>
+        <row r="650">
+          <cell r="A650" t="str">
+            <v>856-GB702CHC</v>
+          </cell>
+          <cell r="B650" t="str">
+            <v xml:space="preserve">GABINETE DE COCINA </v>
+          </cell>
+        </row>
+        <row r="651">
+          <cell r="A651" t="str">
+            <v>852-MA112221</v>
+          </cell>
+          <cell r="B651" t="str">
+            <v xml:space="preserve">MESA DE CENTRO </v>
+          </cell>
+        </row>
+        <row r="652">
+          <cell r="A652" t="str">
+            <v>851-00635</v>
+          </cell>
+          <cell r="B652" t="str">
+            <v>SILLON RECLINABLE</v>
+          </cell>
+        </row>
+        <row r="653">
+          <cell r="A653" t="str">
+            <v>855-90110739</v>
+          </cell>
+          <cell r="B653" t="str">
+            <v xml:space="preserve">MUEBLE DE TV </v>
+          </cell>
+        </row>
+        <row r="654">
+          <cell r="A654" t="str">
+            <v>7667-13</v>
+          </cell>
+          <cell r="B654" t="str">
+            <v xml:space="preserve">LAMPARA TECHO </v>
+          </cell>
+        </row>
+        <row r="655">
+          <cell r="A655" t="str">
+            <v>850-90122442</v>
+          </cell>
+          <cell r="B655" t="str">
+            <v xml:space="preserve">COMEDOR 5 PIEZAS </v>
+          </cell>
+        </row>
+        <row r="656">
+          <cell r="A656" t="str">
+            <v>LDA15SXO</v>
+          </cell>
+          <cell r="B656" t="str">
+            <v xml:space="preserve">LAVADORA ATLAS </v>
+          </cell>
+        </row>
+        <row r="657">
+          <cell r="A657" t="str">
+            <v>SA0133</v>
+          </cell>
+          <cell r="B657" t="str">
+            <v>SOFA CAMA(CHOCOLATE)</v>
+          </cell>
+        </row>
+        <row r="658">
+          <cell r="A658" t="str">
+            <v>602-90136214</v>
+          </cell>
+          <cell r="B658" t="str">
+            <v xml:space="preserve">RELOJ DE PARED </v>
+          </cell>
+        </row>
+        <row r="659">
+          <cell r="A659" t="str">
+            <v>602-75410</v>
+          </cell>
+          <cell r="B659" t="str">
+            <v xml:space="preserve">RELOJ DE PARED </v>
+          </cell>
+        </row>
+        <row r="660">
+          <cell r="A660" t="str">
+            <v>861-1880AC4</v>
+          </cell>
+          <cell r="B660" t="str">
+            <v xml:space="preserve">LAVADORA DE SALON </v>
+          </cell>
+        </row>
+        <row r="661">
+          <cell r="A661" t="str">
+            <v>ZY1780</v>
+          </cell>
+          <cell r="B661" t="str">
+            <v>ESCRITORIO (GRIS)</v>
+          </cell>
+        </row>
+        <row r="662">
+          <cell r="A662" t="str">
+            <v>704-90141436</v>
+          </cell>
+          <cell r="B662" t="str">
+            <v>CANDELABRO</v>
+          </cell>
+        </row>
+        <row r="663">
+          <cell r="A663" t="str">
+            <v>704-28221</v>
+          </cell>
+          <cell r="B663" t="str">
+            <v xml:space="preserve">CANDELABRO </v>
+          </cell>
+        </row>
+        <row r="664">
+          <cell r="A664" t="str">
+            <v>754-90123536</v>
+          </cell>
+          <cell r="B664" t="str">
+            <v xml:space="preserve">CUADRO DE METAL </v>
+          </cell>
+        </row>
+        <row r="665">
+          <cell r="A665" t="str">
+            <v>754-90123537</v>
+          </cell>
+          <cell r="B665" t="str">
+            <v xml:space="preserve">CUADRO DE METAL </v>
+          </cell>
+        </row>
+        <row r="666">
+          <cell r="A666" t="str">
+            <v>754-29812</v>
+          </cell>
+          <cell r="B666" t="str">
+            <v xml:space="preserve">CUADRO PEQUEÑO </v>
+          </cell>
+        </row>
+        <row r="667">
+          <cell r="A667" t="str">
+            <v>754-83520</v>
+          </cell>
+          <cell r="B667" t="str">
+            <v xml:space="preserve">CUADRO GRANDE </v>
+          </cell>
+        </row>
+        <row r="668">
+          <cell r="A668" t="str">
+            <v>704-33361</v>
+          </cell>
+          <cell r="B668" t="str">
+            <v>CANDELABRO</v>
+          </cell>
+        </row>
+        <row r="669">
+          <cell r="A669" t="str">
+            <v>704-28232</v>
+          </cell>
+          <cell r="B669" t="str">
+            <v xml:space="preserve">CANDELABRO </v>
+          </cell>
+        </row>
+        <row r="670">
+          <cell r="A670" t="str">
+            <v>704-90129288</v>
+          </cell>
+          <cell r="B670" t="str">
+            <v xml:space="preserve">CANDELABRO </v>
+          </cell>
+        </row>
+        <row r="671">
+          <cell r="A671" t="str">
+            <v>704-90113232</v>
+          </cell>
+          <cell r="B671" t="str">
+            <v xml:space="preserve">CANDELABRO </v>
+          </cell>
+        </row>
+        <row r="672">
+          <cell r="A672" t="str">
+            <v>704-90141433</v>
+          </cell>
+          <cell r="B672" t="str">
+            <v xml:space="preserve">CANDELABRO </v>
+          </cell>
+        </row>
+        <row r="673">
+          <cell r="A673" t="str">
+            <v>704-90117008</v>
+          </cell>
+          <cell r="B673" t="str">
+            <v xml:space="preserve">CANDELABRO </v>
+          </cell>
+        </row>
+        <row r="674">
+          <cell r="A674" t="str">
+            <v>704-90117006</v>
+          </cell>
+          <cell r="B674" t="str">
+            <v xml:space="preserve">CANDELABRO </v>
+          </cell>
+        </row>
+        <row r="675">
+          <cell r="A675" t="str">
+            <v>704-90141431</v>
+          </cell>
+          <cell r="B675" t="str">
+            <v xml:space="preserve">CANDELABRO </v>
+          </cell>
+        </row>
+        <row r="676">
+          <cell r="A676" t="str">
+            <v>704-90141432</v>
+          </cell>
+          <cell r="B676" t="str">
+            <v xml:space="preserve">CANDELABRO </v>
+          </cell>
+        </row>
+        <row r="677">
+          <cell r="A677" t="str">
+            <v>704-33353</v>
+          </cell>
+          <cell r="B677" t="str">
+            <v>CANDELABRO</v>
+          </cell>
+        </row>
+        <row r="678">
+          <cell r="A678" t="str">
+            <v>704-33357</v>
+          </cell>
+          <cell r="B678" t="str">
+            <v>CANDELABRO</v>
+          </cell>
+        </row>
+        <row r="679">
+          <cell r="A679" t="str">
+            <v>739-15180</v>
+          </cell>
+          <cell r="B679" t="str">
+            <v>PORTA DULCE</v>
+          </cell>
+        </row>
+        <row r="680">
+          <cell r="A680" t="str">
+            <v>852-26463</v>
+          </cell>
+          <cell r="B680" t="str">
+            <v xml:space="preserve">MESA </v>
+          </cell>
+        </row>
+        <row r="681">
+          <cell r="A681" t="str">
+            <v>704-33364</v>
+          </cell>
+          <cell r="B681" t="str">
+            <v>CANDELABRO</v>
+          </cell>
+        </row>
+        <row r="682">
+          <cell r="A682" t="str">
+            <v>851-DRN562B</v>
+          </cell>
+          <cell r="B682" t="str">
+            <v xml:space="preserve">SILLA METALICA </v>
+          </cell>
+        </row>
+        <row r="683">
+          <cell r="A683" t="str">
+            <v>6244-3</v>
+          </cell>
+          <cell r="B683" t="str">
+            <v>LAMPARA PARA PARED</v>
+          </cell>
+        </row>
+        <row r="684">
+          <cell r="A684" t="str">
+            <v>803</v>
+          </cell>
+          <cell r="B684" t="str">
+            <v>LAMPARA PARA MESA</v>
+          </cell>
+        </row>
+        <row r="685">
+          <cell r="A685" t="str">
+            <v>DS7556(5202)-19</v>
+          </cell>
+          <cell r="B685" t="str">
+            <v>MALETA BUNGY SPORT 19"</v>
+          </cell>
+        </row>
+        <row r="686">
+          <cell r="A686" t="str">
+            <v>DC-B032#</v>
+          </cell>
+          <cell r="B686" t="str">
+            <v xml:space="preserve">ESCRITORIO DE VIDRIO </v>
+          </cell>
+        </row>
+        <row r="687">
+          <cell r="A687" t="str">
+            <v>HLC-1272L</v>
+          </cell>
+          <cell r="B687" t="str">
+            <v>SILLA PARA OFICINA</v>
+          </cell>
+        </row>
+        <row r="688">
+          <cell r="A688" t="str">
+            <v>857-SW09231</v>
+          </cell>
+          <cell r="B688" t="str">
+            <v>SOFA CAMA</v>
+          </cell>
+        </row>
+        <row r="689">
+          <cell r="A689" t="str">
+            <v>861-HL313051</v>
+          </cell>
+          <cell r="B689" t="str">
+            <v xml:space="preserve">SILLA PARA SALON </v>
+          </cell>
+        </row>
+        <row r="690">
+          <cell r="A690" t="str">
+            <v>754-90123337</v>
+          </cell>
+          <cell r="B690" t="str">
+            <v>CUADRO METALICO</v>
+          </cell>
+        </row>
+        <row r="691">
+          <cell r="A691" t="str">
+            <v>H-155</v>
+          </cell>
+          <cell r="B691" t="str">
+            <v>ESQUINERA 3 NIVELES</v>
+          </cell>
+        </row>
+        <row r="692">
+          <cell r="A692" t="str">
+            <v>754-32009</v>
+          </cell>
+          <cell r="B692" t="str">
+            <v>CUADRO PARA PARED</v>
+          </cell>
+        </row>
+        <row r="693">
+          <cell r="A693" t="str">
+            <v>754-32016</v>
+          </cell>
+          <cell r="B693" t="str">
+            <v>CUADRO PARA PARED</v>
+          </cell>
+        </row>
+        <row r="694">
+          <cell r="A694" t="str">
+            <v>754-76511</v>
+          </cell>
+          <cell r="B694" t="str">
+            <v>CUADRO PARA PARED</v>
+          </cell>
+        </row>
+        <row r="695">
+          <cell r="A695" t="str">
+            <v>754-B3302A</v>
+          </cell>
+          <cell r="B695" t="str">
+            <v>CUADRO PARA PARED</v>
+          </cell>
+        </row>
+        <row r="696">
+          <cell r="A696" t="str">
+            <v>25249</v>
+          </cell>
+          <cell r="B696" t="str">
+            <v>TERMO METALICO 0.5LTS</v>
+          </cell>
+        </row>
+        <row r="697">
+          <cell r="A697" t="str">
+            <v>01-5501</v>
+          </cell>
+          <cell r="B697" t="str">
+            <v>MONITOR PARA PRESION ARTERIAL TRADICIONAL</v>
+          </cell>
+        </row>
+        <row r="698">
+          <cell r="A698" t="str">
+            <v>01-539</v>
+          </cell>
+          <cell r="B698" t="str">
+            <v>MONITOR PARA PRESION ARTERIAL DIGITAL</v>
+          </cell>
+        </row>
+        <row r="699">
+          <cell r="A699" t="str">
+            <v>137062-308</v>
+          </cell>
+          <cell r="B699" t="str">
+            <v>DISPENSADOR DE BEBIDAS</v>
+          </cell>
+        </row>
+        <row r="700">
+          <cell r="A700" t="str">
+            <v>RK-55</v>
+          </cell>
+          <cell r="B700" t="str">
+            <v>ESTANTE METALICO</v>
+          </cell>
+        </row>
+        <row r="701">
+          <cell r="A701" t="str">
+            <v>X601</v>
+          </cell>
+          <cell r="B701" t="str">
+            <v>JEEP WRANGLER AZUL</v>
+          </cell>
+        </row>
+        <row r="702">
+          <cell r="A702" t="str">
+            <v>BC-12</v>
+          </cell>
+          <cell r="B702" t="str">
+            <v xml:space="preserve">ESCRITORIO DE VIDRIO </v>
+          </cell>
+        </row>
+        <row r="703">
+          <cell r="A703" t="str">
+            <v>852-CW002N</v>
+          </cell>
+          <cell r="B703" t="str">
+            <v>MESA PARA CENTRO CAFÉ</v>
+          </cell>
+        </row>
+        <row r="704">
+          <cell r="A704" t="str">
+            <v>856-90125254</v>
+          </cell>
+          <cell r="B704" t="str">
+            <v>GABINETE PARA OFICINA</v>
+          </cell>
+        </row>
+        <row r="705">
+          <cell r="A705" t="str">
+            <v>856-90125225</v>
+          </cell>
+          <cell r="B705" t="str">
+            <v>GABINETE PARA OFICINA 3 DEPOSITOS</v>
+          </cell>
+        </row>
+        <row r="706">
+          <cell r="A706" t="str">
+            <v>064-6014509</v>
+          </cell>
+          <cell r="B706" t="str">
+            <v>MALETIN PARA COMPUTADORA POLO</v>
+          </cell>
+        </row>
+        <row r="707">
+          <cell r="A707" t="str">
+            <v>861-HL312031</v>
+          </cell>
+          <cell r="B707" t="str">
+            <v xml:space="preserve">SILLA PARA SALON </v>
+          </cell>
+        </row>
+        <row r="708">
+          <cell r="A708" t="str">
+            <v>855-HW3107T</v>
+          </cell>
+          <cell r="B708" t="str">
+            <v>MESA PARA TV</v>
+          </cell>
+        </row>
+        <row r="709">
+          <cell r="A709" t="str">
+            <v>KD-042</v>
+          </cell>
+          <cell r="B709" t="str">
+            <v>GABINETE ARCHIVADOR DE VIDRIO LIBRERO</v>
+          </cell>
+        </row>
+        <row r="710">
+          <cell r="A710" t="str">
+            <v>856-BA802RV</v>
+          </cell>
+          <cell r="B710" t="str">
+            <v>GABINETE PARA COCINA</v>
+          </cell>
+        </row>
+        <row r="711">
+          <cell r="A711" t="str">
+            <v>QX-7288A</v>
+          </cell>
+          <cell r="B711" t="str">
+            <v>CARRO ELECTRICO AMARILLO</v>
+          </cell>
+        </row>
+        <row r="712">
+          <cell r="A712" t="str">
+            <v>853-FC001ARMRST</v>
+          </cell>
+          <cell r="B712" t="str">
+            <v>SILLA PARA OFICINA</v>
+          </cell>
+        </row>
+        <row r="713">
+          <cell r="A713" t="str">
+            <v>MBB30</v>
+          </cell>
+          <cell r="B713" t="str">
+            <v>CARRO ROSADO</v>
+          </cell>
+        </row>
+        <row r="714">
+          <cell r="A714" t="str">
+            <v>BL1475-BLMP8</v>
+          </cell>
+          <cell r="B714" t="str">
+            <v>ESCRITORIO DE MADERA ROJO</v>
+          </cell>
+        </row>
+        <row r="715">
+          <cell r="A715" t="str">
+            <v>7500-H</v>
+          </cell>
+          <cell r="B715" t="str">
+            <v>LAMPARA PARA TECHO AZUL</v>
+          </cell>
+        </row>
+        <row r="716">
+          <cell r="A716" t="str">
+            <v>SL102</v>
+          </cell>
+          <cell r="B716" t="str">
+            <v>COCHE PARA BEBÉ</v>
+          </cell>
+        </row>
+        <row r="717">
+          <cell r="A717" t="str">
+            <v>5211/3</v>
+          </cell>
+          <cell r="B717" t="str">
+            <v>LAMPARA PARA TECHO TRES COLORES</v>
+          </cell>
+        </row>
+        <row r="718">
+          <cell r="A718" t="str">
+            <v>604-28534</v>
+          </cell>
+          <cell r="B718" t="str">
+            <v>LAMPARA PARA TECHO DE 3 BOMBILLOS</v>
+          </cell>
+        </row>
+        <row r="719">
+          <cell r="A719" t="str">
+            <v>856-M34K504549</v>
+          </cell>
+          <cell r="B719" t="str">
+            <v>GABINETE MULTIUSO</v>
+          </cell>
+        </row>
+        <row r="720">
+          <cell r="A720" t="str">
+            <v>981-9072742</v>
+          </cell>
+          <cell r="B720" t="str">
+            <v>ESCALERA METALICA</v>
+          </cell>
+        </row>
+        <row r="721">
+          <cell r="A721" t="str">
+            <v>HCAM-021-LEAVE</v>
+          </cell>
+          <cell r="B721" t="str">
+            <v>SILLAS PLAYERAS</v>
+          </cell>
+        </row>
+        <row r="722">
+          <cell r="A722" t="str">
+            <v>3246-H62</v>
+          </cell>
+          <cell r="B722" t="str">
+            <v>KIT DE CAMARAS DE VIGILANCIA 4 CAMARAS</v>
+          </cell>
+        </row>
+        <row r="723">
+          <cell r="A723" t="str">
+            <v>246AHD62</v>
+          </cell>
+          <cell r="B723" t="str">
+            <v>KIT DE CAMARAS DE VIGILANCIA 8 CAMARAS</v>
+          </cell>
+        </row>
+        <row r="724">
+          <cell r="A724" t="str">
+            <v>853-8085</v>
+          </cell>
+          <cell r="B724" t="str">
+            <v>SILLA PARA OFICINA</v>
+          </cell>
+        </row>
+        <row r="725">
+          <cell r="A725" t="str">
+            <v>722-90139270</v>
+          </cell>
+          <cell r="B725" t="str">
+            <v>RIEL PARA CORTINA</v>
+          </cell>
+        </row>
+        <row r="726">
+          <cell r="A726" t="str">
+            <v>714-90112723</v>
+          </cell>
+          <cell r="B726" t="str">
+            <v>FLORERO METALICO</v>
+          </cell>
+        </row>
+        <row r="727">
+          <cell r="A727" t="str">
+            <v>4765-3H</v>
+          </cell>
+          <cell r="B727" t="str">
+            <v>LAMPARA PARA TECHO</v>
+          </cell>
+        </row>
+        <row r="728">
+          <cell r="A728" t="str">
+            <v>GL-7021</v>
+          </cell>
+          <cell r="B728" t="str">
+            <v>TRICICLO</v>
+          </cell>
+        </row>
+        <row r="729">
+          <cell r="A729" t="str">
+            <v>853-90122120</v>
+          </cell>
+          <cell r="B729" t="str">
+            <v>MESA PARA COMPUTADORA</v>
+          </cell>
+        </row>
+        <row r="730">
+          <cell r="A730" t="str">
+            <v>605-90108760</v>
+          </cell>
+          <cell r="B730" t="str">
+            <v>LAMPARA PARA TECHO</v>
+          </cell>
+        </row>
+        <row r="731">
+          <cell r="A731" t="str">
+            <v>GI-2926</v>
+          </cell>
+          <cell r="B731" t="str">
+            <v>SOPORTE PARA TV</v>
+          </cell>
+        </row>
+        <row r="732">
+          <cell r="A732" t="str">
+            <v>GI-2926-42</v>
+          </cell>
+          <cell r="B732" t="str">
+            <v>SOPORTE PARA TV</v>
+          </cell>
+        </row>
+        <row r="733">
+          <cell r="A733" t="str">
+            <v>RYD-8720</v>
+          </cell>
+          <cell r="B733" t="str">
+            <v>SOPORTE PARA TV</v>
+          </cell>
+        </row>
+        <row r="734">
+          <cell r="A734" t="str">
+            <v>718-29156</v>
+          </cell>
+          <cell r="B734" t="str">
+            <v>PLANTA ARTIFICIAL</v>
+          </cell>
+        </row>
+        <row r="735">
+          <cell r="A735" t="str">
+            <v>6906-1W</v>
+          </cell>
+          <cell r="B735" t="str">
+            <v>LAMPARA PARA PARED</v>
+          </cell>
+        </row>
+        <row r="736">
+          <cell r="A736" t="str">
+            <v>605-90108792</v>
+          </cell>
+          <cell r="B736" t="str">
+            <v>LAMPARA PARA TECHO</v>
+          </cell>
+        </row>
+        <row r="737">
+          <cell r="A737" t="str">
+            <v>605-90108737</v>
+          </cell>
+          <cell r="B737" t="str">
+            <v>LAMPARA PARA TECHO</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:C718" totalsRowShown="0">
-  <autoFilter ref="A1:C718"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:C861" totalsRowShown="0">
+  <autoFilter ref="A1:C861"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="CÓDIGO" dataDxfId="2"/>
-    <tableColumn id="2" name="DESCRIPCION" dataDxfId="1"/>
-    <tableColumn id="3" name="PRECIO" dataDxfId="0"/>
+    <tableColumn id="1" name="CÓDIGO" dataDxfId="4"/>
+    <tableColumn id="2" name="DESCRIPCION" dataDxfId="3"/>
+    <tableColumn id="3" name="PRECIO" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4817,22 +12625,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I853"/>
+  <dimension ref="A1:I899"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A833" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B835" sqref="B835"/>
+      <pane ySplit="1" topLeftCell="A889" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D915" sqref="D915"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" style="25" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" style="25" customWidth="1"/>
     <col min="3" max="3" width="32" style="9" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="12" customFormat="1">
@@ -22774,55 +30582,1037 @@
       </c>
     </row>
     <row r="852" spans="2:7">
-      <c r="B852" s="23"/>
+      <c r="B852" s="23" t="s">
+        <v>1278</v>
+      </c>
       <c r="C852" s="8" t="str">
-        <f>IF(ISBLANK(B852)," ",VLOOKUP(B852,'Listado articulos'!A:B,2,FALSE))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D852" s="4" t="str">
-        <f>IF(ISBLANK(B852)," ",VLOOKUP(B852,'Listado articulos'!A:C,3,FALSE))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E852" s="19"/>
+        <f>IF(ISBLANK(B852)," ",VLOOKUP(B852,'[1]Listado articulos'!A:B,2,FALSE))</f>
+        <v>GABINETE MULTIUSO</v>
+      </c>
+      <c r="D852" s="4">
+        <f>IF(ISBLANK(B852)," ",VLOOKUP(B852,'[1]Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E852" s="19">
+        <v>1</v>
+      </c>
       <c r="F852" s="18"/>
-      <c r="G852" s="3" t="str">
+      <c r="G852" s="3">
         <f>IF(ISBLANK(B852)," ",SUMIF($B$2:B852,B852,$E$2:E852)-SUMIF($B$2:B852,B852,$F$2:F852))</f>
-        <v xml:space="preserve"> </v>
+        <v>1</v>
       </c>
     </row>
     <row r="853" spans="2:7">
-      <c r="B853" s="23"/>
+      <c r="B853" s="23" t="s">
+        <v>1311</v>
+      </c>
       <c r="C853" s="8" t="str">
-        <f>IF(ISBLANK(B853)," ",VLOOKUP(B853,'Listado articulos'!A:B,2,FALSE))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D853" s="4" t="str">
-        <f>IF(ISBLANK(B853)," ",VLOOKUP(B853,'Listado articulos'!A:C,3,FALSE))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E853" s="19"/>
+        <f>IF(ISBLANK(B853)," ",VLOOKUP(B853,'[1]Listado articulos'!A:B,2,FALSE))</f>
+        <v>ESCALERA METALICA</v>
+      </c>
+      <c r="D853" s="4">
+        <f>IF(ISBLANK(B853)," ",VLOOKUP(B853,'[1]Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E853" s="19">
+        <v>1</v>
+      </c>
       <c r="F853" s="18"/>
-      <c r="G853" s="3" t="str">
+      <c r="G853" s="3">
         <f>IF(ISBLANK(B853)," ",SUMIF($B$2:B853,B853,$E$2:E853)-SUMIF($B$2:B853,B853,$F$2:F853))</f>
-        <v xml:space="preserve"> </v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="854" spans="2:7">
+      <c r="B854" s="23" t="s">
+        <v>981</v>
+      </c>
+      <c r="C854" s="8" t="str">
+        <f>IF(ISBLANK(B854)," ",VLOOKUP(B854,'[1]Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve">ESPEJO DE PARED </v>
+      </c>
+      <c r="D854" s="4">
+        <f>IF(ISBLANK(B854)," ",VLOOKUP(B854,'[1]Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E854" s="19">
+        <v>1</v>
+      </c>
+      <c r="F854" s="18"/>
+      <c r="G854" s="3">
+        <f>IF(ISBLANK(B854)," ",SUMIF($B$2:B854,B854,$E$2:E854)-SUMIF($B$2:B854,B854,$F$2:F854))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="855" spans="2:7">
+      <c r="B855" s="23" t="s">
+        <v>673</v>
+      </c>
+      <c r="C855" s="8" t="str">
+        <f>IF(ISBLANK(B855)," ",VLOOKUP(B855,'[1]Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve">COMEDOR DE 6 SILLAS </v>
+      </c>
+      <c r="D855" s="4">
+        <f>IF(ISBLANK(B855)," ",VLOOKUP(B855,'[1]Listado articulos'!A:C,3,FALSE))</f>
+        <v>590</v>
+      </c>
+      <c r="E855" s="19">
+        <v>1</v>
+      </c>
+      <c r="F855" s="18"/>
+      <c r="G855" s="3">
+        <f>IF(ISBLANK(B855)," ",SUMIF($B$2:B855,B855,$E$2:E855)-SUMIF($B$2:B855,B855,$F$2:F855))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="856" spans="2:7">
+      <c r="B856" s="23" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C856" s="8" t="str">
+        <f>IF(ISBLANK(B856)," ",VLOOKUP(B856,'[1]Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve">COMEDOR REDONDO 4 SILLAS </v>
+      </c>
+      <c r="D856" s="4">
+        <f>IF(ISBLANK(B856)," ",VLOOKUP(B856,'[1]Listado articulos'!A:C,3,FALSE))</f>
+        <v>165</v>
+      </c>
+      <c r="E856" s="19">
+        <v>1</v>
+      </c>
+      <c r="F856" s="18"/>
+      <c r="G856" s="3">
+        <f>IF(ISBLANK(B856)," ",SUMIF($B$2:B856,B856,$E$2:E856)-SUMIF($B$2:B856,B856,$F$2:F856))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="857" spans="2:7">
+      <c r="B857" s="23" t="s">
+        <v>979</v>
+      </c>
+      <c r="C857" s="8" t="str">
+        <f>IF(ISBLANK(B857)," ",VLOOKUP(B857,'[1]Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve">SILLA PLASTICA </v>
+      </c>
+      <c r="D857" s="4">
+        <f>IF(ISBLANK(B857)," ",VLOOKUP(B857,'[1]Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E857" s="19">
+        <v>2</v>
+      </c>
+      <c r="F857" s="18"/>
+      <c r="G857" s="3">
+        <f>IF(ISBLANK(B857)," ",SUMIF($B$2:B857,B857,$E$2:E857)-SUMIF($B$2:B857,B857,$F$2:F857))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="858" spans="2:7">
+      <c r="B858" s="23" t="s">
+        <v>458</v>
+      </c>
+      <c r="C858" s="8" t="str">
+        <f>IF(ISBLANK(B858)," ",VLOOKUP(B858,'[1]Listado articulos'!A:B,2,FALSE))</f>
+        <v>GABINETE PARA COCINA 3 PUERTAS</v>
+      </c>
+      <c r="D858" s="4">
+        <f>IF(ISBLANK(B858)," ",VLOOKUP(B858,'[1]Listado articulos'!A:C,3,FALSE))</f>
+        <v>159</v>
+      </c>
+      <c r="E858" s="19">
+        <v>1</v>
+      </c>
+      <c r="F858" s="18"/>
+      <c r="G858" s="3">
+        <f>IF(ISBLANK(B858)," ",SUMIF($B$2:B858,B858,$E$2:E858)-SUMIF($B$2:B858,B858,$F$2:F858))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="859" spans="2:7">
+      <c r="B859" s="23" t="s">
+        <v>605</v>
+      </c>
+      <c r="C859" s="8" t="str">
+        <f>IF(ISBLANK(B859)," ",VLOOKUP(B859,'[1]Listado articulos'!A:B,2,FALSE))</f>
+        <v>LAMPARA PARA PARED</v>
+      </c>
+      <c r="D859" s="4">
+        <f>IF(ISBLANK(B859)," ",VLOOKUP(B859,'[1]Listado articulos'!A:C,3,FALSE))</f>
+        <v>12</v>
+      </c>
+      <c r="E859" s="19">
+        <v>2</v>
+      </c>
+      <c r="F859" s="18"/>
+      <c r="G859" s="3">
+        <f>IF(ISBLANK(B859)," ",SUMIF($B$2:B859,B859,$E$2:E859)-SUMIF($B$2:B859,B859,$F$2:F859))</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="860" spans="2:7">
+      <c r="B860" s="23" t="s">
+        <v>626</v>
+      </c>
+      <c r="C860" s="8" t="str">
+        <f>IF(ISBLANK(B860)," ",VLOOKUP(B860,'[1]Listado articulos'!A:B,2,FALSE))</f>
+        <v>SILLA PARA BAR</v>
+      </c>
+      <c r="D860" s="4">
+        <f>IF(ISBLANK(B860)," ",VLOOKUP(B860,'[1]Listado articulos'!A:C,3,FALSE))</f>
+        <v>48</v>
+      </c>
+      <c r="E860" s="19">
+        <v>3</v>
+      </c>
+      <c r="F860" s="18"/>
+      <c r="G860" s="3">
+        <f>IF(ISBLANK(B860)," ",SUMIF($B$2:B860,B860,$E$2:E860)-SUMIF($B$2:B860,B860,$F$2:F860))</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="861" spans="2:7">
+      <c r="B861" s="23" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C861" s="8" t="str">
+        <f>IF(ISBLANK(B861)," ",VLOOKUP(B861,'[1]Listado articulos'!A:B,2,FALSE))</f>
+        <v>SILLAS PLAYERAS</v>
+      </c>
+      <c r="D861" s="4">
+        <f>IF(ISBLANK(B861)," ",VLOOKUP(B861,'[1]Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E861" s="19">
+        <v>2</v>
+      </c>
+      <c r="F861" s="18"/>
+      <c r="G861" s="3">
+        <f>IF(ISBLANK(B861)," ",SUMIF($B$2:B861,B861,$E$2:E861)-SUMIF($B$2:B861,B861,$F$2:F861))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="862" spans="2:7">
+      <c r="B862" s="23" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C862" s="8" t="str">
+        <f>IF(ISBLANK(B862)," ",VLOOKUP(B862,'[1]Listado articulos'!A:B,2,FALSE))</f>
+        <v>KIT DE CAMARAS DE VIGILANCIA 4 CAMARAS</v>
+      </c>
+      <c r="D862" s="4">
+        <f>IF(ISBLANK(B862)," ",VLOOKUP(B862,'[1]Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E862" s="19">
+        <v>1</v>
+      </c>
+      <c r="F862" s="18"/>
+      <c r="G862" s="3">
+        <f>IF(ISBLANK(B862)," ",SUMIF($B$2:B862,B862,$E$2:E862)-SUMIF($B$2:B862,B862,$F$2:F862))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="863" spans="2:7">
+      <c r="B863" s="23" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C863" s="8" t="str">
+        <f>IF(ISBLANK(B863)," ",VLOOKUP(B863,'[1]Listado articulos'!A:B,2,FALSE))</f>
+        <v>KIT DE CAMARAS DE VIGILANCIA 8 CAMARAS</v>
+      </c>
+      <c r="D863" s="4">
+        <f>IF(ISBLANK(B863)," ",VLOOKUP(B863,'[1]Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E863" s="19">
+        <v>1</v>
+      </c>
+      <c r="F863" s="18"/>
+      <c r="G863" s="3">
+        <f>IF(ISBLANK(B863)," ",SUMIF($B$2:B863,B863,$E$2:E863)-SUMIF($B$2:B863,B863,$F$2:F863))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="864" spans="2:7">
+      <c r="B864" s="23" t="s">
+        <v>466</v>
+      </c>
+      <c r="C864" s="8" t="str">
+        <f>IF(ISBLANK(B864)," ",VLOOKUP(B864,'[1]Listado articulos'!A:B,2,FALSE))</f>
+        <v>SILLAS PARA OFICINA CON BRAZOS</v>
+      </c>
+      <c r="D864" s="4">
+        <f>IF(ISBLANK(B864)," ",VLOOKUP(B864,'[1]Listado articulos'!A:C,3,FALSE))</f>
+        <v>180</v>
+      </c>
+      <c r="E864" s="19">
+        <v>1</v>
+      </c>
+      <c r="F864" s="18"/>
+      <c r="G864" s="3">
+        <f>IF(ISBLANK(B864)," ",SUMIF($B$2:B864,B864,$E$2:E864)-SUMIF($B$2:B864,B864,$F$2:F864))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="865" spans="2:7">
+      <c r="B865" s="23" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C865" s="8" t="str">
+        <f>IF(ISBLANK(B865)," ",VLOOKUP(B865,'[1]Listado articulos'!A:B,2,FALSE))</f>
+        <v>SILLA PARA OFICINA</v>
+      </c>
+      <c r="D865" s="4">
+        <f>IF(ISBLANK(B865)," ",VLOOKUP(B865,'[1]Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E865" s="19">
+        <v>1</v>
+      </c>
+      <c r="F865" s="18"/>
+      <c r="G865" s="3">
+        <f>IF(ISBLANK(B865)," ",SUMIF($B$2:B865,B865,$E$2:E865)-SUMIF($B$2:B865,B865,$F$2:F865))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="866" spans="2:7">
+      <c r="B866" s="23" t="s">
+        <v>488</v>
+      </c>
+      <c r="C866" s="8" t="str">
+        <f>IF(ISBLANK(B866)," ",VLOOKUP(B866,'[1]Listado articulos'!A:B,2,FALSE))</f>
+        <v>SILLA PARA OFICINA SIN BRAZOS</v>
+      </c>
+      <c r="D866" s="4">
+        <f>IF(ISBLANK(B866)," ",VLOOKUP(B866,'[1]Listado articulos'!A:C,3,FALSE))</f>
+        <v>95</v>
+      </c>
+      <c r="E866" s="19">
+        <v>1</v>
+      </c>
+      <c r="F866" s="18"/>
+      <c r="G866" s="3">
+        <f>IF(ISBLANK(B866)," ",SUMIF($B$2:B866,B866,$E$2:E866)-SUMIF($B$2:B866,B866,$F$2:F866))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="867" spans="2:7">
+      <c r="B867" s="23" t="s">
+        <v>634</v>
+      </c>
+      <c r="C867" s="8" t="str">
+        <f>IF(ISBLANK(B867)," ",VLOOKUP(B867,'[1]Listado articulos'!A:B,2,FALSE))</f>
+        <v>SILLA PARA BAR</v>
+      </c>
+      <c r="D867" s="4">
+        <f>IF(ISBLANK(B867)," ",VLOOKUP(B867,'[1]Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E867" s="19">
+        <v>2</v>
+      </c>
+      <c r="F867" s="18"/>
+      <c r="G867" s="3">
+        <f>IF(ISBLANK(B867)," ",SUMIF($B$2:B867,B867,$E$2:E867)-SUMIF($B$2:B867,B867,$F$2:F867))</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="868" spans="2:7">
+      <c r="B868" s="23" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C868" s="8" t="str">
+        <f>IF(ISBLANK(B868)," ",VLOOKUP(B868,'[1]Listado articulos'!A:B,2,FALSE))</f>
+        <v>RIEL PARA CORTINA</v>
+      </c>
+      <c r="D868" s="4">
+        <f>IF(ISBLANK(B868)," ",VLOOKUP(B868,'[1]Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E868" s="19">
+        <v>1</v>
+      </c>
+      <c r="F868" s="18"/>
+      <c r="G868" s="3">
+        <f>IF(ISBLANK(B868)," ",SUMIF($B$2:B868,B868,$E$2:E868)-SUMIF($B$2:B868,B868,$F$2:F868))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="869" spans="2:7">
+      <c r="B869" s="23" t="s">
+        <v>591</v>
+      </c>
+      <c r="C869" s="8" t="str">
+        <f>IF(ISBLANK(B869)," ",VLOOKUP(B869,'[1]Listado articulos'!A:B,2,FALSE))</f>
+        <v>JUEGO DE VARILLA DECORATIVA PARA CORTINA ROD SET</v>
+      </c>
+      <c r="D869" s="4">
+        <f>IF(ISBLANK(B869)," ",VLOOKUP(B869,'[1]Listado articulos'!A:C,3,FALSE))</f>
+        <v>15</v>
+      </c>
+      <c r="E869" s="19">
+        <v>1</v>
+      </c>
+      <c r="F869" s="18"/>
+      <c r="G869" s="3">
+        <f>IF(ISBLANK(B869)," ",SUMIF($B$2:B869,B869,$E$2:E869)-SUMIF($B$2:B869,B869,$F$2:F869))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="870" spans="2:7">
+      <c r="B870" s="23" t="s">
+        <v>934</v>
+      </c>
+      <c r="C870" s="8" t="str">
+        <f>IF(ISBLANK(B870)," ",VLOOKUP(B870,'[1]Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve">SILLA METAL NEGRA </v>
+      </c>
+      <c r="D870" s="4">
+        <f>IF(ISBLANK(B870)," ",VLOOKUP(B870,'[1]Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E870" s="19">
+        <v>2</v>
+      </c>
+      <c r="F870" s="18"/>
+      <c r="G870" s="3">
+        <f>IF(ISBLANK(B870)," ",SUMIF($B$2:B870,B870,$E$2:E870)-SUMIF($B$2:B870,B870,$F$2:F870))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="871" spans="2:7">
+      <c r="B871" s="23" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C871" s="8" t="str">
+        <f>IF(ISBLANK(B871)," ",VLOOKUP(B871,'[1]Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve">CANDELABRO </v>
+      </c>
+      <c r="D871" s="4">
+        <f>IF(ISBLANK(B871)," ",VLOOKUP(B871,'[1]Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E871" s="19">
+        <v>2</v>
+      </c>
+      <c r="F871" s="18"/>
+      <c r="G871" s="3">
+        <f>IF(ISBLANK(B871)," ",SUMIF($B$2:B871,B871,$E$2:E871)-SUMIF($B$2:B871,B871,$F$2:F871))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="872" spans="2:7">
+      <c r="B872" s="23" t="s">
+        <v>452</v>
+      </c>
+      <c r="C872" s="8" t="str">
+        <f>IF(ISBLANK(B872)," ",VLOOKUP(B872,'[1]Listado articulos'!A:B,2,FALSE))</f>
+        <v>GABINETE PARA COCINA 3 PUERTAS</v>
+      </c>
+      <c r="D872" s="4">
+        <f>IF(ISBLANK(B872)," ",VLOOKUP(B872,'[1]Listado articulos'!A:C,3,FALSE))</f>
+        <v>138</v>
+      </c>
+      <c r="E872" s="19"/>
+      <c r="F872" s="18">
+        <v>1</v>
+      </c>
+      <c r="G872" s="3">
+        <f>IF(ISBLANK(B872)," ",SUMIF($B$2:B872,B872,$E$2:E872)-SUMIF($B$2:B872,B872,$F$2:F872))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="873" spans="2:7">
+      <c r="B873" s="23" t="s">
+        <v>968</v>
+      </c>
+      <c r="C873" s="8" t="str">
+        <f>IF(ISBLANK(B873)," ",VLOOKUP(B873,'[1]Listado articulos'!A:B,2,FALSE))</f>
+        <v>MESA CON ESPEJO(REPISA)</v>
+      </c>
+      <c r="D873" s="4">
+        <f>IF(ISBLANK(B873)," ",VLOOKUP(B873,'[1]Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E873" s="19"/>
+      <c r="F873" s="18">
+        <v>1</v>
+      </c>
+      <c r="G873" s="3">
+        <f>IF(ISBLANK(B873)," ",SUMIF($B$2:B873,B873,$E$2:E873)-SUMIF($B$2:B873,B873,$F$2:F873))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="874" spans="2:7">
+      <c r="B874" s="23" t="s">
+        <v>723</v>
+      </c>
+      <c r="C874" s="8" t="str">
+        <f>IF(ISBLANK(B874)," ",VLOOKUP(B874,'[1]Listado articulos'!A:B,2,FALSE))</f>
+        <v>CARRO ELECRICO  HURRICANE PARA NIÑO</v>
+      </c>
+      <c r="D874" s="4">
+        <f>IF(ISBLANK(B874)," ",VLOOKUP(B874,'[1]Listado articulos'!A:C,3,FALSE))</f>
+        <v>299</v>
+      </c>
+      <c r="E874" s="19">
+        <v>1</v>
+      </c>
+      <c r="F874" s="18"/>
+      <c r="G874" s="3">
+        <f>IF(ISBLANK(B874)," ",SUMIF($B$2:B874,B874,$E$2:E874)-SUMIF($B$2:B874,B874,$F$2:F874))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="875" spans="2:7">
+      <c r="B875" s="23" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C875" s="8" t="str">
+        <f>IF(ISBLANK(B875)," ",VLOOKUP(B875,'[1]Listado articulos'!A:B,2,FALSE))</f>
+        <v>FLORERO METALICO</v>
+      </c>
+      <c r="D875" s="4">
+        <f>IF(ISBLANK(B875)," ",VLOOKUP(B875,'[1]Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E875" s="19">
+        <v>2</v>
+      </c>
+      <c r="F875" s="18"/>
+      <c r="G875" s="3">
+        <f>IF(ISBLANK(B875)," ",SUMIF($B$2:B875,B875,$E$2:E875)-SUMIF($B$2:B875,B875,$F$2:F875))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="876" spans="2:7">
+      <c r="B876" s="23" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C876" s="8" t="str">
+        <f>IF(ISBLANK(B876)," ",VLOOKUP(B876,'[1]Listado articulos'!A:B,2,FALSE))</f>
+        <v>LAMPARA PARA TECHO</v>
+      </c>
+      <c r="D876" s="4">
+        <f>IF(ISBLANK(B876)," ",VLOOKUP(B876,'[1]Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E876" s="19">
+        <v>1</v>
+      </c>
+      <c r="F876" s="18"/>
+      <c r="G876" s="3">
+        <f>IF(ISBLANK(B876)," ",SUMIF($B$2:B876,B876,$E$2:E876)-SUMIF($B$2:B876,B876,$F$2:F876))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="877" spans="2:7">
+      <c r="B877" s="23" t="s">
+        <v>563</v>
+      </c>
+      <c r="C877" s="8" t="str">
+        <f>IF(ISBLANK(B877)," ",VLOOKUP(B877,'[1]Listado articulos'!A:B,2,FALSE))</f>
+        <v>RELOJ DE PISO CON PENDULO, FALLADO</v>
+      </c>
+      <c r="D877" s="4">
+        <f>IF(ISBLANK(B877)," ",VLOOKUP(B877,'[1]Listado articulos'!A:C,3,FALSE))</f>
+        <v>180</v>
+      </c>
+      <c r="E877" s="19">
+        <v>1</v>
+      </c>
+      <c r="F877" s="18"/>
+      <c r="G877" s="3">
+        <f>IF(ISBLANK(B877)," ",SUMIF($B$2:B877,B877,$E$2:E877)-SUMIF($B$2:B877,B877,$F$2:F877))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="878" spans="2:7">
+      <c r="B878" s="23" t="s">
+        <v>514</v>
+      </c>
+      <c r="C878" s="8" t="str">
+        <f>IF(ISBLANK(B878)," ",VLOOKUP(B878,'[1]Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve">PLANTA ARTIFICIAL CON MACETA </v>
+      </c>
+      <c r="D878" s="4">
+        <f>IF(ISBLANK(B878)," ",VLOOKUP(B878,'[1]Listado articulos'!A:C,3,FALSE))</f>
+        <v>8.5</v>
+      </c>
+      <c r="E878" s="19">
+        <v>2</v>
+      </c>
+      <c r="F878" s="18"/>
+      <c r="G878" s="3">
+        <f>IF(ISBLANK(B878)," ",SUMIF($B$2:B878,B878,$E$2:E878)-SUMIF($B$2:B878,B878,$F$2:F878))</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="879" spans="2:7">
+      <c r="B879" s="23" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C879" s="8" t="str">
+        <f>IF(ISBLANK(B879)," ",VLOOKUP(B879,'[1]Listado articulos'!A:B,2,FALSE))</f>
+        <v>TRICICLO</v>
+      </c>
+      <c r="D879" s="4">
+        <f>IF(ISBLANK(B879)," ",VLOOKUP(B879,'[1]Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E879" s="19">
+        <v>3</v>
+      </c>
+      <c r="F879" s="18"/>
+      <c r="G879" s="3">
+        <f>IF(ISBLANK(B879)," ",SUMIF($B$2:B879,B879,$E$2:E879)-SUMIF($B$2:B879,B879,$F$2:F879))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="880" spans="2:7">
+      <c r="B880" s="23" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C880" s="8" t="str">
+        <f>IF(ISBLANK(B880)," ",VLOOKUP(B880,'[1]Listado articulos'!A:B,2,FALSE))</f>
+        <v>LAMPARA PARA TECHO 5 BOMBILLOS</v>
+      </c>
+      <c r="D880" s="4">
+        <f>IF(ISBLANK(B880)," ",VLOOKUP(B880,'[1]Listado articulos'!A:C,3,FALSE))</f>
+        <v>68</v>
+      </c>
+      <c r="E880" s="19">
+        <v>1</v>
+      </c>
+      <c r="F880" s="18"/>
+      <c r="G880" s="3">
+        <f>IF(ISBLANK(B880)," ",SUMIF($B$2:B880,B880,$E$2:E880)-SUMIF($B$2:B880,B880,$F$2:F880))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="881" spans="2:7">
+      <c r="B881" s="23" t="s">
+        <v>765</v>
+      </c>
+      <c r="C881" s="8" t="str">
+        <f>IF(ISBLANK(B881)," ",VLOOKUP(B881,'[1]Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve">JUEGO DE BAÑO CORTINA Y ALFOMBRAS </v>
+      </c>
+      <c r="D881" s="4">
+        <f>IF(ISBLANK(B881)," ",VLOOKUP(B881,'[1]Listado articulos'!A:C,3,FALSE))</f>
+        <v>19.5</v>
+      </c>
+      <c r="E881" s="19">
+        <v>1</v>
+      </c>
+      <c r="F881" s="18"/>
+      <c r="G881" s="3">
+        <f>IF(ISBLANK(B881)," ",SUMIF($B$2:B881,B881,$E$2:E881)-SUMIF($B$2:B881,B881,$F$2:F881))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="882" spans="2:7">
+      <c r="B882" s="23" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C882" s="8" t="str">
+        <f>IF(ISBLANK(B882)," ",VLOOKUP(B882,'[1]Listado articulos'!A:B,2,FALSE))</f>
+        <v>MESA PARA COMPUTADORA</v>
+      </c>
+      <c r="D882" s="4">
+        <f>IF(ISBLANK(B882)," ",VLOOKUP(B882,'[1]Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E882" s="19">
+        <v>1</v>
+      </c>
+      <c r="F882" s="18"/>
+      <c r="G882" s="3">
+        <f>IF(ISBLANK(B882)," ",SUMIF($B$2:B882,B882,$E$2:E882)-SUMIF($B$2:B882,B882,$F$2:F882))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="883" spans="2:7">
+      <c r="B883" s="23" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C883" s="8" t="str">
+        <f>IF(ISBLANK(B883)," ",VLOOKUP(B883,'[1]Listado articulos'!A:B,2,FALSE))</f>
+        <v>LAMPARA PARA TECHO</v>
+      </c>
+      <c r="D883" s="4">
+        <f>IF(ISBLANK(B883)," ",VLOOKUP(B883,'[1]Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E883" s="19">
+        <v>1</v>
+      </c>
+      <c r="F883" s="18"/>
+      <c r="G883" s="3">
+        <f>IF(ISBLANK(B883)," ",SUMIF($B$2:B883,B883,$E$2:E883)-SUMIF($B$2:B883,B883,$F$2:F883))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="884" spans="2:7">
+      <c r="B884" s="23" t="s">
+        <v>685</v>
+      </c>
+      <c r="C884" s="8" t="str">
+        <f>IF(ISBLANK(B884)," ",VLOOKUP(B884,'[1]Listado articulos'!A:B,2,FALSE))</f>
+        <v>CANDELABRO  PARA MESA</v>
+      </c>
+      <c r="D884" s="4">
+        <f>IF(ISBLANK(B884)," ",VLOOKUP(B884,'[1]Listado articulos'!A:C,3,FALSE))</f>
+        <v>23</v>
+      </c>
+      <c r="E884" s="19">
+        <v>1</v>
+      </c>
+      <c r="F884" s="18"/>
+      <c r="G884" s="3">
+        <f>IF(ISBLANK(B884)," ",SUMIF($B$2:B884,B884,$E$2:E884)-SUMIF($B$2:B884,B884,$F$2:F884))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="885" spans="2:7">
+      <c r="B885" s="23" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C885" s="8" t="str">
+        <f>IF(ISBLANK(B885)," ",VLOOKUP(B885,'[1]Listado articulos'!A:B,2,FALSE))</f>
+        <v>LAMPARA PARA TECHO</v>
+      </c>
+      <c r="D885" s="4">
+        <f>IF(ISBLANK(B885)," ",VLOOKUP(B885,'[1]Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E885" s="19">
+        <v>1</v>
+      </c>
+      <c r="F885" s="18"/>
+      <c r="G885" s="3">
+        <f>IF(ISBLANK(B885)," ",SUMIF($B$2:B885,B885,$E$2:E885)-SUMIF($B$2:B885,B885,$F$2:F885))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="886" spans="2:7">
+      <c r="B886" s="23" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C886" s="8" t="str">
+        <f>IF(ISBLANK(B886)," ",VLOOKUP(B886,'[1]Listado articulos'!A:B,2,FALSE))</f>
+        <v>SOPORTE PARA TV</v>
+      </c>
+      <c r="D886" s="4">
+        <f>IF(ISBLANK(B886)," ",VLOOKUP(B886,'[1]Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E886" s="19">
+        <v>1</v>
+      </c>
+      <c r="F886" s="18"/>
+      <c r="G886" s="3">
+        <f>IF(ISBLANK(B886)," ",SUMIF($B$2:B886,B886,$E$2:E886)-SUMIF($B$2:B886,B886,$F$2:F886))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="887" spans="2:7">
+      <c r="B887" s="23" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C887" s="8" t="str">
+        <f>IF(ISBLANK(B887)," ",VLOOKUP(B887,'[1]Listado articulos'!A:B,2,FALSE))</f>
+        <v>SOPORTE PARA TV</v>
+      </c>
+      <c r="D887" s="4">
+        <f>IF(ISBLANK(B887)," ",VLOOKUP(B887,'[1]Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E887" s="19">
+        <v>1</v>
+      </c>
+      <c r="F887" s="18"/>
+      <c r="G887" s="3">
+        <f>IF(ISBLANK(B887)," ",SUMIF($B$2:B887,B887,$E$2:E887)-SUMIF($B$2:B887,B887,$F$2:F887))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="888" spans="2:7">
+      <c r="B888" s="23" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C888" s="8" t="str">
+        <f>IF(ISBLANK(B888)," ",VLOOKUP(B888,'[1]Listado articulos'!A:B,2,FALSE))</f>
+        <v>SOPORTE PARA TV</v>
+      </c>
+      <c r="D888" s="4">
+        <f>IF(ISBLANK(B888)," ",VLOOKUP(B888,'[1]Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E888" s="19">
+        <v>1</v>
+      </c>
+      <c r="F888" s="18"/>
+      <c r="G888" s="3">
+        <f>IF(ISBLANK(B888)," ",SUMIF($B$2:B888,B888,$E$2:E888)-SUMIF($B$2:B888,B888,$F$2:F888))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="889" spans="2:7">
+      <c r="B889" s="23" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C889" s="8" t="str">
+        <f>IF(ISBLANK(B889)," ",VLOOKUP(B889,'[1]Listado articulos'!A:B,2,FALSE))</f>
+        <v>PLANTA ARTIFICIAL</v>
+      </c>
+      <c r="D889" s="4">
+        <f>IF(ISBLANK(B889)," ",VLOOKUP(B889,'[1]Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E889" s="19">
+        <v>1</v>
+      </c>
+      <c r="F889" s="18"/>
+      <c r="G889" s="3">
+        <f>IF(ISBLANK(B889)," ",SUMIF($B$2:B889,B889,$E$2:E889)-SUMIF($B$2:B889,B889,$F$2:F889))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="890" spans="2:7">
+      <c r="B890" s="23">
+        <v>5442</v>
+      </c>
+      <c r="C890" s="8" t="str">
+        <f>IF(ISBLANK(B890)," ",VLOOKUP(B890,'[1]Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve">LAMPARA DE TECHO </v>
+      </c>
+      <c r="D890" s="4">
+        <f>IF(ISBLANK(B890)," ",VLOOKUP(B890,'[1]Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E890" s="19">
+        <v>1</v>
+      </c>
+      <c r="F890" s="18"/>
+      <c r="G890" s="3">
+        <f>IF(ISBLANK(B890)," ",SUMIF($B$2:B890,B890,$E$2:E890)-SUMIF($B$2:B890,B890,$F$2:F890))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="891" spans="2:7">
+      <c r="B891" s="23" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C891" s="8" t="str">
+        <f>IF(ISBLANK(B891)," ",VLOOKUP(B891,'[1]Listado articulos'!A:B,2,FALSE))</f>
+        <v>LAMPARA PARA PARED</v>
+      </c>
+      <c r="D891" s="4">
+        <f>IF(ISBLANK(B891)," ",VLOOKUP(B891,'[1]Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E891" s="19">
+        <v>1</v>
+      </c>
+      <c r="F891" s="18"/>
+      <c r="G891" s="3">
+        <f>IF(ISBLANK(B891)," ",SUMIF($B$2:B891,B891,$E$2:E891)-SUMIF($B$2:B891,B891,$F$2:F891))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="892" spans="2:7">
+      <c r="B892" s="23" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C892" s="8" t="str">
+        <f>IF(ISBLANK(B892)," ",VLOOKUP(B892,'[1]Listado articulos'!A:B,2,FALSE))</f>
+        <v>LAMPARA PARA TECHO</v>
+      </c>
+      <c r="D892" s="4">
+        <f>IF(ISBLANK(B892)," ",VLOOKUP(B892,'[1]Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E892" s="19">
+        <v>1</v>
+      </c>
+      <c r="F892" s="18"/>
+      <c r="G892" s="3">
+        <f>IF(ISBLANK(B892)," ",SUMIF($B$2:B892,B892,$E$2:E892)-SUMIF($B$2:B892,B892,$F$2:F892))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="893" spans="2:7">
+      <c r="B893" s="23" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C893" s="8" t="str">
+        <f>IF(ISBLANK(B893)," ",VLOOKUP(B893,'[1]Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve">RELOJ DE PARED </v>
+      </c>
+      <c r="D893" s="4">
+        <f>IF(ISBLANK(B893)," ",VLOOKUP(B893,'[1]Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E893" s="19">
+        <v>1</v>
+      </c>
+      <c r="F893" s="18"/>
+      <c r="G893" s="3">
+        <f>IF(ISBLANK(B893)," ",SUMIF($B$2:B893,B893,$E$2:E893)-SUMIF($B$2:B893,B893,$F$2:F893))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="894" spans="2:7">
+      <c r="B894" s="23" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C894" s="8" t="str">
+        <f>IF(ISBLANK(B894)," ",VLOOKUP(B894,'[1]Listado articulos'!A:B,2,FALSE))</f>
+        <v>LAMPARA PARA TECHO</v>
+      </c>
+      <c r="D894" s="4">
+        <f>IF(ISBLANK(B894)," ",VLOOKUP(B894,'[1]Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E894" s="19">
+        <v>1</v>
+      </c>
+      <c r="F894" s="18"/>
+      <c r="G894" s="3">
+        <f>IF(ISBLANK(B894)," ",SUMIF($B$2:B894,B894,$E$2:E894)-SUMIF($B$2:B894,B894,$F$2:F894))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="895" spans="2:7">
+      <c r="B895" s="23" t="s">
+        <v>763</v>
+      </c>
+      <c r="C895" s="8" t="str">
+        <f>IF(ISBLANK(B895)," ",VLOOKUP(B895,'[1]Listado articulos'!A:B,2,FALSE))</f>
+        <v>CORTINA PARA BAÑO  PACIFIC CLUB</v>
+      </c>
+      <c r="D895" s="4">
+        <f>IF(ISBLANK(B895)," ",VLOOKUP(B895,'[1]Listado articulos'!A:C,3,FALSE))</f>
+        <v>4.5</v>
+      </c>
+      <c r="E895" s="19">
+        <v>3</v>
+      </c>
+      <c r="F895" s="18"/>
+      <c r="G895" s="3">
+        <f>IF(ISBLANK(B895)," ",SUMIF($B$2:B895,B895,$E$2:E895)-SUMIF($B$2:B895,B895,$F$2:F895))</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="896" spans="2:7">
+      <c r="B896" s="23" t="s">
+        <v>995</v>
+      </c>
+      <c r="C896" s="8" t="str">
+        <f>IF(ISBLANK(B896)," ",VLOOKUP(B896,'[1]Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve">COMEDOR 5 PIEZAS </v>
+      </c>
+      <c r="D896" s="4">
+        <f>IF(ISBLANK(B896)," ",VLOOKUP(B896,'[1]Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E896" s="19">
+        <v>15</v>
+      </c>
+      <c r="F896" s="18"/>
+      <c r="G896" s="3">
+        <f>IF(ISBLANK(B896)," ",SUMIF($B$2:B896,B896,$E$2:E896)-SUMIF($B$2:B896,B896,$F$2:F896))</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="897" spans="2:7">
+      <c r="B897" s="23" t="s">
+        <v>587</v>
+      </c>
+      <c r="C897" s="8" t="str">
+        <f>IF(ISBLANK(B897)," ",VLOOKUP(B897,'[1]Listado articulos'!A:B,2,FALSE))</f>
+        <v xml:space="preserve">JUEGO MESA  REDONDA DE VIDRIO, DOS SILLAS </v>
+      </c>
+      <c r="D897" s="4">
+        <f>IF(ISBLANK(B897)," ",VLOOKUP(B897,'[1]Listado articulos'!A:C,3,FALSE))</f>
+        <v>180</v>
+      </c>
+      <c r="E897" s="19">
+        <v>3</v>
+      </c>
+      <c r="F897" s="18"/>
+      <c r="G897" s="3">
+        <f>IF(ISBLANK(B897)," ",SUMIF($B$2:B897,B897,$E$2:E897)-SUMIF($B$2:B897,B897,$F$2:F897))</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="898" spans="2:7">
+      <c r="B898" s="23" t="s">
+        <v>983</v>
+      </c>
+      <c r="C898" s="8" t="str">
+        <f>IF(ISBLANK(B898)," ",VLOOKUP(B898,'[1]Listado articulos'!A:B,2,FALSE))</f>
+        <v>MESA CON SILLA PARA TERRAZA NEGRO</v>
+      </c>
+      <c r="D898" s="4">
+        <f>IF(ISBLANK(B898)," ",VLOOKUP(B898,'[1]Listado articulos'!A:C,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E898" s="19">
+        <v>2</v>
+      </c>
+      <c r="F898" s="18"/>
+      <c r="G898" s="3">
+        <f>IF(ISBLANK(B898)," ",SUMIF($B$2:B898,B898,$E$2:E898)-SUMIF($B$2:B898,B898,$F$2:F898))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="899" spans="2:7">
+      <c r="B899" s="23" t="s">
+        <v>563</v>
+      </c>
+      <c r="C899" s="8" t="str">
+        <f>IF(ISBLANK(B899)," ",VLOOKUP(B899,'[1]Listado articulos'!A:B,2,FALSE))</f>
+        <v>RELOJ DE PISO CON PENDULO, FALLADO</v>
+      </c>
+      <c r="D899" s="4">
+        <f>IF(ISBLANK(B899)," ",VLOOKUP(B899,'[1]Listado articulos'!A:C,3,FALSE))</f>
+        <v>180</v>
+      </c>
+      <c r="E899" s="19">
+        <v>1</v>
+      </c>
+      <c r="F899" s="18"/>
+      <c r="G899" s="3">
+        <f>IF(ISBLANK(B899)," ",SUMIF($B$2:B899,B899,$E$2:E899)-SUMIF($B$2:B899,B899,$F$2:F899))</f>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G1:G65244">
-    <cfRule type="cellIs" dxfId="22" priority="30" operator="greaterThan">
+  <conditionalFormatting sqref="G1:G851 G900:G65244">
+    <cfRule type="cellIs" dxfId="24" priority="32" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="32" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="containsText" dxfId="20" priority="29" operator="containsText" text="S">
+    <cfRule type="containsText" dxfId="22" priority="31" operator="containsText" text="S">
       <formula>NOT(ISERROR(SEARCH("S",G1)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G852:G899">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B853">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B899">
       <formula1>REF</formula1>
     </dataValidation>
   </dataValidations>
@@ -22835,21 +31625,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J646"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A317" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A586" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I336" sqref="I336"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="3" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" style="50" customWidth="1"/>
-    <col min="3" max="3" width="52.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="11.42578125" style="1"/>
+    <col min="2" max="2" width="19.88671875" style="50" customWidth="1"/>
+    <col min="3" max="3" width="52.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="12" customFormat="1">
@@ -23697,13 +32487,13 @@
       <c r="B38" s="48" t="s">
         <v>1112</v>
       </c>
-      <c r="C38" s="8" t="e">
+      <c r="C38" s="8" t="str">
         <f>IF(ISBLANK(B38)," ",VLOOKUP(B38,'Listado articulos'!A:B,2,FALSE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D38" s="4" t="e">
+        <v>LAMPARA PARA PARED</v>
+      </c>
+      <c r="D38" s="4">
         <f>IF(ISBLANK(B38)," ",VLOOKUP(B38,'Listado articulos'!A:C,3,FALSE))</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="E38" s="43">
         <v>7</v>
@@ -24201,13 +32991,13 @@
       <c r="B62" s="48" t="s">
         <v>1122</v>
       </c>
-      <c r="C62" s="8" t="e">
+      <c r="C62" s="8" t="str">
         <f>IF(ISBLANK(B62)," ",VLOOKUP(B62,'Listado articulos'!A:B,2,FALSE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D62" s="4" t="e">
+        <v>LAMPARA PARA TECHO</v>
+      </c>
+      <c r="D62" s="4">
         <f>IF(ISBLANK(B62)," ",VLOOKUP(B62,'Listado articulos'!A:C,3,FALSE))</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="E62" s="43">
         <v>4</v>
@@ -24222,13 +33012,13 @@
       <c r="B63" s="48" t="s">
         <v>1123</v>
       </c>
-      <c r="C63" s="8" t="e">
+      <c r="C63" s="8" t="str">
         <f>IF(ISBLANK(B63)," ",VLOOKUP(B63,'Listado articulos'!A:B,2,FALSE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D63" s="4" t="e">
+        <v>LAMPARA PARA TECHO</v>
+      </c>
+      <c r="D63" s="4">
         <f>IF(ISBLANK(B63)," ",VLOOKUP(B63,'Listado articulos'!A:C,3,FALSE))</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="E63" s="43">
         <v>3</v>
@@ -24516,13 +33306,13 @@
       <c r="B77" s="48" t="s">
         <v>1127</v>
       </c>
-      <c r="C77" s="8" t="e">
+      <c r="C77" s="8" t="str">
         <f>IF(ISBLANK(B77)," ",VLOOKUP(B77,'Listado articulos'!A:B,2,FALSE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D77" s="4" t="e">
+        <v>LAMPARA PARA TECHO</v>
+      </c>
+      <c r="D77" s="4">
         <f>IF(ISBLANK(B77)," ",VLOOKUP(B77,'Listado articulos'!A:C,3,FALSE))</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="E77" s="43">
         <v>9</v>
@@ -24663,13 +33453,13 @@
       <c r="B84" s="48" t="s">
         <v>1130</v>
       </c>
-      <c r="C84" s="8" t="e">
+      <c r="C84" s="8" t="str">
         <f>IF(ISBLANK(B84)," ",VLOOKUP(B84,'Listado articulos'!A:B,2,FALSE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D84" s="4" t="e">
+        <v>LAMPARA PARA TECHO</v>
+      </c>
+      <c r="D84" s="4">
         <f>IF(ISBLANK(B84)," ",VLOOKUP(B84,'Listado articulos'!A:C,3,FALSE))</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="E84" s="43">
         <v>1</v>
@@ -28002,13 +36792,13 @@
       <c r="B243" s="48" t="s">
         <v>1197</v>
       </c>
-      <c r="C243" s="8" t="e">
+      <c r="C243" s="8" t="str">
         <f>IF(ISBLANK(B243)," ",VLOOKUP(B243,'Listado articulos'!A:B,2,FALSE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D243" s="4" t="e">
+        <v>RIEL PARA CORTINA</v>
+      </c>
+      <c r="D243" s="4">
         <f>IF(ISBLANK(B243)," ",VLOOKUP(B243,'Listado articulos'!A:C,3,FALSE))</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="E243" s="43">
         <v>10</v>
@@ -31876,13 +40666,13 @@
       <c r="B427" s="48" t="s">
         <v>1270</v>
       </c>
-      <c r="C427" s="8" t="e">
+      <c r="C427" s="8" t="str">
         <f>IF(ISBLANK(B427)," ",VLOOKUP(B427,'Listado articulos'!A:B,2,FALSE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D427" s="4" t="e">
+        <v>TRICICLO</v>
+      </c>
+      <c r="D427" s="4">
         <f>IF(ISBLANK(B427)," ",VLOOKUP(B427,'Listado articulos'!A:C,3,FALSE))</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="E427" s="26">
         <v>4</v>
@@ -32791,13 +41581,13 @@
       <c r="B470" s="48" t="s">
         <v>1278</v>
       </c>
-      <c r="C470" s="8" t="e">
+      <c r="C470" s="8" t="str">
         <f>IF(ISBLANK(B470)," ",VLOOKUP(B470,'Listado articulos'!A:B,2,FALSE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D470" s="4" t="e">
+        <v>GABINETE MULTIUSO</v>
+      </c>
+      <c r="D470" s="4">
         <f>IF(ISBLANK(B470)," ",VLOOKUP(B470,'Listado articulos'!A:C,3,FALSE))</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="E470" s="26">
         <v>1</v>
@@ -34685,13 +43475,13 @@
       <c r="B560" s="48" t="s">
         <v>1278</v>
       </c>
-      <c r="C560" s="8" t="e">
+      <c r="C560" s="8" t="str">
         <f>IF(ISBLANK(B560)," ",VLOOKUP(B560,'Listado articulos'!A:B,2,FALSE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D560" s="4" t="e">
+        <v>GABINETE MULTIUSO</v>
+      </c>
+      <c r="D560" s="4">
         <f>IF(ISBLANK(B560)," ",VLOOKUP(B560,'Listado articulos'!A:C,3,FALSE))</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="E560" s="26"/>
       <c r="F560" s="18">
@@ -34727,13 +43517,13 @@
       <c r="B562" s="48" t="s">
         <v>1302</v>
       </c>
-      <c r="C562" s="8" t="e">
+      <c r="C562" s="8" t="str">
         <f>IF(ISBLANK(B562)," ",VLOOKUP(B562,'Listado articulos'!A:B,2,FALSE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D562" s="4" t="e">
+        <v>SILLA PARA OFICINA</v>
+      </c>
+      <c r="D562" s="4">
         <f>IF(ISBLANK(B562)," ",VLOOKUP(B562,'Listado articulos'!A:C,3,FALSE))</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="E562" s="26">
         <v>1</v>
@@ -34960,13 +43750,13 @@
       <c r="B573" s="48" t="s">
         <v>1302</v>
       </c>
-      <c r="C573" s="8" t="e">
+      <c r="C573" s="8" t="str">
         <f>IF(ISBLANK(B573)," ",VLOOKUP(B573,'Listado articulos'!A:B,2,FALSE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D573" s="4" t="e">
+        <v>SILLA PARA OFICINA</v>
+      </c>
+      <c r="D573" s="4">
         <f>IF(ISBLANK(B573)," ",VLOOKUP(B573,'Listado articulos'!A:C,3,FALSE))</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="E573" s="26"/>
       <c r="F573" s="18">
@@ -35023,13 +43813,13 @@
       <c r="B576" s="48" t="s">
         <v>1197</v>
       </c>
-      <c r="C576" s="8" t="e">
+      <c r="C576" s="8" t="str">
         <f>IF(ISBLANK(B576)," ",VLOOKUP(B576,'Listado articulos'!A:B,2,FALSE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D576" s="4" t="e">
+        <v>RIEL PARA CORTINA</v>
+      </c>
+      <c r="D576" s="4">
         <f>IF(ISBLANK(B576)," ",VLOOKUP(B576,'Listado articulos'!A:C,3,FALSE))</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="E576" s="26"/>
       <c r="F576" s="18">
@@ -35086,13 +43876,13 @@
       <c r="B579" s="48" t="s">
         <v>1307</v>
       </c>
-      <c r="C579" s="8" t="e">
+      <c r="C579" s="8" t="str">
         <f>IF(ISBLANK(B579)," ",VLOOKUP(B579,'Listado articulos'!A:B,2,FALSE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D579" s="4" t="e">
+        <v>SOPORTE PARA TV</v>
+      </c>
+      <c r="D579" s="4">
         <f>IF(ISBLANK(B579)," ",VLOOKUP(B579,'Listado articulos'!A:C,3,FALSE))</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="E579" s="26">
         <v>4</v>
@@ -35128,13 +43918,13 @@
       <c r="B581" s="48" t="s">
         <v>1309</v>
       </c>
-      <c r="C581" s="8" t="e">
+      <c r="C581" s="8" t="str">
         <f>IF(ISBLANK(B581)," ",VLOOKUP(B581,'Listado articulos'!A:B,2,FALSE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D581" s="4" t="e">
+        <v>SOPORTE PARA TV</v>
+      </c>
+      <c r="D581" s="4">
         <f>IF(ISBLANK(B581)," ",VLOOKUP(B581,'Listado articulos'!A:C,3,FALSE))</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="E581" s="26">
         <v>1</v>
@@ -35191,13 +43981,13 @@
       <c r="B584" s="48" t="s">
         <v>1127</v>
       </c>
-      <c r="C584" s="8" t="e">
+      <c r="C584" s="8" t="str">
         <f>IF(ISBLANK(B584)," ",VLOOKUP(B584,'Listado articulos'!A:B,2,FALSE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D584" s="4" t="e">
+        <v>LAMPARA PARA TECHO</v>
+      </c>
+      <c r="D584" s="4">
         <f>IF(ISBLANK(B584)," ",VLOOKUP(B584,'Listado articulos'!A:C,3,FALSE))</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="E584" s="26"/>
       <c r="F584" s="18">
@@ -35233,13 +44023,13 @@
       <c r="B586" s="48" t="s">
         <v>1270</v>
       </c>
-      <c r="C586" s="8" t="e">
+      <c r="C586" s="8" t="str">
         <f>IF(ISBLANK(B586)," ",VLOOKUP(B586,'Listado articulos'!A:B,2,FALSE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D586" s="4" t="e">
+        <v>TRICICLO</v>
+      </c>
+      <c r="D586" s="4">
         <f>IF(ISBLANK(B586)," ",VLOOKUP(B586,'Listado articulos'!A:C,3,FALSE))</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="E586" s="26"/>
       <c r="F586" s="18">
@@ -35254,13 +44044,13 @@
       <c r="B587" s="48" t="s">
         <v>1270</v>
       </c>
-      <c r="C587" s="8" t="e">
+      <c r="C587" s="8" t="str">
         <f>IF(ISBLANK(B587)," ",VLOOKUP(B587,'Listado articulos'!A:B,2,FALSE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D587" s="4" t="e">
+        <v>TRICICLO</v>
+      </c>
+      <c r="D587" s="4">
         <f>IF(ISBLANK(B587)," ",VLOOKUP(B587,'Listado articulos'!A:C,3,FALSE))</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="E587" s="26"/>
       <c r="F587" s="18">
@@ -35317,13 +44107,13 @@
       <c r="B590" s="48" t="s">
         <v>1310</v>
       </c>
-      <c r="C590" s="8" t="e">
+      <c r="C590" s="8" t="str">
         <f>IF(ISBLANK(B590)," ",VLOOKUP(B590,'Listado articulos'!A:B,2,FALSE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D590" s="4" t="e">
+        <v>MESA PARA COMPUTADORA</v>
+      </c>
+      <c r="D590" s="4">
         <f>IF(ISBLANK(B590)," ",VLOOKUP(B590,'Listado articulos'!A:C,3,FALSE))</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="E590" s="26"/>
       <c r="F590" s="18">
@@ -35359,13 +44149,13 @@
       <c r="B592" s="48" t="s">
         <v>1123</v>
       </c>
-      <c r="C592" s="8" t="e">
+      <c r="C592" s="8" t="str">
         <f>IF(ISBLANK(B592)," ",VLOOKUP(B592,'Listado articulos'!A:B,2,FALSE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D592" s="4" t="e">
+        <v>LAMPARA PARA TECHO</v>
+      </c>
+      <c r="D592" s="4">
         <f>IF(ISBLANK(B592)," ",VLOOKUP(B592,'Listado articulos'!A:C,3,FALSE))</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="E592" s="26"/>
       <c r="F592" s="18">
@@ -35380,13 +44170,13 @@
       <c r="B593" s="48" t="s">
         <v>1307</v>
       </c>
-      <c r="C593" s="8" t="e">
+      <c r="C593" s="8" t="str">
         <f>IF(ISBLANK(B593)," ",VLOOKUP(B593,'Listado articulos'!A:B,2,FALSE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D593" s="4" t="e">
+        <v>SOPORTE PARA TV</v>
+      </c>
+      <c r="D593" s="4">
         <f>IF(ISBLANK(B593)," ",VLOOKUP(B593,'Listado articulos'!A:C,3,FALSE))</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="E593" s="26"/>
       <c r="F593" s="18">
@@ -35422,13 +44212,13 @@
       <c r="B595" s="48" t="s">
         <v>1309</v>
       </c>
-      <c r="C595" s="8" t="e">
+      <c r="C595" s="8" t="str">
         <f>IF(ISBLANK(B595)," ",VLOOKUP(B595,'Listado articulos'!A:B,2,FALSE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D595" s="4" t="e">
+        <v>SOPORTE PARA TV</v>
+      </c>
+      <c r="D595" s="4">
         <f>IF(ISBLANK(B595)," ",VLOOKUP(B595,'Listado articulos'!A:C,3,FALSE))</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="E595" s="26"/>
       <c r="F595" s="18">
@@ -35464,13 +44254,13 @@
       <c r="B597" s="48" t="s">
         <v>1112</v>
       </c>
-      <c r="C597" s="8" t="e">
+      <c r="C597" s="8" t="str">
         <f>IF(ISBLANK(B597)," ",VLOOKUP(B597,'Listado articulos'!A:B,2,FALSE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D597" s="4" t="e">
+        <v>LAMPARA PARA PARED</v>
+      </c>
+      <c r="D597" s="4">
         <f>IF(ISBLANK(B597)," ",VLOOKUP(B597,'Listado articulos'!A:C,3,FALSE))</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="E597" s="26"/>
       <c r="F597" s="18">
@@ -35485,13 +44275,13 @@
       <c r="B598" s="48" t="s">
         <v>1122</v>
       </c>
-      <c r="C598" s="8" t="e">
+      <c r="C598" s="8" t="str">
         <f>IF(ISBLANK(B598)," ",VLOOKUP(B598,'Listado articulos'!A:B,2,FALSE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D598" s="4" t="e">
+        <v>LAMPARA PARA TECHO</v>
+      </c>
+      <c r="D598" s="4">
         <f>IF(ISBLANK(B598)," ",VLOOKUP(B598,'Listado articulos'!A:C,3,FALSE))</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="E598" s="26"/>
       <c r="F598" s="18">
@@ -35527,13 +44317,13 @@
       <c r="B600" s="57" t="s">
         <v>1130</v>
       </c>
-      <c r="C600" s="8" t="e">
+      <c r="C600" s="8" t="str">
         <f>IF(ISBLANK(B600)," ",VLOOKUP(B600,'Listado articulos'!A:B,2,FALSE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D600" s="4" t="e">
+        <v>LAMPARA PARA TECHO</v>
+      </c>
+      <c r="D600" s="4">
         <f>IF(ISBLANK(B600)," ",VLOOKUP(B600,'Listado articulos'!A:C,3,FALSE))</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="E600" s="26"/>
       <c r="F600" s="18">
@@ -36332,20 +45122,20 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:G64719">
-    <cfRule type="cellIs" dxfId="19" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="17" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="containsText" dxfId="17" priority="16" operator="containsText" text="S">
+    <cfRule type="containsText" dxfId="19" priority="16" operator="containsText" text="S">
       <formula>NOT(ISERROR(SEARCH("S",G1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B316">
-    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B646">
@@ -36361,15 +45151,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1230"/>
   <sheetViews>
-    <sheetView topLeftCell="A392" workbookViewId="0">
-      <selection activeCell="A265" sqref="A265"/>
+    <sheetView tabSelected="1" topLeftCell="A721" workbookViewId="0">
+      <selection activeCell="B723" sqref="B723"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5546875" style="35" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="77" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="39" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" style="39" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -44051,98 +52841,174 @@
       <c r="C718" s="38"/>
     </row>
     <row r="719" spans="1:3">
-      <c r="A719" s="34"/>
-      <c r="B719" s="34"/>
+      <c r="A719" s="34" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B719" s="34" t="s">
+        <v>60</v>
+      </c>
       <c r="C719" s="38"/>
     </row>
     <row r="720" spans="1:3">
-      <c r="A720" s="34"/>
-      <c r="B720" s="34"/>
+      <c r="A720" s="34" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B720" s="34" t="s">
+        <v>1318</v>
+      </c>
       <c r="C720" s="38"/>
     </row>
     <row r="721" spans="1:3">
-      <c r="A721" s="34"/>
-      <c r="B721" s="34"/>
+      <c r="A721" s="34" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B721" s="34" t="s">
+        <v>1319</v>
+      </c>
       <c r="C721" s="38"/>
     </row>
     <row r="722" spans="1:3">
-      <c r="A722" s="34"/>
-      <c r="B722" s="34"/>
+      <c r="A722" s="34" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B722" s="34" t="s">
+        <v>1320</v>
+      </c>
       <c r="C722" s="38"/>
     </row>
     <row r="723" spans="1:3">
-      <c r="A723" s="34"/>
-      <c r="B723" s="34"/>
+      <c r="A723" s="34" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B723" s="34" t="s">
+        <v>1321</v>
+      </c>
       <c r="C723" s="38"/>
     </row>
     <row r="724" spans="1:3">
-      <c r="A724" s="34"/>
-      <c r="B724" s="34"/>
+      <c r="A724" s="34" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B724" s="34" t="s">
+        <v>22</v>
+      </c>
       <c r="C724" s="38"/>
     </row>
     <row r="725" spans="1:3">
-      <c r="A725" s="34"/>
-      <c r="B725" s="34"/>
+      <c r="A725" s="34" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B725" s="34" t="s">
+        <v>1322</v>
+      </c>
       <c r="C725" s="38"/>
     </row>
     <row r="726" spans="1:3">
-      <c r="A726" s="34"/>
-      <c r="B726" s="34"/>
+      <c r="A726" s="34" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B726" s="34" t="s">
+        <v>1323</v>
+      </c>
       <c r="C726" s="38"/>
     </row>
     <row r="727" spans="1:3">
-      <c r="A727" s="34"/>
-      <c r="B727" s="34"/>
+      <c r="A727" s="34" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B727" s="34" t="s">
+        <v>168</v>
+      </c>
       <c r="C727" s="38"/>
     </row>
     <row r="728" spans="1:3">
-      <c r="A728" s="34"/>
-      <c r="B728" s="34"/>
+      <c r="A728" s="34" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B728" s="34" t="s">
+        <v>356</v>
+      </c>
       <c r="C728" s="38"/>
     </row>
     <row r="729" spans="1:3">
-      <c r="A729" s="34"/>
-      <c r="B729" s="34"/>
+      <c r="A729" s="34" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B729" s="34" t="s">
+        <v>39</v>
+      </c>
       <c r="C729" s="38"/>
     </row>
     <row r="730" spans="1:3">
-      <c r="A730" s="34"/>
-      <c r="B730" s="34"/>
+      <c r="A730" s="34" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B730" s="34" t="s">
+        <v>168</v>
+      </c>
       <c r="C730" s="38"/>
     </row>
     <row r="731" spans="1:3">
-      <c r="A731" s="34"/>
-      <c r="B731" s="34"/>
+      <c r="A731" s="34" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B731" s="34" t="s">
+        <v>1324</v>
+      </c>
       <c r="C731" s="38"/>
     </row>
     <row r="732" spans="1:3">
-      <c r="A732" s="34"/>
-      <c r="B732" s="34"/>
+      <c r="A732" s="34" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B732" s="34" t="s">
+        <v>1324</v>
+      </c>
       <c r="C732" s="38"/>
     </row>
     <row r="733" spans="1:3">
-      <c r="A733" s="34"/>
-      <c r="B733" s="34"/>
+      <c r="A733" s="34" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B733" s="34" t="s">
+        <v>1324</v>
+      </c>
       <c r="C733" s="38"/>
     </row>
     <row r="734" spans="1:3">
-      <c r="A734" s="34"/>
-      <c r="B734" s="34"/>
+      <c r="A734" s="34" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B734" s="34" t="s">
+        <v>112</v>
+      </c>
       <c r="C734" s="38"/>
     </row>
     <row r="735" spans="1:3">
-      <c r="A735" s="34"/>
-      <c r="B735" s="34"/>
+      <c r="A735" s="34" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B735" s="34" t="s">
+        <v>169</v>
+      </c>
       <c r="C735" s="38"/>
     </row>
     <row r="736" spans="1:3">
-      <c r="A736" s="34"/>
-      <c r="B736" s="34"/>
+      <c r="A736" s="34" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B736" s="34" t="s">
+        <v>168</v>
+      </c>
       <c r="C736" s="38"/>
     </row>
     <row r="737" spans="1:3">
-      <c r="A737" s="34"/>
-      <c r="B737" s="34"/>
+      <c r="A737" s="34" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B737" s="34" t="s">
+        <v>168</v>
+      </c>
       <c r="C737" s="38"/>
     </row>
     <row r="738" spans="1:3">
@@ -46612,43 +55478,43 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A344:A377 A590 A595 A597 A599:A606 A379:A388 A390:A413 A416:A420 A423:A424 A426:A428 A431:A434 A437:A438 A440:A485 A487:A544 A546:A547 A550:A551 A554:A555 A558:A559 A561:A567 A569:A585 A608">
-    <cfRule type="duplicateValues" dxfId="15" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A586">
-    <cfRule type="duplicateValues" dxfId="14" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A587">
-    <cfRule type="duplicateValues" dxfId="13" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A588">
-    <cfRule type="duplicateValues" dxfId="12" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A589">
-    <cfRule type="duplicateValues" dxfId="11" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A591:A592">
-    <cfRule type="duplicateValues" dxfId="10" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A593:A594">
-    <cfRule type="duplicateValues" dxfId="9" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A596">
-    <cfRule type="duplicateValues" dxfId="8" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A598">
-    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A378 A389 A414:A415 A421:A422 A425 A429:A430 A435:A436 A439 A486 A545 A548:A549 A552:A553 A556:A557 A560 A568 A607">
-    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20 A24 A35:A36 A74 A210 A248:A249 A251">
-    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A685">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A19 A21:A23 A25:A34 A37:A73 A75:A209 A211:A247 A250 A252:A343">
-    <cfRule type="duplicateValues" dxfId="3" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="33"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Entradas y Salidas.xlsx
+++ b/Entradas y Salidas.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8232" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8232"/>
   </bookViews>
   <sheets>
     <sheet name="Entradas-salidas Exhibicion" sheetId="1" r:id="rId1"/>
@@ -4361,31 +4361,6 @@
   </cellStyles>
   <dxfs count="25">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u val="none"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="0" hidden="0"/>
@@ -4542,6 +4517,31 @@
       <font>
         <b/>
         <i val="0"/>
+        <u val="none"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color theme="0"/>
       </font>
       <fill>
@@ -4597,7 +4597,7 @@
       <sheetName val="Entradas-salidas Bodega"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="A1" t="str">
@@ -11294,6 +11294,7 @@
           <cell r="B609" t="str">
             <v xml:space="preserve">AUXILIAR PARA SALON </v>
           </cell>
+          <cell r="C609"/>
         </row>
         <row r="610">
           <cell r="A610" t="str">
@@ -11302,6 +11303,7 @@
           <cell r="B610" t="str">
             <v>YV SANKEY</v>
           </cell>
+          <cell r="C610"/>
         </row>
         <row r="611">
           <cell r="A611" t="str">
@@ -11310,6 +11312,7 @@
           <cell r="B611" t="str">
             <v xml:space="preserve">ABANICO ASTAR </v>
           </cell>
+          <cell r="C611"/>
         </row>
         <row r="612">
           <cell r="A612">
@@ -11318,6 +11321,7 @@
           <cell r="B612" t="str">
             <v xml:space="preserve">JUEGO DE TASAS </v>
           </cell>
+          <cell r="C612"/>
         </row>
         <row r="613">
           <cell r="A613">
@@ -11326,6 +11330,7 @@
           <cell r="B613" t="str">
             <v xml:space="preserve">LAMPARA DE TECHO </v>
           </cell>
+          <cell r="C613"/>
         </row>
         <row r="614">
           <cell r="A614" t="str">
@@ -11334,6 +11339,7 @@
           <cell r="B614" t="str">
             <v xml:space="preserve">MESA PARA CONFERENCIA CHOCOLATE </v>
           </cell>
+          <cell r="C614"/>
         </row>
         <row r="615">
           <cell r="A615" t="str">
@@ -11342,6 +11348,7 @@
           <cell r="B615" t="str">
             <v xml:space="preserve">MESA PARA CCONFERENCIA </v>
           </cell>
+          <cell r="C615"/>
         </row>
         <row r="616">
           <cell r="A616" t="str">
@@ -11350,6 +11357,7 @@
           <cell r="B616" t="str">
             <v>JUEGO PARA EXTERIORES (2 SILLAS )</v>
           </cell>
+          <cell r="C616"/>
         </row>
         <row r="617">
           <cell r="A617" t="str">
@@ -11358,6 +11366,7 @@
           <cell r="B617" t="str">
             <v xml:space="preserve">LAMPARA PARA EXTERIORES </v>
           </cell>
+          <cell r="C617"/>
         </row>
         <row r="618">
           <cell r="A618" t="str">
@@ -11366,6 +11375,7 @@
           <cell r="B618" t="str">
             <v>CENTRO DE ENTRETENIMIENTO</v>
           </cell>
+          <cell r="C618"/>
         </row>
         <row r="619">
           <cell r="A619" t="str">
@@ -11374,6 +11384,7 @@
           <cell r="B619" t="str">
             <v>CENTRO DE ENTRETENIMIENTO</v>
           </cell>
+          <cell r="C619"/>
         </row>
         <row r="620">
           <cell r="A620" t="str">
@@ -11382,6 +11393,7 @@
           <cell r="B620" t="str">
             <v>CENTRO DE ENTRETIMI8ENTO</v>
           </cell>
+          <cell r="C620"/>
         </row>
         <row r="621">
           <cell r="A621" t="str">
@@ -11390,6 +11402,7 @@
           <cell r="B621" t="str">
             <v xml:space="preserve">SILLA AZUL METAL Y VINIL </v>
           </cell>
+          <cell r="C621"/>
         </row>
         <row r="622">
           <cell r="A622" t="str">
@@ -11398,6 +11411,7 @@
           <cell r="B622" t="str">
             <v xml:space="preserve">SILLA METAL VINIL ROJA </v>
           </cell>
+          <cell r="C622"/>
         </row>
         <row r="623">
           <cell r="A623" t="str">
@@ -11406,6 +11420,7 @@
           <cell r="B623" t="str">
             <v xml:space="preserve">SILLA METAL NEGRA </v>
           </cell>
+          <cell r="C623"/>
         </row>
         <row r="624">
           <cell r="A624" t="str">
@@ -11414,6 +11429,7 @@
           <cell r="B624" t="str">
             <v xml:space="preserve">SILLA PLASTICA ETERNA </v>
           </cell>
+          <cell r="C624"/>
         </row>
         <row r="625">
           <cell r="A625" t="str">
@@ -11422,6 +11438,7 @@
           <cell r="B625" t="str">
             <v>PARAGUA PARA TERREZA</v>
           </cell>
+          <cell r="C625"/>
         </row>
         <row r="626">
           <cell r="A626">
@@ -11430,6 +11447,7 @@
           <cell r="B626" t="str">
             <v xml:space="preserve">SILLA DE MALLA METALICA VISITA </v>
           </cell>
+          <cell r="C626"/>
         </row>
         <row r="627">
           <cell r="A627" t="str">
@@ -11438,6 +11456,7 @@
           <cell r="B627" t="str">
             <v>MESA CENTRO DE MADERA/VIDRIO</v>
           </cell>
+          <cell r="C627"/>
         </row>
         <row r="628">
           <cell r="A628" t="str">
@@ -11446,6 +11465,7 @@
           <cell r="B628" t="str">
             <v>JUEGO DE TAZAS</v>
           </cell>
+          <cell r="C628"/>
         </row>
         <row r="629">
           <cell r="A629" t="str">
@@ -11454,6 +11474,7 @@
           <cell r="B629" t="str">
             <v xml:space="preserve">SET DE TASAS/PLATOS </v>
           </cell>
+          <cell r="C629"/>
         </row>
         <row r="630">
           <cell r="A630" t="str">
@@ -11462,6 +11483,7 @@
           <cell r="B630" t="str">
             <v xml:space="preserve">TAZAS C/PLATOS SET 12 PIEZAS </v>
           </cell>
+          <cell r="C630"/>
         </row>
         <row r="631">
           <cell r="A631" t="str">
@@ -11470,6 +11492,7 @@
           <cell r="B631" t="str">
             <v xml:space="preserve">CUADRO DE FOLRES </v>
           </cell>
+          <cell r="C631"/>
         </row>
         <row r="632">
           <cell r="A632" t="str">
@@ -11478,6 +11501,7 @@
           <cell r="B632" t="str">
             <v xml:space="preserve">CUADRO DE ROSAS </v>
           </cell>
+          <cell r="C632"/>
         </row>
         <row r="633">
           <cell r="A633" t="str">
@@ -11486,6 +11510,7 @@
           <cell r="B633" t="str">
             <v xml:space="preserve">ESCRITORIO DE VIDRIO </v>
           </cell>
+          <cell r="C633"/>
         </row>
         <row r="634">
           <cell r="A634" t="str">
@@ -11494,6 +11519,7 @@
           <cell r="B634" t="str">
             <v xml:space="preserve">MOTO NITRO </v>
           </cell>
+          <cell r="C634"/>
         </row>
         <row r="635">
           <cell r="A635" t="str">
@@ -11502,6 +11528,7 @@
           <cell r="B635" t="str">
             <v xml:space="preserve">TAZAS/PLATOS SET </v>
           </cell>
+          <cell r="C635"/>
         </row>
         <row r="636">
           <cell r="A636" t="str">
@@ -11510,6 +11537,7 @@
           <cell r="B636" t="str">
             <v>CENTRO DE ENTRETENIMIENTO(CREMA)</v>
           </cell>
+          <cell r="C636"/>
         </row>
         <row r="637">
           <cell r="A637" t="str">
@@ -11518,6 +11546,7 @@
           <cell r="B637" t="str">
             <v>CENTRO DE ENTRETENIMIENTO(CAFÉ)</v>
           </cell>
+          <cell r="C637"/>
         </row>
         <row r="638">
           <cell r="A638" t="str">
@@ -11526,6 +11555,7 @@
           <cell r="B638" t="str">
             <v xml:space="preserve">JOYERO </v>
           </cell>
+          <cell r="C638"/>
         </row>
         <row r="639">
           <cell r="A639" t="str">
@@ -11534,6 +11564,7 @@
           <cell r="B639" t="str">
             <v>MESITA CON ESPEJO(REPISA)</v>
           </cell>
+          <cell r="C639"/>
         </row>
         <row r="640">
           <cell r="A640" t="str">
@@ -11542,6 +11573,7 @@
           <cell r="B640" t="str">
             <v>MESA CON ESPEJO(REPISA)</v>
           </cell>
+          <cell r="C640"/>
         </row>
         <row r="641">
           <cell r="A641" t="str">
@@ -11550,6 +11582,7 @@
           <cell r="B641" t="str">
             <v xml:space="preserve">SOMBRILLA PARA JARDIN </v>
           </cell>
+          <cell r="C641"/>
         </row>
         <row r="642">
           <cell r="A642" t="str">
@@ -11558,6 +11591,7 @@
           <cell r="B642" t="str">
             <v>PAILA</v>
           </cell>
+          <cell r="C642"/>
         </row>
         <row r="643">
           <cell r="A643" t="str">
@@ -11566,6 +11600,7 @@
           <cell r="B643" t="str">
             <v>PLANCHA OSTER</v>
           </cell>
+          <cell r="C643"/>
         </row>
         <row r="644">
           <cell r="A644" t="str">
@@ -11574,6 +11609,7 @@
           <cell r="B644" t="str">
             <v xml:space="preserve">BICICLETA PRINCESA GROUP ROSI </v>
           </cell>
+          <cell r="C644"/>
         </row>
         <row r="645">
           <cell r="A645" t="str">
@@ -11582,6 +11618,7 @@
           <cell r="B645" t="str">
             <v xml:space="preserve">JUEGO DE RECAMARA SET 5 PIEZAS </v>
           </cell>
+          <cell r="C645"/>
         </row>
         <row r="646">
           <cell r="A646" t="str">
@@ -11590,6 +11627,7 @@
           <cell r="B646" t="str">
             <v xml:space="preserve">CANDELABRO  </v>
           </cell>
+          <cell r="C646"/>
         </row>
         <row r="647">
           <cell r="A647" t="str">
@@ -11598,6 +11636,7 @@
           <cell r="B647" t="str">
             <v xml:space="preserve">SILLA PLASTICA </v>
           </cell>
+          <cell r="C647"/>
         </row>
         <row r="648">
           <cell r="A648" t="str">
@@ -11606,6 +11645,7 @@
           <cell r="B648" t="str">
             <v xml:space="preserve">ESPEJO DE PARED </v>
           </cell>
+          <cell r="C648"/>
         </row>
         <row r="649">
           <cell r="A649" t="str">
@@ -11614,6 +11654,7 @@
           <cell r="B649" t="str">
             <v>MESA CON SILLA PARA TERRAZA NEGRO</v>
           </cell>
+          <cell r="C649"/>
         </row>
         <row r="650">
           <cell r="A650" t="str">
@@ -11622,6 +11663,7 @@
           <cell r="B650" t="str">
             <v xml:space="preserve">GABINETE DE COCINA </v>
           </cell>
+          <cell r="C650"/>
         </row>
         <row r="651">
           <cell r="A651" t="str">
@@ -11630,6 +11672,7 @@
           <cell r="B651" t="str">
             <v xml:space="preserve">MESA DE CENTRO </v>
           </cell>
+          <cell r="C651"/>
         </row>
         <row r="652">
           <cell r="A652" t="str">
@@ -11638,6 +11681,7 @@
           <cell r="B652" t="str">
             <v>SILLON RECLINABLE</v>
           </cell>
+          <cell r="C652"/>
         </row>
         <row r="653">
           <cell r="A653" t="str">
@@ -11646,6 +11690,7 @@
           <cell r="B653" t="str">
             <v xml:space="preserve">MUEBLE DE TV </v>
           </cell>
+          <cell r="C653"/>
         </row>
         <row r="654">
           <cell r="A654" t="str">
@@ -11654,6 +11699,7 @@
           <cell r="B654" t="str">
             <v xml:space="preserve">LAMPARA TECHO </v>
           </cell>
+          <cell r="C654"/>
         </row>
         <row r="655">
           <cell r="A655" t="str">
@@ -11662,6 +11708,7 @@
           <cell r="B655" t="str">
             <v xml:space="preserve">COMEDOR 5 PIEZAS </v>
           </cell>
+          <cell r="C655"/>
         </row>
         <row r="656">
           <cell r="A656" t="str">
@@ -11670,6 +11717,7 @@
           <cell r="B656" t="str">
             <v xml:space="preserve">LAVADORA ATLAS </v>
           </cell>
+          <cell r="C656"/>
         </row>
         <row r="657">
           <cell r="A657" t="str">
@@ -11678,6 +11726,7 @@
           <cell r="B657" t="str">
             <v>SOFA CAMA(CHOCOLATE)</v>
           </cell>
+          <cell r="C657"/>
         </row>
         <row r="658">
           <cell r="A658" t="str">
@@ -11686,6 +11735,7 @@
           <cell r="B658" t="str">
             <v xml:space="preserve">RELOJ DE PARED </v>
           </cell>
+          <cell r="C658"/>
         </row>
         <row r="659">
           <cell r="A659" t="str">
@@ -11694,6 +11744,7 @@
           <cell r="B659" t="str">
             <v xml:space="preserve">RELOJ DE PARED </v>
           </cell>
+          <cell r="C659"/>
         </row>
         <row r="660">
           <cell r="A660" t="str">
@@ -11702,6 +11753,7 @@
           <cell r="B660" t="str">
             <v xml:space="preserve">LAVADORA DE SALON </v>
           </cell>
+          <cell r="C660"/>
         </row>
         <row r="661">
           <cell r="A661" t="str">
@@ -11710,6 +11762,7 @@
           <cell r="B661" t="str">
             <v>ESCRITORIO (GRIS)</v>
           </cell>
+          <cell r="C661"/>
         </row>
         <row r="662">
           <cell r="A662" t="str">
@@ -11718,6 +11771,7 @@
           <cell r="B662" t="str">
             <v>CANDELABRO</v>
           </cell>
+          <cell r="C662"/>
         </row>
         <row r="663">
           <cell r="A663" t="str">
@@ -11726,6 +11780,7 @@
           <cell r="B663" t="str">
             <v xml:space="preserve">CANDELABRO </v>
           </cell>
+          <cell r="C663"/>
         </row>
         <row r="664">
           <cell r="A664" t="str">
@@ -11734,6 +11789,7 @@
           <cell r="B664" t="str">
             <v xml:space="preserve">CUADRO DE METAL </v>
           </cell>
+          <cell r="C664"/>
         </row>
         <row r="665">
           <cell r="A665" t="str">
@@ -11742,6 +11798,7 @@
           <cell r="B665" t="str">
             <v xml:space="preserve">CUADRO DE METAL </v>
           </cell>
+          <cell r="C665"/>
         </row>
         <row r="666">
           <cell r="A666" t="str">
@@ -11750,6 +11807,7 @@
           <cell r="B666" t="str">
             <v xml:space="preserve">CUADRO PEQUEÑO </v>
           </cell>
+          <cell r="C666"/>
         </row>
         <row r="667">
           <cell r="A667" t="str">
@@ -11758,6 +11816,7 @@
           <cell r="B667" t="str">
             <v xml:space="preserve">CUADRO GRANDE </v>
           </cell>
+          <cell r="C667"/>
         </row>
         <row r="668">
           <cell r="A668" t="str">
@@ -11766,6 +11825,7 @@
           <cell r="B668" t="str">
             <v>CANDELABRO</v>
           </cell>
+          <cell r="C668"/>
         </row>
         <row r="669">
           <cell r="A669" t="str">
@@ -11774,6 +11834,7 @@
           <cell r="B669" t="str">
             <v xml:space="preserve">CANDELABRO </v>
           </cell>
+          <cell r="C669"/>
         </row>
         <row r="670">
           <cell r="A670" t="str">
@@ -11782,6 +11843,7 @@
           <cell r="B670" t="str">
             <v xml:space="preserve">CANDELABRO </v>
           </cell>
+          <cell r="C670"/>
         </row>
         <row r="671">
           <cell r="A671" t="str">
@@ -11790,6 +11852,7 @@
           <cell r="B671" t="str">
             <v xml:space="preserve">CANDELABRO </v>
           </cell>
+          <cell r="C671"/>
         </row>
         <row r="672">
           <cell r="A672" t="str">
@@ -11798,6 +11861,7 @@
           <cell r="B672" t="str">
             <v xml:space="preserve">CANDELABRO </v>
           </cell>
+          <cell r="C672"/>
         </row>
         <row r="673">
           <cell r="A673" t="str">
@@ -11806,6 +11870,7 @@
           <cell r="B673" t="str">
             <v xml:space="preserve">CANDELABRO </v>
           </cell>
+          <cell r="C673"/>
         </row>
         <row r="674">
           <cell r="A674" t="str">
@@ -11814,6 +11879,7 @@
           <cell r="B674" t="str">
             <v xml:space="preserve">CANDELABRO </v>
           </cell>
+          <cell r="C674"/>
         </row>
         <row r="675">
           <cell r="A675" t="str">
@@ -11822,6 +11888,7 @@
           <cell r="B675" t="str">
             <v xml:space="preserve">CANDELABRO </v>
           </cell>
+          <cell r="C675"/>
         </row>
         <row r="676">
           <cell r="A676" t="str">
@@ -11830,6 +11897,7 @@
           <cell r="B676" t="str">
             <v xml:space="preserve">CANDELABRO </v>
           </cell>
+          <cell r="C676"/>
         </row>
         <row r="677">
           <cell r="A677" t="str">
@@ -11838,6 +11906,7 @@
           <cell r="B677" t="str">
             <v>CANDELABRO</v>
           </cell>
+          <cell r="C677"/>
         </row>
         <row r="678">
           <cell r="A678" t="str">
@@ -11846,6 +11915,7 @@
           <cell r="B678" t="str">
             <v>CANDELABRO</v>
           </cell>
+          <cell r="C678"/>
         </row>
         <row r="679">
           <cell r="A679" t="str">
@@ -11854,6 +11924,7 @@
           <cell r="B679" t="str">
             <v>PORTA DULCE</v>
           </cell>
+          <cell r="C679"/>
         </row>
         <row r="680">
           <cell r="A680" t="str">
@@ -11862,6 +11933,7 @@
           <cell r="B680" t="str">
             <v xml:space="preserve">MESA </v>
           </cell>
+          <cell r="C680"/>
         </row>
         <row r="681">
           <cell r="A681" t="str">
@@ -11870,6 +11942,7 @@
           <cell r="B681" t="str">
             <v>CANDELABRO</v>
           </cell>
+          <cell r="C681"/>
         </row>
         <row r="682">
           <cell r="A682" t="str">
@@ -11878,6 +11951,7 @@
           <cell r="B682" t="str">
             <v xml:space="preserve">SILLA METALICA </v>
           </cell>
+          <cell r="C682"/>
         </row>
         <row r="683">
           <cell r="A683" t="str">
@@ -11886,6 +11960,7 @@
           <cell r="B683" t="str">
             <v>LAMPARA PARA PARED</v>
           </cell>
+          <cell r="C683"/>
         </row>
         <row r="684">
           <cell r="A684" t="str">
@@ -11894,6 +11969,7 @@
           <cell r="B684" t="str">
             <v>LAMPARA PARA MESA</v>
           </cell>
+          <cell r="C684"/>
         </row>
         <row r="685">
           <cell r="A685" t="str">
@@ -11902,6 +11978,7 @@
           <cell r="B685" t="str">
             <v>MALETA BUNGY SPORT 19"</v>
           </cell>
+          <cell r="C685"/>
         </row>
         <row r="686">
           <cell r="A686" t="str">
@@ -11910,6 +11987,7 @@
           <cell r="B686" t="str">
             <v xml:space="preserve">ESCRITORIO DE VIDRIO </v>
           </cell>
+          <cell r="C686"/>
         </row>
         <row r="687">
           <cell r="A687" t="str">
@@ -11918,6 +11996,7 @@
           <cell r="B687" t="str">
             <v>SILLA PARA OFICINA</v>
           </cell>
+          <cell r="C687"/>
         </row>
         <row r="688">
           <cell r="A688" t="str">
@@ -11926,6 +12005,7 @@
           <cell r="B688" t="str">
             <v>SOFA CAMA</v>
           </cell>
+          <cell r="C688"/>
         </row>
         <row r="689">
           <cell r="A689" t="str">
@@ -11934,6 +12014,7 @@
           <cell r="B689" t="str">
             <v xml:space="preserve">SILLA PARA SALON </v>
           </cell>
+          <cell r="C689"/>
         </row>
         <row r="690">
           <cell r="A690" t="str">
@@ -11942,6 +12023,7 @@
           <cell r="B690" t="str">
             <v>CUADRO METALICO</v>
           </cell>
+          <cell r="C690"/>
         </row>
         <row r="691">
           <cell r="A691" t="str">
@@ -11950,6 +12032,7 @@
           <cell r="B691" t="str">
             <v>ESQUINERA 3 NIVELES</v>
           </cell>
+          <cell r="C691"/>
         </row>
         <row r="692">
           <cell r="A692" t="str">
@@ -11958,6 +12041,7 @@
           <cell r="B692" t="str">
             <v>CUADRO PARA PARED</v>
           </cell>
+          <cell r="C692"/>
         </row>
         <row r="693">
           <cell r="A693" t="str">
@@ -11966,6 +12050,7 @@
           <cell r="B693" t="str">
             <v>CUADRO PARA PARED</v>
           </cell>
+          <cell r="C693"/>
         </row>
         <row r="694">
           <cell r="A694" t="str">
@@ -11974,6 +12059,7 @@
           <cell r="B694" t="str">
             <v>CUADRO PARA PARED</v>
           </cell>
+          <cell r="C694"/>
         </row>
         <row r="695">
           <cell r="A695" t="str">
@@ -11982,6 +12068,7 @@
           <cell r="B695" t="str">
             <v>CUADRO PARA PARED</v>
           </cell>
+          <cell r="C695"/>
         </row>
         <row r="696">
           <cell r="A696" t="str">
@@ -11990,6 +12077,7 @@
           <cell r="B696" t="str">
             <v>TERMO METALICO 0.5LTS</v>
           </cell>
+          <cell r="C696"/>
         </row>
         <row r="697">
           <cell r="A697" t="str">
@@ -11998,6 +12086,7 @@
           <cell r="B697" t="str">
             <v>MONITOR PARA PRESION ARTERIAL TRADICIONAL</v>
           </cell>
+          <cell r="C697"/>
         </row>
         <row r="698">
           <cell r="A698" t="str">
@@ -12006,6 +12095,7 @@
           <cell r="B698" t="str">
             <v>MONITOR PARA PRESION ARTERIAL DIGITAL</v>
           </cell>
+          <cell r="C698"/>
         </row>
         <row r="699">
           <cell r="A699" t="str">
@@ -12014,6 +12104,7 @@
           <cell r="B699" t="str">
             <v>DISPENSADOR DE BEBIDAS</v>
           </cell>
+          <cell r="C699"/>
         </row>
         <row r="700">
           <cell r="A700" t="str">
@@ -12022,6 +12113,7 @@
           <cell r="B700" t="str">
             <v>ESTANTE METALICO</v>
           </cell>
+          <cell r="C700"/>
         </row>
         <row r="701">
           <cell r="A701" t="str">
@@ -12030,6 +12122,7 @@
           <cell r="B701" t="str">
             <v>JEEP WRANGLER AZUL</v>
           </cell>
+          <cell r="C701"/>
         </row>
         <row r="702">
           <cell r="A702" t="str">
@@ -12038,6 +12131,7 @@
           <cell r="B702" t="str">
             <v xml:space="preserve">ESCRITORIO DE VIDRIO </v>
           </cell>
+          <cell r="C702"/>
         </row>
         <row r="703">
           <cell r="A703" t="str">
@@ -12046,6 +12140,7 @@
           <cell r="B703" t="str">
             <v>MESA PARA CENTRO CAFÉ</v>
           </cell>
+          <cell r="C703"/>
         </row>
         <row r="704">
           <cell r="A704" t="str">
@@ -12054,6 +12149,7 @@
           <cell r="B704" t="str">
             <v>GABINETE PARA OFICINA</v>
           </cell>
+          <cell r="C704"/>
         </row>
         <row r="705">
           <cell r="A705" t="str">
@@ -12062,6 +12158,7 @@
           <cell r="B705" t="str">
             <v>GABINETE PARA OFICINA 3 DEPOSITOS</v>
           </cell>
+          <cell r="C705"/>
         </row>
         <row r="706">
           <cell r="A706" t="str">
@@ -12070,6 +12167,7 @@
           <cell r="B706" t="str">
             <v>MALETIN PARA COMPUTADORA POLO</v>
           </cell>
+          <cell r="C706"/>
         </row>
         <row r="707">
           <cell r="A707" t="str">
@@ -12078,6 +12176,7 @@
           <cell r="B707" t="str">
             <v xml:space="preserve">SILLA PARA SALON </v>
           </cell>
+          <cell r="C707"/>
         </row>
         <row r="708">
           <cell r="A708" t="str">
@@ -12086,6 +12185,7 @@
           <cell r="B708" t="str">
             <v>MESA PARA TV</v>
           </cell>
+          <cell r="C708"/>
         </row>
         <row r="709">
           <cell r="A709" t="str">
@@ -12094,6 +12194,7 @@
           <cell r="B709" t="str">
             <v>GABINETE ARCHIVADOR DE VIDRIO LIBRERO</v>
           </cell>
+          <cell r="C709"/>
         </row>
         <row r="710">
           <cell r="A710" t="str">
@@ -12102,6 +12203,7 @@
           <cell r="B710" t="str">
             <v>GABINETE PARA COCINA</v>
           </cell>
+          <cell r="C710"/>
         </row>
         <row r="711">
           <cell r="A711" t="str">
@@ -12110,6 +12212,7 @@
           <cell r="B711" t="str">
             <v>CARRO ELECTRICO AMARILLO</v>
           </cell>
+          <cell r="C711"/>
         </row>
         <row r="712">
           <cell r="A712" t="str">
@@ -12118,6 +12221,7 @@
           <cell r="B712" t="str">
             <v>SILLA PARA OFICINA</v>
           </cell>
+          <cell r="C712"/>
         </row>
         <row r="713">
           <cell r="A713" t="str">
@@ -12126,6 +12230,7 @@
           <cell r="B713" t="str">
             <v>CARRO ROSADO</v>
           </cell>
+          <cell r="C713"/>
         </row>
         <row r="714">
           <cell r="A714" t="str">
@@ -12134,6 +12239,7 @@
           <cell r="B714" t="str">
             <v>ESCRITORIO DE MADERA ROJO</v>
           </cell>
+          <cell r="C714"/>
         </row>
         <row r="715">
           <cell r="A715" t="str">
@@ -12142,6 +12248,7 @@
           <cell r="B715" t="str">
             <v>LAMPARA PARA TECHO AZUL</v>
           </cell>
+          <cell r="C715"/>
         </row>
         <row r="716">
           <cell r="A716" t="str">
@@ -12150,6 +12257,7 @@
           <cell r="B716" t="str">
             <v>COCHE PARA BEBÉ</v>
           </cell>
+          <cell r="C716"/>
         </row>
         <row r="717">
           <cell r="A717" t="str">
@@ -12158,6 +12266,7 @@
           <cell r="B717" t="str">
             <v>LAMPARA PARA TECHO TRES COLORES</v>
           </cell>
+          <cell r="C717"/>
         </row>
         <row r="718">
           <cell r="A718" t="str">
@@ -12166,6 +12275,7 @@
           <cell r="B718" t="str">
             <v>LAMPARA PARA TECHO DE 3 BOMBILLOS</v>
           </cell>
+          <cell r="C718"/>
         </row>
         <row r="719">
           <cell r="A719" t="str">
@@ -12174,6 +12284,7 @@
           <cell r="B719" t="str">
             <v>GABINETE MULTIUSO</v>
           </cell>
+          <cell r="C719"/>
         </row>
         <row r="720">
           <cell r="A720" t="str">
@@ -12182,6 +12293,7 @@
           <cell r="B720" t="str">
             <v>ESCALERA METALICA</v>
           </cell>
+          <cell r="C720"/>
         </row>
         <row r="721">
           <cell r="A721" t="str">
@@ -12190,6 +12302,7 @@
           <cell r="B721" t="str">
             <v>SILLAS PLAYERAS</v>
           </cell>
+          <cell r="C721"/>
         </row>
         <row r="722">
           <cell r="A722" t="str">
@@ -12198,6 +12311,7 @@
           <cell r="B722" t="str">
             <v>KIT DE CAMARAS DE VIGILANCIA 4 CAMARAS</v>
           </cell>
+          <cell r="C722"/>
         </row>
         <row r="723">
           <cell r="A723" t="str">
@@ -12206,6 +12320,7 @@
           <cell r="B723" t="str">
             <v>KIT DE CAMARAS DE VIGILANCIA 8 CAMARAS</v>
           </cell>
+          <cell r="C723"/>
         </row>
         <row r="724">
           <cell r="A724" t="str">
@@ -12214,6 +12329,7 @@
           <cell r="B724" t="str">
             <v>SILLA PARA OFICINA</v>
           </cell>
+          <cell r="C724"/>
         </row>
         <row r="725">
           <cell r="A725" t="str">
@@ -12222,6 +12338,7 @@
           <cell r="B725" t="str">
             <v>RIEL PARA CORTINA</v>
           </cell>
+          <cell r="C725"/>
         </row>
         <row r="726">
           <cell r="A726" t="str">
@@ -12230,6 +12347,7 @@
           <cell r="B726" t="str">
             <v>FLORERO METALICO</v>
           </cell>
+          <cell r="C726"/>
         </row>
         <row r="727">
           <cell r="A727" t="str">
@@ -12238,6 +12356,7 @@
           <cell r="B727" t="str">
             <v>LAMPARA PARA TECHO</v>
           </cell>
+          <cell r="C727"/>
         </row>
         <row r="728">
           <cell r="A728" t="str">
@@ -12246,6 +12365,7 @@
           <cell r="B728" t="str">
             <v>TRICICLO</v>
           </cell>
+          <cell r="C728"/>
         </row>
         <row r="729">
           <cell r="A729" t="str">
@@ -12254,6 +12374,7 @@
           <cell r="B729" t="str">
             <v>MESA PARA COMPUTADORA</v>
           </cell>
+          <cell r="C729"/>
         </row>
         <row r="730">
           <cell r="A730" t="str">
@@ -12262,6 +12383,7 @@
           <cell r="B730" t="str">
             <v>LAMPARA PARA TECHO</v>
           </cell>
+          <cell r="C730"/>
         </row>
         <row r="731">
           <cell r="A731" t="str">
@@ -12270,6 +12392,7 @@
           <cell r="B731" t="str">
             <v>SOPORTE PARA TV</v>
           </cell>
+          <cell r="C731"/>
         </row>
         <row r="732">
           <cell r="A732" t="str">
@@ -12278,6 +12401,7 @@
           <cell r="B732" t="str">
             <v>SOPORTE PARA TV</v>
           </cell>
+          <cell r="C732"/>
         </row>
         <row r="733">
           <cell r="A733" t="str">
@@ -12286,6 +12410,7 @@
           <cell r="B733" t="str">
             <v>SOPORTE PARA TV</v>
           </cell>
+          <cell r="C733"/>
         </row>
         <row r="734">
           <cell r="A734" t="str">
@@ -12294,6 +12419,7 @@
           <cell r="B734" t="str">
             <v>PLANTA ARTIFICIAL</v>
           </cell>
+          <cell r="C734"/>
         </row>
         <row r="735">
           <cell r="A735" t="str">
@@ -12302,6 +12428,7 @@
           <cell r="B735" t="str">
             <v>LAMPARA PARA PARED</v>
           </cell>
+          <cell r="C735"/>
         </row>
         <row r="736">
           <cell r="A736" t="str">
@@ -12310,6 +12437,7 @@
           <cell r="B736" t="str">
             <v>LAMPARA PARA TECHO</v>
           </cell>
+          <cell r="C736"/>
         </row>
         <row r="737">
           <cell r="A737" t="str">
@@ -12318,9 +12446,2475 @@
           <cell r="B737" t="str">
             <v>LAMPARA PARA TECHO</v>
           </cell>
+          <cell r="C737"/>
+        </row>
+        <row r="738">
+          <cell r="A738"/>
+          <cell r="B738"/>
+          <cell r="C738"/>
+        </row>
+        <row r="739">
+          <cell r="A739"/>
+          <cell r="B739"/>
+          <cell r="C739"/>
+        </row>
+        <row r="740">
+          <cell r="A740"/>
+          <cell r="B740"/>
+          <cell r="C740"/>
+        </row>
+        <row r="741">
+          <cell r="A741"/>
+          <cell r="B741"/>
+          <cell r="C741"/>
+        </row>
+        <row r="742">
+          <cell r="A742"/>
+          <cell r="B742"/>
+          <cell r="C742"/>
+        </row>
+        <row r="743">
+          <cell r="A743"/>
+          <cell r="B743"/>
+          <cell r="C743"/>
+        </row>
+        <row r="744">
+          <cell r="A744"/>
+          <cell r="B744"/>
+          <cell r="C744"/>
+        </row>
+        <row r="745">
+          <cell r="A745"/>
+          <cell r="B745"/>
+          <cell r="C745"/>
+        </row>
+        <row r="746">
+          <cell r="A746"/>
+          <cell r="B746"/>
+          <cell r="C746"/>
+        </row>
+        <row r="747">
+          <cell r="A747"/>
+          <cell r="B747"/>
+          <cell r="C747"/>
+        </row>
+        <row r="748">
+          <cell r="A748"/>
+          <cell r="B748"/>
+          <cell r="C748"/>
+        </row>
+        <row r="749">
+          <cell r="A749"/>
+          <cell r="B749"/>
+          <cell r="C749"/>
+        </row>
+        <row r="750">
+          <cell r="A750"/>
+          <cell r="B750"/>
+          <cell r="C750"/>
+        </row>
+        <row r="751">
+          <cell r="A751"/>
+          <cell r="B751"/>
+          <cell r="C751"/>
+        </row>
+        <row r="752">
+          <cell r="A752"/>
+          <cell r="B752"/>
+          <cell r="C752"/>
+        </row>
+        <row r="753">
+          <cell r="A753"/>
+          <cell r="B753"/>
+          <cell r="C753"/>
+        </row>
+        <row r="754">
+          <cell r="A754"/>
+          <cell r="B754"/>
+          <cell r="C754"/>
+        </row>
+        <row r="755">
+          <cell r="A755"/>
+          <cell r="B755"/>
+          <cell r="C755"/>
+        </row>
+        <row r="756">
+          <cell r="A756"/>
+          <cell r="B756"/>
+          <cell r="C756"/>
+        </row>
+        <row r="757">
+          <cell r="A757"/>
+          <cell r="B757"/>
+          <cell r="C757"/>
+        </row>
+        <row r="758">
+          <cell r="A758"/>
+          <cell r="B758"/>
+          <cell r="C758"/>
+        </row>
+        <row r="759">
+          <cell r="A759"/>
+          <cell r="B759"/>
+          <cell r="C759"/>
+        </row>
+        <row r="760">
+          <cell r="A760"/>
+          <cell r="B760"/>
+          <cell r="C760"/>
+        </row>
+        <row r="761">
+          <cell r="A761"/>
+          <cell r="B761"/>
+          <cell r="C761"/>
+        </row>
+        <row r="762">
+          <cell r="A762"/>
+          <cell r="B762"/>
+          <cell r="C762"/>
+        </row>
+        <row r="763">
+          <cell r="A763"/>
+          <cell r="B763"/>
+          <cell r="C763"/>
+        </row>
+        <row r="764">
+          <cell r="A764"/>
+          <cell r="B764"/>
+          <cell r="C764"/>
+        </row>
+        <row r="765">
+          <cell r="A765"/>
+          <cell r="B765"/>
+          <cell r="C765"/>
+        </row>
+        <row r="766">
+          <cell r="A766"/>
+          <cell r="B766"/>
+          <cell r="C766"/>
+        </row>
+        <row r="767">
+          <cell r="A767"/>
+          <cell r="B767"/>
+          <cell r="C767"/>
+        </row>
+        <row r="768">
+          <cell r="A768"/>
+          <cell r="B768"/>
+          <cell r="C768"/>
+        </row>
+        <row r="769">
+          <cell r="A769"/>
+          <cell r="B769"/>
+          <cell r="C769"/>
+        </row>
+        <row r="770">
+          <cell r="A770"/>
+          <cell r="B770"/>
+          <cell r="C770"/>
+        </row>
+        <row r="771">
+          <cell r="A771"/>
+          <cell r="B771"/>
+          <cell r="C771"/>
+        </row>
+        <row r="772">
+          <cell r="A772"/>
+          <cell r="B772"/>
+          <cell r="C772"/>
+        </row>
+        <row r="773">
+          <cell r="A773"/>
+          <cell r="B773"/>
+          <cell r="C773"/>
+        </row>
+        <row r="774">
+          <cell r="A774"/>
+          <cell r="B774"/>
+          <cell r="C774"/>
+        </row>
+        <row r="775">
+          <cell r="A775"/>
+          <cell r="B775"/>
+          <cell r="C775"/>
+        </row>
+        <row r="776">
+          <cell r="A776"/>
+          <cell r="B776"/>
+          <cell r="C776"/>
+        </row>
+        <row r="777">
+          <cell r="A777"/>
+          <cell r="B777"/>
+          <cell r="C777"/>
+        </row>
+        <row r="778">
+          <cell r="A778"/>
+          <cell r="B778"/>
+          <cell r="C778"/>
+        </row>
+        <row r="779">
+          <cell r="A779"/>
+          <cell r="B779"/>
+          <cell r="C779"/>
+        </row>
+        <row r="780">
+          <cell r="A780"/>
+          <cell r="B780"/>
+          <cell r="C780"/>
+        </row>
+        <row r="781">
+          <cell r="A781"/>
+          <cell r="B781"/>
+          <cell r="C781"/>
+        </row>
+        <row r="782">
+          <cell r="A782"/>
+          <cell r="B782"/>
+          <cell r="C782"/>
+        </row>
+        <row r="783">
+          <cell r="A783"/>
+          <cell r="B783"/>
+          <cell r="C783"/>
+        </row>
+        <row r="784">
+          <cell r="A784"/>
+          <cell r="B784"/>
+          <cell r="C784"/>
+        </row>
+        <row r="785">
+          <cell r="A785"/>
+          <cell r="B785"/>
+          <cell r="C785"/>
+        </row>
+        <row r="786">
+          <cell r="A786"/>
+          <cell r="B786"/>
+          <cell r="C786"/>
+        </row>
+        <row r="787">
+          <cell r="A787"/>
+          <cell r="B787"/>
+          <cell r="C787"/>
+        </row>
+        <row r="788">
+          <cell r="A788"/>
+          <cell r="B788"/>
+          <cell r="C788"/>
+        </row>
+        <row r="789">
+          <cell r="A789"/>
+          <cell r="B789"/>
+          <cell r="C789"/>
+        </row>
+        <row r="790">
+          <cell r="A790"/>
+          <cell r="B790"/>
+          <cell r="C790"/>
+        </row>
+        <row r="791">
+          <cell r="A791"/>
+          <cell r="B791"/>
+          <cell r="C791"/>
+        </row>
+        <row r="792">
+          <cell r="A792"/>
+          <cell r="B792"/>
+          <cell r="C792"/>
+        </row>
+        <row r="793">
+          <cell r="A793"/>
+          <cell r="B793"/>
+          <cell r="C793"/>
+        </row>
+        <row r="794">
+          <cell r="A794"/>
+          <cell r="B794"/>
+          <cell r="C794"/>
+        </row>
+        <row r="795">
+          <cell r="A795"/>
+          <cell r="B795"/>
+          <cell r="C795"/>
+        </row>
+        <row r="796">
+          <cell r="A796"/>
+          <cell r="B796"/>
+          <cell r="C796"/>
+        </row>
+        <row r="797">
+          <cell r="A797"/>
+          <cell r="B797"/>
+          <cell r="C797"/>
+        </row>
+        <row r="798">
+          <cell r="A798"/>
+          <cell r="B798"/>
+          <cell r="C798"/>
+        </row>
+        <row r="799">
+          <cell r="A799"/>
+          <cell r="B799"/>
+          <cell r="C799"/>
+        </row>
+        <row r="800">
+          <cell r="A800"/>
+          <cell r="B800"/>
+          <cell r="C800"/>
+        </row>
+        <row r="801">
+          <cell r="A801"/>
+          <cell r="B801"/>
+          <cell r="C801"/>
+        </row>
+        <row r="802">
+          <cell r="A802"/>
+          <cell r="B802"/>
+          <cell r="C802"/>
+        </row>
+        <row r="803">
+          <cell r="A803"/>
+          <cell r="B803"/>
+          <cell r="C803"/>
+        </row>
+        <row r="804">
+          <cell r="A804"/>
+          <cell r="B804"/>
+          <cell r="C804"/>
+        </row>
+        <row r="805">
+          <cell r="A805"/>
+          <cell r="B805"/>
+          <cell r="C805"/>
+        </row>
+        <row r="806">
+          <cell r="A806"/>
+          <cell r="B806"/>
+          <cell r="C806"/>
+        </row>
+        <row r="807">
+          <cell r="A807"/>
+          <cell r="B807"/>
+          <cell r="C807"/>
+        </row>
+        <row r="808">
+          <cell r="A808"/>
+          <cell r="B808"/>
+          <cell r="C808"/>
+        </row>
+        <row r="809">
+          <cell r="A809"/>
+          <cell r="B809"/>
+          <cell r="C809"/>
+        </row>
+        <row r="810">
+          <cell r="A810"/>
+          <cell r="B810"/>
+          <cell r="C810"/>
+        </row>
+        <row r="811">
+          <cell r="A811"/>
+          <cell r="B811"/>
+          <cell r="C811"/>
+        </row>
+        <row r="812">
+          <cell r="A812"/>
+          <cell r="B812"/>
+          <cell r="C812"/>
+        </row>
+        <row r="813">
+          <cell r="A813"/>
+          <cell r="B813"/>
+          <cell r="C813"/>
+        </row>
+        <row r="814">
+          <cell r="A814"/>
+          <cell r="B814"/>
+          <cell r="C814"/>
+        </row>
+        <row r="815">
+          <cell r="A815"/>
+          <cell r="B815"/>
+          <cell r="C815"/>
+        </row>
+        <row r="816">
+          <cell r="A816"/>
+          <cell r="B816"/>
+          <cell r="C816"/>
+        </row>
+        <row r="817">
+          <cell r="A817"/>
+          <cell r="B817"/>
+          <cell r="C817"/>
+        </row>
+        <row r="818">
+          <cell r="A818"/>
+          <cell r="B818"/>
+          <cell r="C818"/>
+        </row>
+        <row r="819">
+          <cell r="A819"/>
+          <cell r="B819"/>
+          <cell r="C819"/>
+        </row>
+        <row r="820">
+          <cell r="A820"/>
+          <cell r="B820"/>
+          <cell r="C820"/>
+        </row>
+        <row r="821">
+          <cell r="A821"/>
+          <cell r="B821"/>
+          <cell r="C821"/>
+        </row>
+        <row r="822">
+          <cell r="A822"/>
+          <cell r="B822"/>
+          <cell r="C822"/>
+        </row>
+        <row r="823">
+          <cell r="A823"/>
+          <cell r="B823"/>
+          <cell r="C823"/>
+        </row>
+        <row r="824">
+          <cell r="A824"/>
+          <cell r="B824"/>
+          <cell r="C824"/>
+        </row>
+        <row r="825">
+          <cell r="A825"/>
+          <cell r="B825"/>
+          <cell r="C825"/>
+        </row>
+        <row r="826">
+          <cell r="A826"/>
+          <cell r="B826"/>
+          <cell r="C826"/>
+        </row>
+        <row r="827">
+          <cell r="A827"/>
+          <cell r="B827"/>
+          <cell r="C827"/>
+        </row>
+        <row r="828">
+          <cell r="A828"/>
+          <cell r="B828"/>
+          <cell r="C828"/>
+        </row>
+        <row r="829">
+          <cell r="A829"/>
+          <cell r="B829"/>
+          <cell r="C829"/>
+        </row>
+        <row r="830">
+          <cell r="A830"/>
+          <cell r="B830"/>
+          <cell r="C830"/>
+        </row>
+        <row r="831">
+          <cell r="A831"/>
+          <cell r="B831"/>
+          <cell r="C831"/>
+        </row>
+        <row r="832">
+          <cell r="A832"/>
+          <cell r="B832"/>
+          <cell r="C832"/>
+        </row>
+        <row r="833">
+          <cell r="A833"/>
+          <cell r="B833"/>
+          <cell r="C833"/>
+        </row>
+        <row r="834">
+          <cell r="A834"/>
+          <cell r="B834"/>
+          <cell r="C834"/>
+        </row>
+        <row r="835">
+          <cell r="A835"/>
+          <cell r="B835"/>
+          <cell r="C835"/>
+        </row>
+        <row r="836">
+          <cell r="A836"/>
+          <cell r="B836"/>
+          <cell r="C836"/>
+        </row>
+        <row r="837">
+          <cell r="A837"/>
+          <cell r="B837"/>
+          <cell r="C837"/>
+        </row>
+        <row r="838">
+          <cell r="A838"/>
+          <cell r="B838"/>
+          <cell r="C838"/>
+        </row>
+        <row r="839">
+          <cell r="A839"/>
+          <cell r="B839"/>
+          <cell r="C839"/>
+        </row>
+        <row r="840">
+          <cell r="A840"/>
+          <cell r="B840"/>
+          <cell r="C840"/>
+        </row>
+        <row r="841">
+          <cell r="A841"/>
+          <cell r="B841"/>
+          <cell r="C841"/>
+        </row>
+        <row r="842">
+          <cell r="A842"/>
+          <cell r="B842"/>
+          <cell r="C842"/>
+        </row>
+        <row r="843">
+          <cell r="A843"/>
+          <cell r="B843"/>
+          <cell r="C843"/>
+        </row>
+        <row r="844">
+          <cell r="A844"/>
+          <cell r="B844"/>
+          <cell r="C844"/>
+        </row>
+        <row r="845">
+          <cell r="A845"/>
+          <cell r="B845"/>
+          <cell r="C845"/>
+        </row>
+        <row r="846">
+          <cell r="A846"/>
+          <cell r="B846"/>
+          <cell r="C846"/>
+        </row>
+        <row r="847">
+          <cell r="A847"/>
+          <cell r="B847"/>
+          <cell r="C847"/>
+        </row>
+        <row r="848">
+          <cell r="A848"/>
+          <cell r="B848"/>
+          <cell r="C848"/>
+        </row>
+        <row r="849">
+          <cell r="A849"/>
+          <cell r="B849"/>
+          <cell r="C849"/>
+        </row>
+        <row r="850">
+          <cell r="A850"/>
+          <cell r="B850"/>
+          <cell r="C850"/>
+        </row>
+        <row r="851">
+          <cell r="A851"/>
+          <cell r="B851"/>
+          <cell r="C851"/>
+        </row>
+        <row r="852">
+          <cell r="A852"/>
+          <cell r="B852"/>
+          <cell r="C852"/>
+        </row>
+        <row r="853">
+          <cell r="A853"/>
+          <cell r="B853"/>
+          <cell r="C853"/>
+        </row>
+        <row r="854">
+          <cell r="A854"/>
+          <cell r="B854"/>
+          <cell r="C854"/>
+        </row>
+        <row r="855">
+          <cell r="A855"/>
+          <cell r="B855"/>
+          <cell r="C855"/>
+        </row>
+        <row r="856">
+          <cell r="A856"/>
+          <cell r="B856"/>
+          <cell r="C856"/>
+        </row>
+        <row r="857">
+          <cell r="A857"/>
+          <cell r="B857"/>
+          <cell r="C857"/>
+        </row>
+        <row r="858">
+          <cell r="A858"/>
+          <cell r="B858"/>
+          <cell r="C858"/>
+        </row>
+        <row r="859">
+          <cell r="A859"/>
+          <cell r="B859"/>
+          <cell r="C859"/>
+        </row>
+        <row r="860">
+          <cell r="A860"/>
+          <cell r="B860"/>
+          <cell r="C860"/>
+        </row>
+        <row r="861">
+          <cell r="A861"/>
+          <cell r="B861"/>
+          <cell r="C861"/>
+        </row>
+        <row r="862">
+          <cell r="A862"/>
+          <cell r="B862"/>
+          <cell r="C862"/>
+        </row>
+        <row r="863">
+          <cell r="A863"/>
+          <cell r="B863"/>
+          <cell r="C863"/>
+        </row>
+        <row r="864">
+          <cell r="A864"/>
+          <cell r="B864"/>
+          <cell r="C864"/>
+        </row>
+        <row r="865">
+          <cell r="A865"/>
+          <cell r="B865"/>
+          <cell r="C865"/>
+        </row>
+        <row r="866">
+          <cell r="A866"/>
+          <cell r="B866"/>
+          <cell r="C866"/>
+        </row>
+        <row r="867">
+          <cell r="A867"/>
+          <cell r="B867"/>
+          <cell r="C867"/>
+        </row>
+        <row r="868">
+          <cell r="A868"/>
+          <cell r="B868"/>
+          <cell r="C868"/>
+        </row>
+        <row r="869">
+          <cell r="A869"/>
+          <cell r="B869"/>
+          <cell r="C869"/>
+        </row>
+        <row r="870">
+          <cell r="A870"/>
+          <cell r="B870"/>
+          <cell r="C870"/>
+        </row>
+        <row r="871">
+          <cell r="A871"/>
+          <cell r="B871"/>
+          <cell r="C871"/>
+        </row>
+        <row r="872">
+          <cell r="A872"/>
+          <cell r="B872"/>
+          <cell r="C872"/>
+        </row>
+        <row r="873">
+          <cell r="A873"/>
+          <cell r="B873"/>
+          <cell r="C873"/>
+        </row>
+        <row r="874">
+          <cell r="A874"/>
+          <cell r="B874"/>
+          <cell r="C874"/>
+        </row>
+        <row r="875">
+          <cell r="A875"/>
+          <cell r="B875"/>
+          <cell r="C875"/>
+        </row>
+        <row r="876">
+          <cell r="A876"/>
+          <cell r="B876"/>
+          <cell r="C876"/>
+        </row>
+        <row r="877">
+          <cell r="A877"/>
+          <cell r="B877"/>
+          <cell r="C877"/>
+        </row>
+        <row r="878">
+          <cell r="A878"/>
+          <cell r="B878"/>
+          <cell r="C878"/>
+        </row>
+        <row r="879">
+          <cell r="A879"/>
+          <cell r="B879"/>
+          <cell r="C879"/>
+        </row>
+        <row r="880">
+          <cell r="A880"/>
+          <cell r="B880"/>
+          <cell r="C880"/>
+        </row>
+        <row r="881">
+          <cell r="A881"/>
+          <cell r="B881"/>
+          <cell r="C881"/>
+        </row>
+        <row r="882">
+          <cell r="A882"/>
+          <cell r="B882"/>
+          <cell r="C882"/>
+        </row>
+        <row r="883">
+          <cell r="A883"/>
+          <cell r="B883"/>
+          <cell r="C883"/>
+        </row>
+        <row r="884">
+          <cell r="A884"/>
+          <cell r="B884"/>
+          <cell r="C884"/>
+        </row>
+        <row r="885">
+          <cell r="A885"/>
+          <cell r="B885"/>
+          <cell r="C885"/>
+        </row>
+        <row r="886">
+          <cell r="A886"/>
+          <cell r="B886"/>
+          <cell r="C886"/>
+        </row>
+        <row r="887">
+          <cell r="A887"/>
+          <cell r="B887"/>
+          <cell r="C887"/>
+        </row>
+        <row r="888">
+          <cell r="A888"/>
+          <cell r="B888"/>
+          <cell r="C888"/>
+        </row>
+        <row r="889">
+          <cell r="A889"/>
+          <cell r="B889"/>
+          <cell r="C889"/>
+        </row>
+        <row r="890">
+          <cell r="A890"/>
+          <cell r="B890"/>
+          <cell r="C890"/>
+        </row>
+        <row r="891">
+          <cell r="A891"/>
+          <cell r="B891"/>
+          <cell r="C891"/>
+        </row>
+        <row r="892">
+          <cell r="A892"/>
+          <cell r="B892"/>
+          <cell r="C892"/>
+        </row>
+        <row r="893">
+          <cell r="A893"/>
+          <cell r="B893"/>
+          <cell r="C893"/>
+        </row>
+        <row r="894">
+          <cell r="A894"/>
+          <cell r="B894"/>
+          <cell r="C894"/>
+        </row>
+        <row r="895">
+          <cell r="A895"/>
+          <cell r="B895"/>
+          <cell r="C895"/>
+        </row>
+        <row r="896">
+          <cell r="A896"/>
+          <cell r="B896"/>
+          <cell r="C896"/>
+        </row>
+        <row r="897">
+          <cell r="A897"/>
+          <cell r="B897"/>
+          <cell r="C897"/>
+        </row>
+        <row r="898">
+          <cell r="A898"/>
+          <cell r="B898"/>
+          <cell r="C898"/>
+        </row>
+        <row r="899">
+          <cell r="A899"/>
+          <cell r="B899"/>
+          <cell r="C899"/>
+        </row>
+        <row r="900">
+          <cell r="A900"/>
+          <cell r="B900"/>
+          <cell r="C900"/>
+        </row>
+        <row r="901">
+          <cell r="A901"/>
+          <cell r="B901"/>
+          <cell r="C901"/>
+        </row>
+        <row r="902">
+          <cell r="A902"/>
+          <cell r="B902"/>
+          <cell r="C902"/>
+        </row>
+        <row r="903">
+          <cell r="A903"/>
+          <cell r="B903"/>
+          <cell r="C903"/>
+        </row>
+        <row r="904">
+          <cell r="A904"/>
+          <cell r="B904"/>
+          <cell r="C904"/>
+        </row>
+        <row r="905">
+          <cell r="A905"/>
+          <cell r="B905"/>
+          <cell r="C905"/>
+        </row>
+        <row r="906">
+          <cell r="A906"/>
+          <cell r="B906"/>
+          <cell r="C906"/>
+        </row>
+        <row r="907">
+          <cell r="A907"/>
+          <cell r="B907"/>
+          <cell r="C907"/>
+        </row>
+        <row r="908">
+          <cell r="A908"/>
+          <cell r="B908"/>
+          <cell r="C908"/>
+        </row>
+        <row r="909">
+          <cell r="A909"/>
+          <cell r="B909"/>
+          <cell r="C909"/>
+        </row>
+        <row r="910">
+          <cell r="A910"/>
+          <cell r="B910"/>
+          <cell r="C910"/>
+        </row>
+        <row r="911">
+          <cell r="A911"/>
+          <cell r="B911"/>
+          <cell r="C911"/>
+        </row>
+        <row r="912">
+          <cell r="A912"/>
+          <cell r="B912"/>
+          <cell r="C912"/>
+        </row>
+        <row r="913">
+          <cell r="A913"/>
+          <cell r="B913"/>
+          <cell r="C913"/>
+        </row>
+        <row r="914">
+          <cell r="A914"/>
+          <cell r="B914"/>
+          <cell r="C914"/>
+        </row>
+        <row r="915">
+          <cell r="A915"/>
+          <cell r="B915"/>
+          <cell r="C915"/>
+        </row>
+        <row r="916">
+          <cell r="A916"/>
+          <cell r="B916"/>
+          <cell r="C916"/>
+        </row>
+        <row r="917">
+          <cell r="A917"/>
+          <cell r="B917"/>
+          <cell r="C917"/>
+        </row>
+        <row r="918">
+          <cell r="A918"/>
+          <cell r="B918"/>
+          <cell r="C918"/>
+        </row>
+        <row r="919">
+          <cell r="A919"/>
+          <cell r="B919"/>
+          <cell r="C919"/>
+        </row>
+        <row r="920">
+          <cell r="A920"/>
+          <cell r="B920"/>
+          <cell r="C920"/>
+        </row>
+        <row r="921">
+          <cell r="A921"/>
+          <cell r="B921"/>
+          <cell r="C921"/>
+        </row>
+        <row r="922">
+          <cell r="A922"/>
+          <cell r="B922"/>
+          <cell r="C922"/>
+        </row>
+        <row r="923">
+          <cell r="A923"/>
+          <cell r="B923"/>
+          <cell r="C923"/>
+        </row>
+        <row r="924">
+          <cell r="A924"/>
+          <cell r="B924"/>
+          <cell r="C924"/>
+        </row>
+        <row r="925">
+          <cell r="A925"/>
+          <cell r="B925"/>
+          <cell r="C925"/>
+        </row>
+        <row r="926">
+          <cell r="A926"/>
+          <cell r="B926"/>
+          <cell r="C926"/>
+        </row>
+        <row r="927">
+          <cell r="A927"/>
+          <cell r="B927"/>
+          <cell r="C927"/>
+        </row>
+        <row r="928">
+          <cell r="A928"/>
+          <cell r="B928"/>
+          <cell r="C928"/>
+        </row>
+        <row r="929">
+          <cell r="A929"/>
+          <cell r="B929"/>
+          <cell r="C929"/>
+        </row>
+        <row r="930">
+          <cell r="A930"/>
+          <cell r="B930"/>
+          <cell r="C930"/>
+        </row>
+        <row r="931">
+          <cell r="A931"/>
+          <cell r="B931"/>
+          <cell r="C931"/>
+        </row>
+        <row r="932">
+          <cell r="A932"/>
+          <cell r="B932"/>
+          <cell r="C932"/>
+        </row>
+        <row r="933">
+          <cell r="A933"/>
+          <cell r="B933"/>
+          <cell r="C933"/>
+        </row>
+        <row r="934">
+          <cell r="A934"/>
+          <cell r="B934"/>
+          <cell r="C934"/>
+        </row>
+        <row r="935">
+          <cell r="A935"/>
+          <cell r="B935"/>
+          <cell r="C935"/>
+        </row>
+        <row r="936">
+          <cell r="A936"/>
+          <cell r="B936"/>
+          <cell r="C936"/>
+        </row>
+        <row r="937">
+          <cell r="A937"/>
+          <cell r="B937"/>
+          <cell r="C937"/>
+        </row>
+        <row r="938">
+          <cell r="A938"/>
+          <cell r="B938"/>
+          <cell r="C938"/>
+        </row>
+        <row r="939">
+          <cell r="A939"/>
+          <cell r="B939"/>
+          <cell r="C939"/>
+        </row>
+        <row r="940">
+          <cell r="A940"/>
+          <cell r="B940"/>
+          <cell r="C940"/>
+        </row>
+        <row r="941">
+          <cell r="A941"/>
+          <cell r="B941"/>
+          <cell r="C941"/>
+        </row>
+        <row r="942">
+          <cell r="A942"/>
+          <cell r="B942"/>
+          <cell r="C942"/>
+        </row>
+        <row r="943">
+          <cell r="A943"/>
+          <cell r="B943"/>
+          <cell r="C943"/>
+        </row>
+        <row r="944">
+          <cell r="A944"/>
+          <cell r="B944"/>
+          <cell r="C944"/>
+        </row>
+        <row r="945">
+          <cell r="A945"/>
+          <cell r="B945"/>
+          <cell r="C945"/>
+        </row>
+        <row r="946">
+          <cell r="A946"/>
+          <cell r="B946"/>
+          <cell r="C946"/>
+        </row>
+        <row r="947">
+          <cell r="A947"/>
+          <cell r="B947"/>
+          <cell r="C947"/>
+        </row>
+        <row r="948">
+          <cell r="A948"/>
+          <cell r="B948"/>
+          <cell r="C948"/>
+        </row>
+        <row r="949">
+          <cell r="A949"/>
+          <cell r="B949"/>
+          <cell r="C949"/>
+        </row>
+        <row r="950">
+          <cell r="A950"/>
+          <cell r="B950"/>
+          <cell r="C950"/>
+        </row>
+        <row r="951">
+          <cell r="A951"/>
+          <cell r="B951"/>
+          <cell r="C951"/>
+        </row>
+        <row r="952">
+          <cell r="A952"/>
+          <cell r="B952"/>
+          <cell r="C952"/>
+        </row>
+        <row r="953">
+          <cell r="A953"/>
+          <cell r="B953"/>
+          <cell r="C953"/>
+        </row>
+        <row r="954">
+          <cell r="A954"/>
+          <cell r="B954"/>
+          <cell r="C954"/>
+        </row>
+        <row r="955">
+          <cell r="A955"/>
+          <cell r="B955"/>
+          <cell r="C955"/>
+        </row>
+        <row r="956">
+          <cell r="A956"/>
+          <cell r="B956"/>
+          <cell r="C956"/>
+        </row>
+        <row r="957">
+          <cell r="A957"/>
+          <cell r="B957"/>
+          <cell r="C957"/>
+        </row>
+        <row r="958">
+          <cell r="A958"/>
+          <cell r="B958"/>
+          <cell r="C958"/>
+        </row>
+        <row r="959">
+          <cell r="A959"/>
+          <cell r="B959"/>
+          <cell r="C959"/>
+        </row>
+        <row r="960">
+          <cell r="A960"/>
+          <cell r="B960"/>
+          <cell r="C960"/>
+        </row>
+        <row r="961">
+          <cell r="A961"/>
+          <cell r="B961"/>
+          <cell r="C961"/>
+        </row>
+        <row r="962">
+          <cell r="A962"/>
+          <cell r="B962"/>
+          <cell r="C962"/>
+        </row>
+        <row r="963">
+          <cell r="A963"/>
+          <cell r="B963"/>
+          <cell r="C963"/>
+        </row>
+        <row r="964">
+          <cell r="A964"/>
+          <cell r="B964"/>
+          <cell r="C964"/>
+        </row>
+        <row r="965">
+          <cell r="A965"/>
+          <cell r="B965"/>
+          <cell r="C965"/>
+        </row>
+        <row r="966">
+          <cell r="A966"/>
+          <cell r="B966"/>
+          <cell r="C966"/>
+        </row>
+        <row r="967">
+          <cell r="A967"/>
+          <cell r="B967"/>
+          <cell r="C967"/>
+        </row>
+        <row r="968">
+          <cell r="A968"/>
+          <cell r="B968"/>
+          <cell r="C968"/>
+        </row>
+        <row r="969">
+          <cell r="A969"/>
+          <cell r="B969"/>
+          <cell r="C969"/>
+        </row>
+        <row r="970">
+          <cell r="A970"/>
+          <cell r="B970"/>
+          <cell r="C970"/>
+        </row>
+        <row r="971">
+          <cell r="A971"/>
+          <cell r="B971"/>
+          <cell r="C971"/>
+        </row>
+        <row r="972">
+          <cell r="A972"/>
+          <cell r="B972"/>
+          <cell r="C972"/>
+        </row>
+        <row r="973">
+          <cell r="A973"/>
+          <cell r="B973"/>
+          <cell r="C973"/>
+        </row>
+        <row r="974">
+          <cell r="A974"/>
+          <cell r="B974"/>
+          <cell r="C974"/>
+        </row>
+        <row r="975">
+          <cell r="A975"/>
+          <cell r="B975"/>
+          <cell r="C975"/>
+        </row>
+        <row r="976">
+          <cell r="A976"/>
+          <cell r="B976"/>
+          <cell r="C976"/>
+        </row>
+        <row r="977">
+          <cell r="A977"/>
+          <cell r="B977"/>
+          <cell r="C977"/>
+        </row>
+        <row r="978">
+          <cell r="A978"/>
+          <cell r="B978"/>
+          <cell r="C978"/>
+        </row>
+        <row r="979">
+          <cell r="A979"/>
+          <cell r="B979"/>
+          <cell r="C979"/>
+        </row>
+        <row r="980">
+          <cell r="A980"/>
+          <cell r="B980"/>
+          <cell r="C980"/>
+        </row>
+        <row r="981">
+          <cell r="A981"/>
+          <cell r="B981"/>
+          <cell r="C981"/>
+        </row>
+        <row r="982">
+          <cell r="A982"/>
+          <cell r="B982"/>
+          <cell r="C982"/>
+        </row>
+        <row r="983">
+          <cell r="A983"/>
+          <cell r="B983"/>
+          <cell r="C983"/>
+        </row>
+        <row r="984">
+          <cell r="A984"/>
+          <cell r="B984"/>
+          <cell r="C984"/>
+        </row>
+        <row r="985">
+          <cell r="A985"/>
+          <cell r="B985"/>
+          <cell r="C985"/>
+        </row>
+        <row r="986">
+          <cell r="A986"/>
+          <cell r="B986"/>
+          <cell r="C986"/>
+        </row>
+        <row r="987">
+          <cell r="A987"/>
+          <cell r="B987"/>
+          <cell r="C987"/>
+        </row>
+        <row r="988">
+          <cell r="A988"/>
+          <cell r="B988"/>
+          <cell r="C988"/>
+        </row>
+        <row r="989">
+          <cell r="A989"/>
+          <cell r="B989"/>
+          <cell r="C989"/>
+        </row>
+        <row r="990">
+          <cell r="A990"/>
+          <cell r="B990"/>
+          <cell r="C990"/>
+        </row>
+        <row r="991">
+          <cell r="A991"/>
+          <cell r="B991"/>
+          <cell r="C991"/>
+        </row>
+        <row r="992">
+          <cell r="A992"/>
+          <cell r="B992"/>
+          <cell r="C992"/>
+        </row>
+        <row r="993">
+          <cell r="A993"/>
+          <cell r="B993"/>
+          <cell r="C993"/>
+        </row>
+        <row r="994">
+          <cell r="A994"/>
+          <cell r="B994"/>
+          <cell r="C994"/>
+        </row>
+        <row r="995">
+          <cell r="A995"/>
+          <cell r="B995"/>
+          <cell r="C995"/>
+        </row>
+        <row r="996">
+          <cell r="A996"/>
+          <cell r="B996"/>
+          <cell r="C996"/>
+        </row>
+        <row r="997">
+          <cell r="A997"/>
+          <cell r="B997"/>
+          <cell r="C997"/>
+        </row>
+        <row r="998">
+          <cell r="A998"/>
+          <cell r="B998"/>
+          <cell r="C998"/>
+        </row>
+        <row r="999">
+          <cell r="A999"/>
+          <cell r="B999"/>
+          <cell r="C999"/>
+        </row>
+        <row r="1000">
+          <cell r="A1000"/>
+          <cell r="B1000"/>
+          <cell r="C1000"/>
+        </row>
+        <row r="1001">
+          <cell r="A1001"/>
+          <cell r="B1001"/>
+          <cell r="C1001"/>
+        </row>
+        <row r="1002">
+          <cell r="A1002"/>
+          <cell r="B1002"/>
+          <cell r="C1002"/>
+        </row>
+        <row r="1003">
+          <cell r="A1003"/>
+          <cell r="B1003"/>
+          <cell r="C1003"/>
+        </row>
+        <row r="1004">
+          <cell r="A1004"/>
+          <cell r="B1004"/>
+          <cell r="C1004"/>
+        </row>
+        <row r="1005">
+          <cell r="A1005"/>
+          <cell r="B1005"/>
+          <cell r="C1005"/>
+        </row>
+        <row r="1006">
+          <cell r="A1006"/>
+          <cell r="B1006"/>
+          <cell r="C1006"/>
+        </row>
+        <row r="1007">
+          <cell r="A1007"/>
+          <cell r="B1007"/>
+          <cell r="C1007"/>
+        </row>
+        <row r="1008">
+          <cell r="A1008"/>
+          <cell r="B1008"/>
+          <cell r="C1008"/>
+        </row>
+        <row r="1009">
+          <cell r="A1009"/>
+          <cell r="B1009"/>
+          <cell r="C1009"/>
+        </row>
+        <row r="1010">
+          <cell r="A1010"/>
+          <cell r="B1010"/>
+          <cell r="C1010"/>
+        </row>
+        <row r="1011">
+          <cell r="A1011"/>
+          <cell r="B1011"/>
+          <cell r="C1011"/>
+        </row>
+        <row r="1012">
+          <cell r="A1012"/>
+          <cell r="B1012"/>
+          <cell r="C1012"/>
+        </row>
+        <row r="1013">
+          <cell r="A1013"/>
+          <cell r="B1013"/>
+          <cell r="C1013"/>
+        </row>
+        <row r="1014">
+          <cell r="A1014"/>
+          <cell r="B1014"/>
+          <cell r="C1014"/>
+        </row>
+        <row r="1015">
+          <cell r="A1015"/>
+          <cell r="B1015"/>
+          <cell r="C1015"/>
+        </row>
+        <row r="1016">
+          <cell r="A1016"/>
+          <cell r="B1016"/>
+          <cell r="C1016"/>
+        </row>
+        <row r="1017">
+          <cell r="A1017"/>
+          <cell r="B1017"/>
+          <cell r="C1017"/>
+        </row>
+        <row r="1018">
+          <cell r="A1018"/>
+          <cell r="B1018"/>
+          <cell r="C1018"/>
+        </row>
+        <row r="1019">
+          <cell r="A1019"/>
+          <cell r="B1019"/>
+          <cell r="C1019"/>
+        </row>
+        <row r="1020">
+          <cell r="A1020"/>
+          <cell r="B1020"/>
+          <cell r="C1020"/>
+        </row>
+        <row r="1021">
+          <cell r="A1021"/>
+          <cell r="B1021"/>
+          <cell r="C1021"/>
+        </row>
+        <row r="1022">
+          <cell r="A1022"/>
+          <cell r="B1022"/>
+          <cell r="C1022"/>
+        </row>
+        <row r="1023">
+          <cell r="A1023"/>
+          <cell r="B1023"/>
+          <cell r="C1023"/>
+        </row>
+        <row r="1024">
+          <cell r="A1024"/>
+          <cell r="B1024"/>
+          <cell r="C1024"/>
+        </row>
+        <row r="1025">
+          <cell r="A1025"/>
+          <cell r="B1025"/>
+          <cell r="C1025"/>
+        </row>
+        <row r="1026">
+          <cell r="A1026"/>
+          <cell r="B1026"/>
+          <cell r="C1026"/>
+        </row>
+        <row r="1027">
+          <cell r="A1027"/>
+          <cell r="B1027"/>
+          <cell r="C1027"/>
+        </row>
+        <row r="1028">
+          <cell r="A1028"/>
+          <cell r="B1028"/>
+          <cell r="C1028"/>
+        </row>
+        <row r="1029">
+          <cell r="A1029"/>
+          <cell r="B1029"/>
+          <cell r="C1029"/>
+        </row>
+        <row r="1030">
+          <cell r="A1030"/>
+          <cell r="B1030"/>
+          <cell r="C1030"/>
+        </row>
+        <row r="1031">
+          <cell r="A1031"/>
+          <cell r="B1031"/>
+          <cell r="C1031"/>
+        </row>
+        <row r="1032">
+          <cell r="A1032"/>
+          <cell r="B1032"/>
+          <cell r="C1032"/>
+        </row>
+        <row r="1033">
+          <cell r="A1033"/>
+          <cell r="B1033"/>
+          <cell r="C1033"/>
+        </row>
+        <row r="1034">
+          <cell r="A1034"/>
+          <cell r="B1034"/>
+          <cell r="C1034"/>
+        </row>
+        <row r="1035">
+          <cell r="A1035"/>
+          <cell r="B1035"/>
+          <cell r="C1035"/>
+        </row>
+        <row r="1036">
+          <cell r="A1036"/>
+          <cell r="B1036"/>
+          <cell r="C1036"/>
+        </row>
+        <row r="1037">
+          <cell r="A1037"/>
+          <cell r="B1037"/>
+          <cell r="C1037"/>
+        </row>
+        <row r="1038">
+          <cell r="A1038"/>
+          <cell r="B1038"/>
+          <cell r="C1038"/>
+        </row>
+        <row r="1039">
+          <cell r="A1039"/>
+          <cell r="B1039"/>
+          <cell r="C1039"/>
+        </row>
+        <row r="1040">
+          <cell r="A1040"/>
+          <cell r="B1040"/>
+          <cell r="C1040"/>
+        </row>
+        <row r="1041">
+          <cell r="A1041"/>
+          <cell r="B1041"/>
+          <cell r="C1041"/>
+        </row>
+        <row r="1042">
+          <cell r="A1042"/>
+          <cell r="B1042"/>
+          <cell r="C1042"/>
+        </row>
+        <row r="1043">
+          <cell r="A1043"/>
+          <cell r="B1043"/>
+          <cell r="C1043"/>
+        </row>
+        <row r="1044">
+          <cell r="A1044"/>
+          <cell r="B1044"/>
+          <cell r="C1044"/>
+        </row>
+        <row r="1045">
+          <cell r="A1045"/>
+          <cell r="B1045"/>
+          <cell r="C1045"/>
+        </row>
+        <row r="1046">
+          <cell r="A1046"/>
+          <cell r="B1046"/>
+          <cell r="C1046"/>
+        </row>
+        <row r="1047">
+          <cell r="A1047"/>
+          <cell r="B1047"/>
+          <cell r="C1047"/>
+        </row>
+        <row r="1048">
+          <cell r="A1048"/>
+          <cell r="B1048"/>
+          <cell r="C1048"/>
+        </row>
+        <row r="1049">
+          <cell r="A1049"/>
+          <cell r="B1049"/>
+          <cell r="C1049"/>
+        </row>
+        <row r="1050">
+          <cell r="A1050"/>
+          <cell r="B1050"/>
+          <cell r="C1050"/>
+        </row>
+        <row r="1051">
+          <cell r="A1051"/>
+          <cell r="B1051"/>
+          <cell r="C1051"/>
+        </row>
+        <row r="1052">
+          <cell r="A1052"/>
+          <cell r="B1052"/>
+          <cell r="C1052"/>
+        </row>
+        <row r="1053">
+          <cell r="A1053"/>
+          <cell r="B1053"/>
+          <cell r="C1053"/>
+        </row>
+        <row r="1054">
+          <cell r="A1054"/>
+          <cell r="B1054"/>
+          <cell r="C1054"/>
+        </row>
+        <row r="1055">
+          <cell r="A1055"/>
+          <cell r="B1055"/>
+          <cell r="C1055"/>
+        </row>
+        <row r="1056">
+          <cell r="A1056"/>
+          <cell r="B1056"/>
+          <cell r="C1056"/>
+        </row>
+        <row r="1057">
+          <cell r="A1057"/>
+          <cell r="B1057"/>
+          <cell r="C1057"/>
+        </row>
+        <row r="1058">
+          <cell r="A1058"/>
+          <cell r="B1058"/>
+          <cell r="C1058"/>
+        </row>
+        <row r="1059">
+          <cell r="A1059"/>
+          <cell r="B1059"/>
+          <cell r="C1059"/>
+        </row>
+        <row r="1060">
+          <cell r="A1060"/>
+          <cell r="B1060"/>
+          <cell r="C1060"/>
+        </row>
+        <row r="1061">
+          <cell r="A1061"/>
+          <cell r="B1061"/>
+          <cell r="C1061"/>
+        </row>
+        <row r="1062">
+          <cell r="A1062"/>
+          <cell r="B1062"/>
+          <cell r="C1062"/>
+        </row>
+        <row r="1063">
+          <cell r="A1063"/>
+          <cell r="B1063"/>
+          <cell r="C1063"/>
+        </row>
+        <row r="1064">
+          <cell r="A1064"/>
+          <cell r="B1064"/>
+          <cell r="C1064"/>
+        </row>
+        <row r="1065">
+          <cell r="A1065"/>
+          <cell r="B1065"/>
+          <cell r="C1065"/>
+        </row>
+        <row r="1066">
+          <cell r="A1066"/>
+          <cell r="B1066"/>
+          <cell r="C1066"/>
+        </row>
+        <row r="1067">
+          <cell r="A1067"/>
+          <cell r="B1067"/>
+          <cell r="C1067"/>
+        </row>
+        <row r="1068">
+          <cell r="A1068"/>
+          <cell r="B1068"/>
+          <cell r="C1068"/>
+        </row>
+        <row r="1069">
+          <cell r="A1069"/>
+          <cell r="B1069"/>
+          <cell r="C1069"/>
+        </row>
+        <row r="1070">
+          <cell r="A1070"/>
+          <cell r="B1070"/>
+          <cell r="C1070"/>
+        </row>
+        <row r="1071">
+          <cell r="A1071"/>
+          <cell r="B1071"/>
+          <cell r="C1071"/>
+        </row>
+        <row r="1072">
+          <cell r="A1072"/>
+          <cell r="B1072"/>
+          <cell r="C1072"/>
+        </row>
+        <row r="1073">
+          <cell r="A1073"/>
+          <cell r="B1073"/>
+          <cell r="C1073"/>
+        </row>
+        <row r="1074">
+          <cell r="A1074"/>
+          <cell r="B1074"/>
+          <cell r="C1074"/>
+        </row>
+        <row r="1075">
+          <cell r="A1075"/>
+          <cell r="B1075"/>
+          <cell r="C1075"/>
+        </row>
+        <row r="1076">
+          <cell r="A1076"/>
+          <cell r="B1076"/>
+          <cell r="C1076"/>
+        </row>
+        <row r="1077">
+          <cell r="A1077"/>
+          <cell r="B1077"/>
+          <cell r="C1077"/>
+        </row>
+        <row r="1078">
+          <cell r="A1078"/>
+          <cell r="B1078"/>
+          <cell r="C1078"/>
+        </row>
+        <row r="1079">
+          <cell r="A1079"/>
+          <cell r="B1079"/>
+          <cell r="C1079"/>
+        </row>
+        <row r="1080">
+          <cell r="A1080"/>
+          <cell r="B1080"/>
+          <cell r="C1080"/>
+        </row>
+        <row r="1081">
+          <cell r="A1081"/>
+          <cell r="B1081"/>
+          <cell r="C1081"/>
+        </row>
+        <row r="1082">
+          <cell r="A1082"/>
+          <cell r="B1082"/>
+          <cell r="C1082"/>
+        </row>
+        <row r="1083">
+          <cell r="A1083"/>
+          <cell r="B1083"/>
+          <cell r="C1083"/>
+        </row>
+        <row r="1084">
+          <cell r="A1084"/>
+          <cell r="B1084"/>
+          <cell r="C1084"/>
+        </row>
+        <row r="1085">
+          <cell r="A1085"/>
+          <cell r="B1085"/>
+          <cell r="C1085"/>
+        </row>
+        <row r="1086">
+          <cell r="A1086"/>
+          <cell r="B1086"/>
+          <cell r="C1086"/>
+        </row>
+        <row r="1087">
+          <cell r="A1087"/>
+          <cell r="B1087"/>
+          <cell r="C1087"/>
+        </row>
+        <row r="1088">
+          <cell r="A1088"/>
+          <cell r="B1088"/>
+          <cell r="C1088"/>
+        </row>
+        <row r="1089">
+          <cell r="A1089"/>
+          <cell r="B1089"/>
+          <cell r="C1089"/>
+        </row>
+        <row r="1090">
+          <cell r="A1090"/>
+          <cell r="B1090"/>
+          <cell r="C1090"/>
+        </row>
+        <row r="1091">
+          <cell r="A1091"/>
+          <cell r="B1091"/>
+          <cell r="C1091"/>
+        </row>
+        <row r="1092">
+          <cell r="A1092"/>
+          <cell r="B1092"/>
+          <cell r="C1092"/>
+        </row>
+        <row r="1093">
+          <cell r="A1093"/>
+          <cell r="B1093"/>
+          <cell r="C1093"/>
+        </row>
+        <row r="1094">
+          <cell r="A1094"/>
+          <cell r="B1094"/>
+          <cell r="C1094"/>
+        </row>
+        <row r="1095">
+          <cell r="A1095"/>
+          <cell r="B1095"/>
+          <cell r="C1095"/>
+        </row>
+        <row r="1096">
+          <cell r="A1096"/>
+          <cell r="B1096"/>
+          <cell r="C1096"/>
+        </row>
+        <row r="1097">
+          <cell r="A1097"/>
+          <cell r="B1097"/>
+          <cell r="C1097"/>
+        </row>
+        <row r="1098">
+          <cell r="A1098"/>
+          <cell r="B1098"/>
+          <cell r="C1098"/>
+        </row>
+        <row r="1099">
+          <cell r="A1099"/>
+          <cell r="B1099"/>
+          <cell r="C1099"/>
+        </row>
+        <row r="1100">
+          <cell r="A1100"/>
+          <cell r="B1100"/>
+          <cell r="C1100"/>
+        </row>
+        <row r="1101">
+          <cell r="A1101"/>
+          <cell r="B1101"/>
+          <cell r="C1101"/>
+        </row>
+        <row r="1102">
+          <cell r="A1102"/>
+          <cell r="B1102"/>
+          <cell r="C1102"/>
+        </row>
+        <row r="1103">
+          <cell r="A1103"/>
+          <cell r="B1103"/>
+          <cell r="C1103"/>
+        </row>
+        <row r="1104">
+          <cell r="A1104"/>
+          <cell r="B1104"/>
+          <cell r="C1104"/>
+        </row>
+        <row r="1105">
+          <cell r="A1105"/>
+          <cell r="B1105"/>
+          <cell r="C1105"/>
+        </row>
+        <row r="1106">
+          <cell r="A1106"/>
+          <cell r="B1106"/>
+          <cell r="C1106"/>
+        </row>
+        <row r="1107">
+          <cell r="A1107"/>
+          <cell r="B1107"/>
+          <cell r="C1107"/>
+        </row>
+        <row r="1108">
+          <cell r="A1108"/>
+          <cell r="B1108"/>
+          <cell r="C1108"/>
+        </row>
+        <row r="1109">
+          <cell r="A1109"/>
+          <cell r="B1109"/>
+          <cell r="C1109"/>
+        </row>
+        <row r="1110">
+          <cell r="A1110"/>
+          <cell r="B1110"/>
+          <cell r="C1110"/>
+        </row>
+        <row r="1111">
+          <cell r="A1111"/>
+          <cell r="B1111"/>
+          <cell r="C1111"/>
+        </row>
+        <row r="1112">
+          <cell r="A1112"/>
+          <cell r="B1112"/>
+          <cell r="C1112"/>
+        </row>
+        <row r="1113">
+          <cell r="A1113"/>
+          <cell r="B1113"/>
+          <cell r="C1113"/>
+        </row>
+        <row r="1114">
+          <cell r="A1114"/>
+          <cell r="B1114"/>
+          <cell r="C1114"/>
+        </row>
+        <row r="1115">
+          <cell r="A1115"/>
+          <cell r="B1115"/>
+          <cell r="C1115"/>
+        </row>
+        <row r="1116">
+          <cell r="A1116"/>
+          <cell r="B1116"/>
+          <cell r="C1116"/>
+        </row>
+        <row r="1117">
+          <cell r="A1117"/>
+          <cell r="B1117"/>
+          <cell r="C1117"/>
+        </row>
+        <row r="1118">
+          <cell r="A1118"/>
+          <cell r="B1118"/>
+          <cell r="C1118"/>
+        </row>
+        <row r="1119">
+          <cell r="A1119"/>
+          <cell r="B1119"/>
+          <cell r="C1119"/>
+        </row>
+        <row r="1120">
+          <cell r="A1120"/>
+          <cell r="B1120"/>
+          <cell r="C1120"/>
+        </row>
+        <row r="1121">
+          <cell r="A1121"/>
+          <cell r="B1121"/>
+          <cell r="C1121"/>
+        </row>
+        <row r="1122">
+          <cell r="A1122"/>
+          <cell r="B1122"/>
+          <cell r="C1122"/>
+        </row>
+        <row r="1123">
+          <cell r="A1123"/>
+          <cell r="B1123"/>
+          <cell r="C1123"/>
+        </row>
+        <row r="1124">
+          <cell r="A1124"/>
+          <cell r="B1124"/>
+          <cell r="C1124"/>
+        </row>
+        <row r="1125">
+          <cell r="A1125"/>
+          <cell r="B1125"/>
+          <cell r="C1125"/>
+        </row>
+        <row r="1126">
+          <cell r="A1126"/>
+          <cell r="B1126"/>
+          <cell r="C1126"/>
+        </row>
+        <row r="1127">
+          <cell r="A1127"/>
+          <cell r="B1127"/>
+          <cell r="C1127"/>
+        </row>
+        <row r="1128">
+          <cell r="A1128"/>
+          <cell r="B1128"/>
+          <cell r="C1128"/>
+        </row>
+        <row r="1129">
+          <cell r="A1129"/>
+          <cell r="B1129"/>
+          <cell r="C1129"/>
+        </row>
+        <row r="1130">
+          <cell r="A1130"/>
+          <cell r="B1130"/>
+          <cell r="C1130"/>
+        </row>
+        <row r="1131">
+          <cell r="A1131"/>
+          <cell r="B1131"/>
+          <cell r="C1131"/>
+        </row>
+        <row r="1132">
+          <cell r="A1132"/>
+          <cell r="B1132"/>
+          <cell r="C1132"/>
+        </row>
+        <row r="1133">
+          <cell r="A1133"/>
+          <cell r="B1133"/>
+          <cell r="C1133"/>
+        </row>
+        <row r="1134">
+          <cell r="A1134"/>
+          <cell r="B1134"/>
+          <cell r="C1134"/>
+        </row>
+        <row r="1135">
+          <cell r="A1135"/>
+          <cell r="B1135"/>
+          <cell r="C1135"/>
+        </row>
+        <row r="1136">
+          <cell r="A1136"/>
+          <cell r="B1136"/>
+          <cell r="C1136"/>
+        </row>
+        <row r="1137">
+          <cell r="A1137"/>
+          <cell r="B1137"/>
+          <cell r="C1137"/>
+        </row>
+        <row r="1138">
+          <cell r="A1138"/>
+          <cell r="B1138"/>
+          <cell r="C1138"/>
+        </row>
+        <row r="1139">
+          <cell r="A1139"/>
+          <cell r="B1139"/>
+          <cell r="C1139"/>
+        </row>
+        <row r="1140">
+          <cell r="A1140"/>
+          <cell r="B1140"/>
+          <cell r="C1140"/>
+        </row>
+        <row r="1141">
+          <cell r="A1141"/>
+          <cell r="B1141"/>
+          <cell r="C1141"/>
+        </row>
+        <row r="1142">
+          <cell r="A1142"/>
+          <cell r="B1142"/>
+          <cell r="C1142"/>
+        </row>
+        <row r="1143">
+          <cell r="A1143"/>
+          <cell r="B1143"/>
+          <cell r="C1143"/>
+        </row>
+        <row r="1144">
+          <cell r="A1144"/>
+          <cell r="B1144"/>
+          <cell r="C1144"/>
+        </row>
+        <row r="1145">
+          <cell r="A1145"/>
+          <cell r="B1145"/>
+          <cell r="C1145"/>
+        </row>
+        <row r="1146">
+          <cell r="A1146"/>
+          <cell r="B1146"/>
+          <cell r="C1146"/>
+        </row>
+        <row r="1147">
+          <cell r="A1147"/>
+          <cell r="B1147"/>
+          <cell r="C1147"/>
+        </row>
+        <row r="1148">
+          <cell r="A1148"/>
+          <cell r="B1148"/>
+          <cell r="C1148"/>
+        </row>
+        <row r="1149">
+          <cell r="A1149"/>
+          <cell r="B1149"/>
+          <cell r="C1149"/>
+        </row>
+        <row r="1150">
+          <cell r="A1150"/>
+          <cell r="B1150"/>
+          <cell r="C1150"/>
+        </row>
+        <row r="1151">
+          <cell r="A1151"/>
+          <cell r="B1151"/>
+          <cell r="C1151"/>
+        </row>
+        <row r="1152">
+          <cell r="A1152"/>
+          <cell r="B1152"/>
+          <cell r="C1152"/>
+        </row>
+        <row r="1153">
+          <cell r="A1153"/>
+          <cell r="B1153"/>
+          <cell r="C1153"/>
+        </row>
+        <row r="1154">
+          <cell r="A1154"/>
+          <cell r="B1154"/>
+          <cell r="C1154"/>
+        </row>
+        <row r="1155">
+          <cell r="A1155"/>
+          <cell r="B1155"/>
+          <cell r="C1155"/>
+        </row>
+        <row r="1156">
+          <cell r="A1156"/>
+          <cell r="B1156"/>
+          <cell r="C1156"/>
+        </row>
+        <row r="1157">
+          <cell r="A1157"/>
+          <cell r="B1157"/>
+          <cell r="C1157"/>
+        </row>
+        <row r="1158">
+          <cell r="A1158"/>
+          <cell r="B1158"/>
+          <cell r="C1158"/>
+        </row>
+        <row r="1159">
+          <cell r="A1159"/>
+          <cell r="B1159"/>
+          <cell r="C1159"/>
+        </row>
+        <row r="1160">
+          <cell r="A1160"/>
+          <cell r="B1160"/>
+          <cell r="C1160"/>
+        </row>
+        <row r="1161">
+          <cell r="A1161"/>
+          <cell r="B1161"/>
+          <cell r="C1161"/>
+        </row>
+        <row r="1162">
+          <cell r="A1162"/>
+          <cell r="B1162"/>
+          <cell r="C1162"/>
+        </row>
+        <row r="1163">
+          <cell r="A1163"/>
+          <cell r="B1163"/>
+          <cell r="C1163"/>
+        </row>
+        <row r="1164">
+          <cell r="A1164"/>
+          <cell r="B1164"/>
+          <cell r="C1164"/>
+        </row>
+        <row r="1165">
+          <cell r="A1165"/>
+          <cell r="B1165"/>
+          <cell r="C1165"/>
+        </row>
+        <row r="1166">
+          <cell r="A1166"/>
+          <cell r="B1166"/>
+          <cell r="C1166"/>
+        </row>
+        <row r="1167">
+          <cell r="A1167"/>
+          <cell r="B1167"/>
+          <cell r="C1167"/>
+        </row>
+        <row r="1168">
+          <cell r="A1168"/>
+          <cell r="B1168"/>
+          <cell r="C1168"/>
+        </row>
+        <row r="1169">
+          <cell r="A1169"/>
+          <cell r="B1169"/>
+          <cell r="C1169"/>
+        </row>
+        <row r="1170">
+          <cell r="A1170"/>
+          <cell r="B1170"/>
+          <cell r="C1170"/>
+        </row>
+        <row r="1171">
+          <cell r="A1171"/>
+          <cell r="B1171"/>
+          <cell r="C1171"/>
+        </row>
+        <row r="1172">
+          <cell r="A1172"/>
+          <cell r="B1172"/>
+          <cell r="C1172"/>
+        </row>
+        <row r="1173">
+          <cell r="A1173"/>
+          <cell r="B1173"/>
+          <cell r="C1173"/>
+        </row>
+        <row r="1174">
+          <cell r="A1174"/>
+          <cell r="B1174"/>
+          <cell r="C1174"/>
+        </row>
+        <row r="1175">
+          <cell r="A1175"/>
+          <cell r="B1175"/>
+          <cell r="C1175"/>
+        </row>
+        <row r="1176">
+          <cell r="A1176"/>
+          <cell r="B1176"/>
+          <cell r="C1176"/>
+        </row>
+        <row r="1177">
+          <cell r="A1177"/>
+          <cell r="B1177"/>
+          <cell r="C1177"/>
+        </row>
+        <row r="1178">
+          <cell r="A1178"/>
+          <cell r="B1178"/>
+          <cell r="C1178"/>
+        </row>
+        <row r="1179">
+          <cell r="A1179"/>
+          <cell r="B1179"/>
+          <cell r="C1179"/>
+        </row>
+        <row r="1180">
+          <cell r="A1180"/>
+          <cell r="B1180"/>
+          <cell r="C1180"/>
+        </row>
+        <row r="1181">
+          <cell r="A1181"/>
+          <cell r="B1181"/>
+          <cell r="C1181"/>
+        </row>
+        <row r="1182">
+          <cell r="A1182"/>
+          <cell r="B1182"/>
+          <cell r="C1182"/>
+        </row>
+        <row r="1183">
+          <cell r="A1183"/>
+          <cell r="B1183"/>
+          <cell r="C1183"/>
+        </row>
+        <row r="1184">
+          <cell r="A1184"/>
+          <cell r="B1184"/>
+          <cell r="C1184"/>
+        </row>
+        <row r="1185">
+          <cell r="A1185"/>
+          <cell r="B1185"/>
+          <cell r="C1185"/>
+        </row>
+        <row r="1186">
+          <cell r="A1186"/>
+          <cell r="B1186"/>
+          <cell r="C1186"/>
+        </row>
+        <row r="1187">
+          <cell r="A1187"/>
+          <cell r="B1187"/>
+          <cell r="C1187"/>
+        </row>
+        <row r="1188">
+          <cell r="A1188"/>
+          <cell r="B1188"/>
+          <cell r="C1188"/>
+        </row>
+        <row r="1189">
+          <cell r="A1189"/>
+          <cell r="B1189"/>
+          <cell r="C1189"/>
+        </row>
+        <row r="1190">
+          <cell r="A1190"/>
+          <cell r="B1190"/>
+          <cell r="C1190"/>
+        </row>
+        <row r="1191">
+          <cell r="A1191"/>
+          <cell r="B1191"/>
+          <cell r="C1191"/>
+        </row>
+        <row r="1192">
+          <cell r="A1192"/>
+          <cell r="B1192"/>
+          <cell r="C1192"/>
+        </row>
+        <row r="1193">
+          <cell r="A1193"/>
+          <cell r="B1193"/>
+          <cell r="C1193"/>
+        </row>
+        <row r="1194">
+          <cell r="A1194"/>
+          <cell r="B1194"/>
+          <cell r="C1194"/>
+        </row>
+        <row r="1195">
+          <cell r="A1195"/>
+          <cell r="B1195"/>
+          <cell r="C1195"/>
+        </row>
+        <row r="1196">
+          <cell r="A1196"/>
+          <cell r="B1196"/>
+          <cell r="C1196"/>
+        </row>
+        <row r="1197">
+          <cell r="A1197"/>
+          <cell r="B1197"/>
+          <cell r="C1197"/>
+        </row>
+        <row r="1198">
+          <cell r="A1198"/>
+          <cell r="B1198"/>
+          <cell r="C1198"/>
+        </row>
+        <row r="1199">
+          <cell r="A1199"/>
+          <cell r="B1199"/>
+          <cell r="C1199"/>
+        </row>
+        <row r="1200">
+          <cell r="A1200"/>
+          <cell r="B1200"/>
+          <cell r="C1200"/>
+        </row>
+        <row r="1201">
+          <cell r="A1201"/>
+          <cell r="B1201"/>
+          <cell r="C1201"/>
+        </row>
+        <row r="1202">
+          <cell r="A1202"/>
+          <cell r="B1202"/>
+          <cell r="C1202"/>
+        </row>
+        <row r="1203">
+          <cell r="A1203"/>
+          <cell r="B1203"/>
+          <cell r="C1203"/>
+        </row>
+        <row r="1204">
+          <cell r="A1204"/>
+          <cell r="B1204"/>
+          <cell r="C1204"/>
+        </row>
+        <row r="1205">
+          <cell r="A1205"/>
+          <cell r="B1205"/>
+          <cell r="C1205"/>
+        </row>
+        <row r="1206">
+          <cell r="A1206"/>
+          <cell r="B1206"/>
+          <cell r="C1206"/>
+        </row>
+        <row r="1207">
+          <cell r="A1207"/>
+          <cell r="B1207"/>
+          <cell r="C1207"/>
+        </row>
+        <row r="1208">
+          <cell r="A1208"/>
+          <cell r="B1208"/>
+          <cell r="C1208"/>
+        </row>
+        <row r="1209">
+          <cell r="A1209"/>
+          <cell r="B1209"/>
+          <cell r="C1209"/>
+        </row>
+        <row r="1210">
+          <cell r="A1210"/>
+          <cell r="B1210"/>
+          <cell r="C1210"/>
+        </row>
+        <row r="1211">
+          <cell r="A1211"/>
+          <cell r="B1211"/>
+          <cell r="C1211"/>
+        </row>
+        <row r="1212">
+          <cell r="A1212"/>
+          <cell r="B1212"/>
+          <cell r="C1212"/>
+        </row>
+        <row r="1213">
+          <cell r="A1213"/>
+          <cell r="B1213"/>
+          <cell r="C1213"/>
+        </row>
+        <row r="1214">
+          <cell r="A1214"/>
+          <cell r="B1214"/>
+          <cell r="C1214"/>
+        </row>
+        <row r="1215">
+          <cell r="A1215"/>
+          <cell r="B1215"/>
+          <cell r="C1215"/>
+        </row>
+        <row r="1216">
+          <cell r="A1216"/>
+          <cell r="B1216"/>
+          <cell r="C1216"/>
+        </row>
+        <row r="1217">
+          <cell r="A1217"/>
+          <cell r="B1217"/>
+          <cell r="C1217"/>
+        </row>
+        <row r="1218">
+          <cell r="A1218"/>
+          <cell r="B1218"/>
+          <cell r="C1218"/>
+        </row>
+        <row r="1219">
+          <cell r="A1219"/>
+          <cell r="B1219"/>
+          <cell r="C1219"/>
+        </row>
+        <row r="1220">
+          <cell r="A1220"/>
+          <cell r="B1220"/>
+          <cell r="C1220"/>
+        </row>
+        <row r="1221">
+          <cell r="A1221"/>
+          <cell r="B1221"/>
+          <cell r="C1221"/>
+        </row>
+        <row r="1222">
+          <cell r="A1222"/>
+          <cell r="B1222"/>
+          <cell r="C1222"/>
+        </row>
+        <row r="1223">
+          <cell r="A1223"/>
+          <cell r="B1223"/>
+          <cell r="C1223"/>
+        </row>
+        <row r="1224">
+          <cell r="A1224"/>
+          <cell r="B1224"/>
+          <cell r="C1224"/>
+        </row>
+        <row r="1225">
+          <cell r="A1225"/>
+          <cell r="B1225"/>
+          <cell r="C1225"/>
+        </row>
+        <row r="1226">
+          <cell r="A1226"/>
+          <cell r="B1226"/>
+          <cell r="C1226"/>
+        </row>
+        <row r="1227">
+          <cell r="A1227"/>
+          <cell r="B1227"/>
+          <cell r="C1227"/>
+        </row>
+        <row r="1228">
+          <cell r="A1228"/>
+          <cell r="B1228"/>
+          <cell r="C1228"/>
+        </row>
+        <row r="1229">
+          <cell r="A1229"/>
+          <cell r="B1229"/>
+          <cell r="C1229"/>
+        </row>
+        <row r="1230">
+          <cell r="A1230"/>
+          <cell r="B1230"/>
+          <cell r="C1230"/>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -12330,9 +14924,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:C861" totalsRowShown="0">
   <autoFilter ref="A1:C861"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="CÓDIGO" dataDxfId="4"/>
-    <tableColumn id="2" name="DESCRIPCION" dataDxfId="3"/>
-    <tableColumn id="3" name="PRECIO" dataDxfId="2"/>
+    <tableColumn id="1" name="CÓDIGO" dataDxfId="2"/>
+    <tableColumn id="2" name="DESCRIPCION" dataDxfId="1"/>
+    <tableColumn id="3" name="PRECIO" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12627,8 +15221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I899"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A889" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A883" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D915" sqref="D915"/>
     </sheetView>
   </sheetViews>
@@ -31604,10 +34198,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G852:G899">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -45122,20 +47716,20 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:G64719">
-    <cfRule type="cellIs" dxfId="21" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="17" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="containsText" dxfId="19" priority="16" operator="containsText" text="S">
+    <cfRule type="containsText" dxfId="17" priority="16" operator="containsText" text="S">
       <formula>NOT(ISERROR(SEARCH("S",G1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B316">
-    <cfRule type="duplicateValues" dxfId="18" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B646">
@@ -45151,7 +47745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A721" workbookViewId="0">
+    <sheetView topLeftCell="A723" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B723" sqref="B723"/>
     </sheetView>
   </sheetViews>
@@ -55478,43 +58072,43 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A344:A377 A590 A595 A597 A599:A606 A379:A388 A390:A413 A416:A420 A423:A424 A426:A428 A431:A434 A437:A438 A440:A485 A487:A544 A546:A547 A550:A551 A554:A555 A558:A559 A561:A567 A569:A585 A608">
-    <cfRule type="duplicateValues" dxfId="17" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A586">
-    <cfRule type="duplicateValues" dxfId="16" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A587">
-    <cfRule type="duplicateValues" dxfId="15" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A588">
-    <cfRule type="duplicateValues" dxfId="14" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A589">
-    <cfRule type="duplicateValues" dxfId="13" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A591:A592">
-    <cfRule type="duplicateValues" dxfId="12" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A593:A594">
-    <cfRule type="duplicateValues" dxfId="11" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A596">
-    <cfRule type="duplicateValues" dxfId="10" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A598">
-    <cfRule type="duplicateValues" dxfId="9" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A378 A389 A414:A415 A421:A422 A425 A429:A430 A435:A436 A439 A486 A545 A548:A549 A552:A553 A556:A557 A560 A568 A607">
-    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20 A24 A35:A36 A74 A210 A248:A249 A251">
-    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A685">
-    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A19 A21:A23 A25:A34 A37:A73 A75:A209 A211:A247 A250 A252:A343">
-    <cfRule type="duplicateValues" dxfId="5" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="33"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Entradas y Salidas.xlsx
+++ b/Entradas y Salidas.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexander Siles\Documents\GitHub\MH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\MH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8232"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Entradas-salidas Exhibicion" sheetId="1" r:id="rId1"/>
@@ -4018,7 +4018,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
@@ -11294,7 +11294,9 @@
           <cell r="B609" t="str">
             <v xml:space="preserve">AUXILIAR PARA SALON </v>
           </cell>
-          <cell r="C609"/>
+          <cell r="C609">
+            <v>0</v>
+          </cell>
         </row>
         <row r="610">
           <cell r="A610" t="str">
@@ -11303,7 +11305,9 @@
           <cell r="B610" t="str">
             <v>YV SANKEY</v>
           </cell>
-          <cell r="C610"/>
+          <cell r="C610">
+            <v>0</v>
+          </cell>
         </row>
         <row r="611">
           <cell r="A611" t="str">
@@ -11312,7 +11316,9 @@
           <cell r="B611" t="str">
             <v xml:space="preserve">ABANICO ASTAR </v>
           </cell>
-          <cell r="C611"/>
+          <cell r="C611">
+            <v>0</v>
+          </cell>
         </row>
         <row r="612">
           <cell r="A612">
@@ -11321,7 +11327,9 @@
           <cell r="B612" t="str">
             <v xml:space="preserve">JUEGO DE TASAS </v>
           </cell>
-          <cell r="C612"/>
+          <cell r="C612">
+            <v>0</v>
+          </cell>
         </row>
         <row r="613">
           <cell r="A613">
@@ -11330,7 +11338,9 @@
           <cell r="B613" t="str">
             <v xml:space="preserve">LAMPARA DE TECHO </v>
           </cell>
-          <cell r="C613"/>
+          <cell r="C613">
+            <v>0</v>
+          </cell>
         </row>
         <row r="614">
           <cell r="A614" t="str">
@@ -11339,7 +11349,9 @@
           <cell r="B614" t="str">
             <v xml:space="preserve">MESA PARA CONFERENCIA CHOCOLATE </v>
           </cell>
-          <cell r="C614"/>
+          <cell r="C614">
+            <v>0</v>
+          </cell>
         </row>
         <row r="615">
           <cell r="A615" t="str">
@@ -11348,7 +11360,9 @@
           <cell r="B615" t="str">
             <v xml:space="preserve">MESA PARA CCONFERENCIA </v>
           </cell>
-          <cell r="C615"/>
+          <cell r="C615">
+            <v>0</v>
+          </cell>
         </row>
         <row r="616">
           <cell r="A616" t="str">
@@ -11357,7 +11371,9 @@
           <cell r="B616" t="str">
             <v>JUEGO PARA EXTERIORES (2 SILLAS )</v>
           </cell>
-          <cell r="C616"/>
+          <cell r="C616">
+            <v>0</v>
+          </cell>
         </row>
         <row r="617">
           <cell r="A617" t="str">
@@ -11366,7 +11382,9 @@
           <cell r="B617" t="str">
             <v xml:space="preserve">LAMPARA PARA EXTERIORES </v>
           </cell>
-          <cell r="C617"/>
+          <cell r="C617">
+            <v>0</v>
+          </cell>
         </row>
         <row r="618">
           <cell r="A618" t="str">
@@ -11375,7 +11393,9 @@
           <cell r="B618" t="str">
             <v>CENTRO DE ENTRETENIMIENTO</v>
           </cell>
-          <cell r="C618"/>
+          <cell r="C618">
+            <v>0</v>
+          </cell>
         </row>
         <row r="619">
           <cell r="A619" t="str">
@@ -11384,7 +11404,9 @@
           <cell r="B619" t="str">
             <v>CENTRO DE ENTRETENIMIENTO</v>
           </cell>
-          <cell r="C619"/>
+          <cell r="C619">
+            <v>0</v>
+          </cell>
         </row>
         <row r="620">
           <cell r="A620" t="str">
@@ -11393,7 +11415,9 @@
           <cell r="B620" t="str">
             <v>CENTRO DE ENTRETIMI8ENTO</v>
           </cell>
-          <cell r="C620"/>
+          <cell r="C620">
+            <v>0</v>
+          </cell>
         </row>
         <row r="621">
           <cell r="A621" t="str">
@@ -11402,7 +11426,9 @@
           <cell r="B621" t="str">
             <v xml:space="preserve">SILLA AZUL METAL Y VINIL </v>
           </cell>
-          <cell r="C621"/>
+          <cell r="C621">
+            <v>0</v>
+          </cell>
         </row>
         <row r="622">
           <cell r="A622" t="str">
@@ -11411,7 +11437,9 @@
           <cell r="B622" t="str">
             <v xml:space="preserve">SILLA METAL VINIL ROJA </v>
           </cell>
-          <cell r="C622"/>
+          <cell r="C622">
+            <v>0</v>
+          </cell>
         </row>
         <row r="623">
           <cell r="A623" t="str">
@@ -11420,7 +11448,9 @@
           <cell r="B623" t="str">
             <v xml:space="preserve">SILLA METAL NEGRA </v>
           </cell>
-          <cell r="C623"/>
+          <cell r="C623">
+            <v>0</v>
+          </cell>
         </row>
         <row r="624">
           <cell r="A624" t="str">
@@ -11429,7 +11459,9 @@
           <cell r="B624" t="str">
             <v xml:space="preserve">SILLA PLASTICA ETERNA </v>
           </cell>
-          <cell r="C624"/>
+          <cell r="C624">
+            <v>0</v>
+          </cell>
         </row>
         <row r="625">
           <cell r="A625" t="str">
@@ -11438,7 +11470,9 @@
           <cell r="B625" t="str">
             <v>PARAGUA PARA TERREZA</v>
           </cell>
-          <cell r="C625"/>
+          <cell r="C625">
+            <v>0</v>
+          </cell>
         </row>
         <row r="626">
           <cell r="A626">
@@ -11447,7 +11481,9 @@
           <cell r="B626" t="str">
             <v xml:space="preserve">SILLA DE MALLA METALICA VISITA </v>
           </cell>
-          <cell r="C626"/>
+          <cell r="C626">
+            <v>0</v>
+          </cell>
         </row>
         <row r="627">
           <cell r="A627" t="str">
@@ -11456,7 +11492,9 @@
           <cell r="B627" t="str">
             <v>MESA CENTRO DE MADERA/VIDRIO</v>
           </cell>
-          <cell r="C627"/>
+          <cell r="C627">
+            <v>0</v>
+          </cell>
         </row>
         <row r="628">
           <cell r="A628" t="str">
@@ -11465,7 +11503,9 @@
           <cell r="B628" t="str">
             <v>JUEGO DE TAZAS</v>
           </cell>
-          <cell r="C628"/>
+          <cell r="C628">
+            <v>0</v>
+          </cell>
         </row>
         <row r="629">
           <cell r="A629" t="str">
@@ -11474,7 +11514,9 @@
           <cell r="B629" t="str">
             <v xml:space="preserve">SET DE TASAS/PLATOS </v>
           </cell>
-          <cell r="C629"/>
+          <cell r="C629">
+            <v>0</v>
+          </cell>
         </row>
         <row r="630">
           <cell r="A630" t="str">
@@ -11483,7 +11525,9 @@
           <cell r="B630" t="str">
             <v xml:space="preserve">TAZAS C/PLATOS SET 12 PIEZAS </v>
           </cell>
-          <cell r="C630"/>
+          <cell r="C630">
+            <v>0</v>
+          </cell>
         </row>
         <row r="631">
           <cell r="A631" t="str">
@@ -11492,7 +11536,9 @@
           <cell r="B631" t="str">
             <v xml:space="preserve">CUADRO DE FOLRES </v>
           </cell>
-          <cell r="C631"/>
+          <cell r="C631">
+            <v>0</v>
+          </cell>
         </row>
         <row r="632">
           <cell r="A632" t="str">
@@ -11501,7 +11547,9 @@
           <cell r="B632" t="str">
             <v xml:space="preserve">CUADRO DE ROSAS </v>
           </cell>
-          <cell r="C632"/>
+          <cell r="C632">
+            <v>0</v>
+          </cell>
         </row>
         <row r="633">
           <cell r="A633" t="str">
@@ -11510,7 +11558,9 @@
           <cell r="B633" t="str">
             <v xml:space="preserve">ESCRITORIO DE VIDRIO </v>
           </cell>
-          <cell r="C633"/>
+          <cell r="C633">
+            <v>0</v>
+          </cell>
         </row>
         <row r="634">
           <cell r="A634" t="str">
@@ -11519,7 +11569,9 @@
           <cell r="B634" t="str">
             <v xml:space="preserve">MOTO NITRO </v>
           </cell>
-          <cell r="C634"/>
+          <cell r="C634">
+            <v>0</v>
+          </cell>
         </row>
         <row r="635">
           <cell r="A635" t="str">
@@ -11528,7 +11580,9 @@
           <cell r="B635" t="str">
             <v xml:space="preserve">TAZAS/PLATOS SET </v>
           </cell>
-          <cell r="C635"/>
+          <cell r="C635">
+            <v>0</v>
+          </cell>
         </row>
         <row r="636">
           <cell r="A636" t="str">
@@ -11537,7 +11591,9 @@
           <cell r="B636" t="str">
             <v>CENTRO DE ENTRETENIMIENTO(CREMA)</v>
           </cell>
-          <cell r="C636"/>
+          <cell r="C636">
+            <v>0</v>
+          </cell>
         </row>
         <row r="637">
           <cell r="A637" t="str">
@@ -11546,7 +11602,9 @@
           <cell r="B637" t="str">
             <v>CENTRO DE ENTRETENIMIENTO(CAFÉ)</v>
           </cell>
-          <cell r="C637"/>
+          <cell r="C637">
+            <v>0</v>
+          </cell>
         </row>
         <row r="638">
           <cell r="A638" t="str">
@@ -11555,7 +11613,9 @@
           <cell r="B638" t="str">
             <v xml:space="preserve">JOYERO </v>
           </cell>
-          <cell r="C638"/>
+          <cell r="C638">
+            <v>0</v>
+          </cell>
         </row>
         <row r="639">
           <cell r="A639" t="str">
@@ -11564,7 +11624,9 @@
           <cell r="B639" t="str">
             <v>MESITA CON ESPEJO(REPISA)</v>
           </cell>
-          <cell r="C639"/>
+          <cell r="C639">
+            <v>0</v>
+          </cell>
         </row>
         <row r="640">
           <cell r="A640" t="str">
@@ -11573,7 +11635,9 @@
           <cell r="B640" t="str">
             <v>MESA CON ESPEJO(REPISA)</v>
           </cell>
-          <cell r="C640"/>
+          <cell r="C640">
+            <v>0</v>
+          </cell>
         </row>
         <row r="641">
           <cell r="A641" t="str">
@@ -11582,7 +11646,9 @@
           <cell r="B641" t="str">
             <v xml:space="preserve">SOMBRILLA PARA JARDIN </v>
           </cell>
-          <cell r="C641"/>
+          <cell r="C641">
+            <v>0</v>
+          </cell>
         </row>
         <row r="642">
           <cell r="A642" t="str">
@@ -11591,7 +11657,9 @@
           <cell r="B642" t="str">
             <v>PAILA</v>
           </cell>
-          <cell r="C642"/>
+          <cell r="C642">
+            <v>0</v>
+          </cell>
         </row>
         <row r="643">
           <cell r="A643" t="str">
@@ -11600,7 +11668,9 @@
           <cell r="B643" t="str">
             <v>PLANCHA OSTER</v>
           </cell>
-          <cell r="C643"/>
+          <cell r="C643">
+            <v>0</v>
+          </cell>
         </row>
         <row r="644">
           <cell r="A644" t="str">
@@ -11609,7 +11679,9 @@
           <cell r="B644" t="str">
             <v xml:space="preserve">BICICLETA PRINCESA GROUP ROSI </v>
           </cell>
-          <cell r="C644"/>
+          <cell r="C644">
+            <v>0</v>
+          </cell>
         </row>
         <row r="645">
           <cell r="A645" t="str">
@@ -11618,7 +11690,9 @@
           <cell r="B645" t="str">
             <v xml:space="preserve">JUEGO DE RECAMARA SET 5 PIEZAS </v>
           </cell>
-          <cell r="C645"/>
+          <cell r="C645">
+            <v>0</v>
+          </cell>
         </row>
         <row r="646">
           <cell r="A646" t="str">
@@ -11627,7 +11701,9 @@
           <cell r="B646" t="str">
             <v xml:space="preserve">CANDELABRO  </v>
           </cell>
-          <cell r="C646"/>
+          <cell r="C646">
+            <v>0</v>
+          </cell>
         </row>
         <row r="647">
           <cell r="A647" t="str">
@@ -11636,7 +11712,9 @@
           <cell r="B647" t="str">
             <v xml:space="preserve">SILLA PLASTICA </v>
           </cell>
-          <cell r="C647"/>
+          <cell r="C647">
+            <v>0</v>
+          </cell>
         </row>
         <row r="648">
           <cell r="A648" t="str">
@@ -11645,7 +11723,9 @@
           <cell r="B648" t="str">
             <v xml:space="preserve">ESPEJO DE PARED </v>
           </cell>
-          <cell r="C648"/>
+          <cell r="C648">
+            <v>0</v>
+          </cell>
         </row>
         <row r="649">
           <cell r="A649" t="str">
@@ -11654,7 +11734,9 @@
           <cell r="B649" t="str">
             <v>MESA CON SILLA PARA TERRAZA NEGRO</v>
           </cell>
-          <cell r="C649"/>
+          <cell r="C649">
+            <v>0</v>
+          </cell>
         </row>
         <row r="650">
           <cell r="A650" t="str">
@@ -11663,7 +11745,9 @@
           <cell r="B650" t="str">
             <v xml:space="preserve">GABINETE DE COCINA </v>
           </cell>
-          <cell r="C650"/>
+          <cell r="C650">
+            <v>0</v>
+          </cell>
         </row>
         <row r="651">
           <cell r="A651" t="str">
@@ -11672,7 +11756,9 @@
           <cell r="B651" t="str">
             <v xml:space="preserve">MESA DE CENTRO </v>
           </cell>
-          <cell r="C651"/>
+          <cell r="C651">
+            <v>0</v>
+          </cell>
         </row>
         <row r="652">
           <cell r="A652" t="str">
@@ -11681,7 +11767,9 @@
           <cell r="B652" t="str">
             <v>SILLON RECLINABLE</v>
           </cell>
-          <cell r="C652"/>
+          <cell r="C652">
+            <v>0</v>
+          </cell>
         </row>
         <row r="653">
           <cell r="A653" t="str">
@@ -11690,7 +11778,9 @@
           <cell r="B653" t="str">
             <v xml:space="preserve">MUEBLE DE TV </v>
           </cell>
-          <cell r="C653"/>
+          <cell r="C653">
+            <v>0</v>
+          </cell>
         </row>
         <row r="654">
           <cell r="A654" t="str">
@@ -11699,7 +11789,9 @@
           <cell r="B654" t="str">
             <v xml:space="preserve">LAMPARA TECHO </v>
           </cell>
-          <cell r="C654"/>
+          <cell r="C654">
+            <v>0</v>
+          </cell>
         </row>
         <row r="655">
           <cell r="A655" t="str">
@@ -11708,7 +11800,9 @@
           <cell r="B655" t="str">
             <v xml:space="preserve">COMEDOR 5 PIEZAS </v>
           </cell>
-          <cell r="C655"/>
+          <cell r="C655">
+            <v>0</v>
+          </cell>
         </row>
         <row r="656">
           <cell r="A656" t="str">
@@ -11717,7 +11811,9 @@
           <cell r="B656" t="str">
             <v xml:space="preserve">LAVADORA ATLAS </v>
           </cell>
-          <cell r="C656"/>
+          <cell r="C656">
+            <v>0</v>
+          </cell>
         </row>
         <row r="657">
           <cell r="A657" t="str">
@@ -11726,7 +11822,9 @@
           <cell r="B657" t="str">
             <v>SOFA CAMA(CHOCOLATE)</v>
           </cell>
-          <cell r="C657"/>
+          <cell r="C657">
+            <v>0</v>
+          </cell>
         </row>
         <row r="658">
           <cell r="A658" t="str">
@@ -11735,7 +11833,9 @@
           <cell r="B658" t="str">
             <v xml:space="preserve">RELOJ DE PARED </v>
           </cell>
-          <cell r="C658"/>
+          <cell r="C658">
+            <v>0</v>
+          </cell>
         </row>
         <row r="659">
           <cell r="A659" t="str">
@@ -11744,7 +11844,9 @@
           <cell r="B659" t="str">
             <v xml:space="preserve">RELOJ DE PARED </v>
           </cell>
-          <cell r="C659"/>
+          <cell r="C659">
+            <v>0</v>
+          </cell>
         </row>
         <row r="660">
           <cell r="A660" t="str">
@@ -11753,7 +11855,9 @@
           <cell r="B660" t="str">
             <v xml:space="preserve">LAVADORA DE SALON </v>
           </cell>
-          <cell r="C660"/>
+          <cell r="C660">
+            <v>0</v>
+          </cell>
         </row>
         <row r="661">
           <cell r="A661" t="str">
@@ -11762,7 +11866,9 @@
           <cell r="B661" t="str">
             <v>ESCRITORIO (GRIS)</v>
           </cell>
-          <cell r="C661"/>
+          <cell r="C661">
+            <v>0</v>
+          </cell>
         </row>
         <row r="662">
           <cell r="A662" t="str">
@@ -11771,7 +11877,9 @@
           <cell r="B662" t="str">
             <v>CANDELABRO</v>
           </cell>
-          <cell r="C662"/>
+          <cell r="C662">
+            <v>0</v>
+          </cell>
         </row>
         <row r="663">
           <cell r="A663" t="str">
@@ -11780,7 +11888,9 @@
           <cell r="B663" t="str">
             <v xml:space="preserve">CANDELABRO </v>
           </cell>
-          <cell r="C663"/>
+          <cell r="C663">
+            <v>0</v>
+          </cell>
         </row>
         <row r="664">
           <cell r="A664" t="str">
@@ -11789,7 +11899,9 @@
           <cell r="B664" t="str">
             <v xml:space="preserve">CUADRO DE METAL </v>
           </cell>
-          <cell r="C664"/>
+          <cell r="C664">
+            <v>0</v>
+          </cell>
         </row>
         <row r="665">
           <cell r="A665" t="str">
@@ -11798,7 +11910,9 @@
           <cell r="B665" t="str">
             <v xml:space="preserve">CUADRO DE METAL </v>
           </cell>
-          <cell r="C665"/>
+          <cell r="C665">
+            <v>0</v>
+          </cell>
         </row>
         <row r="666">
           <cell r="A666" t="str">
@@ -11807,7 +11921,9 @@
           <cell r="B666" t="str">
             <v xml:space="preserve">CUADRO PEQUEÑO </v>
           </cell>
-          <cell r="C666"/>
+          <cell r="C666">
+            <v>0</v>
+          </cell>
         </row>
         <row r="667">
           <cell r="A667" t="str">
@@ -11816,7 +11932,9 @@
           <cell r="B667" t="str">
             <v xml:space="preserve">CUADRO GRANDE </v>
           </cell>
-          <cell r="C667"/>
+          <cell r="C667">
+            <v>0</v>
+          </cell>
         </row>
         <row r="668">
           <cell r="A668" t="str">
@@ -11825,7 +11943,9 @@
           <cell r="B668" t="str">
             <v>CANDELABRO</v>
           </cell>
-          <cell r="C668"/>
+          <cell r="C668">
+            <v>0</v>
+          </cell>
         </row>
         <row r="669">
           <cell r="A669" t="str">
@@ -11834,7 +11954,9 @@
           <cell r="B669" t="str">
             <v xml:space="preserve">CANDELABRO </v>
           </cell>
-          <cell r="C669"/>
+          <cell r="C669">
+            <v>0</v>
+          </cell>
         </row>
         <row r="670">
           <cell r="A670" t="str">
@@ -11843,7 +11965,9 @@
           <cell r="B670" t="str">
             <v xml:space="preserve">CANDELABRO </v>
           </cell>
-          <cell r="C670"/>
+          <cell r="C670">
+            <v>0</v>
+          </cell>
         </row>
         <row r="671">
           <cell r="A671" t="str">
@@ -11852,7 +11976,9 @@
           <cell r="B671" t="str">
             <v xml:space="preserve">CANDELABRO </v>
           </cell>
-          <cell r="C671"/>
+          <cell r="C671">
+            <v>0</v>
+          </cell>
         </row>
         <row r="672">
           <cell r="A672" t="str">
@@ -11861,7 +11987,9 @@
           <cell r="B672" t="str">
             <v xml:space="preserve">CANDELABRO </v>
           </cell>
-          <cell r="C672"/>
+          <cell r="C672">
+            <v>0</v>
+          </cell>
         </row>
         <row r="673">
           <cell r="A673" t="str">
@@ -11870,7 +11998,9 @@
           <cell r="B673" t="str">
             <v xml:space="preserve">CANDELABRO </v>
           </cell>
-          <cell r="C673"/>
+          <cell r="C673">
+            <v>0</v>
+          </cell>
         </row>
         <row r="674">
           <cell r="A674" t="str">
@@ -11879,7 +12009,9 @@
           <cell r="B674" t="str">
             <v xml:space="preserve">CANDELABRO </v>
           </cell>
-          <cell r="C674"/>
+          <cell r="C674">
+            <v>0</v>
+          </cell>
         </row>
         <row r="675">
           <cell r="A675" t="str">
@@ -11888,7 +12020,9 @@
           <cell r="B675" t="str">
             <v xml:space="preserve">CANDELABRO </v>
           </cell>
-          <cell r="C675"/>
+          <cell r="C675">
+            <v>0</v>
+          </cell>
         </row>
         <row r="676">
           <cell r="A676" t="str">
@@ -11897,7 +12031,9 @@
           <cell r="B676" t="str">
             <v xml:space="preserve">CANDELABRO </v>
           </cell>
-          <cell r="C676"/>
+          <cell r="C676">
+            <v>0</v>
+          </cell>
         </row>
         <row r="677">
           <cell r="A677" t="str">
@@ -11906,7 +12042,9 @@
           <cell r="B677" t="str">
             <v>CANDELABRO</v>
           </cell>
-          <cell r="C677"/>
+          <cell r="C677">
+            <v>0</v>
+          </cell>
         </row>
         <row r="678">
           <cell r="A678" t="str">
@@ -11915,7 +12053,9 @@
           <cell r="B678" t="str">
             <v>CANDELABRO</v>
           </cell>
-          <cell r="C678"/>
+          <cell r="C678">
+            <v>0</v>
+          </cell>
         </row>
         <row r="679">
           <cell r="A679" t="str">
@@ -11924,7 +12064,9 @@
           <cell r="B679" t="str">
             <v>PORTA DULCE</v>
           </cell>
-          <cell r="C679"/>
+          <cell r="C679">
+            <v>0</v>
+          </cell>
         </row>
         <row r="680">
           <cell r="A680" t="str">
@@ -11933,7 +12075,9 @@
           <cell r="B680" t="str">
             <v xml:space="preserve">MESA </v>
           </cell>
-          <cell r="C680"/>
+          <cell r="C680">
+            <v>0</v>
+          </cell>
         </row>
         <row r="681">
           <cell r="A681" t="str">
@@ -11942,7 +12086,9 @@
           <cell r="B681" t="str">
             <v>CANDELABRO</v>
           </cell>
-          <cell r="C681"/>
+          <cell r="C681">
+            <v>0</v>
+          </cell>
         </row>
         <row r="682">
           <cell r="A682" t="str">
@@ -11951,7 +12097,9 @@
           <cell r="B682" t="str">
             <v xml:space="preserve">SILLA METALICA </v>
           </cell>
-          <cell r="C682"/>
+          <cell r="C682">
+            <v>0</v>
+          </cell>
         </row>
         <row r="683">
           <cell r="A683" t="str">
@@ -11960,7 +12108,9 @@
           <cell r="B683" t="str">
             <v>LAMPARA PARA PARED</v>
           </cell>
-          <cell r="C683"/>
+          <cell r="C683">
+            <v>0</v>
+          </cell>
         </row>
         <row r="684">
           <cell r="A684" t="str">
@@ -11969,7 +12119,9 @@
           <cell r="B684" t="str">
             <v>LAMPARA PARA MESA</v>
           </cell>
-          <cell r="C684"/>
+          <cell r="C684">
+            <v>0</v>
+          </cell>
         </row>
         <row r="685">
           <cell r="A685" t="str">
@@ -11978,7 +12130,9 @@
           <cell r="B685" t="str">
             <v>MALETA BUNGY SPORT 19"</v>
           </cell>
-          <cell r="C685"/>
+          <cell r="C685">
+            <v>0</v>
+          </cell>
         </row>
         <row r="686">
           <cell r="A686" t="str">
@@ -11987,7 +12141,9 @@
           <cell r="B686" t="str">
             <v xml:space="preserve">ESCRITORIO DE VIDRIO </v>
           </cell>
-          <cell r="C686"/>
+          <cell r="C686">
+            <v>0</v>
+          </cell>
         </row>
         <row r="687">
           <cell r="A687" t="str">
@@ -11996,7 +12152,9 @@
           <cell r="B687" t="str">
             <v>SILLA PARA OFICINA</v>
           </cell>
-          <cell r="C687"/>
+          <cell r="C687">
+            <v>0</v>
+          </cell>
         </row>
         <row r="688">
           <cell r="A688" t="str">
@@ -12005,7 +12163,9 @@
           <cell r="B688" t="str">
             <v>SOFA CAMA</v>
           </cell>
-          <cell r="C688"/>
+          <cell r="C688">
+            <v>0</v>
+          </cell>
         </row>
         <row r="689">
           <cell r="A689" t="str">
@@ -12014,7 +12174,9 @@
           <cell r="B689" t="str">
             <v xml:space="preserve">SILLA PARA SALON </v>
           </cell>
-          <cell r="C689"/>
+          <cell r="C689">
+            <v>0</v>
+          </cell>
         </row>
         <row r="690">
           <cell r="A690" t="str">
@@ -12023,7 +12185,9 @@
           <cell r="B690" t="str">
             <v>CUADRO METALICO</v>
           </cell>
-          <cell r="C690"/>
+          <cell r="C690">
+            <v>0</v>
+          </cell>
         </row>
         <row r="691">
           <cell r="A691" t="str">
@@ -12032,7 +12196,9 @@
           <cell r="B691" t="str">
             <v>ESQUINERA 3 NIVELES</v>
           </cell>
-          <cell r="C691"/>
+          <cell r="C691">
+            <v>0</v>
+          </cell>
         </row>
         <row r="692">
           <cell r="A692" t="str">
@@ -12041,7 +12207,9 @@
           <cell r="B692" t="str">
             <v>CUADRO PARA PARED</v>
           </cell>
-          <cell r="C692"/>
+          <cell r="C692">
+            <v>0</v>
+          </cell>
         </row>
         <row r="693">
           <cell r="A693" t="str">
@@ -12050,7 +12218,9 @@
           <cell r="B693" t="str">
             <v>CUADRO PARA PARED</v>
           </cell>
-          <cell r="C693"/>
+          <cell r="C693">
+            <v>0</v>
+          </cell>
         </row>
         <row r="694">
           <cell r="A694" t="str">
@@ -12059,7 +12229,9 @@
           <cell r="B694" t="str">
             <v>CUADRO PARA PARED</v>
           </cell>
-          <cell r="C694"/>
+          <cell r="C694">
+            <v>0</v>
+          </cell>
         </row>
         <row r="695">
           <cell r="A695" t="str">
@@ -12068,7 +12240,9 @@
           <cell r="B695" t="str">
             <v>CUADRO PARA PARED</v>
           </cell>
-          <cell r="C695"/>
+          <cell r="C695">
+            <v>0</v>
+          </cell>
         </row>
         <row r="696">
           <cell r="A696" t="str">
@@ -12077,7 +12251,9 @@
           <cell r="B696" t="str">
             <v>TERMO METALICO 0.5LTS</v>
           </cell>
-          <cell r="C696"/>
+          <cell r="C696">
+            <v>0</v>
+          </cell>
         </row>
         <row r="697">
           <cell r="A697" t="str">
@@ -12086,7 +12262,9 @@
           <cell r="B697" t="str">
             <v>MONITOR PARA PRESION ARTERIAL TRADICIONAL</v>
           </cell>
-          <cell r="C697"/>
+          <cell r="C697">
+            <v>0</v>
+          </cell>
         </row>
         <row r="698">
           <cell r="A698" t="str">
@@ -12095,7 +12273,9 @@
           <cell r="B698" t="str">
             <v>MONITOR PARA PRESION ARTERIAL DIGITAL</v>
           </cell>
-          <cell r="C698"/>
+          <cell r="C698">
+            <v>0</v>
+          </cell>
         </row>
         <row r="699">
           <cell r="A699" t="str">
@@ -12104,7 +12284,9 @@
           <cell r="B699" t="str">
             <v>DISPENSADOR DE BEBIDAS</v>
           </cell>
-          <cell r="C699"/>
+          <cell r="C699">
+            <v>0</v>
+          </cell>
         </row>
         <row r="700">
           <cell r="A700" t="str">
@@ -12113,7 +12295,9 @@
           <cell r="B700" t="str">
             <v>ESTANTE METALICO</v>
           </cell>
-          <cell r="C700"/>
+          <cell r="C700">
+            <v>0</v>
+          </cell>
         </row>
         <row r="701">
           <cell r="A701" t="str">
@@ -12122,7 +12306,9 @@
           <cell r="B701" t="str">
             <v>JEEP WRANGLER AZUL</v>
           </cell>
-          <cell r="C701"/>
+          <cell r="C701">
+            <v>0</v>
+          </cell>
         </row>
         <row r="702">
           <cell r="A702" t="str">
@@ -12131,7 +12317,9 @@
           <cell r="B702" t="str">
             <v xml:space="preserve">ESCRITORIO DE VIDRIO </v>
           </cell>
-          <cell r="C702"/>
+          <cell r="C702">
+            <v>0</v>
+          </cell>
         </row>
         <row r="703">
           <cell r="A703" t="str">
@@ -12140,7 +12328,9 @@
           <cell r="B703" t="str">
             <v>MESA PARA CENTRO CAFÉ</v>
           </cell>
-          <cell r="C703"/>
+          <cell r="C703">
+            <v>0</v>
+          </cell>
         </row>
         <row r="704">
           <cell r="A704" t="str">
@@ -12149,7 +12339,9 @@
           <cell r="B704" t="str">
             <v>GABINETE PARA OFICINA</v>
           </cell>
-          <cell r="C704"/>
+          <cell r="C704">
+            <v>0</v>
+          </cell>
         </row>
         <row r="705">
           <cell r="A705" t="str">
@@ -12158,7 +12350,9 @@
           <cell r="B705" t="str">
             <v>GABINETE PARA OFICINA 3 DEPOSITOS</v>
           </cell>
-          <cell r="C705"/>
+          <cell r="C705">
+            <v>0</v>
+          </cell>
         </row>
         <row r="706">
           <cell r="A706" t="str">
@@ -12167,7 +12361,9 @@
           <cell r="B706" t="str">
             <v>MALETIN PARA COMPUTADORA POLO</v>
           </cell>
-          <cell r="C706"/>
+          <cell r="C706">
+            <v>0</v>
+          </cell>
         </row>
         <row r="707">
           <cell r="A707" t="str">
@@ -12176,7 +12372,9 @@
           <cell r="B707" t="str">
             <v xml:space="preserve">SILLA PARA SALON </v>
           </cell>
-          <cell r="C707"/>
+          <cell r="C707">
+            <v>0</v>
+          </cell>
         </row>
         <row r="708">
           <cell r="A708" t="str">
@@ -12185,7 +12383,9 @@
           <cell r="B708" t="str">
             <v>MESA PARA TV</v>
           </cell>
-          <cell r="C708"/>
+          <cell r="C708">
+            <v>0</v>
+          </cell>
         </row>
         <row r="709">
           <cell r="A709" t="str">
@@ -12194,7 +12394,9 @@
           <cell r="B709" t="str">
             <v>GABINETE ARCHIVADOR DE VIDRIO LIBRERO</v>
           </cell>
-          <cell r="C709"/>
+          <cell r="C709">
+            <v>0</v>
+          </cell>
         </row>
         <row r="710">
           <cell r="A710" t="str">
@@ -12203,7 +12405,9 @@
           <cell r="B710" t="str">
             <v>GABINETE PARA COCINA</v>
           </cell>
-          <cell r="C710"/>
+          <cell r="C710">
+            <v>0</v>
+          </cell>
         </row>
         <row r="711">
           <cell r="A711" t="str">
@@ -12212,7 +12416,9 @@
           <cell r="B711" t="str">
             <v>CARRO ELECTRICO AMARILLO</v>
           </cell>
-          <cell r="C711"/>
+          <cell r="C711">
+            <v>0</v>
+          </cell>
         </row>
         <row r="712">
           <cell r="A712" t="str">
@@ -12221,7 +12427,9 @@
           <cell r="B712" t="str">
             <v>SILLA PARA OFICINA</v>
           </cell>
-          <cell r="C712"/>
+          <cell r="C712">
+            <v>0</v>
+          </cell>
         </row>
         <row r="713">
           <cell r="A713" t="str">
@@ -12230,7 +12438,9 @@
           <cell r="B713" t="str">
             <v>CARRO ROSADO</v>
           </cell>
-          <cell r="C713"/>
+          <cell r="C713">
+            <v>0</v>
+          </cell>
         </row>
         <row r="714">
           <cell r="A714" t="str">
@@ -12239,7 +12449,9 @@
           <cell r="B714" t="str">
             <v>ESCRITORIO DE MADERA ROJO</v>
           </cell>
-          <cell r="C714"/>
+          <cell r="C714">
+            <v>0</v>
+          </cell>
         </row>
         <row r="715">
           <cell r="A715" t="str">
@@ -12248,7 +12460,9 @@
           <cell r="B715" t="str">
             <v>LAMPARA PARA TECHO AZUL</v>
           </cell>
-          <cell r="C715"/>
+          <cell r="C715">
+            <v>0</v>
+          </cell>
         </row>
         <row r="716">
           <cell r="A716" t="str">
@@ -12257,7 +12471,9 @@
           <cell r="B716" t="str">
             <v>COCHE PARA BEBÉ</v>
           </cell>
-          <cell r="C716"/>
+          <cell r="C716">
+            <v>0</v>
+          </cell>
         </row>
         <row r="717">
           <cell r="A717" t="str">
@@ -12266,7 +12482,9 @@
           <cell r="B717" t="str">
             <v>LAMPARA PARA TECHO TRES COLORES</v>
           </cell>
-          <cell r="C717"/>
+          <cell r="C717">
+            <v>0</v>
+          </cell>
         </row>
         <row r="718">
           <cell r="A718" t="str">
@@ -12275,7 +12493,9 @@
           <cell r="B718" t="str">
             <v>LAMPARA PARA TECHO DE 3 BOMBILLOS</v>
           </cell>
-          <cell r="C718"/>
+          <cell r="C718">
+            <v>0</v>
+          </cell>
         </row>
         <row r="719">
           <cell r="A719" t="str">
@@ -12284,7 +12504,9 @@
           <cell r="B719" t="str">
             <v>GABINETE MULTIUSO</v>
           </cell>
-          <cell r="C719"/>
+          <cell r="C719">
+            <v>0</v>
+          </cell>
         </row>
         <row r="720">
           <cell r="A720" t="str">
@@ -12293,7 +12515,9 @@
           <cell r="B720" t="str">
             <v>ESCALERA METALICA</v>
           </cell>
-          <cell r="C720"/>
+          <cell r="C720">
+            <v>0</v>
+          </cell>
         </row>
         <row r="721">
           <cell r="A721" t="str">
@@ -12302,7 +12526,9 @@
           <cell r="B721" t="str">
             <v>SILLAS PLAYERAS</v>
           </cell>
-          <cell r="C721"/>
+          <cell r="C721">
+            <v>0</v>
+          </cell>
         </row>
         <row r="722">
           <cell r="A722" t="str">
@@ -12311,7 +12537,9 @@
           <cell r="B722" t="str">
             <v>KIT DE CAMARAS DE VIGILANCIA 4 CAMARAS</v>
           </cell>
-          <cell r="C722"/>
+          <cell r="C722">
+            <v>0</v>
+          </cell>
         </row>
         <row r="723">
           <cell r="A723" t="str">
@@ -12320,7 +12548,9 @@
           <cell r="B723" t="str">
             <v>KIT DE CAMARAS DE VIGILANCIA 8 CAMARAS</v>
           </cell>
-          <cell r="C723"/>
+          <cell r="C723">
+            <v>0</v>
+          </cell>
         </row>
         <row r="724">
           <cell r="A724" t="str">
@@ -12329,7 +12559,9 @@
           <cell r="B724" t="str">
             <v>SILLA PARA OFICINA</v>
           </cell>
-          <cell r="C724"/>
+          <cell r="C724">
+            <v>0</v>
+          </cell>
         </row>
         <row r="725">
           <cell r="A725" t="str">
@@ -12338,7 +12570,9 @@
           <cell r="B725" t="str">
             <v>RIEL PARA CORTINA</v>
           </cell>
-          <cell r="C725"/>
+          <cell r="C725">
+            <v>0</v>
+          </cell>
         </row>
         <row r="726">
           <cell r="A726" t="str">
@@ -12347,7 +12581,9 @@
           <cell r="B726" t="str">
             <v>FLORERO METALICO</v>
           </cell>
-          <cell r="C726"/>
+          <cell r="C726">
+            <v>0</v>
+          </cell>
         </row>
         <row r="727">
           <cell r="A727" t="str">
@@ -12356,7 +12592,9 @@
           <cell r="B727" t="str">
             <v>LAMPARA PARA TECHO</v>
           </cell>
-          <cell r="C727"/>
+          <cell r="C727">
+            <v>0</v>
+          </cell>
         </row>
         <row r="728">
           <cell r="A728" t="str">
@@ -12365,7 +12603,9 @@
           <cell r="B728" t="str">
             <v>TRICICLO</v>
           </cell>
-          <cell r="C728"/>
+          <cell r="C728">
+            <v>0</v>
+          </cell>
         </row>
         <row r="729">
           <cell r="A729" t="str">
@@ -12374,7 +12614,9 @@
           <cell r="B729" t="str">
             <v>MESA PARA COMPUTADORA</v>
           </cell>
-          <cell r="C729"/>
+          <cell r="C729">
+            <v>0</v>
+          </cell>
         </row>
         <row r="730">
           <cell r="A730" t="str">
@@ -12383,7 +12625,9 @@
           <cell r="B730" t="str">
             <v>LAMPARA PARA TECHO</v>
           </cell>
-          <cell r="C730"/>
+          <cell r="C730">
+            <v>0</v>
+          </cell>
         </row>
         <row r="731">
           <cell r="A731" t="str">
@@ -12392,7 +12636,9 @@
           <cell r="B731" t="str">
             <v>SOPORTE PARA TV</v>
           </cell>
-          <cell r="C731"/>
+          <cell r="C731">
+            <v>0</v>
+          </cell>
         </row>
         <row r="732">
           <cell r="A732" t="str">
@@ -12401,7 +12647,9 @@
           <cell r="B732" t="str">
             <v>SOPORTE PARA TV</v>
           </cell>
-          <cell r="C732"/>
+          <cell r="C732">
+            <v>0</v>
+          </cell>
         </row>
         <row r="733">
           <cell r="A733" t="str">
@@ -12410,7 +12658,9 @@
           <cell r="B733" t="str">
             <v>SOPORTE PARA TV</v>
           </cell>
-          <cell r="C733"/>
+          <cell r="C733">
+            <v>0</v>
+          </cell>
         </row>
         <row r="734">
           <cell r="A734" t="str">
@@ -12419,7 +12669,9 @@
           <cell r="B734" t="str">
             <v>PLANTA ARTIFICIAL</v>
           </cell>
-          <cell r="C734"/>
+          <cell r="C734">
+            <v>0</v>
+          </cell>
         </row>
         <row r="735">
           <cell r="A735" t="str">
@@ -12428,7 +12680,9 @@
           <cell r="B735" t="str">
             <v>LAMPARA PARA PARED</v>
           </cell>
-          <cell r="C735"/>
+          <cell r="C735">
+            <v>0</v>
+          </cell>
         </row>
         <row r="736">
           <cell r="A736" t="str">
@@ -12437,7 +12691,9 @@
           <cell r="B736" t="str">
             <v>LAMPARA PARA TECHO</v>
           </cell>
-          <cell r="C736"/>
+          <cell r="C736">
+            <v>0</v>
+          </cell>
         </row>
         <row r="737">
           <cell r="A737" t="str">
@@ -12446,2472 +12702,5432 @@
           <cell r="B737" t="str">
             <v>LAMPARA PARA TECHO</v>
           </cell>
-          <cell r="C737"/>
+          <cell r="C737">
+            <v>0</v>
+          </cell>
         </row>
         <row r="738">
-          <cell r="A738"/>
-          <cell r="B738"/>
-          <cell r="C738"/>
+          <cell r="A738">
+            <v>0</v>
+          </cell>
+          <cell r="B738">
+            <v>0</v>
+          </cell>
+          <cell r="C738">
+            <v>0</v>
+          </cell>
         </row>
         <row r="739">
-          <cell r="A739"/>
-          <cell r="B739"/>
-          <cell r="C739"/>
+          <cell r="A739">
+            <v>0</v>
+          </cell>
+          <cell r="B739">
+            <v>0</v>
+          </cell>
+          <cell r="C739">
+            <v>0</v>
+          </cell>
         </row>
         <row r="740">
-          <cell r="A740"/>
-          <cell r="B740"/>
-          <cell r="C740"/>
+          <cell r="A740">
+            <v>0</v>
+          </cell>
+          <cell r="B740">
+            <v>0</v>
+          </cell>
+          <cell r="C740">
+            <v>0</v>
+          </cell>
         </row>
         <row r="741">
-          <cell r="A741"/>
-          <cell r="B741"/>
-          <cell r="C741"/>
+          <cell r="A741">
+            <v>0</v>
+          </cell>
+          <cell r="B741">
+            <v>0</v>
+          </cell>
+          <cell r="C741">
+            <v>0</v>
+          </cell>
         </row>
         <row r="742">
-          <cell r="A742"/>
-          <cell r="B742"/>
-          <cell r="C742"/>
+          <cell r="A742">
+            <v>0</v>
+          </cell>
+          <cell r="B742">
+            <v>0</v>
+          </cell>
+          <cell r="C742">
+            <v>0</v>
+          </cell>
         </row>
         <row r="743">
-          <cell r="A743"/>
-          <cell r="B743"/>
-          <cell r="C743"/>
+          <cell r="A743">
+            <v>0</v>
+          </cell>
+          <cell r="B743">
+            <v>0</v>
+          </cell>
+          <cell r="C743">
+            <v>0</v>
+          </cell>
         </row>
         <row r="744">
-          <cell r="A744"/>
-          <cell r="B744"/>
-          <cell r="C744"/>
+          <cell r="A744">
+            <v>0</v>
+          </cell>
+          <cell r="B744">
+            <v>0</v>
+          </cell>
+          <cell r="C744">
+            <v>0</v>
+          </cell>
         </row>
         <row r="745">
-          <cell r="A745"/>
-          <cell r="B745"/>
-          <cell r="C745"/>
+          <cell r="A745">
+            <v>0</v>
+          </cell>
+          <cell r="B745">
+            <v>0</v>
+          </cell>
+          <cell r="C745">
+            <v>0</v>
+          </cell>
         </row>
         <row r="746">
-          <cell r="A746"/>
-          <cell r="B746"/>
-          <cell r="C746"/>
+          <cell r="A746">
+            <v>0</v>
+          </cell>
+          <cell r="B746">
+            <v>0</v>
+          </cell>
+          <cell r="C746">
+            <v>0</v>
+          </cell>
         </row>
         <row r="747">
-          <cell r="A747"/>
-          <cell r="B747"/>
-          <cell r="C747"/>
+          <cell r="A747">
+            <v>0</v>
+          </cell>
+          <cell r="B747">
+            <v>0</v>
+          </cell>
+          <cell r="C747">
+            <v>0</v>
+          </cell>
         </row>
         <row r="748">
-          <cell r="A748"/>
-          <cell r="B748"/>
-          <cell r="C748"/>
+          <cell r="A748">
+            <v>0</v>
+          </cell>
+          <cell r="B748">
+            <v>0</v>
+          </cell>
+          <cell r="C748">
+            <v>0</v>
+          </cell>
         </row>
         <row r="749">
-          <cell r="A749"/>
-          <cell r="B749"/>
-          <cell r="C749"/>
+          <cell r="A749">
+            <v>0</v>
+          </cell>
+          <cell r="B749">
+            <v>0</v>
+          </cell>
+          <cell r="C749">
+            <v>0</v>
+          </cell>
         </row>
         <row r="750">
-          <cell r="A750"/>
-          <cell r="B750"/>
-          <cell r="C750"/>
+          <cell r="A750">
+            <v>0</v>
+          </cell>
+          <cell r="B750">
+            <v>0</v>
+          </cell>
+          <cell r="C750">
+            <v>0</v>
+          </cell>
         </row>
         <row r="751">
-          <cell r="A751"/>
-          <cell r="B751"/>
-          <cell r="C751"/>
+          <cell r="A751">
+            <v>0</v>
+          </cell>
+          <cell r="B751">
+            <v>0</v>
+          </cell>
+          <cell r="C751">
+            <v>0</v>
+          </cell>
         </row>
         <row r="752">
-          <cell r="A752"/>
-          <cell r="B752"/>
-          <cell r="C752"/>
+          <cell r="A752">
+            <v>0</v>
+          </cell>
+          <cell r="B752">
+            <v>0</v>
+          </cell>
+          <cell r="C752">
+            <v>0</v>
+          </cell>
         </row>
         <row r="753">
-          <cell r="A753"/>
-          <cell r="B753"/>
-          <cell r="C753"/>
+          <cell r="A753">
+            <v>0</v>
+          </cell>
+          <cell r="B753">
+            <v>0</v>
+          </cell>
+          <cell r="C753">
+            <v>0</v>
+          </cell>
         </row>
         <row r="754">
-          <cell r="A754"/>
-          <cell r="B754"/>
-          <cell r="C754"/>
+          <cell r="A754">
+            <v>0</v>
+          </cell>
+          <cell r="B754">
+            <v>0</v>
+          </cell>
+          <cell r="C754">
+            <v>0</v>
+          </cell>
         </row>
         <row r="755">
-          <cell r="A755"/>
-          <cell r="B755"/>
-          <cell r="C755"/>
+          <cell r="A755">
+            <v>0</v>
+          </cell>
+          <cell r="B755">
+            <v>0</v>
+          </cell>
+          <cell r="C755">
+            <v>0</v>
+          </cell>
         </row>
         <row r="756">
-          <cell r="A756"/>
-          <cell r="B756"/>
-          <cell r="C756"/>
+          <cell r="A756">
+            <v>0</v>
+          </cell>
+          <cell r="B756">
+            <v>0</v>
+          </cell>
+          <cell r="C756">
+            <v>0</v>
+          </cell>
         </row>
         <row r="757">
-          <cell r="A757"/>
-          <cell r="B757"/>
-          <cell r="C757"/>
+          <cell r="A757">
+            <v>0</v>
+          </cell>
+          <cell r="B757">
+            <v>0</v>
+          </cell>
+          <cell r="C757">
+            <v>0</v>
+          </cell>
         </row>
         <row r="758">
-          <cell r="A758"/>
-          <cell r="B758"/>
-          <cell r="C758"/>
+          <cell r="A758">
+            <v>0</v>
+          </cell>
+          <cell r="B758">
+            <v>0</v>
+          </cell>
+          <cell r="C758">
+            <v>0</v>
+          </cell>
         </row>
         <row r="759">
-          <cell r="A759"/>
-          <cell r="B759"/>
-          <cell r="C759"/>
+          <cell r="A759">
+            <v>0</v>
+          </cell>
+          <cell r="B759">
+            <v>0</v>
+          </cell>
+          <cell r="C759">
+            <v>0</v>
+          </cell>
         </row>
         <row r="760">
-          <cell r="A760"/>
-          <cell r="B760"/>
-          <cell r="C760"/>
+          <cell r="A760">
+            <v>0</v>
+          </cell>
+          <cell r="B760">
+            <v>0</v>
+          </cell>
+          <cell r="C760">
+            <v>0</v>
+          </cell>
         </row>
         <row r="761">
-          <cell r="A761"/>
-          <cell r="B761"/>
-          <cell r="C761"/>
+          <cell r="A761">
+            <v>0</v>
+          </cell>
+          <cell r="B761">
+            <v>0</v>
+          </cell>
+          <cell r="C761">
+            <v>0</v>
+          </cell>
         </row>
         <row r="762">
-          <cell r="A762"/>
-          <cell r="B762"/>
-          <cell r="C762"/>
+          <cell r="A762">
+            <v>0</v>
+          </cell>
+          <cell r="B762">
+            <v>0</v>
+          </cell>
+          <cell r="C762">
+            <v>0</v>
+          </cell>
         </row>
         <row r="763">
-          <cell r="A763"/>
-          <cell r="B763"/>
-          <cell r="C763"/>
+          <cell r="A763">
+            <v>0</v>
+          </cell>
+          <cell r="B763">
+            <v>0</v>
+          </cell>
+          <cell r="C763">
+            <v>0</v>
+          </cell>
         </row>
         <row r="764">
-          <cell r="A764"/>
-          <cell r="B764"/>
-          <cell r="C764"/>
+          <cell r="A764">
+            <v>0</v>
+          </cell>
+          <cell r="B764">
+            <v>0</v>
+          </cell>
+          <cell r="C764">
+            <v>0</v>
+          </cell>
         </row>
         <row r="765">
-          <cell r="A765"/>
-          <cell r="B765"/>
-          <cell r="C765"/>
+          <cell r="A765">
+            <v>0</v>
+          </cell>
+          <cell r="B765">
+            <v>0</v>
+          </cell>
+          <cell r="C765">
+            <v>0</v>
+          </cell>
         </row>
         <row r="766">
-          <cell r="A766"/>
-          <cell r="B766"/>
-          <cell r="C766"/>
+          <cell r="A766">
+            <v>0</v>
+          </cell>
+          <cell r="B766">
+            <v>0</v>
+          </cell>
+          <cell r="C766">
+            <v>0</v>
+          </cell>
         </row>
         <row r="767">
-          <cell r="A767"/>
-          <cell r="B767"/>
-          <cell r="C767"/>
+          <cell r="A767">
+            <v>0</v>
+          </cell>
+          <cell r="B767">
+            <v>0</v>
+          </cell>
+          <cell r="C767">
+            <v>0</v>
+          </cell>
         </row>
         <row r="768">
-          <cell r="A768"/>
-          <cell r="B768"/>
-          <cell r="C768"/>
+          <cell r="A768">
+            <v>0</v>
+          </cell>
+          <cell r="B768">
+            <v>0</v>
+          </cell>
+          <cell r="C768">
+            <v>0</v>
+          </cell>
         </row>
         <row r="769">
-          <cell r="A769"/>
-          <cell r="B769"/>
-          <cell r="C769"/>
+          <cell r="A769">
+            <v>0</v>
+          </cell>
+          <cell r="B769">
+            <v>0</v>
+          </cell>
+          <cell r="C769">
+            <v>0</v>
+          </cell>
         </row>
         <row r="770">
-          <cell r="A770"/>
-          <cell r="B770"/>
-          <cell r="C770"/>
+          <cell r="A770">
+            <v>0</v>
+          </cell>
+          <cell r="B770">
+            <v>0</v>
+          </cell>
+          <cell r="C770">
+            <v>0</v>
+          </cell>
         </row>
         <row r="771">
-          <cell r="A771"/>
-          <cell r="B771"/>
-          <cell r="C771"/>
+          <cell r="A771">
+            <v>0</v>
+          </cell>
+          <cell r="B771">
+            <v>0</v>
+          </cell>
+          <cell r="C771">
+            <v>0</v>
+          </cell>
         </row>
         <row r="772">
-          <cell r="A772"/>
-          <cell r="B772"/>
-          <cell r="C772"/>
+          <cell r="A772">
+            <v>0</v>
+          </cell>
+          <cell r="B772">
+            <v>0</v>
+          </cell>
+          <cell r="C772">
+            <v>0</v>
+          </cell>
         </row>
         <row r="773">
-          <cell r="A773"/>
-          <cell r="B773"/>
-          <cell r="C773"/>
+          <cell r="A773">
+            <v>0</v>
+          </cell>
+          <cell r="B773">
+            <v>0</v>
+          </cell>
+          <cell r="C773">
+            <v>0</v>
+          </cell>
         </row>
         <row r="774">
-          <cell r="A774"/>
-          <cell r="B774"/>
-          <cell r="C774"/>
+          <cell r="A774">
+            <v>0</v>
+          </cell>
+          <cell r="B774">
+            <v>0</v>
+          </cell>
+          <cell r="C774">
+            <v>0</v>
+          </cell>
         </row>
         <row r="775">
-          <cell r="A775"/>
-          <cell r="B775"/>
-          <cell r="C775"/>
+          <cell r="A775">
+            <v>0</v>
+          </cell>
+          <cell r="B775">
+            <v>0</v>
+          </cell>
+          <cell r="C775">
+            <v>0</v>
+          </cell>
         </row>
         <row r="776">
-          <cell r="A776"/>
-          <cell r="B776"/>
-          <cell r="C776"/>
+          <cell r="A776">
+            <v>0</v>
+          </cell>
+          <cell r="B776">
+            <v>0</v>
+          </cell>
+          <cell r="C776">
+            <v>0</v>
+          </cell>
         </row>
         <row r="777">
-          <cell r="A777"/>
-          <cell r="B777"/>
-          <cell r="C777"/>
+          <cell r="A777">
+            <v>0</v>
+          </cell>
+          <cell r="B777">
+            <v>0</v>
+          </cell>
+          <cell r="C777">
+            <v>0</v>
+          </cell>
         </row>
         <row r="778">
-          <cell r="A778"/>
-          <cell r="B778"/>
-          <cell r="C778"/>
+          <cell r="A778">
+            <v>0</v>
+          </cell>
+          <cell r="B778">
+            <v>0</v>
+          </cell>
+          <cell r="C778">
+            <v>0</v>
+          </cell>
         </row>
         <row r="779">
-          <cell r="A779"/>
-          <cell r="B779"/>
-          <cell r="C779"/>
+          <cell r="A779">
+            <v>0</v>
+          </cell>
+          <cell r="B779">
+            <v>0</v>
+          </cell>
+          <cell r="C779">
+            <v>0</v>
+          </cell>
         </row>
         <row r="780">
-          <cell r="A780"/>
-          <cell r="B780"/>
-          <cell r="C780"/>
+          <cell r="A780">
+            <v>0</v>
+          </cell>
+          <cell r="B780">
+            <v>0</v>
+          </cell>
+          <cell r="C780">
+            <v>0</v>
+          </cell>
         </row>
         <row r="781">
-          <cell r="A781"/>
-          <cell r="B781"/>
-          <cell r="C781"/>
+          <cell r="A781">
+            <v>0</v>
+          </cell>
+          <cell r="B781">
+            <v>0</v>
+          </cell>
+          <cell r="C781">
+            <v>0</v>
+          </cell>
         </row>
         <row r="782">
-          <cell r="A782"/>
-          <cell r="B782"/>
-          <cell r="C782"/>
+          <cell r="A782">
+            <v>0</v>
+          </cell>
+          <cell r="B782">
+            <v>0</v>
+          </cell>
+          <cell r="C782">
+            <v>0</v>
+          </cell>
         </row>
         <row r="783">
-          <cell r="A783"/>
-          <cell r="B783"/>
-          <cell r="C783"/>
+          <cell r="A783">
+            <v>0</v>
+          </cell>
+          <cell r="B783">
+            <v>0</v>
+          </cell>
+          <cell r="C783">
+            <v>0</v>
+          </cell>
         </row>
         <row r="784">
-          <cell r="A784"/>
-          <cell r="B784"/>
-          <cell r="C784"/>
+          <cell r="A784">
+            <v>0</v>
+          </cell>
+          <cell r="B784">
+            <v>0</v>
+          </cell>
+          <cell r="C784">
+            <v>0</v>
+          </cell>
         </row>
         <row r="785">
-          <cell r="A785"/>
-          <cell r="B785"/>
-          <cell r="C785"/>
+          <cell r="A785">
+            <v>0</v>
+          </cell>
+          <cell r="B785">
+            <v>0</v>
+          </cell>
+          <cell r="C785">
+            <v>0</v>
+          </cell>
         </row>
         <row r="786">
-          <cell r="A786"/>
-          <cell r="B786"/>
-          <cell r="C786"/>
+          <cell r="A786">
+            <v>0</v>
+          </cell>
+          <cell r="B786">
+            <v>0</v>
+          </cell>
+          <cell r="C786">
+            <v>0</v>
+          </cell>
         </row>
         <row r="787">
-          <cell r="A787"/>
-          <cell r="B787"/>
-          <cell r="C787"/>
+          <cell r="A787">
+            <v>0</v>
+          </cell>
+          <cell r="B787">
+            <v>0</v>
+          </cell>
+          <cell r="C787">
+            <v>0</v>
+          </cell>
         </row>
         <row r="788">
-          <cell r="A788"/>
-          <cell r="B788"/>
-          <cell r="C788"/>
+          <cell r="A788">
+            <v>0</v>
+          </cell>
+          <cell r="B788">
+            <v>0</v>
+          </cell>
+          <cell r="C788">
+            <v>0</v>
+          </cell>
         </row>
         <row r="789">
-          <cell r="A789"/>
-          <cell r="B789"/>
-          <cell r="C789"/>
+          <cell r="A789">
+            <v>0</v>
+          </cell>
+          <cell r="B789">
+            <v>0</v>
+          </cell>
+          <cell r="C789">
+            <v>0</v>
+          </cell>
         </row>
         <row r="790">
-          <cell r="A790"/>
-          <cell r="B790"/>
-          <cell r="C790"/>
+          <cell r="A790">
+            <v>0</v>
+          </cell>
+          <cell r="B790">
+            <v>0</v>
+          </cell>
+          <cell r="C790">
+            <v>0</v>
+          </cell>
         </row>
         <row r="791">
-          <cell r="A791"/>
-          <cell r="B791"/>
-          <cell r="C791"/>
+          <cell r="A791">
+            <v>0</v>
+          </cell>
+          <cell r="B791">
+            <v>0</v>
+          </cell>
+          <cell r="C791">
+            <v>0</v>
+          </cell>
         </row>
         <row r="792">
-          <cell r="A792"/>
-          <cell r="B792"/>
-          <cell r="C792"/>
+          <cell r="A792">
+            <v>0</v>
+          </cell>
+          <cell r="B792">
+            <v>0</v>
+          </cell>
+          <cell r="C792">
+            <v>0</v>
+          </cell>
         </row>
         <row r="793">
-          <cell r="A793"/>
-          <cell r="B793"/>
-          <cell r="C793"/>
+          <cell r="A793">
+            <v>0</v>
+          </cell>
+          <cell r="B793">
+            <v>0</v>
+          </cell>
+          <cell r="C793">
+            <v>0</v>
+          </cell>
         </row>
         <row r="794">
-          <cell r="A794"/>
-          <cell r="B794"/>
-          <cell r="C794"/>
+          <cell r="A794">
+            <v>0</v>
+          </cell>
+          <cell r="B794">
+            <v>0</v>
+          </cell>
+          <cell r="C794">
+            <v>0</v>
+          </cell>
         </row>
         <row r="795">
-          <cell r="A795"/>
-          <cell r="B795"/>
-          <cell r="C795"/>
+          <cell r="A795">
+            <v>0</v>
+          </cell>
+          <cell r="B795">
+            <v>0</v>
+          </cell>
+          <cell r="C795">
+            <v>0</v>
+          </cell>
         </row>
         <row r="796">
-          <cell r="A796"/>
-          <cell r="B796"/>
-          <cell r="C796"/>
+          <cell r="A796">
+            <v>0</v>
+          </cell>
+          <cell r="B796">
+            <v>0</v>
+          </cell>
+          <cell r="C796">
+            <v>0</v>
+          </cell>
         </row>
         <row r="797">
-          <cell r="A797"/>
-          <cell r="B797"/>
-          <cell r="C797"/>
+          <cell r="A797">
+            <v>0</v>
+          </cell>
+          <cell r="B797">
+            <v>0</v>
+          </cell>
+          <cell r="C797">
+            <v>0</v>
+          </cell>
         </row>
         <row r="798">
-          <cell r="A798"/>
-          <cell r="B798"/>
-          <cell r="C798"/>
+          <cell r="A798">
+            <v>0</v>
+          </cell>
+          <cell r="B798">
+            <v>0</v>
+          </cell>
+          <cell r="C798">
+            <v>0</v>
+          </cell>
         </row>
         <row r="799">
-          <cell r="A799"/>
-          <cell r="B799"/>
-          <cell r="C799"/>
+          <cell r="A799">
+            <v>0</v>
+          </cell>
+          <cell r="B799">
+            <v>0</v>
+          </cell>
+          <cell r="C799">
+            <v>0</v>
+          </cell>
         </row>
         <row r="800">
-          <cell r="A800"/>
-          <cell r="B800"/>
-          <cell r="C800"/>
+          <cell r="A800">
+            <v>0</v>
+          </cell>
+          <cell r="B800">
+            <v>0</v>
+          </cell>
+          <cell r="C800">
+            <v>0</v>
+          </cell>
         </row>
         <row r="801">
-          <cell r="A801"/>
-          <cell r="B801"/>
-          <cell r="C801"/>
+          <cell r="A801">
+            <v>0</v>
+          </cell>
+          <cell r="B801">
+            <v>0</v>
+          </cell>
+          <cell r="C801">
+            <v>0</v>
+          </cell>
         </row>
         <row r="802">
-          <cell r="A802"/>
-          <cell r="B802"/>
-          <cell r="C802"/>
+          <cell r="A802">
+            <v>0</v>
+          </cell>
+          <cell r="B802">
+            <v>0</v>
+          </cell>
+          <cell r="C802">
+            <v>0</v>
+          </cell>
         </row>
         <row r="803">
-          <cell r="A803"/>
-          <cell r="B803"/>
-          <cell r="C803"/>
+          <cell r="A803">
+            <v>0</v>
+          </cell>
+          <cell r="B803">
+            <v>0</v>
+          </cell>
+          <cell r="C803">
+            <v>0</v>
+          </cell>
         </row>
         <row r="804">
-          <cell r="A804"/>
-          <cell r="B804"/>
-          <cell r="C804"/>
+          <cell r="A804">
+            <v>0</v>
+          </cell>
+          <cell r="B804">
+            <v>0</v>
+          </cell>
+          <cell r="C804">
+            <v>0</v>
+          </cell>
         </row>
         <row r="805">
-          <cell r="A805"/>
-          <cell r="B805"/>
-          <cell r="C805"/>
+          <cell r="A805">
+            <v>0</v>
+          </cell>
+          <cell r="B805">
+            <v>0</v>
+          </cell>
+          <cell r="C805">
+            <v>0</v>
+          </cell>
         </row>
         <row r="806">
-          <cell r="A806"/>
-          <cell r="B806"/>
-          <cell r="C806"/>
+          <cell r="A806">
+            <v>0</v>
+          </cell>
+          <cell r="B806">
+            <v>0</v>
+          </cell>
+          <cell r="C806">
+            <v>0</v>
+          </cell>
         </row>
         <row r="807">
-          <cell r="A807"/>
-          <cell r="B807"/>
-          <cell r="C807"/>
+          <cell r="A807">
+            <v>0</v>
+          </cell>
+          <cell r="B807">
+            <v>0</v>
+          </cell>
+          <cell r="C807">
+            <v>0</v>
+          </cell>
         </row>
         <row r="808">
-          <cell r="A808"/>
-          <cell r="B808"/>
-          <cell r="C808"/>
+          <cell r="A808">
+            <v>0</v>
+          </cell>
+          <cell r="B808">
+            <v>0</v>
+          </cell>
+          <cell r="C808">
+            <v>0</v>
+          </cell>
         </row>
         <row r="809">
-          <cell r="A809"/>
-          <cell r="B809"/>
-          <cell r="C809"/>
+          <cell r="A809">
+            <v>0</v>
+          </cell>
+          <cell r="B809">
+            <v>0</v>
+          </cell>
+          <cell r="C809">
+            <v>0</v>
+          </cell>
         </row>
         <row r="810">
-          <cell r="A810"/>
-          <cell r="B810"/>
-          <cell r="C810"/>
+          <cell r="A810">
+            <v>0</v>
+          </cell>
+          <cell r="B810">
+            <v>0</v>
+          </cell>
+          <cell r="C810">
+            <v>0</v>
+          </cell>
         </row>
         <row r="811">
-          <cell r="A811"/>
-          <cell r="B811"/>
-          <cell r="C811"/>
+          <cell r="A811">
+            <v>0</v>
+          </cell>
+          <cell r="B811">
+            <v>0</v>
+          </cell>
+          <cell r="C811">
+            <v>0</v>
+          </cell>
         </row>
         <row r="812">
-          <cell r="A812"/>
-          <cell r="B812"/>
-          <cell r="C812"/>
+          <cell r="A812">
+            <v>0</v>
+          </cell>
+          <cell r="B812">
+            <v>0</v>
+          </cell>
+          <cell r="C812">
+            <v>0</v>
+          </cell>
         </row>
         <row r="813">
-          <cell r="A813"/>
-          <cell r="B813"/>
-          <cell r="C813"/>
+          <cell r="A813">
+            <v>0</v>
+          </cell>
+          <cell r="B813">
+            <v>0</v>
+          </cell>
+          <cell r="C813">
+            <v>0</v>
+          </cell>
         </row>
         <row r="814">
-          <cell r="A814"/>
-          <cell r="B814"/>
-          <cell r="C814"/>
+          <cell r="A814">
+            <v>0</v>
+          </cell>
+          <cell r="B814">
+            <v>0</v>
+          </cell>
+          <cell r="C814">
+            <v>0</v>
+          </cell>
         </row>
         <row r="815">
-          <cell r="A815"/>
-          <cell r="B815"/>
-          <cell r="C815"/>
+          <cell r="A815">
+            <v>0</v>
+          </cell>
+          <cell r="B815">
+            <v>0</v>
+          </cell>
+          <cell r="C815">
+            <v>0</v>
+          </cell>
         </row>
         <row r="816">
-          <cell r="A816"/>
-          <cell r="B816"/>
-          <cell r="C816"/>
+          <cell r="A816">
+            <v>0</v>
+          </cell>
+          <cell r="B816">
+            <v>0</v>
+          </cell>
+          <cell r="C816">
+            <v>0</v>
+          </cell>
         </row>
         <row r="817">
-          <cell r="A817"/>
-          <cell r="B817"/>
-          <cell r="C817"/>
+          <cell r="A817">
+            <v>0</v>
+          </cell>
+          <cell r="B817">
+            <v>0</v>
+          </cell>
+          <cell r="C817">
+            <v>0</v>
+          </cell>
         </row>
         <row r="818">
-          <cell r="A818"/>
-          <cell r="B818"/>
-          <cell r="C818"/>
+          <cell r="A818">
+            <v>0</v>
+          </cell>
+          <cell r="B818">
+            <v>0</v>
+          </cell>
+          <cell r="C818">
+            <v>0</v>
+          </cell>
         </row>
         <row r="819">
-          <cell r="A819"/>
-          <cell r="B819"/>
-          <cell r="C819"/>
+          <cell r="A819">
+            <v>0</v>
+          </cell>
+          <cell r="B819">
+            <v>0</v>
+          </cell>
+          <cell r="C819">
+            <v>0</v>
+          </cell>
         </row>
         <row r="820">
-          <cell r="A820"/>
-          <cell r="B820"/>
-          <cell r="C820"/>
+          <cell r="A820">
+            <v>0</v>
+          </cell>
+          <cell r="B820">
+            <v>0</v>
+          </cell>
+          <cell r="C820">
+            <v>0</v>
+          </cell>
         </row>
         <row r="821">
-          <cell r="A821"/>
-          <cell r="B821"/>
-          <cell r="C821"/>
+          <cell r="A821">
+            <v>0</v>
+          </cell>
+          <cell r="B821">
+            <v>0</v>
+          </cell>
+          <cell r="C821">
+            <v>0</v>
+          </cell>
         </row>
         <row r="822">
-          <cell r="A822"/>
-          <cell r="B822"/>
-          <cell r="C822"/>
+          <cell r="A822">
+            <v>0</v>
+          </cell>
+          <cell r="B822">
+            <v>0</v>
+          </cell>
+          <cell r="C822">
+            <v>0</v>
+          </cell>
         </row>
         <row r="823">
-          <cell r="A823"/>
-          <cell r="B823"/>
-          <cell r="C823"/>
+          <cell r="A823">
+            <v>0</v>
+          </cell>
+          <cell r="B823">
+            <v>0</v>
+          </cell>
+          <cell r="C823">
+            <v>0</v>
+          </cell>
         </row>
         <row r="824">
-          <cell r="A824"/>
-          <cell r="B824"/>
-          <cell r="C824"/>
+          <cell r="A824">
+            <v>0</v>
+          </cell>
+          <cell r="B824">
+            <v>0</v>
+          </cell>
+          <cell r="C824">
+            <v>0</v>
+          </cell>
         </row>
         <row r="825">
-          <cell r="A825"/>
-          <cell r="B825"/>
-          <cell r="C825"/>
+          <cell r="A825">
+            <v>0</v>
+          </cell>
+          <cell r="B825">
+            <v>0</v>
+          </cell>
+          <cell r="C825">
+            <v>0</v>
+          </cell>
         </row>
         <row r="826">
-          <cell r="A826"/>
-          <cell r="B826"/>
-          <cell r="C826"/>
+          <cell r="A826">
+            <v>0</v>
+          </cell>
+          <cell r="B826">
+            <v>0</v>
+          </cell>
+          <cell r="C826">
+            <v>0</v>
+          </cell>
         </row>
         <row r="827">
-          <cell r="A827"/>
-          <cell r="B827"/>
-          <cell r="C827"/>
+          <cell r="A827">
+            <v>0</v>
+          </cell>
+          <cell r="B827">
+            <v>0</v>
+          </cell>
+          <cell r="C827">
+            <v>0</v>
+          </cell>
         </row>
         <row r="828">
-          <cell r="A828"/>
-          <cell r="B828"/>
-          <cell r="C828"/>
+          <cell r="A828">
+            <v>0</v>
+          </cell>
+          <cell r="B828">
+            <v>0</v>
+          </cell>
+          <cell r="C828">
+            <v>0</v>
+          </cell>
         </row>
         <row r="829">
-          <cell r="A829"/>
-          <cell r="B829"/>
-          <cell r="C829"/>
+          <cell r="A829">
+            <v>0</v>
+          </cell>
+          <cell r="B829">
+            <v>0</v>
+          </cell>
+          <cell r="C829">
+            <v>0</v>
+          </cell>
         </row>
         <row r="830">
-          <cell r="A830"/>
-          <cell r="B830"/>
-          <cell r="C830"/>
+          <cell r="A830">
+            <v>0</v>
+          </cell>
+          <cell r="B830">
+            <v>0</v>
+          </cell>
+          <cell r="C830">
+            <v>0</v>
+          </cell>
         </row>
         <row r="831">
-          <cell r="A831"/>
-          <cell r="B831"/>
-          <cell r="C831"/>
+          <cell r="A831">
+            <v>0</v>
+          </cell>
+          <cell r="B831">
+            <v>0</v>
+          </cell>
+          <cell r="C831">
+            <v>0</v>
+          </cell>
         </row>
         <row r="832">
-          <cell r="A832"/>
-          <cell r="B832"/>
-          <cell r="C832"/>
+          <cell r="A832">
+            <v>0</v>
+          </cell>
+          <cell r="B832">
+            <v>0</v>
+          </cell>
+          <cell r="C832">
+            <v>0</v>
+          </cell>
         </row>
         <row r="833">
-          <cell r="A833"/>
-          <cell r="B833"/>
-          <cell r="C833"/>
+          <cell r="A833">
+            <v>0</v>
+          </cell>
+          <cell r="B833">
+            <v>0</v>
+          </cell>
+          <cell r="C833">
+            <v>0</v>
+          </cell>
         </row>
         <row r="834">
-          <cell r="A834"/>
-          <cell r="B834"/>
-          <cell r="C834"/>
+          <cell r="A834">
+            <v>0</v>
+          </cell>
+          <cell r="B834">
+            <v>0</v>
+          </cell>
+          <cell r="C834">
+            <v>0</v>
+          </cell>
         </row>
         <row r="835">
-          <cell r="A835"/>
-          <cell r="B835"/>
-          <cell r="C835"/>
+          <cell r="A835">
+            <v>0</v>
+          </cell>
+          <cell r="B835">
+            <v>0</v>
+          </cell>
+          <cell r="C835">
+            <v>0</v>
+          </cell>
         </row>
         <row r="836">
-          <cell r="A836"/>
-          <cell r="B836"/>
-          <cell r="C836"/>
+          <cell r="A836">
+            <v>0</v>
+          </cell>
+          <cell r="B836">
+            <v>0</v>
+          </cell>
+          <cell r="C836">
+            <v>0</v>
+          </cell>
         </row>
         <row r="837">
-          <cell r="A837"/>
-          <cell r="B837"/>
-          <cell r="C837"/>
+          <cell r="A837">
+            <v>0</v>
+          </cell>
+          <cell r="B837">
+            <v>0</v>
+          </cell>
+          <cell r="C837">
+            <v>0</v>
+          </cell>
         </row>
         <row r="838">
-          <cell r="A838"/>
-          <cell r="B838"/>
-          <cell r="C838"/>
+          <cell r="A838">
+            <v>0</v>
+          </cell>
+          <cell r="B838">
+            <v>0</v>
+          </cell>
+          <cell r="C838">
+            <v>0</v>
+          </cell>
         </row>
         <row r="839">
-          <cell r="A839"/>
-          <cell r="B839"/>
-          <cell r="C839"/>
+          <cell r="A839">
+            <v>0</v>
+          </cell>
+          <cell r="B839">
+            <v>0</v>
+          </cell>
+          <cell r="C839">
+            <v>0</v>
+          </cell>
         </row>
         <row r="840">
-          <cell r="A840"/>
-          <cell r="B840"/>
-          <cell r="C840"/>
+          <cell r="A840">
+            <v>0</v>
+          </cell>
+          <cell r="B840">
+            <v>0</v>
+          </cell>
+          <cell r="C840">
+            <v>0</v>
+          </cell>
         </row>
         <row r="841">
-          <cell r="A841"/>
-          <cell r="B841"/>
-          <cell r="C841"/>
+          <cell r="A841">
+            <v>0</v>
+          </cell>
+          <cell r="B841">
+            <v>0</v>
+          </cell>
+          <cell r="C841">
+            <v>0</v>
+          </cell>
         </row>
         <row r="842">
-          <cell r="A842"/>
-          <cell r="B842"/>
-          <cell r="C842"/>
+          <cell r="A842">
+            <v>0</v>
+          </cell>
+          <cell r="B842">
+            <v>0</v>
+          </cell>
+          <cell r="C842">
+            <v>0</v>
+          </cell>
         </row>
         <row r="843">
-          <cell r="A843"/>
-          <cell r="B843"/>
-          <cell r="C843"/>
+          <cell r="A843">
+            <v>0</v>
+          </cell>
+          <cell r="B843">
+            <v>0</v>
+          </cell>
+          <cell r="C843">
+            <v>0</v>
+          </cell>
         </row>
         <row r="844">
-          <cell r="A844"/>
-          <cell r="B844"/>
-          <cell r="C844"/>
+          <cell r="A844">
+            <v>0</v>
+          </cell>
+          <cell r="B844">
+            <v>0</v>
+          </cell>
+          <cell r="C844">
+            <v>0</v>
+          </cell>
         </row>
         <row r="845">
-          <cell r="A845"/>
-          <cell r="B845"/>
-          <cell r="C845"/>
+          <cell r="A845">
+            <v>0</v>
+          </cell>
+          <cell r="B845">
+            <v>0</v>
+          </cell>
+          <cell r="C845">
+            <v>0</v>
+          </cell>
         </row>
         <row r="846">
-          <cell r="A846"/>
-          <cell r="B846"/>
-          <cell r="C846"/>
+          <cell r="A846">
+            <v>0</v>
+          </cell>
+          <cell r="B846">
+            <v>0</v>
+          </cell>
+          <cell r="C846">
+            <v>0</v>
+          </cell>
         </row>
         <row r="847">
-          <cell r="A847"/>
-          <cell r="B847"/>
-          <cell r="C847"/>
+          <cell r="A847">
+            <v>0</v>
+          </cell>
+          <cell r="B847">
+            <v>0</v>
+          </cell>
+          <cell r="C847">
+            <v>0</v>
+          </cell>
         </row>
         <row r="848">
-          <cell r="A848"/>
-          <cell r="B848"/>
-          <cell r="C848"/>
+          <cell r="A848">
+            <v>0</v>
+          </cell>
+          <cell r="B848">
+            <v>0</v>
+          </cell>
+          <cell r="C848">
+            <v>0</v>
+          </cell>
         </row>
         <row r="849">
-          <cell r="A849"/>
-          <cell r="B849"/>
-          <cell r="C849"/>
+          <cell r="A849">
+            <v>0</v>
+          </cell>
+          <cell r="B849">
+            <v>0</v>
+          </cell>
+          <cell r="C849">
+            <v>0</v>
+          </cell>
         </row>
         <row r="850">
-          <cell r="A850"/>
-          <cell r="B850"/>
-          <cell r="C850"/>
+          <cell r="A850">
+            <v>0</v>
+          </cell>
+          <cell r="B850">
+            <v>0</v>
+          </cell>
+          <cell r="C850">
+            <v>0</v>
+          </cell>
         </row>
         <row r="851">
-          <cell r="A851"/>
-          <cell r="B851"/>
-          <cell r="C851"/>
+          <cell r="A851">
+            <v>0</v>
+          </cell>
+          <cell r="B851">
+            <v>0</v>
+          </cell>
+          <cell r="C851">
+            <v>0</v>
+          </cell>
         </row>
         <row r="852">
-          <cell r="A852"/>
-          <cell r="B852"/>
-          <cell r="C852"/>
+          <cell r="A852">
+            <v>0</v>
+          </cell>
+          <cell r="B852">
+            <v>0</v>
+          </cell>
+          <cell r="C852">
+            <v>0</v>
+          </cell>
         </row>
         <row r="853">
-          <cell r="A853"/>
-          <cell r="B853"/>
-          <cell r="C853"/>
+          <cell r="A853">
+            <v>0</v>
+          </cell>
+          <cell r="B853">
+            <v>0</v>
+          </cell>
+          <cell r="C853">
+            <v>0</v>
+          </cell>
         </row>
         <row r="854">
-          <cell r="A854"/>
-          <cell r="B854"/>
-          <cell r="C854"/>
+          <cell r="A854">
+            <v>0</v>
+          </cell>
+          <cell r="B854">
+            <v>0</v>
+          </cell>
+          <cell r="C854">
+            <v>0</v>
+          </cell>
         </row>
         <row r="855">
-          <cell r="A855"/>
-          <cell r="B855"/>
-          <cell r="C855"/>
+          <cell r="A855">
+            <v>0</v>
+          </cell>
+          <cell r="B855">
+            <v>0</v>
+          </cell>
+          <cell r="C855">
+            <v>0</v>
+          </cell>
         </row>
         <row r="856">
-          <cell r="A856"/>
-          <cell r="B856"/>
-          <cell r="C856"/>
+          <cell r="A856">
+            <v>0</v>
+          </cell>
+          <cell r="B856">
+            <v>0</v>
+          </cell>
+          <cell r="C856">
+            <v>0</v>
+          </cell>
         </row>
         <row r="857">
-          <cell r="A857"/>
-          <cell r="B857"/>
-          <cell r="C857"/>
+          <cell r="A857">
+            <v>0</v>
+          </cell>
+          <cell r="B857">
+            <v>0</v>
+          </cell>
+          <cell r="C857">
+            <v>0</v>
+          </cell>
         </row>
         <row r="858">
-          <cell r="A858"/>
-          <cell r="B858"/>
-          <cell r="C858"/>
+          <cell r="A858">
+            <v>0</v>
+          </cell>
+          <cell r="B858">
+            <v>0</v>
+          </cell>
+          <cell r="C858">
+            <v>0</v>
+          </cell>
         </row>
         <row r="859">
-          <cell r="A859"/>
-          <cell r="B859"/>
-          <cell r="C859"/>
+          <cell r="A859">
+            <v>0</v>
+          </cell>
+          <cell r="B859">
+            <v>0</v>
+          </cell>
+          <cell r="C859">
+            <v>0</v>
+          </cell>
         </row>
         <row r="860">
-          <cell r="A860"/>
-          <cell r="B860"/>
-          <cell r="C860"/>
+          <cell r="A860">
+            <v>0</v>
+          </cell>
+          <cell r="B860">
+            <v>0</v>
+          </cell>
+          <cell r="C860">
+            <v>0</v>
+          </cell>
         </row>
         <row r="861">
-          <cell r="A861"/>
-          <cell r="B861"/>
-          <cell r="C861"/>
+          <cell r="A861">
+            <v>0</v>
+          </cell>
+          <cell r="B861">
+            <v>0</v>
+          </cell>
+          <cell r="C861">
+            <v>0</v>
+          </cell>
         </row>
         <row r="862">
-          <cell r="A862"/>
-          <cell r="B862"/>
-          <cell r="C862"/>
+          <cell r="A862">
+            <v>0</v>
+          </cell>
+          <cell r="B862">
+            <v>0</v>
+          </cell>
+          <cell r="C862">
+            <v>0</v>
+          </cell>
         </row>
         <row r="863">
-          <cell r="A863"/>
-          <cell r="B863"/>
-          <cell r="C863"/>
+          <cell r="A863">
+            <v>0</v>
+          </cell>
+          <cell r="B863">
+            <v>0</v>
+          </cell>
+          <cell r="C863">
+            <v>0</v>
+          </cell>
         </row>
         <row r="864">
-          <cell r="A864"/>
-          <cell r="B864"/>
-          <cell r="C864"/>
+          <cell r="A864">
+            <v>0</v>
+          </cell>
+          <cell r="B864">
+            <v>0</v>
+          </cell>
+          <cell r="C864">
+            <v>0</v>
+          </cell>
         </row>
         <row r="865">
-          <cell r="A865"/>
-          <cell r="B865"/>
-          <cell r="C865"/>
+          <cell r="A865">
+            <v>0</v>
+          </cell>
+          <cell r="B865">
+            <v>0</v>
+          </cell>
+          <cell r="C865">
+            <v>0</v>
+          </cell>
         </row>
         <row r="866">
-          <cell r="A866"/>
-          <cell r="B866"/>
-          <cell r="C866"/>
+          <cell r="A866">
+            <v>0</v>
+          </cell>
+          <cell r="B866">
+            <v>0</v>
+          </cell>
+          <cell r="C866">
+            <v>0</v>
+          </cell>
         </row>
         <row r="867">
-          <cell r="A867"/>
-          <cell r="B867"/>
-          <cell r="C867"/>
+          <cell r="A867">
+            <v>0</v>
+          </cell>
+          <cell r="B867">
+            <v>0</v>
+          </cell>
+          <cell r="C867">
+            <v>0</v>
+          </cell>
         </row>
         <row r="868">
-          <cell r="A868"/>
-          <cell r="B868"/>
-          <cell r="C868"/>
+          <cell r="A868">
+            <v>0</v>
+          </cell>
+          <cell r="B868">
+            <v>0</v>
+          </cell>
+          <cell r="C868">
+            <v>0</v>
+          </cell>
         </row>
         <row r="869">
-          <cell r="A869"/>
-          <cell r="B869"/>
-          <cell r="C869"/>
+          <cell r="A869">
+            <v>0</v>
+          </cell>
+          <cell r="B869">
+            <v>0</v>
+          </cell>
+          <cell r="C869">
+            <v>0</v>
+          </cell>
         </row>
         <row r="870">
-          <cell r="A870"/>
-          <cell r="B870"/>
-          <cell r="C870"/>
+          <cell r="A870">
+            <v>0</v>
+          </cell>
+          <cell r="B870">
+            <v>0</v>
+          </cell>
+          <cell r="C870">
+            <v>0</v>
+          </cell>
         </row>
         <row r="871">
-          <cell r="A871"/>
-          <cell r="B871"/>
-          <cell r="C871"/>
+          <cell r="A871">
+            <v>0</v>
+          </cell>
+          <cell r="B871">
+            <v>0</v>
+          </cell>
+          <cell r="C871">
+            <v>0</v>
+          </cell>
         </row>
         <row r="872">
-          <cell r="A872"/>
-          <cell r="B872"/>
-          <cell r="C872"/>
+          <cell r="A872">
+            <v>0</v>
+          </cell>
+          <cell r="B872">
+            <v>0</v>
+          </cell>
+          <cell r="C872">
+            <v>0</v>
+          </cell>
         </row>
         <row r="873">
-          <cell r="A873"/>
-          <cell r="B873"/>
-          <cell r="C873"/>
+          <cell r="A873">
+            <v>0</v>
+          </cell>
+          <cell r="B873">
+            <v>0</v>
+          </cell>
+          <cell r="C873">
+            <v>0</v>
+          </cell>
         </row>
         <row r="874">
-          <cell r="A874"/>
-          <cell r="B874"/>
-          <cell r="C874"/>
+          <cell r="A874">
+            <v>0</v>
+          </cell>
+          <cell r="B874">
+            <v>0</v>
+          </cell>
+          <cell r="C874">
+            <v>0</v>
+          </cell>
         </row>
         <row r="875">
-          <cell r="A875"/>
-          <cell r="B875"/>
-          <cell r="C875"/>
+          <cell r="A875">
+            <v>0</v>
+          </cell>
+          <cell r="B875">
+            <v>0</v>
+          </cell>
+          <cell r="C875">
+            <v>0</v>
+          </cell>
         </row>
         <row r="876">
-          <cell r="A876"/>
-          <cell r="B876"/>
-          <cell r="C876"/>
+          <cell r="A876">
+            <v>0</v>
+          </cell>
+          <cell r="B876">
+            <v>0</v>
+          </cell>
+          <cell r="C876">
+            <v>0</v>
+          </cell>
         </row>
         <row r="877">
-          <cell r="A877"/>
-          <cell r="B877"/>
-          <cell r="C877"/>
+          <cell r="A877">
+            <v>0</v>
+          </cell>
+          <cell r="B877">
+            <v>0</v>
+          </cell>
+          <cell r="C877">
+            <v>0</v>
+          </cell>
         </row>
         <row r="878">
-          <cell r="A878"/>
-          <cell r="B878"/>
-          <cell r="C878"/>
+          <cell r="A878">
+            <v>0</v>
+          </cell>
+          <cell r="B878">
+            <v>0</v>
+          </cell>
+          <cell r="C878">
+            <v>0</v>
+          </cell>
         </row>
         <row r="879">
-          <cell r="A879"/>
-          <cell r="B879"/>
-          <cell r="C879"/>
+          <cell r="A879">
+            <v>0</v>
+          </cell>
+          <cell r="B879">
+            <v>0</v>
+          </cell>
+          <cell r="C879">
+            <v>0</v>
+          </cell>
         </row>
         <row r="880">
-          <cell r="A880"/>
-          <cell r="B880"/>
-          <cell r="C880"/>
+          <cell r="A880">
+            <v>0</v>
+          </cell>
+          <cell r="B880">
+            <v>0</v>
+          </cell>
+          <cell r="C880">
+            <v>0</v>
+          </cell>
         </row>
         <row r="881">
-          <cell r="A881"/>
-          <cell r="B881"/>
-          <cell r="C881"/>
+          <cell r="A881">
+            <v>0</v>
+          </cell>
+          <cell r="B881">
+            <v>0</v>
+          </cell>
+          <cell r="C881">
+            <v>0</v>
+          </cell>
         </row>
         <row r="882">
-          <cell r="A882"/>
-          <cell r="B882"/>
-          <cell r="C882"/>
+          <cell r="A882">
+            <v>0</v>
+          </cell>
+          <cell r="B882">
+            <v>0</v>
+          </cell>
+          <cell r="C882">
+            <v>0</v>
+          </cell>
         </row>
         <row r="883">
-          <cell r="A883"/>
-          <cell r="B883"/>
-          <cell r="C883"/>
+          <cell r="A883">
+            <v>0</v>
+          </cell>
+          <cell r="B883">
+            <v>0</v>
+          </cell>
+          <cell r="C883">
+            <v>0</v>
+          </cell>
         </row>
         <row r="884">
-          <cell r="A884"/>
-          <cell r="B884"/>
-          <cell r="C884"/>
+          <cell r="A884">
+            <v>0</v>
+          </cell>
+          <cell r="B884">
+            <v>0</v>
+          </cell>
+          <cell r="C884">
+            <v>0</v>
+          </cell>
         </row>
         <row r="885">
-          <cell r="A885"/>
-          <cell r="B885"/>
-          <cell r="C885"/>
+          <cell r="A885">
+            <v>0</v>
+          </cell>
+          <cell r="B885">
+            <v>0</v>
+          </cell>
+          <cell r="C885">
+            <v>0</v>
+          </cell>
         </row>
         <row r="886">
-          <cell r="A886"/>
-          <cell r="B886"/>
-          <cell r="C886"/>
+          <cell r="A886">
+            <v>0</v>
+          </cell>
+          <cell r="B886">
+            <v>0</v>
+          </cell>
+          <cell r="C886">
+            <v>0</v>
+          </cell>
         </row>
         <row r="887">
-          <cell r="A887"/>
-          <cell r="B887"/>
-          <cell r="C887"/>
+          <cell r="A887">
+            <v>0</v>
+          </cell>
+          <cell r="B887">
+            <v>0</v>
+          </cell>
+          <cell r="C887">
+            <v>0</v>
+          </cell>
         </row>
         <row r="888">
-          <cell r="A888"/>
-          <cell r="B888"/>
-          <cell r="C888"/>
+          <cell r="A888">
+            <v>0</v>
+          </cell>
+          <cell r="B888">
+            <v>0</v>
+          </cell>
+          <cell r="C888">
+            <v>0</v>
+          </cell>
         </row>
         <row r="889">
-          <cell r="A889"/>
-          <cell r="B889"/>
-          <cell r="C889"/>
+          <cell r="A889">
+            <v>0</v>
+          </cell>
+          <cell r="B889">
+            <v>0</v>
+          </cell>
+          <cell r="C889">
+            <v>0</v>
+          </cell>
         </row>
         <row r="890">
-          <cell r="A890"/>
-          <cell r="B890"/>
-          <cell r="C890"/>
+          <cell r="A890">
+            <v>0</v>
+          </cell>
+          <cell r="B890">
+            <v>0</v>
+          </cell>
+          <cell r="C890">
+            <v>0</v>
+          </cell>
         </row>
         <row r="891">
-          <cell r="A891"/>
-          <cell r="B891"/>
-          <cell r="C891"/>
+          <cell r="A891">
+            <v>0</v>
+          </cell>
+          <cell r="B891">
+            <v>0</v>
+          </cell>
+          <cell r="C891">
+            <v>0</v>
+          </cell>
         </row>
         <row r="892">
-          <cell r="A892"/>
-          <cell r="B892"/>
-          <cell r="C892"/>
+          <cell r="A892">
+            <v>0</v>
+          </cell>
+          <cell r="B892">
+            <v>0</v>
+          </cell>
+          <cell r="C892">
+            <v>0</v>
+          </cell>
         </row>
         <row r="893">
-          <cell r="A893"/>
-          <cell r="B893"/>
-          <cell r="C893"/>
+          <cell r="A893">
+            <v>0</v>
+          </cell>
+          <cell r="B893">
+            <v>0</v>
+          </cell>
+          <cell r="C893">
+            <v>0</v>
+          </cell>
         </row>
         <row r="894">
-          <cell r="A894"/>
-          <cell r="B894"/>
-          <cell r="C894"/>
+          <cell r="A894">
+            <v>0</v>
+          </cell>
+          <cell r="B894">
+            <v>0</v>
+          </cell>
+          <cell r="C894">
+            <v>0</v>
+          </cell>
         </row>
         <row r="895">
-          <cell r="A895"/>
-          <cell r="B895"/>
-          <cell r="C895"/>
+          <cell r="A895">
+            <v>0</v>
+          </cell>
+          <cell r="B895">
+            <v>0</v>
+          </cell>
+          <cell r="C895">
+            <v>0</v>
+          </cell>
         </row>
         <row r="896">
-          <cell r="A896"/>
-          <cell r="B896"/>
-          <cell r="C896"/>
+          <cell r="A896">
+            <v>0</v>
+          </cell>
+          <cell r="B896">
+            <v>0</v>
+          </cell>
+          <cell r="C896">
+            <v>0</v>
+          </cell>
         </row>
         <row r="897">
-          <cell r="A897"/>
-          <cell r="B897"/>
-          <cell r="C897"/>
+          <cell r="A897">
+            <v>0</v>
+          </cell>
+          <cell r="B897">
+            <v>0</v>
+          </cell>
+          <cell r="C897">
+            <v>0</v>
+          </cell>
         </row>
         <row r="898">
-          <cell r="A898"/>
-          <cell r="B898"/>
-          <cell r="C898"/>
+          <cell r="A898">
+            <v>0</v>
+          </cell>
+          <cell r="B898">
+            <v>0</v>
+          </cell>
+          <cell r="C898">
+            <v>0</v>
+          </cell>
         </row>
         <row r="899">
-          <cell r="A899"/>
-          <cell r="B899"/>
-          <cell r="C899"/>
+          <cell r="A899">
+            <v>0</v>
+          </cell>
+          <cell r="B899">
+            <v>0</v>
+          </cell>
+          <cell r="C899">
+            <v>0</v>
+          </cell>
         </row>
         <row r="900">
-          <cell r="A900"/>
-          <cell r="B900"/>
-          <cell r="C900"/>
+          <cell r="A900">
+            <v>0</v>
+          </cell>
+          <cell r="B900">
+            <v>0</v>
+          </cell>
+          <cell r="C900">
+            <v>0</v>
+          </cell>
         </row>
         <row r="901">
-          <cell r="A901"/>
-          <cell r="B901"/>
-          <cell r="C901"/>
+          <cell r="A901">
+            <v>0</v>
+          </cell>
+          <cell r="B901">
+            <v>0</v>
+          </cell>
+          <cell r="C901">
+            <v>0</v>
+          </cell>
         </row>
         <row r="902">
-          <cell r="A902"/>
-          <cell r="B902"/>
-          <cell r="C902"/>
+          <cell r="A902">
+            <v>0</v>
+          </cell>
+          <cell r="B902">
+            <v>0</v>
+          </cell>
+          <cell r="C902">
+            <v>0</v>
+          </cell>
         </row>
         <row r="903">
-          <cell r="A903"/>
-          <cell r="B903"/>
-          <cell r="C903"/>
+          <cell r="A903">
+            <v>0</v>
+          </cell>
+          <cell r="B903">
+            <v>0</v>
+          </cell>
+          <cell r="C903">
+            <v>0</v>
+          </cell>
         </row>
         <row r="904">
-          <cell r="A904"/>
-          <cell r="B904"/>
-          <cell r="C904"/>
+          <cell r="A904">
+            <v>0</v>
+          </cell>
+          <cell r="B904">
+            <v>0</v>
+          </cell>
+          <cell r="C904">
+            <v>0</v>
+          </cell>
         </row>
         <row r="905">
-          <cell r="A905"/>
-          <cell r="B905"/>
-          <cell r="C905"/>
+          <cell r="A905">
+            <v>0</v>
+          </cell>
+          <cell r="B905">
+            <v>0</v>
+          </cell>
+          <cell r="C905">
+            <v>0</v>
+          </cell>
         </row>
         <row r="906">
-          <cell r="A906"/>
-          <cell r="B906"/>
-          <cell r="C906"/>
+          <cell r="A906">
+            <v>0</v>
+          </cell>
+          <cell r="B906">
+            <v>0</v>
+          </cell>
+          <cell r="C906">
+            <v>0</v>
+          </cell>
         </row>
         <row r="907">
-          <cell r="A907"/>
-          <cell r="B907"/>
-          <cell r="C907"/>
+          <cell r="A907">
+            <v>0</v>
+          </cell>
+          <cell r="B907">
+            <v>0</v>
+          </cell>
+          <cell r="C907">
+            <v>0</v>
+          </cell>
         </row>
         <row r="908">
-          <cell r="A908"/>
-          <cell r="B908"/>
-          <cell r="C908"/>
+          <cell r="A908">
+            <v>0</v>
+          </cell>
+          <cell r="B908">
+            <v>0</v>
+          </cell>
+          <cell r="C908">
+            <v>0</v>
+          </cell>
         </row>
         <row r="909">
-          <cell r="A909"/>
-          <cell r="B909"/>
-          <cell r="C909"/>
+          <cell r="A909">
+            <v>0</v>
+          </cell>
+          <cell r="B909">
+            <v>0</v>
+          </cell>
+          <cell r="C909">
+            <v>0</v>
+          </cell>
         </row>
         <row r="910">
-          <cell r="A910"/>
-          <cell r="B910"/>
-          <cell r="C910"/>
+          <cell r="A910">
+            <v>0</v>
+          </cell>
+          <cell r="B910">
+            <v>0</v>
+          </cell>
+          <cell r="C910">
+            <v>0</v>
+          </cell>
         </row>
         <row r="911">
-          <cell r="A911"/>
-          <cell r="B911"/>
-          <cell r="C911"/>
+          <cell r="A911">
+            <v>0</v>
+          </cell>
+          <cell r="B911">
+            <v>0</v>
+          </cell>
+          <cell r="C911">
+            <v>0</v>
+          </cell>
         </row>
         <row r="912">
-          <cell r="A912"/>
-          <cell r="B912"/>
-          <cell r="C912"/>
+          <cell r="A912">
+            <v>0</v>
+          </cell>
+          <cell r="B912">
+            <v>0</v>
+          </cell>
+          <cell r="C912">
+            <v>0</v>
+          </cell>
         </row>
         <row r="913">
-          <cell r="A913"/>
-          <cell r="B913"/>
-          <cell r="C913"/>
+          <cell r="A913">
+            <v>0</v>
+          </cell>
+          <cell r="B913">
+            <v>0</v>
+          </cell>
+          <cell r="C913">
+            <v>0</v>
+          </cell>
         </row>
         <row r="914">
-          <cell r="A914"/>
-          <cell r="B914"/>
-          <cell r="C914"/>
+          <cell r="A914">
+            <v>0</v>
+          </cell>
+          <cell r="B914">
+            <v>0</v>
+          </cell>
+          <cell r="C914">
+            <v>0</v>
+          </cell>
         </row>
         <row r="915">
-          <cell r="A915"/>
-          <cell r="B915"/>
-          <cell r="C915"/>
+          <cell r="A915">
+            <v>0</v>
+          </cell>
+          <cell r="B915">
+            <v>0</v>
+          </cell>
+          <cell r="C915">
+            <v>0</v>
+          </cell>
         </row>
         <row r="916">
-          <cell r="A916"/>
-          <cell r="B916"/>
-          <cell r="C916"/>
+          <cell r="A916">
+            <v>0</v>
+          </cell>
+          <cell r="B916">
+            <v>0</v>
+          </cell>
+          <cell r="C916">
+            <v>0</v>
+          </cell>
         </row>
         <row r="917">
-          <cell r="A917"/>
-          <cell r="B917"/>
-          <cell r="C917"/>
+          <cell r="A917">
+            <v>0</v>
+          </cell>
+          <cell r="B917">
+            <v>0</v>
+          </cell>
+          <cell r="C917">
+            <v>0</v>
+          </cell>
         </row>
         <row r="918">
-          <cell r="A918"/>
-          <cell r="B918"/>
-          <cell r="C918"/>
+          <cell r="A918">
+            <v>0</v>
+          </cell>
+          <cell r="B918">
+            <v>0</v>
+          </cell>
+          <cell r="C918">
+            <v>0</v>
+          </cell>
         </row>
         <row r="919">
-          <cell r="A919"/>
-          <cell r="B919"/>
-          <cell r="C919"/>
+          <cell r="A919">
+            <v>0</v>
+          </cell>
+          <cell r="B919">
+            <v>0</v>
+          </cell>
+          <cell r="C919">
+            <v>0</v>
+          </cell>
         </row>
         <row r="920">
-          <cell r="A920"/>
-          <cell r="B920"/>
-          <cell r="C920"/>
+          <cell r="A920">
+            <v>0</v>
+          </cell>
+          <cell r="B920">
+            <v>0</v>
+          </cell>
+          <cell r="C920">
+            <v>0</v>
+          </cell>
         </row>
         <row r="921">
-          <cell r="A921"/>
-          <cell r="B921"/>
-          <cell r="C921"/>
+          <cell r="A921">
+            <v>0</v>
+          </cell>
+          <cell r="B921">
+            <v>0</v>
+          </cell>
+          <cell r="C921">
+            <v>0</v>
+          </cell>
         </row>
         <row r="922">
-          <cell r="A922"/>
-          <cell r="B922"/>
-          <cell r="C922"/>
+          <cell r="A922">
+            <v>0</v>
+          </cell>
+          <cell r="B922">
+            <v>0</v>
+          </cell>
+          <cell r="C922">
+            <v>0</v>
+          </cell>
         </row>
         <row r="923">
-          <cell r="A923"/>
-          <cell r="B923"/>
-          <cell r="C923"/>
+          <cell r="A923">
+            <v>0</v>
+          </cell>
+          <cell r="B923">
+            <v>0</v>
+          </cell>
+          <cell r="C923">
+            <v>0</v>
+          </cell>
         </row>
         <row r="924">
-          <cell r="A924"/>
-          <cell r="B924"/>
-          <cell r="C924"/>
+          <cell r="A924">
+            <v>0</v>
+          </cell>
+          <cell r="B924">
+            <v>0</v>
+          </cell>
+          <cell r="C924">
+            <v>0</v>
+          </cell>
         </row>
         <row r="925">
-          <cell r="A925"/>
-          <cell r="B925"/>
-          <cell r="C925"/>
+          <cell r="A925">
+            <v>0</v>
+          </cell>
+          <cell r="B925">
+            <v>0</v>
+          </cell>
+          <cell r="C925">
+            <v>0</v>
+          </cell>
         </row>
         <row r="926">
-          <cell r="A926"/>
-          <cell r="B926"/>
-          <cell r="C926"/>
+          <cell r="A926">
+            <v>0</v>
+          </cell>
+          <cell r="B926">
+            <v>0</v>
+          </cell>
+          <cell r="C926">
+            <v>0</v>
+          </cell>
         </row>
         <row r="927">
-          <cell r="A927"/>
-          <cell r="B927"/>
-          <cell r="C927"/>
+          <cell r="A927">
+            <v>0</v>
+          </cell>
+          <cell r="B927">
+            <v>0</v>
+          </cell>
+          <cell r="C927">
+            <v>0</v>
+          </cell>
         </row>
         <row r="928">
-          <cell r="A928"/>
-          <cell r="B928"/>
-          <cell r="C928"/>
+          <cell r="A928">
+            <v>0</v>
+          </cell>
+          <cell r="B928">
+            <v>0</v>
+          </cell>
+          <cell r="C928">
+            <v>0</v>
+          </cell>
         </row>
         <row r="929">
-          <cell r="A929"/>
-          <cell r="B929"/>
-          <cell r="C929"/>
+          <cell r="A929">
+            <v>0</v>
+          </cell>
+          <cell r="B929">
+            <v>0</v>
+          </cell>
+          <cell r="C929">
+            <v>0</v>
+          </cell>
         </row>
         <row r="930">
-          <cell r="A930"/>
-          <cell r="B930"/>
-          <cell r="C930"/>
+          <cell r="A930">
+            <v>0</v>
+          </cell>
+          <cell r="B930">
+            <v>0</v>
+          </cell>
+          <cell r="C930">
+            <v>0</v>
+          </cell>
         </row>
         <row r="931">
-          <cell r="A931"/>
-          <cell r="B931"/>
-          <cell r="C931"/>
+          <cell r="A931">
+            <v>0</v>
+          </cell>
+          <cell r="B931">
+            <v>0</v>
+          </cell>
+          <cell r="C931">
+            <v>0</v>
+          </cell>
         </row>
         <row r="932">
-          <cell r="A932"/>
-          <cell r="B932"/>
-          <cell r="C932"/>
+          <cell r="A932">
+            <v>0</v>
+          </cell>
+          <cell r="B932">
+            <v>0</v>
+          </cell>
+          <cell r="C932">
+            <v>0</v>
+          </cell>
         </row>
         <row r="933">
-          <cell r="A933"/>
-          <cell r="B933"/>
-          <cell r="C933"/>
+          <cell r="A933">
+            <v>0</v>
+          </cell>
+          <cell r="B933">
+            <v>0</v>
+          </cell>
+          <cell r="C933">
+            <v>0</v>
+          </cell>
         </row>
         <row r="934">
-          <cell r="A934"/>
-          <cell r="B934"/>
-          <cell r="C934"/>
+          <cell r="A934">
+            <v>0</v>
+          </cell>
+          <cell r="B934">
+            <v>0</v>
+          </cell>
+          <cell r="C934">
+            <v>0</v>
+          </cell>
         </row>
         <row r="935">
-          <cell r="A935"/>
-          <cell r="B935"/>
-          <cell r="C935"/>
+          <cell r="A935">
+            <v>0</v>
+          </cell>
+          <cell r="B935">
+            <v>0</v>
+          </cell>
+          <cell r="C935">
+            <v>0</v>
+          </cell>
         </row>
         <row r="936">
-          <cell r="A936"/>
-          <cell r="B936"/>
-          <cell r="C936"/>
+          <cell r="A936">
+            <v>0</v>
+          </cell>
+          <cell r="B936">
+            <v>0</v>
+          </cell>
+          <cell r="C936">
+            <v>0</v>
+          </cell>
         </row>
         <row r="937">
-          <cell r="A937"/>
-          <cell r="B937"/>
-          <cell r="C937"/>
+          <cell r="A937">
+            <v>0</v>
+          </cell>
+          <cell r="B937">
+            <v>0</v>
+          </cell>
+          <cell r="C937">
+            <v>0</v>
+          </cell>
         </row>
         <row r="938">
-          <cell r="A938"/>
-          <cell r="B938"/>
-          <cell r="C938"/>
+          <cell r="A938">
+            <v>0</v>
+          </cell>
+          <cell r="B938">
+            <v>0</v>
+          </cell>
+          <cell r="C938">
+            <v>0</v>
+          </cell>
         </row>
         <row r="939">
-          <cell r="A939"/>
-          <cell r="B939"/>
-          <cell r="C939"/>
+          <cell r="A939">
+            <v>0</v>
+          </cell>
+          <cell r="B939">
+            <v>0</v>
+          </cell>
+          <cell r="C939">
+            <v>0</v>
+          </cell>
         </row>
         <row r="940">
-          <cell r="A940"/>
-          <cell r="B940"/>
-          <cell r="C940"/>
+          <cell r="A940">
+            <v>0</v>
+          </cell>
+          <cell r="B940">
+            <v>0</v>
+          </cell>
+          <cell r="C940">
+            <v>0</v>
+          </cell>
         </row>
         <row r="941">
-          <cell r="A941"/>
-          <cell r="B941"/>
-          <cell r="C941"/>
+          <cell r="A941">
+            <v>0</v>
+          </cell>
+          <cell r="B941">
+            <v>0</v>
+          </cell>
+          <cell r="C941">
+            <v>0</v>
+          </cell>
         </row>
         <row r="942">
-          <cell r="A942"/>
-          <cell r="B942"/>
-          <cell r="C942"/>
+          <cell r="A942">
+            <v>0</v>
+          </cell>
+          <cell r="B942">
+            <v>0</v>
+          </cell>
+          <cell r="C942">
+            <v>0</v>
+          </cell>
         </row>
         <row r="943">
-          <cell r="A943"/>
-          <cell r="B943"/>
-          <cell r="C943"/>
+          <cell r="A943">
+            <v>0</v>
+          </cell>
+          <cell r="B943">
+            <v>0</v>
+          </cell>
+          <cell r="C943">
+            <v>0</v>
+          </cell>
         </row>
         <row r="944">
-          <cell r="A944"/>
-          <cell r="B944"/>
-          <cell r="C944"/>
+          <cell r="A944">
+            <v>0</v>
+          </cell>
+          <cell r="B944">
+            <v>0</v>
+          </cell>
+          <cell r="C944">
+            <v>0</v>
+          </cell>
         </row>
         <row r="945">
-          <cell r="A945"/>
-          <cell r="B945"/>
-          <cell r="C945"/>
+          <cell r="A945">
+            <v>0</v>
+          </cell>
+          <cell r="B945">
+            <v>0</v>
+          </cell>
+          <cell r="C945">
+            <v>0</v>
+          </cell>
         </row>
         <row r="946">
-          <cell r="A946"/>
-          <cell r="B946"/>
-          <cell r="C946"/>
+          <cell r="A946">
+            <v>0</v>
+          </cell>
+          <cell r="B946">
+            <v>0</v>
+          </cell>
+          <cell r="C946">
+            <v>0</v>
+          </cell>
         </row>
         <row r="947">
-          <cell r="A947"/>
-          <cell r="B947"/>
-          <cell r="C947"/>
+          <cell r="A947">
+            <v>0</v>
+          </cell>
+          <cell r="B947">
+            <v>0</v>
+          </cell>
+          <cell r="C947">
+            <v>0</v>
+          </cell>
         </row>
         <row r="948">
-          <cell r="A948"/>
-          <cell r="B948"/>
-          <cell r="C948"/>
+          <cell r="A948">
+            <v>0</v>
+          </cell>
+          <cell r="B948">
+            <v>0</v>
+          </cell>
+          <cell r="C948">
+            <v>0</v>
+          </cell>
         </row>
         <row r="949">
-          <cell r="A949"/>
-          <cell r="B949"/>
-          <cell r="C949"/>
+          <cell r="A949">
+            <v>0</v>
+          </cell>
+          <cell r="B949">
+            <v>0</v>
+          </cell>
+          <cell r="C949">
+            <v>0</v>
+          </cell>
         </row>
         <row r="950">
-          <cell r="A950"/>
-          <cell r="B950"/>
-          <cell r="C950"/>
+          <cell r="A950">
+            <v>0</v>
+          </cell>
+          <cell r="B950">
+            <v>0</v>
+          </cell>
+          <cell r="C950">
+            <v>0</v>
+          </cell>
         </row>
         <row r="951">
-          <cell r="A951"/>
-          <cell r="B951"/>
-          <cell r="C951"/>
+          <cell r="A951">
+            <v>0</v>
+          </cell>
+          <cell r="B951">
+            <v>0</v>
+          </cell>
+          <cell r="C951">
+            <v>0</v>
+          </cell>
         </row>
         <row r="952">
-          <cell r="A952"/>
-          <cell r="B952"/>
-          <cell r="C952"/>
+          <cell r="A952">
+            <v>0</v>
+          </cell>
+          <cell r="B952">
+            <v>0</v>
+          </cell>
+          <cell r="C952">
+            <v>0</v>
+          </cell>
         </row>
         <row r="953">
-          <cell r="A953"/>
-          <cell r="B953"/>
-          <cell r="C953"/>
+          <cell r="A953">
+            <v>0</v>
+          </cell>
+          <cell r="B953">
+            <v>0</v>
+          </cell>
+          <cell r="C953">
+            <v>0</v>
+          </cell>
         </row>
         <row r="954">
-          <cell r="A954"/>
-          <cell r="B954"/>
-          <cell r="C954"/>
+          <cell r="A954">
+            <v>0</v>
+          </cell>
+          <cell r="B954">
+            <v>0</v>
+          </cell>
+          <cell r="C954">
+            <v>0</v>
+          </cell>
         </row>
         <row r="955">
-          <cell r="A955"/>
-          <cell r="B955"/>
-          <cell r="C955"/>
+          <cell r="A955">
+            <v>0</v>
+          </cell>
+          <cell r="B955">
+            <v>0</v>
+          </cell>
+          <cell r="C955">
+            <v>0</v>
+          </cell>
         </row>
         <row r="956">
-          <cell r="A956"/>
-          <cell r="B956"/>
-          <cell r="C956"/>
+          <cell r="A956">
+            <v>0</v>
+          </cell>
+          <cell r="B956">
+            <v>0</v>
+          </cell>
+          <cell r="C956">
+            <v>0</v>
+          </cell>
         </row>
         <row r="957">
-          <cell r="A957"/>
-          <cell r="B957"/>
-          <cell r="C957"/>
+          <cell r="A957">
+            <v>0</v>
+          </cell>
+          <cell r="B957">
+            <v>0</v>
+          </cell>
+          <cell r="C957">
+            <v>0</v>
+          </cell>
         </row>
         <row r="958">
-          <cell r="A958"/>
-          <cell r="B958"/>
-          <cell r="C958"/>
+          <cell r="A958">
+            <v>0</v>
+          </cell>
+          <cell r="B958">
+            <v>0</v>
+          </cell>
+          <cell r="C958">
+            <v>0</v>
+          </cell>
         </row>
         <row r="959">
-          <cell r="A959"/>
-          <cell r="B959"/>
-          <cell r="C959"/>
+          <cell r="A959">
+            <v>0</v>
+          </cell>
+          <cell r="B959">
+            <v>0</v>
+          </cell>
+          <cell r="C959">
+            <v>0</v>
+          </cell>
         </row>
         <row r="960">
-          <cell r="A960"/>
-          <cell r="B960"/>
-          <cell r="C960"/>
+          <cell r="A960">
+            <v>0</v>
+          </cell>
+          <cell r="B960">
+            <v>0</v>
+          </cell>
+          <cell r="C960">
+            <v>0</v>
+          </cell>
         </row>
         <row r="961">
-          <cell r="A961"/>
-          <cell r="B961"/>
-          <cell r="C961"/>
+          <cell r="A961">
+            <v>0</v>
+          </cell>
+          <cell r="B961">
+            <v>0</v>
+          </cell>
+          <cell r="C961">
+            <v>0</v>
+          </cell>
         </row>
         <row r="962">
-          <cell r="A962"/>
-          <cell r="B962"/>
-          <cell r="C962"/>
+          <cell r="A962">
+            <v>0</v>
+          </cell>
+          <cell r="B962">
+            <v>0</v>
+          </cell>
+          <cell r="C962">
+            <v>0</v>
+          </cell>
         </row>
         <row r="963">
-          <cell r="A963"/>
-          <cell r="B963"/>
-          <cell r="C963"/>
+          <cell r="A963">
+            <v>0</v>
+          </cell>
+          <cell r="B963">
+            <v>0</v>
+          </cell>
+          <cell r="C963">
+            <v>0</v>
+          </cell>
         </row>
         <row r="964">
-          <cell r="A964"/>
-          <cell r="B964"/>
-          <cell r="C964"/>
+          <cell r="A964">
+            <v>0</v>
+          </cell>
+          <cell r="B964">
+            <v>0</v>
+          </cell>
+          <cell r="C964">
+            <v>0</v>
+          </cell>
         </row>
         <row r="965">
-          <cell r="A965"/>
-          <cell r="B965"/>
-          <cell r="C965"/>
+          <cell r="A965">
+            <v>0</v>
+          </cell>
+          <cell r="B965">
+            <v>0</v>
+          </cell>
+          <cell r="C965">
+            <v>0</v>
+          </cell>
         </row>
         <row r="966">
-          <cell r="A966"/>
-          <cell r="B966"/>
-          <cell r="C966"/>
+          <cell r="A966">
+            <v>0</v>
+          </cell>
+          <cell r="B966">
+            <v>0</v>
+          </cell>
+          <cell r="C966">
+            <v>0</v>
+          </cell>
         </row>
         <row r="967">
-          <cell r="A967"/>
-          <cell r="B967"/>
-          <cell r="C967"/>
+          <cell r="A967">
+            <v>0</v>
+          </cell>
+          <cell r="B967">
+            <v>0</v>
+          </cell>
+          <cell r="C967">
+            <v>0</v>
+          </cell>
         </row>
         <row r="968">
-          <cell r="A968"/>
-          <cell r="B968"/>
-          <cell r="C968"/>
+          <cell r="A968">
+            <v>0</v>
+          </cell>
+          <cell r="B968">
+            <v>0</v>
+          </cell>
+          <cell r="C968">
+            <v>0</v>
+          </cell>
         </row>
         <row r="969">
-          <cell r="A969"/>
-          <cell r="B969"/>
-          <cell r="C969"/>
+          <cell r="A969">
+            <v>0</v>
+          </cell>
+          <cell r="B969">
+            <v>0</v>
+          </cell>
+          <cell r="C969">
+            <v>0</v>
+          </cell>
         </row>
         <row r="970">
-          <cell r="A970"/>
-          <cell r="B970"/>
-          <cell r="C970"/>
+          <cell r="A970">
+            <v>0</v>
+          </cell>
+          <cell r="B970">
+            <v>0</v>
+          </cell>
+          <cell r="C970">
+            <v>0</v>
+          </cell>
         </row>
         <row r="971">
-          <cell r="A971"/>
-          <cell r="B971"/>
-          <cell r="C971"/>
+          <cell r="A971">
+            <v>0</v>
+          </cell>
+          <cell r="B971">
+            <v>0</v>
+          </cell>
+          <cell r="C971">
+            <v>0</v>
+          </cell>
         </row>
         <row r="972">
-          <cell r="A972"/>
-          <cell r="B972"/>
-          <cell r="C972"/>
+          <cell r="A972">
+            <v>0</v>
+          </cell>
+          <cell r="B972">
+            <v>0</v>
+          </cell>
+          <cell r="C972">
+            <v>0</v>
+          </cell>
         </row>
         <row r="973">
-          <cell r="A973"/>
-          <cell r="B973"/>
-          <cell r="C973"/>
+          <cell r="A973">
+            <v>0</v>
+          </cell>
+          <cell r="B973">
+            <v>0</v>
+          </cell>
+          <cell r="C973">
+            <v>0</v>
+          </cell>
         </row>
         <row r="974">
-          <cell r="A974"/>
-          <cell r="B974"/>
-          <cell r="C974"/>
+          <cell r="A974">
+            <v>0</v>
+          </cell>
+          <cell r="B974">
+            <v>0</v>
+          </cell>
+          <cell r="C974">
+            <v>0</v>
+          </cell>
         </row>
         <row r="975">
-          <cell r="A975"/>
-          <cell r="B975"/>
-          <cell r="C975"/>
+          <cell r="A975">
+            <v>0</v>
+          </cell>
+          <cell r="B975">
+            <v>0</v>
+          </cell>
+          <cell r="C975">
+            <v>0</v>
+          </cell>
         </row>
         <row r="976">
-          <cell r="A976"/>
-          <cell r="B976"/>
-          <cell r="C976"/>
+          <cell r="A976">
+            <v>0</v>
+          </cell>
+          <cell r="B976">
+            <v>0</v>
+          </cell>
+          <cell r="C976">
+            <v>0</v>
+          </cell>
         </row>
         <row r="977">
-          <cell r="A977"/>
-          <cell r="B977"/>
-          <cell r="C977"/>
+          <cell r="A977">
+            <v>0</v>
+          </cell>
+          <cell r="B977">
+            <v>0</v>
+          </cell>
+          <cell r="C977">
+            <v>0</v>
+          </cell>
         </row>
         <row r="978">
-          <cell r="A978"/>
-          <cell r="B978"/>
-          <cell r="C978"/>
+          <cell r="A978">
+            <v>0</v>
+          </cell>
+          <cell r="B978">
+            <v>0</v>
+          </cell>
+          <cell r="C978">
+            <v>0</v>
+          </cell>
         </row>
         <row r="979">
-          <cell r="A979"/>
-          <cell r="B979"/>
-          <cell r="C979"/>
+          <cell r="A979">
+            <v>0</v>
+          </cell>
+          <cell r="B979">
+            <v>0</v>
+          </cell>
+          <cell r="C979">
+            <v>0</v>
+          </cell>
         </row>
         <row r="980">
-          <cell r="A980"/>
-          <cell r="B980"/>
-          <cell r="C980"/>
+          <cell r="A980">
+            <v>0</v>
+          </cell>
+          <cell r="B980">
+            <v>0</v>
+          </cell>
+          <cell r="C980">
+            <v>0</v>
+          </cell>
         </row>
         <row r="981">
-          <cell r="A981"/>
-          <cell r="B981"/>
-          <cell r="C981"/>
+          <cell r="A981">
+            <v>0</v>
+          </cell>
+          <cell r="B981">
+            <v>0</v>
+          </cell>
+          <cell r="C981">
+            <v>0</v>
+          </cell>
         </row>
         <row r="982">
-          <cell r="A982"/>
-          <cell r="B982"/>
-          <cell r="C982"/>
+          <cell r="A982">
+            <v>0</v>
+          </cell>
+          <cell r="B982">
+            <v>0</v>
+          </cell>
+          <cell r="C982">
+            <v>0</v>
+          </cell>
         </row>
         <row r="983">
-          <cell r="A983"/>
-          <cell r="B983"/>
-          <cell r="C983"/>
+          <cell r="A983">
+            <v>0</v>
+          </cell>
+          <cell r="B983">
+            <v>0</v>
+          </cell>
+          <cell r="C983">
+            <v>0</v>
+          </cell>
         </row>
         <row r="984">
-          <cell r="A984"/>
-          <cell r="B984"/>
-          <cell r="C984"/>
+          <cell r="A984">
+            <v>0</v>
+          </cell>
+          <cell r="B984">
+            <v>0</v>
+          </cell>
+          <cell r="C984">
+            <v>0</v>
+          </cell>
         </row>
         <row r="985">
-          <cell r="A985"/>
-          <cell r="B985"/>
-          <cell r="C985"/>
+          <cell r="A985">
+            <v>0</v>
+          </cell>
+          <cell r="B985">
+            <v>0</v>
+          </cell>
+          <cell r="C985">
+            <v>0</v>
+          </cell>
         </row>
         <row r="986">
-          <cell r="A986"/>
-          <cell r="B986"/>
-          <cell r="C986"/>
+          <cell r="A986">
+            <v>0</v>
+          </cell>
+          <cell r="B986">
+            <v>0</v>
+          </cell>
+          <cell r="C986">
+            <v>0</v>
+          </cell>
         </row>
         <row r="987">
-          <cell r="A987"/>
-          <cell r="B987"/>
-          <cell r="C987"/>
+          <cell r="A987">
+            <v>0</v>
+          </cell>
+          <cell r="B987">
+            <v>0</v>
+          </cell>
+          <cell r="C987">
+            <v>0</v>
+          </cell>
         </row>
         <row r="988">
-          <cell r="A988"/>
-          <cell r="B988"/>
-          <cell r="C988"/>
+          <cell r="A988">
+            <v>0</v>
+          </cell>
+          <cell r="B988">
+            <v>0</v>
+          </cell>
+          <cell r="C988">
+            <v>0</v>
+          </cell>
         </row>
         <row r="989">
-          <cell r="A989"/>
-          <cell r="B989"/>
-          <cell r="C989"/>
+          <cell r="A989">
+            <v>0</v>
+          </cell>
+          <cell r="B989">
+            <v>0</v>
+          </cell>
+          <cell r="C989">
+            <v>0</v>
+          </cell>
         </row>
         <row r="990">
-          <cell r="A990"/>
-          <cell r="B990"/>
-          <cell r="C990"/>
+          <cell r="A990">
+            <v>0</v>
+          </cell>
+          <cell r="B990">
+            <v>0</v>
+          </cell>
+          <cell r="C990">
+            <v>0</v>
+          </cell>
         </row>
         <row r="991">
-          <cell r="A991"/>
-          <cell r="B991"/>
-          <cell r="C991"/>
+          <cell r="A991">
+            <v>0</v>
+          </cell>
+          <cell r="B991">
+            <v>0</v>
+          </cell>
+          <cell r="C991">
+            <v>0</v>
+          </cell>
         </row>
         <row r="992">
-          <cell r="A992"/>
-          <cell r="B992"/>
-          <cell r="C992"/>
+          <cell r="A992">
+            <v>0</v>
+          </cell>
+          <cell r="B992">
+            <v>0</v>
+          </cell>
+          <cell r="C992">
+            <v>0</v>
+          </cell>
         </row>
         <row r="993">
-          <cell r="A993"/>
-          <cell r="B993"/>
-          <cell r="C993"/>
+          <cell r="A993">
+            <v>0</v>
+          </cell>
+          <cell r="B993">
+            <v>0</v>
+          </cell>
+          <cell r="C993">
+            <v>0</v>
+          </cell>
         </row>
         <row r="994">
-          <cell r="A994"/>
-          <cell r="B994"/>
-          <cell r="C994"/>
+          <cell r="A994">
+            <v>0</v>
+          </cell>
+          <cell r="B994">
+            <v>0</v>
+          </cell>
+          <cell r="C994">
+            <v>0</v>
+          </cell>
         </row>
         <row r="995">
-          <cell r="A995"/>
-          <cell r="B995"/>
-          <cell r="C995"/>
+          <cell r="A995">
+            <v>0</v>
+          </cell>
+          <cell r="B995">
+            <v>0</v>
+          </cell>
+          <cell r="C995">
+            <v>0</v>
+          </cell>
         </row>
         <row r="996">
-          <cell r="A996"/>
-          <cell r="B996"/>
-          <cell r="C996"/>
+          <cell r="A996">
+            <v>0</v>
+          </cell>
+          <cell r="B996">
+            <v>0</v>
+          </cell>
+          <cell r="C996">
+            <v>0</v>
+          </cell>
         </row>
         <row r="997">
-          <cell r="A997"/>
-          <cell r="B997"/>
-          <cell r="C997"/>
+          <cell r="A997">
+            <v>0</v>
+          </cell>
+          <cell r="B997">
+            <v>0</v>
+          </cell>
+          <cell r="C997">
+            <v>0</v>
+          </cell>
         </row>
         <row r="998">
-          <cell r="A998"/>
-          <cell r="B998"/>
-          <cell r="C998"/>
+          <cell r="A998">
+            <v>0</v>
+          </cell>
+          <cell r="B998">
+            <v>0</v>
+          </cell>
+          <cell r="C998">
+            <v>0</v>
+          </cell>
         </row>
         <row r="999">
-          <cell r="A999"/>
-          <cell r="B999"/>
-          <cell r="C999"/>
+          <cell r="A999">
+            <v>0</v>
+          </cell>
+          <cell r="B999">
+            <v>0</v>
+          </cell>
+          <cell r="C999">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1000">
-          <cell r="A1000"/>
-          <cell r="B1000"/>
-          <cell r="C1000"/>
+          <cell r="A1000">
+            <v>0</v>
+          </cell>
+          <cell r="B1000">
+            <v>0</v>
+          </cell>
+          <cell r="C1000">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1001">
-          <cell r="A1001"/>
-          <cell r="B1001"/>
-          <cell r="C1001"/>
+          <cell r="A1001">
+            <v>0</v>
+          </cell>
+          <cell r="B1001">
+            <v>0</v>
+          </cell>
+          <cell r="C1001">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1002">
-          <cell r="A1002"/>
-          <cell r="B1002"/>
-          <cell r="C1002"/>
+          <cell r="A1002">
+            <v>0</v>
+          </cell>
+          <cell r="B1002">
+            <v>0</v>
+          </cell>
+          <cell r="C1002">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1003">
-          <cell r="A1003"/>
-          <cell r="B1003"/>
-          <cell r="C1003"/>
+          <cell r="A1003">
+            <v>0</v>
+          </cell>
+          <cell r="B1003">
+            <v>0</v>
+          </cell>
+          <cell r="C1003">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1004">
-          <cell r="A1004"/>
-          <cell r="B1004"/>
-          <cell r="C1004"/>
+          <cell r="A1004">
+            <v>0</v>
+          </cell>
+          <cell r="B1004">
+            <v>0</v>
+          </cell>
+          <cell r="C1004">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1005">
-          <cell r="A1005"/>
-          <cell r="B1005"/>
-          <cell r="C1005"/>
+          <cell r="A1005">
+            <v>0</v>
+          </cell>
+          <cell r="B1005">
+            <v>0</v>
+          </cell>
+          <cell r="C1005">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1006">
-          <cell r="A1006"/>
-          <cell r="B1006"/>
-          <cell r="C1006"/>
+          <cell r="A1006">
+            <v>0</v>
+          </cell>
+          <cell r="B1006">
+            <v>0</v>
+          </cell>
+          <cell r="C1006">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1007">
-          <cell r="A1007"/>
-          <cell r="B1007"/>
-          <cell r="C1007"/>
+          <cell r="A1007">
+            <v>0</v>
+          </cell>
+          <cell r="B1007">
+            <v>0</v>
+          </cell>
+          <cell r="C1007">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1008">
-          <cell r="A1008"/>
-          <cell r="B1008"/>
-          <cell r="C1008"/>
+          <cell r="A1008">
+            <v>0</v>
+          </cell>
+          <cell r="B1008">
+            <v>0</v>
+          </cell>
+          <cell r="C1008">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1009">
-          <cell r="A1009"/>
-          <cell r="B1009"/>
-          <cell r="C1009"/>
+          <cell r="A1009">
+            <v>0</v>
+          </cell>
+          <cell r="B1009">
+            <v>0</v>
+          </cell>
+          <cell r="C1009">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1010">
-          <cell r="A1010"/>
-          <cell r="B1010"/>
-          <cell r="C1010"/>
+          <cell r="A1010">
+            <v>0</v>
+          </cell>
+          <cell r="B1010">
+            <v>0</v>
+          </cell>
+          <cell r="C1010">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1011">
-          <cell r="A1011"/>
-          <cell r="B1011"/>
-          <cell r="C1011"/>
+          <cell r="A1011">
+            <v>0</v>
+          </cell>
+          <cell r="B1011">
+            <v>0</v>
+          </cell>
+          <cell r="C1011">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1012">
-          <cell r="A1012"/>
-          <cell r="B1012"/>
-          <cell r="C1012"/>
+          <cell r="A1012">
+            <v>0</v>
+          </cell>
+          <cell r="B1012">
+            <v>0</v>
+          </cell>
+          <cell r="C1012">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1013">
-          <cell r="A1013"/>
-          <cell r="B1013"/>
-          <cell r="C1013"/>
+          <cell r="A1013">
+            <v>0</v>
+          </cell>
+          <cell r="B1013">
+            <v>0</v>
+          </cell>
+          <cell r="C1013">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1014">
-          <cell r="A1014"/>
-          <cell r="B1014"/>
-          <cell r="C1014"/>
+          <cell r="A1014">
+            <v>0</v>
+          </cell>
+          <cell r="B1014">
+            <v>0</v>
+          </cell>
+          <cell r="C1014">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1015">
-          <cell r="A1015"/>
-          <cell r="B1015"/>
-          <cell r="C1015"/>
+          <cell r="A1015">
+            <v>0</v>
+          </cell>
+          <cell r="B1015">
+            <v>0</v>
+          </cell>
+          <cell r="C1015">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1016">
-          <cell r="A1016"/>
-          <cell r="B1016"/>
-          <cell r="C1016"/>
+          <cell r="A1016">
+            <v>0</v>
+          </cell>
+          <cell r="B1016">
+            <v>0</v>
+          </cell>
+          <cell r="C1016">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1017">
-          <cell r="A1017"/>
-          <cell r="B1017"/>
-          <cell r="C1017"/>
+          <cell r="A1017">
+            <v>0</v>
+          </cell>
+          <cell r="B1017">
+            <v>0</v>
+          </cell>
+          <cell r="C1017">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1018">
-          <cell r="A1018"/>
-          <cell r="B1018"/>
-          <cell r="C1018"/>
+          <cell r="A1018">
+            <v>0</v>
+          </cell>
+          <cell r="B1018">
+            <v>0</v>
+          </cell>
+          <cell r="C1018">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1019">
-          <cell r="A1019"/>
-          <cell r="B1019"/>
-          <cell r="C1019"/>
+          <cell r="A1019">
+            <v>0</v>
+          </cell>
+          <cell r="B1019">
+            <v>0</v>
+          </cell>
+          <cell r="C1019">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1020">
-          <cell r="A1020"/>
-          <cell r="B1020"/>
-          <cell r="C1020"/>
+          <cell r="A1020">
+            <v>0</v>
+          </cell>
+          <cell r="B1020">
+            <v>0</v>
+          </cell>
+          <cell r="C1020">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1021">
-          <cell r="A1021"/>
-          <cell r="B1021"/>
-          <cell r="C1021"/>
+          <cell r="A1021">
+            <v>0</v>
+          </cell>
+          <cell r="B1021">
+            <v>0</v>
+          </cell>
+          <cell r="C1021">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1022">
-          <cell r="A1022"/>
-          <cell r="B1022"/>
-          <cell r="C1022"/>
+          <cell r="A1022">
+            <v>0</v>
+          </cell>
+          <cell r="B1022">
+            <v>0</v>
+          </cell>
+          <cell r="C1022">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1023">
-          <cell r="A1023"/>
-          <cell r="B1023"/>
-          <cell r="C1023"/>
+          <cell r="A1023">
+            <v>0</v>
+          </cell>
+          <cell r="B1023">
+            <v>0</v>
+          </cell>
+          <cell r="C1023">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1024">
-          <cell r="A1024"/>
-          <cell r="B1024"/>
-          <cell r="C1024"/>
+          <cell r="A1024">
+            <v>0</v>
+          </cell>
+          <cell r="B1024">
+            <v>0</v>
+          </cell>
+          <cell r="C1024">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1025">
-          <cell r="A1025"/>
-          <cell r="B1025"/>
-          <cell r="C1025"/>
+          <cell r="A1025">
+            <v>0</v>
+          </cell>
+          <cell r="B1025">
+            <v>0</v>
+          </cell>
+          <cell r="C1025">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1026">
-          <cell r="A1026"/>
-          <cell r="B1026"/>
-          <cell r="C1026"/>
+          <cell r="A1026">
+            <v>0</v>
+          </cell>
+          <cell r="B1026">
+            <v>0</v>
+          </cell>
+          <cell r="C1026">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1027">
-          <cell r="A1027"/>
-          <cell r="B1027"/>
-          <cell r="C1027"/>
+          <cell r="A1027">
+            <v>0</v>
+          </cell>
+          <cell r="B1027">
+            <v>0</v>
+          </cell>
+          <cell r="C1027">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1028">
-          <cell r="A1028"/>
-          <cell r="B1028"/>
-          <cell r="C1028"/>
+          <cell r="A1028">
+            <v>0</v>
+          </cell>
+          <cell r="B1028">
+            <v>0</v>
+          </cell>
+          <cell r="C1028">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1029">
-          <cell r="A1029"/>
-          <cell r="B1029"/>
-          <cell r="C1029"/>
+          <cell r="A1029">
+            <v>0</v>
+          </cell>
+          <cell r="B1029">
+            <v>0</v>
+          </cell>
+          <cell r="C1029">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1030">
-          <cell r="A1030"/>
-          <cell r="B1030"/>
-          <cell r="C1030"/>
+          <cell r="A1030">
+            <v>0</v>
+          </cell>
+          <cell r="B1030">
+            <v>0</v>
+          </cell>
+          <cell r="C1030">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1031">
-          <cell r="A1031"/>
-          <cell r="B1031"/>
-          <cell r="C1031"/>
+          <cell r="A1031">
+            <v>0</v>
+          </cell>
+          <cell r="B1031">
+            <v>0</v>
+          </cell>
+          <cell r="C1031">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1032">
-          <cell r="A1032"/>
-          <cell r="B1032"/>
-          <cell r="C1032"/>
+          <cell r="A1032">
+            <v>0</v>
+          </cell>
+          <cell r="B1032">
+            <v>0</v>
+          </cell>
+          <cell r="C1032">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1033">
-          <cell r="A1033"/>
-          <cell r="B1033"/>
-          <cell r="C1033"/>
+          <cell r="A1033">
+            <v>0</v>
+          </cell>
+          <cell r="B1033">
+            <v>0</v>
+          </cell>
+          <cell r="C1033">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1034">
-          <cell r="A1034"/>
-          <cell r="B1034"/>
-          <cell r="C1034"/>
+          <cell r="A1034">
+            <v>0</v>
+          </cell>
+          <cell r="B1034">
+            <v>0</v>
+          </cell>
+          <cell r="C1034">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1035">
-          <cell r="A1035"/>
-          <cell r="B1035"/>
-          <cell r="C1035"/>
+          <cell r="A1035">
+            <v>0</v>
+          </cell>
+          <cell r="B1035">
+            <v>0</v>
+          </cell>
+          <cell r="C1035">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1036">
-          <cell r="A1036"/>
-          <cell r="B1036"/>
-          <cell r="C1036"/>
+          <cell r="A1036">
+            <v>0</v>
+          </cell>
+          <cell r="B1036">
+            <v>0</v>
+          </cell>
+          <cell r="C1036">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1037">
-          <cell r="A1037"/>
-          <cell r="B1037"/>
-          <cell r="C1037"/>
+          <cell r="A1037">
+            <v>0</v>
+          </cell>
+          <cell r="B1037">
+            <v>0</v>
+          </cell>
+          <cell r="C1037">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1038">
-          <cell r="A1038"/>
-          <cell r="B1038"/>
-          <cell r="C1038"/>
+          <cell r="A1038">
+            <v>0</v>
+          </cell>
+          <cell r="B1038">
+            <v>0</v>
+          </cell>
+          <cell r="C1038">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1039">
-          <cell r="A1039"/>
-          <cell r="B1039"/>
-          <cell r="C1039"/>
+          <cell r="A1039">
+            <v>0</v>
+          </cell>
+          <cell r="B1039">
+            <v>0</v>
+          </cell>
+          <cell r="C1039">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1040">
-          <cell r="A1040"/>
-          <cell r="B1040"/>
-          <cell r="C1040"/>
+          <cell r="A1040">
+            <v>0</v>
+          </cell>
+          <cell r="B1040">
+            <v>0</v>
+          </cell>
+          <cell r="C1040">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1041">
-          <cell r="A1041"/>
-          <cell r="B1041"/>
-          <cell r="C1041"/>
+          <cell r="A1041">
+            <v>0</v>
+          </cell>
+          <cell r="B1041">
+            <v>0</v>
+          </cell>
+          <cell r="C1041">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1042">
-          <cell r="A1042"/>
-          <cell r="B1042"/>
-          <cell r="C1042"/>
+          <cell r="A1042">
+            <v>0</v>
+          </cell>
+          <cell r="B1042">
+            <v>0</v>
+          </cell>
+          <cell r="C1042">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1043">
-          <cell r="A1043"/>
-          <cell r="B1043"/>
-          <cell r="C1043"/>
+          <cell r="A1043">
+            <v>0</v>
+          </cell>
+          <cell r="B1043">
+            <v>0</v>
+          </cell>
+          <cell r="C1043">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1044">
-          <cell r="A1044"/>
-          <cell r="B1044"/>
-          <cell r="C1044"/>
+          <cell r="A1044">
+            <v>0</v>
+          </cell>
+          <cell r="B1044">
+            <v>0</v>
+          </cell>
+          <cell r="C1044">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1045">
-          <cell r="A1045"/>
-          <cell r="B1045"/>
-          <cell r="C1045"/>
+          <cell r="A1045">
+            <v>0</v>
+          </cell>
+          <cell r="B1045">
+            <v>0</v>
+          </cell>
+          <cell r="C1045">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1046">
-          <cell r="A1046"/>
-          <cell r="B1046"/>
-          <cell r="C1046"/>
+          <cell r="A1046">
+            <v>0</v>
+          </cell>
+          <cell r="B1046">
+            <v>0</v>
+          </cell>
+          <cell r="C1046">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1047">
-          <cell r="A1047"/>
-          <cell r="B1047"/>
-          <cell r="C1047"/>
+          <cell r="A1047">
+            <v>0</v>
+          </cell>
+          <cell r="B1047">
+            <v>0</v>
+          </cell>
+          <cell r="C1047">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1048">
-          <cell r="A1048"/>
-          <cell r="B1048"/>
-          <cell r="C1048"/>
+          <cell r="A1048">
+            <v>0</v>
+          </cell>
+          <cell r="B1048">
+            <v>0</v>
+          </cell>
+          <cell r="C1048">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1049">
-          <cell r="A1049"/>
-          <cell r="B1049"/>
-          <cell r="C1049"/>
+          <cell r="A1049">
+            <v>0</v>
+          </cell>
+          <cell r="B1049">
+            <v>0</v>
+          </cell>
+          <cell r="C1049">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1050">
-          <cell r="A1050"/>
-          <cell r="B1050"/>
-          <cell r="C1050"/>
+          <cell r="A1050">
+            <v>0</v>
+          </cell>
+          <cell r="B1050">
+            <v>0</v>
+          </cell>
+          <cell r="C1050">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1051">
-          <cell r="A1051"/>
-          <cell r="B1051"/>
-          <cell r="C1051"/>
+          <cell r="A1051">
+            <v>0</v>
+          </cell>
+          <cell r="B1051">
+            <v>0</v>
+          </cell>
+          <cell r="C1051">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1052">
-          <cell r="A1052"/>
-          <cell r="B1052"/>
-          <cell r="C1052"/>
+          <cell r="A1052">
+            <v>0</v>
+          </cell>
+          <cell r="B1052">
+            <v>0</v>
+          </cell>
+          <cell r="C1052">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1053">
-          <cell r="A1053"/>
-          <cell r="B1053"/>
-          <cell r="C1053"/>
+          <cell r="A1053">
+            <v>0</v>
+          </cell>
+          <cell r="B1053">
+            <v>0</v>
+          </cell>
+          <cell r="C1053">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1054">
-          <cell r="A1054"/>
-          <cell r="B1054"/>
-          <cell r="C1054"/>
+          <cell r="A1054">
+            <v>0</v>
+          </cell>
+          <cell r="B1054">
+            <v>0</v>
+          </cell>
+          <cell r="C1054">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1055">
-          <cell r="A1055"/>
-          <cell r="B1055"/>
-          <cell r="C1055"/>
+          <cell r="A1055">
+            <v>0</v>
+          </cell>
+          <cell r="B1055">
+            <v>0</v>
+          </cell>
+          <cell r="C1055">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1056">
-          <cell r="A1056"/>
-          <cell r="B1056"/>
-          <cell r="C1056"/>
+          <cell r="A1056">
+            <v>0</v>
+          </cell>
+          <cell r="B1056">
+            <v>0</v>
+          </cell>
+          <cell r="C1056">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1057">
-          <cell r="A1057"/>
-          <cell r="B1057"/>
-          <cell r="C1057"/>
+          <cell r="A1057">
+            <v>0</v>
+          </cell>
+          <cell r="B1057">
+            <v>0</v>
+          </cell>
+          <cell r="C1057">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1058">
-          <cell r="A1058"/>
-          <cell r="B1058"/>
-          <cell r="C1058"/>
+          <cell r="A1058">
+            <v>0</v>
+          </cell>
+          <cell r="B1058">
+            <v>0</v>
+          </cell>
+          <cell r="C1058">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1059">
-          <cell r="A1059"/>
-          <cell r="B1059"/>
-          <cell r="C1059"/>
+          <cell r="A1059">
+            <v>0</v>
+          </cell>
+          <cell r="B1059">
+            <v>0</v>
+          </cell>
+          <cell r="C1059">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1060">
-          <cell r="A1060"/>
-          <cell r="B1060"/>
-          <cell r="C1060"/>
+          <cell r="A1060">
+            <v>0</v>
+          </cell>
+          <cell r="B1060">
+            <v>0</v>
+          </cell>
+          <cell r="C1060">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1061">
-          <cell r="A1061"/>
-          <cell r="B1061"/>
-          <cell r="C1061"/>
+          <cell r="A1061">
+            <v>0</v>
+          </cell>
+          <cell r="B1061">
+            <v>0</v>
+          </cell>
+          <cell r="C1061">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1062">
-          <cell r="A1062"/>
-          <cell r="B1062"/>
-          <cell r="C1062"/>
+          <cell r="A1062">
+            <v>0</v>
+          </cell>
+          <cell r="B1062">
+            <v>0</v>
+          </cell>
+          <cell r="C1062">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1063">
-          <cell r="A1063"/>
-          <cell r="B1063"/>
-          <cell r="C1063"/>
+          <cell r="A1063">
+            <v>0</v>
+          </cell>
+          <cell r="B1063">
+            <v>0</v>
+          </cell>
+          <cell r="C1063">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1064">
-          <cell r="A1064"/>
-          <cell r="B1064"/>
-          <cell r="C1064"/>
+          <cell r="A1064">
+            <v>0</v>
+          </cell>
+          <cell r="B1064">
+            <v>0</v>
+          </cell>
+          <cell r="C1064">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1065">
-          <cell r="A1065"/>
-          <cell r="B1065"/>
-          <cell r="C1065"/>
+          <cell r="A1065">
+            <v>0</v>
+          </cell>
+          <cell r="B1065">
+            <v>0</v>
+          </cell>
+          <cell r="C1065">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1066">
-          <cell r="A1066"/>
-          <cell r="B1066"/>
-          <cell r="C1066"/>
+          <cell r="A1066">
+            <v>0</v>
+          </cell>
+          <cell r="B1066">
+            <v>0</v>
+          </cell>
+          <cell r="C1066">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1067">
-          <cell r="A1067"/>
-          <cell r="B1067"/>
-          <cell r="C1067"/>
+          <cell r="A1067">
+            <v>0</v>
+          </cell>
+          <cell r="B1067">
+            <v>0</v>
+          </cell>
+          <cell r="C1067">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1068">
-          <cell r="A1068"/>
-          <cell r="B1068"/>
-          <cell r="C1068"/>
+          <cell r="A1068">
+            <v>0</v>
+          </cell>
+          <cell r="B1068">
+            <v>0</v>
+          </cell>
+          <cell r="C1068">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1069">
-          <cell r="A1069"/>
-          <cell r="B1069"/>
-          <cell r="C1069"/>
+          <cell r="A1069">
+            <v>0</v>
+          </cell>
+          <cell r="B1069">
+            <v>0</v>
+          </cell>
+          <cell r="C1069">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1070">
-          <cell r="A1070"/>
-          <cell r="B1070"/>
-          <cell r="C1070"/>
+          <cell r="A1070">
+            <v>0</v>
+          </cell>
+          <cell r="B1070">
+            <v>0</v>
+          </cell>
+          <cell r="C1070">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1071">
-          <cell r="A1071"/>
-          <cell r="B1071"/>
-          <cell r="C1071"/>
+          <cell r="A1071">
+            <v>0</v>
+          </cell>
+          <cell r="B1071">
+            <v>0</v>
+          </cell>
+          <cell r="C1071">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1072">
-          <cell r="A1072"/>
-          <cell r="B1072"/>
-          <cell r="C1072"/>
+          <cell r="A1072">
+            <v>0</v>
+          </cell>
+          <cell r="B1072">
+            <v>0</v>
+          </cell>
+          <cell r="C1072">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1073">
-          <cell r="A1073"/>
-          <cell r="B1073"/>
-          <cell r="C1073"/>
+          <cell r="A1073">
+            <v>0</v>
+          </cell>
+          <cell r="B1073">
+            <v>0</v>
+          </cell>
+          <cell r="C1073">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1074">
-          <cell r="A1074"/>
-          <cell r="B1074"/>
-          <cell r="C1074"/>
+          <cell r="A1074">
+            <v>0</v>
+          </cell>
+          <cell r="B1074">
+            <v>0</v>
+          </cell>
+          <cell r="C1074">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1075">
-          <cell r="A1075"/>
-          <cell r="B1075"/>
-          <cell r="C1075"/>
+          <cell r="A1075">
+            <v>0</v>
+          </cell>
+          <cell r="B1075">
+            <v>0</v>
+          </cell>
+          <cell r="C1075">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1076">
-          <cell r="A1076"/>
-          <cell r="B1076"/>
-          <cell r="C1076"/>
+          <cell r="A1076">
+            <v>0</v>
+          </cell>
+          <cell r="B1076">
+            <v>0</v>
+          </cell>
+          <cell r="C1076">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1077">
-          <cell r="A1077"/>
-          <cell r="B1077"/>
-          <cell r="C1077"/>
+          <cell r="A1077">
+            <v>0</v>
+          </cell>
+          <cell r="B1077">
+            <v>0</v>
+          </cell>
+          <cell r="C1077">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1078">
-          <cell r="A1078"/>
-          <cell r="B1078"/>
-          <cell r="C1078"/>
+          <cell r="A1078">
+            <v>0</v>
+          </cell>
+          <cell r="B1078">
+            <v>0</v>
+          </cell>
+          <cell r="C1078">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1079">
-          <cell r="A1079"/>
-          <cell r="B1079"/>
-          <cell r="C1079"/>
+          <cell r="A1079">
+            <v>0</v>
+          </cell>
+          <cell r="B1079">
+            <v>0</v>
+          </cell>
+          <cell r="C1079">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1080">
-          <cell r="A1080"/>
-          <cell r="B1080"/>
-          <cell r="C1080"/>
+          <cell r="A1080">
+            <v>0</v>
+          </cell>
+          <cell r="B1080">
+            <v>0</v>
+          </cell>
+          <cell r="C1080">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1081">
-          <cell r="A1081"/>
-          <cell r="B1081"/>
-          <cell r="C1081"/>
+          <cell r="A1081">
+            <v>0</v>
+          </cell>
+          <cell r="B1081">
+            <v>0</v>
+          </cell>
+          <cell r="C1081">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1082">
-          <cell r="A1082"/>
-          <cell r="B1082"/>
-          <cell r="C1082"/>
+          <cell r="A1082">
+            <v>0</v>
+          </cell>
+          <cell r="B1082">
+            <v>0</v>
+          </cell>
+          <cell r="C1082">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1083">
-          <cell r="A1083"/>
-          <cell r="B1083"/>
-          <cell r="C1083"/>
+          <cell r="A1083">
+            <v>0</v>
+          </cell>
+          <cell r="B1083">
+            <v>0</v>
+          </cell>
+          <cell r="C1083">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1084">
-          <cell r="A1084"/>
-          <cell r="B1084"/>
-          <cell r="C1084"/>
+          <cell r="A1084">
+            <v>0</v>
+          </cell>
+          <cell r="B1084">
+            <v>0</v>
+          </cell>
+          <cell r="C1084">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1085">
-          <cell r="A1085"/>
-          <cell r="B1085"/>
-          <cell r="C1085"/>
+          <cell r="A1085">
+            <v>0</v>
+          </cell>
+          <cell r="B1085">
+            <v>0</v>
+          </cell>
+          <cell r="C1085">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1086">
-          <cell r="A1086"/>
-          <cell r="B1086"/>
-          <cell r="C1086"/>
+          <cell r="A1086">
+            <v>0</v>
+          </cell>
+          <cell r="B1086">
+            <v>0</v>
+          </cell>
+          <cell r="C1086">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1087">
-          <cell r="A1087"/>
-          <cell r="B1087"/>
-          <cell r="C1087"/>
+          <cell r="A1087">
+            <v>0</v>
+          </cell>
+          <cell r="B1087">
+            <v>0</v>
+          </cell>
+          <cell r="C1087">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1088">
-          <cell r="A1088"/>
-          <cell r="B1088"/>
-          <cell r="C1088"/>
+          <cell r="A1088">
+            <v>0</v>
+          </cell>
+          <cell r="B1088">
+            <v>0</v>
+          </cell>
+          <cell r="C1088">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1089">
-          <cell r="A1089"/>
-          <cell r="B1089"/>
-          <cell r="C1089"/>
+          <cell r="A1089">
+            <v>0</v>
+          </cell>
+          <cell r="B1089">
+            <v>0</v>
+          </cell>
+          <cell r="C1089">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1090">
-          <cell r="A1090"/>
-          <cell r="B1090"/>
-          <cell r="C1090"/>
+          <cell r="A1090">
+            <v>0</v>
+          </cell>
+          <cell r="B1090">
+            <v>0</v>
+          </cell>
+          <cell r="C1090">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1091">
-          <cell r="A1091"/>
-          <cell r="B1091"/>
-          <cell r="C1091"/>
+          <cell r="A1091">
+            <v>0</v>
+          </cell>
+          <cell r="B1091">
+            <v>0</v>
+          </cell>
+          <cell r="C1091">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1092">
-          <cell r="A1092"/>
-          <cell r="B1092"/>
-          <cell r="C1092"/>
+          <cell r="A1092">
+            <v>0</v>
+          </cell>
+          <cell r="B1092">
+            <v>0</v>
+          </cell>
+          <cell r="C1092">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1093">
-          <cell r="A1093"/>
-          <cell r="B1093"/>
-          <cell r="C1093"/>
+          <cell r="A1093">
+            <v>0</v>
+          </cell>
+          <cell r="B1093">
+            <v>0</v>
+          </cell>
+          <cell r="C1093">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1094">
-          <cell r="A1094"/>
-          <cell r="B1094"/>
-          <cell r="C1094"/>
+          <cell r="A1094">
+            <v>0</v>
+          </cell>
+          <cell r="B1094">
+            <v>0</v>
+          </cell>
+          <cell r="C1094">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1095">
-          <cell r="A1095"/>
-          <cell r="B1095"/>
-          <cell r="C1095"/>
+          <cell r="A1095">
+            <v>0</v>
+          </cell>
+          <cell r="B1095">
+            <v>0</v>
+          </cell>
+          <cell r="C1095">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1096">
-          <cell r="A1096"/>
-          <cell r="B1096"/>
-          <cell r="C1096"/>
+          <cell r="A1096">
+            <v>0</v>
+          </cell>
+          <cell r="B1096">
+            <v>0</v>
+          </cell>
+          <cell r="C1096">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1097">
-          <cell r="A1097"/>
-          <cell r="B1097"/>
-          <cell r="C1097"/>
+          <cell r="A1097">
+            <v>0</v>
+          </cell>
+          <cell r="B1097">
+            <v>0</v>
+          </cell>
+          <cell r="C1097">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1098">
-          <cell r="A1098"/>
-          <cell r="B1098"/>
-          <cell r="C1098"/>
+          <cell r="A1098">
+            <v>0</v>
+          </cell>
+          <cell r="B1098">
+            <v>0</v>
+          </cell>
+          <cell r="C1098">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1099">
-          <cell r="A1099"/>
-          <cell r="B1099"/>
-          <cell r="C1099"/>
+          <cell r="A1099">
+            <v>0</v>
+          </cell>
+          <cell r="B1099">
+            <v>0</v>
+          </cell>
+          <cell r="C1099">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1100">
-          <cell r="A1100"/>
-          <cell r="B1100"/>
-          <cell r="C1100"/>
+          <cell r="A1100">
+            <v>0</v>
+          </cell>
+          <cell r="B1100">
+            <v>0</v>
+          </cell>
+          <cell r="C1100">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1101">
-          <cell r="A1101"/>
-          <cell r="B1101"/>
-          <cell r="C1101"/>
+          <cell r="A1101">
+            <v>0</v>
+          </cell>
+          <cell r="B1101">
+            <v>0</v>
+          </cell>
+          <cell r="C1101">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1102">
-          <cell r="A1102"/>
-          <cell r="B1102"/>
-          <cell r="C1102"/>
+          <cell r="A1102">
+            <v>0</v>
+          </cell>
+          <cell r="B1102">
+            <v>0</v>
+          </cell>
+          <cell r="C1102">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1103">
-          <cell r="A1103"/>
-          <cell r="B1103"/>
-          <cell r="C1103"/>
+          <cell r="A1103">
+            <v>0</v>
+          </cell>
+          <cell r="B1103">
+            <v>0</v>
+          </cell>
+          <cell r="C1103">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1104">
-          <cell r="A1104"/>
-          <cell r="B1104"/>
-          <cell r="C1104"/>
+          <cell r="A1104">
+            <v>0</v>
+          </cell>
+          <cell r="B1104">
+            <v>0</v>
+          </cell>
+          <cell r="C1104">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1105">
-          <cell r="A1105"/>
-          <cell r="B1105"/>
-          <cell r="C1105"/>
+          <cell r="A1105">
+            <v>0</v>
+          </cell>
+          <cell r="B1105">
+            <v>0</v>
+          </cell>
+          <cell r="C1105">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1106">
-          <cell r="A1106"/>
-          <cell r="B1106"/>
-          <cell r="C1106"/>
+          <cell r="A1106">
+            <v>0</v>
+          </cell>
+          <cell r="B1106">
+            <v>0</v>
+          </cell>
+          <cell r="C1106">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1107">
-          <cell r="A1107"/>
-          <cell r="B1107"/>
-          <cell r="C1107"/>
+          <cell r="A1107">
+            <v>0</v>
+          </cell>
+          <cell r="B1107">
+            <v>0</v>
+          </cell>
+          <cell r="C1107">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1108">
-          <cell r="A1108"/>
-          <cell r="B1108"/>
-          <cell r="C1108"/>
+          <cell r="A1108">
+            <v>0</v>
+          </cell>
+          <cell r="B1108">
+            <v>0</v>
+          </cell>
+          <cell r="C1108">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1109">
-          <cell r="A1109"/>
-          <cell r="B1109"/>
-          <cell r="C1109"/>
+          <cell r="A1109">
+            <v>0</v>
+          </cell>
+          <cell r="B1109">
+            <v>0</v>
+          </cell>
+          <cell r="C1109">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1110">
-          <cell r="A1110"/>
-          <cell r="B1110"/>
-          <cell r="C1110"/>
+          <cell r="A1110">
+            <v>0</v>
+          </cell>
+          <cell r="B1110">
+            <v>0</v>
+          </cell>
+          <cell r="C1110">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1111">
-          <cell r="A1111"/>
-          <cell r="B1111"/>
-          <cell r="C1111"/>
+          <cell r="A1111">
+            <v>0</v>
+          </cell>
+          <cell r="B1111">
+            <v>0</v>
+          </cell>
+          <cell r="C1111">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1112">
-          <cell r="A1112"/>
-          <cell r="B1112"/>
-          <cell r="C1112"/>
+          <cell r="A1112">
+            <v>0</v>
+          </cell>
+          <cell r="B1112">
+            <v>0</v>
+          </cell>
+          <cell r="C1112">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1113">
-          <cell r="A1113"/>
-          <cell r="B1113"/>
-          <cell r="C1113"/>
+          <cell r="A1113">
+            <v>0</v>
+          </cell>
+          <cell r="B1113">
+            <v>0</v>
+          </cell>
+          <cell r="C1113">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1114">
-          <cell r="A1114"/>
-          <cell r="B1114"/>
-          <cell r="C1114"/>
+          <cell r="A1114">
+            <v>0</v>
+          </cell>
+          <cell r="B1114">
+            <v>0</v>
+          </cell>
+          <cell r="C1114">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1115">
-          <cell r="A1115"/>
-          <cell r="B1115"/>
-          <cell r="C1115"/>
+          <cell r="A1115">
+            <v>0</v>
+          </cell>
+          <cell r="B1115">
+            <v>0</v>
+          </cell>
+          <cell r="C1115">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1116">
-          <cell r="A1116"/>
-          <cell r="B1116"/>
-          <cell r="C1116"/>
+          <cell r="A1116">
+            <v>0</v>
+          </cell>
+          <cell r="B1116">
+            <v>0</v>
+          </cell>
+          <cell r="C1116">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1117">
-          <cell r="A1117"/>
-          <cell r="B1117"/>
-          <cell r="C1117"/>
+          <cell r="A1117">
+            <v>0</v>
+          </cell>
+          <cell r="B1117">
+            <v>0</v>
+          </cell>
+          <cell r="C1117">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1118">
-          <cell r="A1118"/>
-          <cell r="B1118"/>
-          <cell r="C1118"/>
+          <cell r="A1118">
+            <v>0</v>
+          </cell>
+          <cell r="B1118">
+            <v>0</v>
+          </cell>
+          <cell r="C1118">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1119">
-          <cell r="A1119"/>
-          <cell r="B1119"/>
-          <cell r="C1119"/>
+          <cell r="A1119">
+            <v>0</v>
+          </cell>
+          <cell r="B1119">
+            <v>0</v>
+          </cell>
+          <cell r="C1119">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1120">
-          <cell r="A1120"/>
-          <cell r="B1120"/>
-          <cell r="C1120"/>
+          <cell r="A1120">
+            <v>0</v>
+          </cell>
+          <cell r="B1120">
+            <v>0</v>
+          </cell>
+          <cell r="C1120">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1121">
-          <cell r="A1121"/>
-          <cell r="B1121"/>
-          <cell r="C1121"/>
+          <cell r="A1121">
+            <v>0</v>
+          </cell>
+          <cell r="B1121">
+            <v>0</v>
+          </cell>
+          <cell r="C1121">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1122">
-          <cell r="A1122"/>
-          <cell r="B1122"/>
-          <cell r="C1122"/>
+          <cell r="A1122">
+            <v>0</v>
+          </cell>
+          <cell r="B1122">
+            <v>0</v>
+          </cell>
+          <cell r="C1122">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1123">
-          <cell r="A1123"/>
-          <cell r="B1123"/>
-          <cell r="C1123"/>
+          <cell r="A1123">
+            <v>0</v>
+          </cell>
+          <cell r="B1123">
+            <v>0</v>
+          </cell>
+          <cell r="C1123">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1124">
-          <cell r="A1124"/>
-          <cell r="B1124"/>
-          <cell r="C1124"/>
+          <cell r="A1124">
+            <v>0</v>
+          </cell>
+          <cell r="B1124">
+            <v>0</v>
+          </cell>
+          <cell r="C1124">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1125">
-          <cell r="A1125"/>
-          <cell r="B1125"/>
-          <cell r="C1125"/>
+          <cell r="A1125">
+            <v>0</v>
+          </cell>
+          <cell r="B1125">
+            <v>0</v>
+          </cell>
+          <cell r="C1125">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1126">
-          <cell r="A1126"/>
-          <cell r="B1126"/>
-          <cell r="C1126"/>
+          <cell r="A1126">
+            <v>0</v>
+          </cell>
+          <cell r="B1126">
+            <v>0</v>
+          </cell>
+          <cell r="C1126">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1127">
-          <cell r="A1127"/>
-          <cell r="B1127"/>
-          <cell r="C1127"/>
+          <cell r="A1127">
+            <v>0</v>
+          </cell>
+          <cell r="B1127">
+            <v>0</v>
+          </cell>
+          <cell r="C1127">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1128">
-          <cell r="A1128"/>
-          <cell r="B1128"/>
-          <cell r="C1128"/>
+          <cell r="A1128">
+            <v>0</v>
+          </cell>
+          <cell r="B1128">
+            <v>0</v>
+          </cell>
+          <cell r="C1128">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1129">
-          <cell r="A1129"/>
-          <cell r="B1129"/>
-          <cell r="C1129"/>
+          <cell r="A1129">
+            <v>0</v>
+          </cell>
+          <cell r="B1129">
+            <v>0</v>
+          </cell>
+          <cell r="C1129">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1130">
-          <cell r="A1130"/>
-          <cell r="B1130"/>
-          <cell r="C1130"/>
+          <cell r="A1130">
+            <v>0</v>
+          </cell>
+          <cell r="B1130">
+            <v>0</v>
+          </cell>
+          <cell r="C1130">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1131">
-          <cell r="A1131"/>
-          <cell r="B1131"/>
-          <cell r="C1131"/>
+          <cell r="A1131">
+            <v>0</v>
+          </cell>
+          <cell r="B1131">
+            <v>0</v>
+          </cell>
+          <cell r="C1131">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1132">
-          <cell r="A1132"/>
-          <cell r="B1132"/>
-          <cell r="C1132"/>
+          <cell r="A1132">
+            <v>0</v>
+          </cell>
+          <cell r="B1132">
+            <v>0</v>
+          </cell>
+          <cell r="C1132">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1133">
-          <cell r="A1133"/>
-          <cell r="B1133"/>
-          <cell r="C1133"/>
+          <cell r="A1133">
+            <v>0</v>
+          </cell>
+          <cell r="B1133">
+            <v>0</v>
+          </cell>
+          <cell r="C1133">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1134">
-          <cell r="A1134"/>
-          <cell r="B1134"/>
-          <cell r="C1134"/>
+          <cell r="A1134">
+            <v>0</v>
+          </cell>
+          <cell r="B1134">
+            <v>0</v>
+          </cell>
+          <cell r="C1134">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1135">
-          <cell r="A1135"/>
-          <cell r="B1135"/>
-          <cell r="C1135"/>
+          <cell r="A1135">
+            <v>0</v>
+          </cell>
+          <cell r="B1135">
+            <v>0</v>
+          </cell>
+          <cell r="C1135">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1136">
-          <cell r="A1136"/>
-          <cell r="B1136"/>
-          <cell r="C1136"/>
+          <cell r="A1136">
+            <v>0</v>
+          </cell>
+          <cell r="B1136">
+            <v>0</v>
+          </cell>
+          <cell r="C1136">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1137">
-          <cell r="A1137"/>
-          <cell r="B1137"/>
-          <cell r="C1137"/>
+          <cell r="A1137">
+            <v>0</v>
+          </cell>
+          <cell r="B1137">
+            <v>0</v>
+          </cell>
+          <cell r="C1137">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1138">
-          <cell r="A1138"/>
-          <cell r="B1138"/>
-          <cell r="C1138"/>
+          <cell r="A1138">
+            <v>0</v>
+          </cell>
+          <cell r="B1138">
+            <v>0</v>
+          </cell>
+          <cell r="C1138">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1139">
-          <cell r="A1139"/>
-          <cell r="B1139"/>
-          <cell r="C1139"/>
+          <cell r="A1139">
+            <v>0</v>
+          </cell>
+          <cell r="B1139">
+            <v>0</v>
+          </cell>
+          <cell r="C1139">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1140">
-          <cell r="A1140"/>
-          <cell r="B1140"/>
-          <cell r="C1140"/>
+          <cell r="A1140">
+            <v>0</v>
+          </cell>
+          <cell r="B1140">
+            <v>0</v>
+          </cell>
+          <cell r="C1140">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1141">
-          <cell r="A1141"/>
-          <cell r="B1141"/>
-          <cell r="C1141"/>
+          <cell r="A1141">
+            <v>0</v>
+          </cell>
+          <cell r="B1141">
+            <v>0</v>
+          </cell>
+          <cell r="C1141">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1142">
-          <cell r="A1142"/>
-          <cell r="B1142"/>
-          <cell r="C1142"/>
+          <cell r="A1142">
+            <v>0</v>
+          </cell>
+          <cell r="B1142">
+            <v>0</v>
+          </cell>
+          <cell r="C1142">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1143">
-          <cell r="A1143"/>
-          <cell r="B1143"/>
-          <cell r="C1143"/>
+          <cell r="A1143">
+            <v>0</v>
+          </cell>
+          <cell r="B1143">
+            <v>0</v>
+          </cell>
+          <cell r="C1143">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1144">
-          <cell r="A1144"/>
-          <cell r="B1144"/>
-          <cell r="C1144"/>
+          <cell r="A1144">
+            <v>0</v>
+          </cell>
+          <cell r="B1144">
+            <v>0</v>
+          </cell>
+          <cell r="C1144">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1145">
-          <cell r="A1145"/>
-          <cell r="B1145"/>
-          <cell r="C1145"/>
+          <cell r="A1145">
+            <v>0</v>
+          </cell>
+          <cell r="B1145">
+            <v>0</v>
+          </cell>
+          <cell r="C1145">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1146">
-          <cell r="A1146"/>
-          <cell r="B1146"/>
-          <cell r="C1146"/>
+          <cell r="A1146">
+            <v>0</v>
+          </cell>
+          <cell r="B1146">
+            <v>0</v>
+          </cell>
+          <cell r="C1146">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1147">
-          <cell r="A1147"/>
-          <cell r="B1147"/>
-          <cell r="C1147"/>
+          <cell r="A1147">
+            <v>0</v>
+          </cell>
+          <cell r="B1147">
+            <v>0</v>
+          </cell>
+          <cell r="C1147">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1148">
-          <cell r="A1148"/>
-          <cell r="B1148"/>
-          <cell r="C1148"/>
+          <cell r="A1148">
+            <v>0</v>
+          </cell>
+          <cell r="B1148">
+            <v>0</v>
+          </cell>
+          <cell r="C1148">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1149">
-          <cell r="A1149"/>
-          <cell r="B1149"/>
-          <cell r="C1149"/>
+          <cell r="A1149">
+            <v>0</v>
+          </cell>
+          <cell r="B1149">
+            <v>0</v>
+          </cell>
+          <cell r="C1149">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1150">
-          <cell r="A1150"/>
-          <cell r="B1150"/>
-          <cell r="C1150"/>
+          <cell r="A1150">
+            <v>0</v>
+          </cell>
+          <cell r="B1150">
+            <v>0</v>
+          </cell>
+          <cell r="C1150">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1151">
-          <cell r="A1151"/>
-          <cell r="B1151"/>
-          <cell r="C1151"/>
+          <cell r="A1151">
+            <v>0</v>
+          </cell>
+          <cell r="B1151">
+            <v>0</v>
+          </cell>
+          <cell r="C1151">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1152">
-          <cell r="A1152"/>
-          <cell r="B1152"/>
-          <cell r="C1152"/>
+          <cell r="A1152">
+            <v>0</v>
+          </cell>
+          <cell r="B1152">
+            <v>0</v>
+          </cell>
+          <cell r="C1152">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1153">
-          <cell r="A1153"/>
-          <cell r="B1153"/>
-          <cell r="C1153"/>
+          <cell r="A1153">
+            <v>0</v>
+          </cell>
+          <cell r="B1153">
+            <v>0</v>
+          </cell>
+          <cell r="C1153">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1154">
-          <cell r="A1154"/>
-          <cell r="B1154"/>
-          <cell r="C1154"/>
+          <cell r="A1154">
+            <v>0</v>
+          </cell>
+          <cell r="B1154">
+            <v>0</v>
+          </cell>
+          <cell r="C1154">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1155">
-          <cell r="A1155"/>
-          <cell r="B1155"/>
-          <cell r="C1155"/>
+          <cell r="A1155">
+            <v>0</v>
+          </cell>
+          <cell r="B1155">
+            <v>0</v>
+          </cell>
+          <cell r="C1155">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1156">
-          <cell r="A1156"/>
-          <cell r="B1156"/>
-          <cell r="C1156"/>
+          <cell r="A1156">
+            <v>0</v>
+          </cell>
+          <cell r="B1156">
+            <v>0</v>
+          </cell>
+          <cell r="C1156">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1157">
-          <cell r="A1157"/>
-          <cell r="B1157"/>
-          <cell r="C1157"/>
+          <cell r="A1157">
+            <v>0</v>
+          </cell>
+          <cell r="B1157">
+            <v>0</v>
+          </cell>
+          <cell r="C1157">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1158">
-          <cell r="A1158"/>
-          <cell r="B1158"/>
-          <cell r="C1158"/>
+          <cell r="A1158">
+            <v>0</v>
+          </cell>
+          <cell r="B1158">
+            <v>0</v>
+          </cell>
+          <cell r="C1158">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1159">
-          <cell r="A1159"/>
-          <cell r="B1159"/>
-          <cell r="C1159"/>
+          <cell r="A1159">
+            <v>0</v>
+          </cell>
+          <cell r="B1159">
+            <v>0</v>
+          </cell>
+          <cell r="C1159">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1160">
-          <cell r="A1160"/>
-          <cell r="B1160"/>
-          <cell r="C1160"/>
+          <cell r="A1160">
+            <v>0</v>
+          </cell>
+          <cell r="B1160">
+            <v>0</v>
+          </cell>
+          <cell r="C1160">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1161">
-          <cell r="A1161"/>
-          <cell r="B1161"/>
-          <cell r="C1161"/>
+          <cell r="A1161">
+            <v>0</v>
+          </cell>
+          <cell r="B1161">
+            <v>0</v>
+          </cell>
+          <cell r="C1161">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1162">
-          <cell r="A1162"/>
-          <cell r="B1162"/>
-          <cell r="C1162"/>
+          <cell r="A1162">
+            <v>0</v>
+          </cell>
+          <cell r="B1162">
+            <v>0</v>
+          </cell>
+          <cell r="C1162">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1163">
-          <cell r="A1163"/>
-          <cell r="B1163"/>
-          <cell r="C1163"/>
+          <cell r="A1163">
+            <v>0</v>
+          </cell>
+          <cell r="B1163">
+            <v>0</v>
+          </cell>
+          <cell r="C1163">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1164">
-          <cell r="A1164"/>
-          <cell r="B1164"/>
-          <cell r="C1164"/>
+          <cell r="A1164">
+            <v>0</v>
+          </cell>
+          <cell r="B1164">
+            <v>0</v>
+          </cell>
+          <cell r="C1164">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1165">
-          <cell r="A1165"/>
-          <cell r="B1165"/>
-          <cell r="C1165"/>
+          <cell r="A1165">
+            <v>0</v>
+          </cell>
+          <cell r="B1165">
+            <v>0</v>
+          </cell>
+          <cell r="C1165">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1166">
-          <cell r="A1166"/>
-          <cell r="B1166"/>
-          <cell r="C1166"/>
+          <cell r="A1166">
+            <v>0</v>
+          </cell>
+          <cell r="B1166">
+            <v>0</v>
+          </cell>
+          <cell r="C1166">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1167">
-          <cell r="A1167"/>
-          <cell r="B1167"/>
-          <cell r="C1167"/>
+          <cell r="A1167">
+            <v>0</v>
+          </cell>
+          <cell r="B1167">
+            <v>0</v>
+          </cell>
+          <cell r="C1167">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1168">
-          <cell r="A1168"/>
-          <cell r="B1168"/>
-          <cell r="C1168"/>
+          <cell r="A1168">
+            <v>0</v>
+          </cell>
+          <cell r="B1168">
+            <v>0</v>
+          </cell>
+          <cell r="C1168">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1169">
-          <cell r="A1169"/>
-          <cell r="B1169"/>
-          <cell r="C1169"/>
+          <cell r="A1169">
+            <v>0</v>
+          </cell>
+          <cell r="B1169">
+            <v>0</v>
+          </cell>
+          <cell r="C1169">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1170">
-          <cell r="A1170"/>
-          <cell r="B1170"/>
-          <cell r="C1170"/>
+          <cell r="A1170">
+            <v>0</v>
+          </cell>
+          <cell r="B1170">
+            <v>0</v>
+          </cell>
+          <cell r="C1170">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1171">
-          <cell r="A1171"/>
-          <cell r="B1171"/>
-          <cell r="C1171"/>
+          <cell r="A1171">
+            <v>0</v>
+          </cell>
+          <cell r="B1171">
+            <v>0</v>
+          </cell>
+          <cell r="C1171">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1172">
-          <cell r="A1172"/>
-          <cell r="B1172"/>
-          <cell r="C1172"/>
+          <cell r="A1172">
+            <v>0</v>
+          </cell>
+          <cell r="B1172">
+            <v>0</v>
+          </cell>
+          <cell r="C1172">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1173">
-          <cell r="A1173"/>
-          <cell r="B1173"/>
-          <cell r="C1173"/>
+          <cell r="A1173">
+            <v>0</v>
+          </cell>
+          <cell r="B1173">
+            <v>0</v>
+          </cell>
+          <cell r="C1173">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1174">
-          <cell r="A1174"/>
-          <cell r="B1174"/>
-          <cell r="C1174"/>
+          <cell r="A1174">
+            <v>0</v>
+          </cell>
+          <cell r="B1174">
+            <v>0</v>
+          </cell>
+          <cell r="C1174">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1175">
-          <cell r="A1175"/>
-          <cell r="B1175"/>
-          <cell r="C1175"/>
+          <cell r="A1175">
+            <v>0</v>
+          </cell>
+          <cell r="B1175">
+            <v>0</v>
+          </cell>
+          <cell r="C1175">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1176">
-          <cell r="A1176"/>
-          <cell r="B1176"/>
-          <cell r="C1176"/>
+          <cell r="A1176">
+            <v>0</v>
+          </cell>
+          <cell r="B1176">
+            <v>0</v>
+          </cell>
+          <cell r="C1176">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1177">
-          <cell r="A1177"/>
-          <cell r="B1177"/>
-          <cell r="C1177"/>
+          <cell r="A1177">
+            <v>0</v>
+          </cell>
+          <cell r="B1177">
+            <v>0</v>
+          </cell>
+          <cell r="C1177">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1178">
-          <cell r="A1178"/>
-          <cell r="B1178"/>
-          <cell r="C1178"/>
+          <cell r="A1178">
+            <v>0</v>
+          </cell>
+          <cell r="B1178">
+            <v>0</v>
+          </cell>
+          <cell r="C1178">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1179">
-          <cell r="A1179"/>
-          <cell r="B1179"/>
-          <cell r="C1179"/>
+          <cell r="A1179">
+            <v>0</v>
+          </cell>
+          <cell r="B1179">
+            <v>0</v>
+          </cell>
+          <cell r="C1179">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1180">
-          <cell r="A1180"/>
-          <cell r="B1180"/>
-          <cell r="C1180"/>
+          <cell r="A1180">
+            <v>0</v>
+          </cell>
+          <cell r="B1180">
+            <v>0</v>
+          </cell>
+          <cell r="C1180">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1181">
-          <cell r="A1181"/>
-          <cell r="B1181"/>
-          <cell r="C1181"/>
+          <cell r="A1181">
+            <v>0</v>
+          </cell>
+          <cell r="B1181">
+            <v>0</v>
+          </cell>
+          <cell r="C1181">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1182">
-          <cell r="A1182"/>
-          <cell r="B1182"/>
-          <cell r="C1182"/>
+          <cell r="A1182">
+            <v>0</v>
+          </cell>
+          <cell r="B1182">
+            <v>0</v>
+          </cell>
+          <cell r="C1182">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1183">
-          <cell r="A1183"/>
-          <cell r="B1183"/>
-          <cell r="C1183"/>
+          <cell r="A1183">
+            <v>0</v>
+          </cell>
+          <cell r="B1183">
+            <v>0</v>
+          </cell>
+          <cell r="C1183">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1184">
-          <cell r="A1184"/>
-          <cell r="B1184"/>
-          <cell r="C1184"/>
+          <cell r="A1184">
+            <v>0</v>
+          </cell>
+          <cell r="B1184">
+            <v>0</v>
+          </cell>
+          <cell r="C1184">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1185">
-          <cell r="A1185"/>
-          <cell r="B1185"/>
-          <cell r="C1185"/>
+          <cell r="A1185">
+            <v>0</v>
+          </cell>
+          <cell r="B1185">
+            <v>0</v>
+          </cell>
+          <cell r="C1185">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1186">
-          <cell r="A1186"/>
-          <cell r="B1186"/>
-          <cell r="C1186"/>
+          <cell r="A1186">
+            <v>0</v>
+          </cell>
+          <cell r="B1186">
+            <v>0</v>
+          </cell>
+          <cell r="C1186">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1187">
-          <cell r="A1187"/>
-          <cell r="B1187"/>
-          <cell r="C1187"/>
+          <cell r="A1187">
+            <v>0</v>
+          </cell>
+          <cell r="B1187">
+            <v>0</v>
+          </cell>
+          <cell r="C1187">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1188">
-          <cell r="A1188"/>
-          <cell r="B1188"/>
-          <cell r="C1188"/>
+          <cell r="A1188">
+            <v>0</v>
+          </cell>
+          <cell r="B1188">
+            <v>0</v>
+          </cell>
+          <cell r="C1188">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1189">
-          <cell r="A1189"/>
-          <cell r="B1189"/>
-          <cell r="C1189"/>
+          <cell r="A1189">
+            <v>0</v>
+          </cell>
+          <cell r="B1189">
+            <v>0</v>
+          </cell>
+          <cell r="C1189">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1190">
-          <cell r="A1190"/>
-          <cell r="B1190"/>
-          <cell r="C1190"/>
+          <cell r="A1190">
+            <v>0</v>
+          </cell>
+          <cell r="B1190">
+            <v>0</v>
+          </cell>
+          <cell r="C1190">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1191">
-          <cell r="A1191"/>
-          <cell r="B1191"/>
-          <cell r="C1191"/>
+          <cell r="A1191">
+            <v>0</v>
+          </cell>
+          <cell r="B1191">
+            <v>0</v>
+          </cell>
+          <cell r="C1191">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1192">
-          <cell r="A1192"/>
-          <cell r="B1192"/>
-          <cell r="C1192"/>
+          <cell r="A1192">
+            <v>0</v>
+          </cell>
+          <cell r="B1192">
+            <v>0</v>
+          </cell>
+          <cell r="C1192">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1193">
-          <cell r="A1193"/>
-          <cell r="B1193"/>
-          <cell r="C1193"/>
+          <cell r="A1193">
+            <v>0</v>
+          </cell>
+          <cell r="B1193">
+            <v>0</v>
+          </cell>
+          <cell r="C1193">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1194">
-          <cell r="A1194"/>
-          <cell r="B1194"/>
-          <cell r="C1194"/>
+          <cell r="A1194">
+            <v>0</v>
+          </cell>
+          <cell r="B1194">
+            <v>0</v>
+          </cell>
+          <cell r="C1194">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1195">
-          <cell r="A1195"/>
-          <cell r="B1195"/>
-          <cell r="C1195"/>
+          <cell r="A1195">
+            <v>0</v>
+          </cell>
+          <cell r="B1195">
+            <v>0</v>
+          </cell>
+          <cell r="C1195">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1196">
-          <cell r="A1196"/>
-          <cell r="B1196"/>
-          <cell r="C1196"/>
+          <cell r="A1196">
+            <v>0</v>
+          </cell>
+          <cell r="B1196">
+            <v>0</v>
+          </cell>
+          <cell r="C1196">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1197">
-          <cell r="A1197"/>
-          <cell r="B1197"/>
-          <cell r="C1197"/>
+          <cell r="A1197">
+            <v>0</v>
+          </cell>
+          <cell r="B1197">
+            <v>0</v>
+          </cell>
+          <cell r="C1197">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1198">
-          <cell r="A1198"/>
-          <cell r="B1198"/>
-          <cell r="C1198"/>
+          <cell r="A1198">
+            <v>0</v>
+          </cell>
+          <cell r="B1198">
+            <v>0</v>
+          </cell>
+          <cell r="C1198">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1199">
-          <cell r="A1199"/>
-          <cell r="B1199"/>
-          <cell r="C1199"/>
+          <cell r="A1199">
+            <v>0</v>
+          </cell>
+          <cell r="B1199">
+            <v>0</v>
+          </cell>
+          <cell r="C1199">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1200">
-          <cell r="A1200"/>
-          <cell r="B1200"/>
-          <cell r="C1200"/>
+          <cell r="A1200">
+            <v>0</v>
+          </cell>
+          <cell r="B1200">
+            <v>0</v>
+          </cell>
+          <cell r="C1200">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1201">
-          <cell r="A1201"/>
-          <cell r="B1201"/>
-          <cell r="C1201"/>
+          <cell r="A1201">
+            <v>0</v>
+          </cell>
+          <cell r="B1201">
+            <v>0</v>
+          </cell>
+          <cell r="C1201">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1202">
-          <cell r="A1202"/>
-          <cell r="B1202"/>
-          <cell r="C1202"/>
+          <cell r="A1202">
+            <v>0</v>
+          </cell>
+          <cell r="B1202">
+            <v>0</v>
+          </cell>
+          <cell r="C1202">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1203">
-          <cell r="A1203"/>
-          <cell r="B1203"/>
-          <cell r="C1203"/>
+          <cell r="A1203">
+            <v>0</v>
+          </cell>
+          <cell r="B1203">
+            <v>0</v>
+          </cell>
+          <cell r="C1203">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1204">
-          <cell r="A1204"/>
-          <cell r="B1204"/>
-          <cell r="C1204"/>
+          <cell r="A1204">
+            <v>0</v>
+          </cell>
+          <cell r="B1204">
+            <v>0</v>
+          </cell>
+          <cell r="C1204">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1205">
-          <cell r="A1205"/>
-          <cell r="B1205"/>
-          <cell r="C1205"/>
+          <cell r="A1205">
+            <v>0</v>
+          </cell>
+          <cell r="B1205">
+            <v>0</v>
+          </cell>
+          <cell r="C1205">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1206">
-          <cell r="A1206"/>
-          <cell r="B1206"/>
-          <cell r="C1206"/>
+          <cell r="A1206">
+            <v>0</v>
+          </cell>
+          <cell r="B1206">
+            <v>0</v>
+          </cell>
+          <cell r="C1206">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1207">
-          <cell r="A1207"/>
-          <cell r="B1207"/>
-          <cell r="C1207"/>
+          <cell r="A1207">
+            <v>0</v>
+          </cell>
+          <cell r="B1207">
+            <v>0</v>
+          </cell>
+          <cell r="C1207">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1208">
-          <cell r="A1208"/>
-          <cell r="B1208"/>
-          <cell r="C1208"/>
+          <cell r="A1208">
+            <v>0</v>
+          </cell>
+          <cell r="B1208">
+            <v>0</v>
+          </cell>
+          <cell r="C1208">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1209">
-          <cell r="A1209"/>
-          <cell r="B1209"/>
-          <cell r="C1209"/>
+          <cell r="A1209">
+            <v>0</v>
+          </cell>
+          <cell r="B1209">
+            <v>0</v>
+          </cell>
+          <cell r="C1209">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1210">
-          <cell r="A1210"/>
-          <cell r="B1210"/>
-          <cell r="C1210"/>
+          <cell r="A1210">
+            <v>0</v>
+          </cell>
+          <cell r="B1210">
+            <v>0</v>
+          </cell>
+          <cell r="C1210">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1211">
-          <cell r="A1211"/>
-          <cell r="B1211"/>
-          <cell r="C1211"/>
+          <cell r="A1211">
+            <v>0</v>
+          </cell>
+          <cell r="B1211">
+            <v>0</v>
+          </cell>
+          <cell r="C1211">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1212">
-          <cell r="A1212"/>
-          <cell r="B1212"/>
-          <cell r="C1212"/>
+          <cell r="A1212">
+            <v>0</v>
+          </cell>
+          <cell r="B1212">
+            <v>0</v>
+          </cell>
+          <cell r="C1212">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1213">
-          <cell r="A1213"/>
-          <cell r="B1213"/>
-          <cell r="C1213"/>
+          <cell r="A1213">
+            <v>0</v>
+          </cell>
+          <cell r="B1213">
+            <v>0</v>
+          </cell>
+          <cell r="C1213">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1214">
-          <cell r="A1214"/>
-          <cell r="B1214"/>
-          <cell r="C1214"/>
+          <cell r="A1214">
+            <v>0</v>
+          </cell>
+          <cell r="B1214">
+            <v>0</v>
+          </cell>
+          <cell r="C1214">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1215">
-          <cell r="A1215"/>
-          <cell r="B1215"/>
-          <cell r="C1215"/>
+          <cell r="A1215">
+            <v>0</v>
+          </cell>
+          <cell r="B1215">
+            <v>0</v>
+          </cell>
+          <cell r="C1215">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1216">
-          <cell r="A1216"/>
-          <cell r="B1216"/>
-          <cell r="C1216"/>
+          <cell r="A1216">
+            <v>0</v>
+          </cell>
+          <cell r="B1216">
+            <v>0</v>
+          </cell>
+          <cell r="C1216">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1217">
-          <cell r="A1217"/>
-          <cell r="B1217"/>
-          <cell r="C1217"/>
+          <cell r="A1217">
+            <v>0</v>
+          </cell>
+          <cell r="B1217">
+            <v>0</v>
+          </cell>
+          <cell r="C1217">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1218">
-          <cell r="A1218"/>
-          <cell r="B1218"/>
-          <cell r="C1218"/>
+          <cell r="A1218">
+            <v>0</v>
+          </cell>
+          <cell r="B1218">
+            <v>0</v>
+          </cell>
+          <cell r="C1218">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1219">
-          <cell r="A1219"/>
-          <cell r="B1219"/>
-          <cell r="C1219"/>
+          <cell r="A1219">
+            <v>0</v>
+          </cell>
+          <cell r="B1219">
+            <v>0</v>
+          </cell>
+          <cell r="C1219">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1220">
-          <cell r="A1220"/>
-          <cell r="B1220"/>
-          <cell r="C1220"/>
+          <cell r="A1220">
+            <v>0</v>
+          </cell>
+          <cell r="B1220">
+            <v>0</v>
+          </cell>
+          <cell r="C1220">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1221">
-          <cell r="A1221"/>
-          <cell r="B1221"/>
-          <cell r="C1221"/>
+          <cell r="A1221">
+            <v>0</v>
+          </cell>
+          <cell r="B1221">
+            <v>0</v>
+          </cell>
+          <cell r="C1221">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1222">
-          <cell r="A1222"/>
-          <cell r="B1222"/>
-          <cell r="C1222"/>
+          <cell r="A1222">
+            <v>0</v>
+          </cell>
+          <cell r="B1222">
+            <v>0</v>
+          </cell>
+          <cell r="C1222">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1223">
-          <cell r="A1223"/>
-          <cell r="B1223"/>
-          <cell r="C1223"/>
+          <cell r="A1223">
+            <v>0</v>
+          </cell>
+          <cell r="B1223">
+            <v>0</v>
+          </cell>
+          <cell r="C1223">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1224">
-          <cell r="A1224"/>
-          <cell r="B1224"/>
-          <cell r="C1224"/>
+          <cell r="A1224">
+            <v>0</v>
+          </cell>
+          <cell r="B1224">
+            <v>0</v>
+          </cell>
+          <cell r="C1224">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1225">
-          <cell r="A1225"/>
-          <cell r="B1225"/>
-          <cell r="C1225"/>
+          <cell r="A1225">
+            <v>0</v>
+          </cell>
+          <cell r="B1225">
+            <v>0</v>
+          </cell>
+          <cell r="C1225">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1226">
-          <cell r="A1226"/>
-          <cell r="B1226"/>
-          <cell r="C1226"/>
+          <cell r="A1226">
+            <v>0</v>
+          </cell>
+          <cell r="B1226">
+            <v>0</v>
+          </cell>
+          <cell r="C1226">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1227">
-          <cell r="A1227"/>
-          <cell r="B1227"/>
-          <cell r="C1227"/>
+          <cell r="A1227">
+            <v>0</v>
+          </cell>
+          <cell r="B1227">
+            <v>0</v>
+          </cell>
+          <cell r="C1227">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1228">
-          <cell r="A1228"/>
-          <cell r="B1228"/>
-          <cell r="C1228"/>
+          <cell r="A1228">
+            <v>0</v>
+          </cell>
+          <cell r="B1228">
+            <v>0</v>
+          </cell>
+          <cell r="C1228">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1229">
-          <cell r="A1229"/>
-          <cell r="B1229"/>
-          <cell r="C1229"/>
+          <cell r="A1229">
+            <v>0</v>
+          </cell>
+          <cell r="B1229">
+            <v>0</v>
+          </cell>
+          <cell r="C1229">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1230">
-          <cell r="A1230"/>
-          <cell r="B1230"/>
-          <cell r="C1230"/>
+          <cell r="A1230">
+            <v>0</v>
+          </cell>
+          <cell r="B1230">
+            <v>0</v>
+          </cell>
+          <cell r="C1230">
+            <v>0</v>
+          </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2"/>
@@ -15221,20 +18437,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I899"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A883" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D915" sqref="D915"/>
+      <selection pane="bottomLeft" activeCell="G906" sqref="G906"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.88671875" style="25" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" style="25" customWidth="1"/>
     <col min="3" max="3" width="32" style="9" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="7.88671875" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.88671875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="12" customFormat="1">
@@ -34220,20 +37436,20 @@
   <dimension ref="A1:J646"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A586" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I336" sqref="I336"/>
+      <pane ySplit="1" topLeftCell="A583" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B601" sqref="B601"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.88671875" style="50" customWidth="1"/>
-    <col min="3" max="3" width="52.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="7.88671875" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="11.44140625" style="1"/>
+    <col min="2" max="2" width="19.85546875" style="50" customWidth="1"/>
+    <col min="3" max="3" width="52.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="12" customFormat="1">
@@ -47745,15 +50961,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1230"/>
   <sheetViews>
-    <sheetView topLeftCell="A723" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B723" sqref="B723"/>
+    <sheetView tabSelected="1" topLeftCell="A717" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B737" sqref="B737"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" style="35" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="77" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" style="39" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="39" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">

--- a/Entradas y Salidas.xlsx
+++ b/Entradas y Salidas.xlsx
@@ -56464,8 +56464,8 @@
   <dimension ref="A1:I971"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A538" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A550" sqref="A550"/>
+      <pane ySplit="1" topLeftCell="A598" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A610" sqref="A610"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
